--- a/analysis/data/lying_data.xlsx
+++ b/analysis/data/lying_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2025\Spring 2025\INFO 698 - Capstone\GitHub Repo\misinformation-study\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265D01D1-80EE-44CD-BE10-36543E72C5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A44CA5A-6001-4FA2-8047-6D9AB8955E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9629" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9629" uniqueCount="1446">
   <si>
     <t>GROUP</t>
   </si>
@@ -4347,6 +4347,84 @@
   </si>
   <si>
     <t>QQ1_WORD_COUNT_BEFORE</t>
+  </si>
+  <si>
+    <t>QQ1 2</t>
+  </si>
+  <si>
+    <t>QQ1_CHARACTER_COUNT3</t>
+  </si>
+  <si>
+    <t>QQ24</t>
+  </si>
+  <si>
+    <t>QQ2_CHARACTER_COUNT5</t>
+  </si>
+  <si>
+    <t>QQ36</t>
+  </si>
+  <si>
+    <t>QQ3_CHARACTER_COUNT7</t>
+  </si>
+  <si>
+    <t>First 10 Items _18</t>
+  </si>
+  <si>
+    <t>First 10 Items _29</t>
+  </si>
+  <si>
+    <t>First 10 Items _310</t>
+  </si>
+  <si>
+    <t>First 10 Items _411</t>
+  </si>
+  <si>
+    <t>First 10 Items _512</t>
+  </si>
+  <si>
+    <t>First 10 Items _613</t>
+  </si>
+  <si>
+    <t>First 10 Items _714</t>
+  </si>
+  <si>
+    <t>First 10 Items _815</t>
+  </si>
+  <si>
+    <t>First 10 Items _916</t>
+  </si>
+  <si>
+    <t>First 10 Items _1017</t>
+  </si>
+  <si>
+    <t>Last 10 Items _118</t>
+  </si>
+  <si>
+    <t>Last 10 Items _219</t>
+  </si>
+  <si>
+    <t>Last 10 Items _320</t>
+  </si>
+  <si>
+    <t>Last 10 Items _421</t>
+  </si>
+  <si>
+    <t>Last 10 Items _522</t>
+  </si>
+  <si>
+    <t>Last 10 Items _623</t>
+  </si>
+  <si>
+    <t>Last 10 Items _724</t>
+  </si>
+  <si>
+    <t>Last 10 Items _825</t>
+  </si>
+  <si>
+    <t>Last 10 Items _926</t>
+  </si>
+  <si>
+    <t>Last 10 Items _1027</t>
   </si>
 </sst>
 </file>
@@ -4815,7 +4893,2356 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="122">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAE2D5"/>
+          <bgColor rgb="FFFAE2D5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4826,6 +7253,167 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2C848D5-A266-46C6-A87A-C4B9154CB138}" name="Table1" displayName="Table1" ref="A1:DP101" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:DP101" xr:uid="{C2C848D5-A266-46C6-A87A-C4B9154CB138}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Control Group (Audio)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="120">
+    <tableColumn id="1" xr3:uid="{4BEAC8A5-9226-4BA2-91E7-14E9B47D3E09}" name="PARTICIPANT ID" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{EF4C3F5A-7852-4C02-8541-AEC12D919BF3}" name="GROUP" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{5AD7D02F-4433-4BB6-AB10-175ABD89725D}" name="Age" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{C3944AFF-CB17-4A39-B7B2-9AA8B7C0DF15}" name="Gender " dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{A672E2D8-B2B0-4BA8-BCEA-99F4B128B172}" name="Citizenship" dataDxfId="117"/>
+    <tableColumn id="6" xr3:uid="{8C6C4CF7-FD68-40C3-988F-97DABD2DD6B6}" name="Ethnicity" dataDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{2745B3D0-02AF-4EAA-A4BD-D7F8C66A6852}" name="Ethnicity_6_TEXT" dataDxfId="115"/>
+    <tableColumn id="8" xr3:uid="{FFC7D8DF-54AF-4BFD-9F93-111C0A4C9AA9}" name="Religion" dataDxfId="114"/>
+    <tableColumn id="9" xr3:uid="{A8935703-B1F9-44EA-8D55-FEC093ED243E}" name="Religion_11_TEXT" dataDxfId="113"/>
+    <tableColumn id="10" xr3:uid="{F5EC22AC-F6C1-4F89-84BF-3AB7E60FF2C5}" name="Politics " dataDxfId="112"/>
+    <tableColumn id="11" xr3:uid="{08077061-C415-4122-ADDB-4411B80422D4}" name="Politics _5_TEXT" dataDxfId="111"/>
+    <tableColumn id="12" xr3:uid="{046C78C3-B246-426E-825C-B67991456A64}" name="Platforms" dataDxfId="110"/>
+    <tableColumn id="13" xr3:uid="{1F5F6CB3-1C53-4D44-B093-875E28D7B87F}" name="Platforms_6_TEXT" dataDxfId="109"/>
+    <tableColumn id="14" xr3:uid="{8B0A6479-8F36-4D80-9467-2E6C877E9B36}" name="Time Spent " dataDxfId="108"/>
+    <tableColumn id="15" xr3:uid="{AA4C553D-9C80-4F2D-B566-432D3139CD6B}" name="Utility" dataDxfId="107"/>
+    <tableColumn id="16" xr3:uid="{52CAEF06-4684-4382-A692-689D053742B1}" name="Frequency" dataDxfId="106"/>
+    <tableColumn id="17" xr3:uid="{23133F51-3192-438A-BD8D-D404A0C88E76}" name="Top 3 Entertainment_1" dataDxfId="105"/>
+    <tableColumn id="18" xr3:uid="{32E5C7BE-7A81-4CC5-877B-2C6A5C699E25}" name="Top 3 Entertainment_2" dataDxfId="104"/>
+    <tableColumn id="19" xr3:uid="{179179B7-9860-4C35-9122-768E71B1C8BF}" name="Top 3 Entertainment_3" dataDxfId="103"/>
+    <tableColumn id="20" xr3:uid="{DC855606-9EE0-4366-A880-6410D2FE3C36}" name="Top 3 Educational _1" dataDxfId="102"/>
+    <tableColumn id="21" xr3:uid="{B37D843E-1665-43B4-9FDE-463B9202FA78}" name="Top 3 Educational _2" dataDxfId="101"/>
+    <tableColumn id="22" xr3:uid="{7AFF2AAD-C91D-42A8-A7CA-4AAFB4A31AA7}" name="Top 3 Educational _3" dataDxfId="100"/>
+    <tableColumn id="23" xr3:uid="{97679BA8-D60F-47B3-9D18-24E8B1591F63}" name="Ad-Free" dataDxfId="99"/>
+    <tableColumn id="24" xr3:uid="{0A168C1A-0CB2-4F81-A476-9D1DA064A3DB}" name="Ad Skipping " dataDxfId="98"/>
+    <tableColumn id="25" xr3:uid="{B0A972B6-2DF8-4C1F-AED4-97F270F0A97C}" name="Recommendation" dataDxfId="97"/>
+    <tableColumn id="26" xr3:uid="{5268196F-F2A5-4714-A739-3A125662C4EF}" name="QQ1 " dataDxfId="96"/>
+    <tableColumn id="27" xr3:uid="{AACD74D8-EC60-4B39-A24D-09BD8B5DB799}" name="QQ1_WORD_COUNT_BEFORE" dataDxfId="95">
+      <calculatedColumnFormula>IF(LEN(TRIM(Z2))=0, 0, LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Z2, "/", " "), "-", " "), "  ", " "))) - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Z2, "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{CC9FF84B-7093-4D0E-ACB8-FDD03E8EF16A}" name="QQ1_CHARACTER_COUNT" dataDxfId="94">
+      <calculatedColumnFormula>LEN(Z2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" xr3:uid="{FEE4BCDD-A2C8-4656-9142-5AF890258321}" name="QQ2" dataDxfId="93"/>
+    <tableColumn id="30" xr3:uid="{FF5F779A-A64E-4CB1-B65B-5CA32A55F251}" name="QQ2_CHARACTER_COUNT" dataDxfId="92">
+      <calculatedColumnFormula>LEN(AC2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="31" xr3:uid="{FCAE6D3E-6924-424E-82DC-DA1FD2269340}" name="QQ3" dataDxfId="91"/>
+    <tableColumn id="32" xr3:uid="{ECD1DCF8-19CB-47A7-88FF-807619705842}" name="QQ3_CHARACTER_COUNT" dataDxfId="90">
+      <calculatedColumnFormula>LEN(AE2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" xr3:uid="{44BE72B4-0428-49A0-A9B7-BD7E5FEAE33D}" name="QQ3_TYPE_OF_LIE" dataDxfId="89"/>
+    <tableColumn id="34" xr3:uid="{E4BF8E40-1C1A-47FA-9619-D7EB54B8DB08}" name="QQ1 2" dataDxfId="88"/>
+    <tableColumn id="35" xr3:uid="{51242746-597E-450A-8250-ADE59D980592}" name="CHANGED_VIEWS_QQ1" dataDxfId="87"/>
+    <tableColumn id="36" xr3:uid="{5A5B81F5-6563-44EA-8DB7-B9B4ABA28ED3}" name="CHANGED_LENGTH_QQ1" dataDxfId="86"/>
+    <tableColumn id="37" xr3:uid="{46A277CE-6B4C-4496-A820-733A77E959E9}" name="QQ1_CHARACTER_COUNT3" dataDxfId="85">
+      <calculatedColumnFormula>LEN(AH2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="38" xr3:uid="{00A88F16-24F8-49C7-8B6C-BAF6A9A8B609}" name="QQ1_WORD_COUNT_AFTER" dataDxfId="84">
+      <calculatedColumnFormula>IF(LEN(TRIM(AH2))=0, 0, LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH2, "/", " "), "-", " "), "  ", " "))) - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH2, "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="39" xr3:uid="{D2CFB1E9-9B58-46A4-864B-01E5505E0A24}" name="QQ1_DIFFERENCE_WORD_COUNT" dataDxfId="83">
+      <calculatedColumnFormula>AL2-AA2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="40" xr3:uid="{8C461472-482A-4741-9B6D-5FFFB987CD10}" name="QQ24" dataDxfId="82"/>
+    <tableColumn id="41" xr3:uid="{ACB016F6-819F-41AA-A2F2-D5079B2E9AAC}" name="CHANGED_VIEWS_QQ2" dataDxfId="81"/>
+    <tableColumn id="42" xr3:uid="{3F80A475-1932-4F86-949C-C885FD20CD25}" name="CHANGED_LENGTH_QQ2" dataDxfId="80"/>
+    <tableColumn id="43" xr3:uid="{67924914-4FC3-43C4-B317-D213ED3B7122}" name="QQ2_CHARACTER_COUNT5" dataDxfId="79">
+      <calculatedColumnFormula>LEN(AN2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="44" xr3:uid="{8CD4B191-5EB5-489A-B428-64D7B622CABA}" name="QQ36" dataDxfId="78"/>
+    <tableColumn id="45" xr3:uid="{A3B7A7AD-47E6-41BC-A728-B51182188F6D}" name="QQ3_LIE_2_SUMMARY" dataDxfId="77"/>
+    <tableColumn id="46" xr3:uid="{0AE9B888-FE63-429D-880E-B2FEEA510161}" name="QQ3_CHARACTER_COUNT7" dataDxfId="76">
+      <calculatedColumnFormula>LEN(AR2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="47" xr3:uid="{11CB5346-14BF-4D9F-AAFE-36C0B0FC0B77}" name="QQ1_CHARACTER_COUNT_CHANGE" dataDxfId="75">
+      <calculatedColumnFormula>(AK2-AB2)/AB2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="48" xr3:uid="{2C6DBD2E-6D7F-463F-9E45-C678275E5D7D}" name="QQ2_CHARACTER_COUNT_CHANGE" dataDxfId="74">
+      <calculatedColumnFormula>(AQ2-AD2)/AD2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="49" xr3:uid="{955BA9F3-115D-48D1-8479-E7404B6D4877}" name="QQ3_CHARACTER_COUNT_CHANGE" dataDxfId="73">
+      <calculatedColumnFormula>(AT2-AF2)/AF2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="50" xr3:uid="{52875AA7-BA55-46BB-B509-11A07AE571DF}" name="First Seven Items _1" dataDxfId="72"/>
+    <tableColumn id="51" xr3:uid="{C3E395C6-FA88-421D-964C-A367691119CA}" name="First Seven Items _2" dataDxfId="71"/>
+    <tableColumn id="52" xr3:uid="{57476F5A-91F8-486B-AD0D-CB2878B2596F}" name="First Seven Items _3" dataDxfId="70"/>
+    <tableColumn id="53" xr3:uid="{FFF1781E-3BDD-46F5-BE0D-9907D16FBBB5}" name="First Seven Items _4" dataDxfId="69"/>
+    <tableColumn id="54" xr3:uid="{7D4278ED-E007-413D-910A-5B9118EA06E9}" name="First Seven Items _5" dataDxfId="68"/>
+    <tableColumn id="55" xr3:uid="{5FF1B8E0-11B3-4878-9DE3-C922BE64D779}" name="First Seven Items _6" dataDxfId="67"/>
+    <tableColumn id="56" xr3:uid="{37F27C11-533D-45B1-8485-A661A4070B05}" name="First Seven Items _7" dataDxfId="66"/>
+    <tableColumn id="57" xr3:uid="{9BBED08D-654E-4186-B9E0-02D5BD6DF031}" name="Last Eight Items _1" dataDxfId="65"/>
+    <tableColumn id="58" xr3:uid="{AB5F6026-CE0C-4FBE-B1E4-C0EA0D68AB69}" name="Last Eight Items _2" dataDxfId="64"/>
+    <tableColumn id="59" xr3:uid="{E5777DF9-3867-40CC-9D17-A4BFE08E3385}" name="Last Eight Items _3" dataDxfId="63"/>
+    <tableColumn id="60" xr3:uid="{98A6A1A5-B21D-4EEE-B7F4-28695FDD1EA7}" name="Last Eight Items _4" dataDxfId="62"/>
+    <tableColumn id="61" xr3:uid="{C726EF96-0795-4D73-91D0-0D2DA7E6324D}" name="Last Eight Items _5" dataDxfId="61"/>
+    <tableColumn id="62" xr3:uid="{64DE2DE7-91FC-4CA4-AC29-6ED4D28486EC}" name="Last Eight Items _6" dataDxfId="60"/>
+    <tableColumn id="63" xr3:uid="{EE01A945-CBAC-4806-9223-360E61A55D53}" name="Last Eight Items _7" dataDxfId="59"/>
+    <tableColumn id="64" xr3:uid="{1D250565-C1DC-4501-BA94-F4989086BB47}" name="GCBS PRE SCORE" dataDxfId="58"/>
+    <tableColumn id="65" xr3:uid="{E1DCB0A1-CD04-4844-A1B5-F92862038714}" name="GCBS POST SCORE" dataDxfId="57"/>
+    <tableColumn id="66" xr3:uid="{6F9C5825-9528-4B1E-B5E9-0968FA5F1C59}" name="PRE &amp; POST SCORE" dataDxfId="56">
+      <calculatedColumnFormula>SUM(BL2:BM2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="67" xr3:uid="{64B44018-7B9B-49C9-B47A-10EE07477828}" name="GCBS CHANGE" dataDxfId="55"/>
+    <tableColumn id="68" xr3:uid="{D05EBDF8-6F23-4768-BEC7-290580234D78}" name="First 10 Items _1" dataDxfId="54"/>
+    <tableColumn id="69" xr3:uid="{78FDF35D-A2C9-4F20-ADF1-8F409D16BAC2}" name="First 10 Items _2" dataDxfId="53"/>
+    <tableColumn id="70" xr3:uid="{3849069E-7D74-4A6B-8514-EA1F6C5D9407}" name="First 10 Items _3" dataDxfId="52"/>
+    <tableColumn id="71" xr3:uid="{EB8BD901-B7EE-4753-A93F-7D1B2A8AB05D}" name="First 10 Items _4" dataDxfId="51"/>
+    <tableColumn id="72" xr3:uid="{0B4471B2-A1EC-445E-A221-185AC510DE69}" name="First 10 Items _5" dataDxfId="50"/>
+    <tableColumn id="73" xr3:uid="{A7A45CB3-2699-4173-8356-8CFCC9C26945}" name="First 10 Items _6" dataDxfId="49"/>
+    <tableColumn id="74" xr3:uid="{56639208-C651-4E19-B75F-5BC04D9F277E}" name="First 10 Items _7" dataDxfId="48"/>
+    <tableColumn id="75" xr3:uid="{ED007C6C-8D69-44B2-A49B-6215618A6FF0}" name="First 10 Items _8" dataDxfId="47"/>
+    <tableColumn id="76" xr3:uid="{3D93DA7D-B0AB-4BC3-8323-29758CDC5BF2}" name="First 10 Items _9" dataDxfId="46"/>
+    <tableColumn id="77" xr3:uid="{1BB8D791-37C4-4EC3-9130-1CC37FCB148A}" name="First 10 Items _10" dataDxfId="45"/>
+    <tableColumn id="78" xr3:uid="{0BBACBBC-0134-4580-A6EC-7BD330C8D329}" name="Last 10 Items _1" dataDxfId="44"/>
+    <tableColumn id="79" xr3:uid="{F6B2BFAC-DA1E-4218-8CC4-0C0C543F8F52}" name="Last 10 Items _2" dataDxfId="43"/>
+    <tableColumn id="80" xr3:uid="{40A07F04-9844-4C46-86F1-C428831CCC80}" name="Last 10 Items _3" dataDxfId="42"/>
+    <tableColumn id="81" xr3:uid="{571322F0-B47B-449A-AE94-4457E5840F95}" name="Last 10 Items _4" dataDxfId="41"/>
+    <tableColumn id="82" xr3:uid="{FF7D8433-D3E8-48A2-A2B1-4308E827B752}" name="Last 10 Items _5" dataDxfId="40"/>
+    <tableColumn id="83" xr3:uid="{252891B2-27EE-4339-95DE-2297A9A9A821}" name="Last 10 Items _6" dataDxfId="39"/>
+    <tableColumn id="84" xr3:uid="{5EA6DBB7-21AF-4978-A3FE-EE335C2DB1F8}" name="Last 10 Items _7" dataDxfId="38"/>
+    <tableColumn id="85" xr3:uid="{E735C487-ACBB-404D-A446-33BAC978BC08}" name="Last 10 Items _8" dataDxfId="37"/>
+    <tableColumn id="86" xr3:uid="{F910D3B3-504C-4FBA-9167-582D710FE80D}" name="Last 10 Items _9" dataDxfId="36"/>
+    <tableColumn id="87" xr3:uid="{CB09DEEB-33CA-488F-A988-66B6AFCA2741}" name="Last 10 Items _10" dataDxfId="35"/>
+    <tableColumn id="88" xr3:uid="{A0A76B7C-653F-4BCE-A222-FE7642536DCF}" name="MIST-20 PRE SCORE" dataDxfId="34"/>
+    <tableColumn id="89" xr3:uid="{D7932BF4-CEB8-47A3-A17B-91324F158C4F}" name="MIST-20 POST SCORE" dataDxfId="33"/>
+    <tableColumn id="90" xr3:uid="{9020B670-7601-4440-A455-A98979D9CB17}" name="MIST-20 CHANGE" dataDxfId="32"/>
+    <tableColumn id="91" xr3:uid="{CECB8A50-2F5F-4BAF-8170-D5E92CE3ACAC}" name="First 10 Items _18" dataDxfId="31"/>
+    <tableColumn id="92" xr3:uid="{55EFA626-FDC6-4F77-9551-DB48C565E325}" name="First 10 Items _29" dataDxfId="30"/>
+    <tableColumn id="93" xr3:uid="{D3002C40-62E5-4BDD-AC27-70227AF43CC2}" name="First 10 Items _310" dataDxfId="29"/>
+    <tableColumn id="94" xr3:uid="{4E55AC34-1AED-430E-8A82-86F322574543}" name="First 10 Items _411" dataDxfId="28"/>
+    <tableColumn id="95" xr3:uid="{86F212E2-707D-483A-BE69-EA925F6695A5}" name="First 10 Items _512" dataDxfId="27"/>
+    <tableColumn id="96" xr3:uid="{AD80D84C-8AE1-4AD4-908B-4341AE1BA996}" name="First 10 Items _613" dataDxfId="26"/>
+    <tableColumn id="97" xr3:uid="{7A0331EF-84F9-470D-A941-40A96FFAA5FF}" name="First 10 Items _714" dataDxfId="25"/>
+    <tableColumn id="98" xr3:uid="{E09E2D3C-6845-4205-BF29-282AF853D485}" name="First 10 Items _815" dataDxfId="24"/>
+    <tableColumn id="99" xr3:uid="{AAA88334-9BE2-4DAD-AAFB-A78EF20FB5B8}" name="First 10 Items _916" dataDxfId="23"/>
+    <tableColumn id="100" xr3:uid="{CD64C1BC-E9C3-46BB-B5C5-7614D35C354E}" name="First 10 Items _1017" dataDxfId="22"/>
+    <tableColumn id="101" xr3:uid="{CB8E04AE-7A3E-4496-B191-43B8015D1EA6}" name="Last 10 Items _118" dataDxfId="21"/>
+    <tableColumn id="102" xr3:uid="{C05EA660-6063-4DC8-BDAE-4A69C79843B2}" name="Last 10 Items _219" dataDxfId="20"/>
+    <tableColumn id="103" xr3:uid="{2B0C9DA6-6E2F-4DD8-93FB-C66090EACACA}" name="Last 10 Items _320" dataDxfId="19"/>
+    <tableColumn id="104" xr3:uid="{54652524-2CE9-4BD0-804F-7E97AB0C74F8}" name="Last 10 Items _421" dataDxfId="18"/>
+    <tableColumn id="105" xr3:uid="{6109BB98-1F79-4C5D-BB48-694BE0C63512}" name="Last 10 Items _522" dataDxfId="17"/>
+    <tableColumn id="106" xr3:uid="{054AE5AC-09DB-45C8-90D2-60236DFA98DF}" name="Last 10 Items _623" dataDxfId="16"/>
+    <tableColumn id="107" xr3:uid="{2931BB5E-9A5F-42FC-990B-C0CA7EB4F892}" name="Last 10 Items _724" dataDxfId="15"/>
+    <tableColumn id="108" xr3:uid="{DA38CB37-7A87-47B7-ADC2-CA17CB80D54A}" name="Last 10 Items _825" dataDxfId="14"/>
+    <tableColumn id="109" xr3:uid="{08E9BA4C-8938-4019-BBB8-8A8C7DDB3CA6}" name="Last 10 Items _926" dataDxfId="13"/>
+    <tableColumn id="110" xr3:uid="{546E32DB-1E36-4255-9DF1-028A978E009E}" name="Last 10 Items _1027" dataDxfId="12"/>
+    <tableColumn id="111" xr3:uid="{67BB6F01-8C7D-4B97-9885-C417D3638624}" name="ITMIST PRE SCORE" dataDxfId="11"/>
+    <tableColumn id="112" xr3:uid="{E181337A-2700-48FA-B1EA-C4209E0A7EE3}" name="ITMIST POST SCORE" dataDxfId="10"/>
+    <tableColumn id="113" xr3:uid="{420DFEA7-73B7-484F-89B2-156E45CA05F8}" name="ITMIST CHANGE" dataDxfId="9"/>
+    <tableColumn id="114" xr3:uid="{CC831C4F-FCD4-43DA-8227-B68C9414B21C}" name="1" dataDxfId="8"/>
+    <tableColumn id="115" xr3:uid="{5B964F72-8241-49D4-9725-A6A24FF35745}" name="2" dataDxfId="7"/>
+    <tableColumn id="116" xr3:uid="{8A74599D-823F-46DE-98B0-46B21E30F711}" name="3" dataDxfId="6"/>
+    <tableColumn id="117" xr3:uid="{30DC9047-2565-4B5C-81D2-6E8ADE65B512}" name="4" dataDxfId="5"/>
+    <tableColumn id="118" xr3:uid="{7A310991-FE71-42CD-9CAC-3D74F094CC96}" name="UNDERSTANDABILITY" dataDxfId="4"/>
+    <tableColumn id="119" xr3:uid="{30953372-ED4E-4283-A4F0-0213A7983FD6}" name="SENTIMENT" dataDxfId="3"/>
+    <tableColumn id="120" xr3:uid="{02B27F51-F5A7-4D31-97F0-2F08D06F6140}" name="ADDITIONAL THOUGHTS" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5028,17 +7616,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" topLeftCell="DH91" workbookViewId="0">
+      <selection activeCell="DO109" sqref="DO109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="34.25" customWidth="1"/>
     <col min="7" max="7" width="38.5" customWidth="1"/>
     <col min="8" max="8" width="23.125" customWidth="1"/>
@@ -5050,17 +7638,14 @@
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="22.75" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="22.375" customWidth="1"/>
-    <col min="18" max="19" width="19.75" customWidth="1"/>
-    <col min="20" max="20" width="17.75" customWidth="1"/>
-    <col min="21" max="21" width="19.25" customWidth="1"/>
-    <col min="22" max="22" width="19.625" customWidth="1"/>
+    <col min="17" max="19" width="22.75" customWidth="1"/>
+    <col min="20" max="22" width="21.125" customWidth="1"/>
     <col min="23" max="23" width="22.25" customWidth="1"/>
     <col min="24" max="24" width="20.125" customWidth="1"/>
     <col min="25" max="25" width="20.625" customWidth="1"/>
     <col min="26" max="26" width="46.25" customWidth="1"/>
     <col min="27" max="27" width="33.375" customWidth="1"/>
-    <col min="28" max="28" width="22.625" style="51" customWidth="1"/>
+    <col min="28" max="28" width="27.25" style="51" customWidth="1"/>
     <col min="29" max="29" width="49.75" customWidth="1"/>
     <col min="30" max="30" width="49.75" style="51" customWidth="1"/>
     <col min="31" max="31" width="40.875" customWidth="1"/>
@@ -5068,10 +7653,13 @@
     <col min="33" max="33" width="40.875" customWidth="1"/>
     <col min="34" max="34" width="47.75" customWidth="1"/>
     <col min="35" max="36" width="38.375" customWidth="1"/>
-    <col min="37" max="39" width="27.5" style="47" customWidth="1"/>
+    <col min="37" max="37" width="28.25" style="47" customWidth="1"/>
+    <col min="38" max="38" width="28.625" style="47" customWidth="1"/>
+    <col min="39" max="39" width="34.5" style="47" customWidth="1"/>
     <col min="40" max="43" width="35.125" customWidth="1"/>
     <col min="44" max="45" width="38.375" customWidth="1"/>
-    <col min="46" max="49" width="27.375" style="51" customWidth="1"/>
+    <col min="46" max="46" width="28.25" style="51" customWidth="1"/>
+    <col min="47" max="49" width="36.25" style="51" customWidth="1"/>
     <col min="50" max="63" width="59.75" customWidth="1"/>
     <col min="64" max="64" width="22" style="31" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="23.5" style="31" bestFit="1" customWidth="1"/>
@@ -5079,9 +7667,9 @@
     <col min="67" max="67" width="18.25" style="37" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="59.75" style="33" customWidth="1"/>
     <col min="69" max="87" width="59.75" customWidth="1"/>
-    <col min="88" max="88" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="26.875" customWidth="1"/>
+    <col min="89" max="89" width="28.75" customWidth="1"/>
+    <col min="90" max="90" width="23" customWidth="1"/>
     <col min="91" max="97" width="59.75" customWidth="1"/>
     <col min="98" max="98" width="30.25" customWidth="1"/>
     <col min="99" max="99" width="34.25" customWidth="1"/>
@@ -5096,19 +7684,19 @@
     <col min="108" max="108" width="35.25" customWidth="1"/>
     <col min="109" max="109" width="41.125" customWidth="1"/>
     <col min="110" max="110" width="31.5" customWidth="1"/>
-    <col min="111" max="111" width="14.75" customWidth="1"/>
-    <col min="112" max="112" width="9.25" customWidth="1"/>
-    <col min="113" max="113" width="19.25" customWidth="1"/>
+    <col min="111" max="111" width="25.625" customWidth="1"/>
+    <col min="112" max="112" width="27.5" customWidth="1"/>
+    <col min="113" max="113" width="21.75" customWidth="1"/>
     <col min="114" max="114" width="36.25" style="10" customWidth="1"/>
     <col min="115" max="115" width="24.875" customWidth="1"/>
     <col min="116" max="116" width="31.625" customWidth="1"/>
     <col min="117" max="117" width="23.375" customWidth="1"/>
-    <col min="118" max="118" width="21.75" style="15" customWidth="1"/>
+    <col min="118" max="118" width="23" style="15" customWidth="1"/>
     <col min="119" max="119" width="17.25" style="15" customWidth="1"/>
-    <col min="120" max="120" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="10" customFormat="1" ht="72.75" thickBot="1">
+    <row r="1" spans="1:120" s="10" customFormat="1" ht="18.75" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -5209,7 +7797,7 @@
         <v>1409</v>
       </c>
       <c r="AH1" s="44" t="s">
-        <v>25</v>
+        <v>1420</v>
       </c>
       <c r="AI1" s="44" t="s">
         <v>1400</v>
@@ -5218,7 +7806,7 @@
         <v>1401</v>
       </c>
       <c r="AK1" s="45" t="s">
-        <v>1411</v>
+        <v>1421</v>
       </c>
       <c r="AL1" s="45" t="s">
         <v>1418</v>
@@ -5227,7 +7815,7 @@
         <v>1417</v>
       </c>
       <c r="AN1" s="44" t="s">
-        <v>26</v>
+        <v>1422</v>
       </c>
       <c r="AO1" s="44" t="s">
         <v>1402</v>
@@ -5236,16 +7824,16 @@
         <v>1403</v>
       </c>
       <c r="AQ1" s="45" t="s">
-        <v>1412</v>
+        <v>1423</v>
       </c>
       <c r="AR1" s="44" t="s">
-        <v>27</v>
+        <v>1424</v>
       </c>
       <c r="AS1" s="44" t="s">
         <v>1405</v>
       </c>
       <c r="AT1" s="54" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
       <c r="AU1" s="54" t="s">
         <v>1414</v>
@@ -5380,64 +7968,64 @@
         <v>67</v>
       </c>
       <c r="CM1" s="21" t="s">
-        <v>45</v>
+        <v>1426</v>
       </c>
       <c r="CN1" s="22" t="s">
-        <v>46</v>
+        <v>1427</v>
       </c>
       <c r="CO1" s="22" t="s">
-        <v>47</v>
+        <v>1428</v>
       </c>
       <c r="CP1" s="22" t="s">
-        <v>48</v>
+        <v>1429</v>
       </c>
       <c r="CQ1" s="22" t="s">
-        <v>49</v>
+        <v>1430</v>
       </c>
       <c r="CR1" s="22" t="s">
-        <v>50</v>
+        <v>1431</v>
       </c>
       <c r="CS1" s="22" t="s">
-        <v>51</v>
+        <v>1432</v>
       </c>
       <c r="CT1" s="22" t="s">
-        <v>52</v>
+        <v>1433</v>
       </c>
       <c r="CU1" s="22" t="s">
-        <v>53</v>
+        <v>1434</v>
       </c>
       <c r="CV1" s="23" t="s">
-        <v>54</v>
+        <v>1435</v>
       </c>
       <c r="CW1" s="24" t="s">
-        <v>55</v>
+        <v>1436</v>
       </c>
       <c r="CX1" s="20" t="s">
-        <v>56</v>
+        <v>1437</v>
       </c>
       <c r="CY1" s="20" t="s">
-        <v>57</v>
+        <v>1438</v>
       </c>
       <c r="CZ1" s="20" t="s">
-        <v>58</v>
+        <v>1439</v>
       </c>
       <c r="DA1" s="20" t="s">
-        <v>59</v>
+        <v>1440</v>
       </c>
       <c r="DB1" s="20" t="s">
-        <v>60</v>
+        <v>1441</v>
       </c>
       <c r="DC1" s="20" t="s">
-        <v>61</v>
+        <v>1442</v>
       </c>
       <c r="DD1" s="20" t="s">
-        <v>62</v>
+        <v>1443</v>
       </c>
       <c r="DE1" s="20" t="s">
-        <v>63</v>
+        <v>1444</v>
       </c>
       <c r="DF1" s="25" t="s">
-        <v>64</v>
+        <v>1445</v>
       </c>
       <c r="DG1" s="26" t="s">
         <v>68</v>
@@ -5470,7 +8058,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="2" spans="1:120" ht="200.25">
+    <row r="2" spans="1:120" ht="200.25" hidden="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5848,7 +8436,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="3" spans="1:120" ht="43.5">
+    <row r="3" spans="1:120" ht="43.5" hidden="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6226,7 +8814,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:120" ht="43.5">
+    <row r="4" spans="1:120" ht="43.5" hidden="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6604,7 +9192,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="157.5">
+    <row r="5" spans="1:120" ht="157.5" hidden="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6982,7 +9570,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="6" spans="1:120" ht="57.75">
+    <row r="6" spans="1:120" ht="57.75" hidden="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7360,7 +9948,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="7" spans="1:120" ht="143.25">
+    <row r="7" spans="1:120" ht="143.25" hidden="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -7738,7 +10326,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="8" spans="1:120" ht="58.5" customHeight="1">
+    <row r="8" spans="1:120" ht="58.5" hidden="1" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -8116,7 +10704,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="9" spans="1:120" ht="24.75" customHeight="1">
+    <row r="9" spans="1:120" ht="24.75" hidden="1" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -8494,7 +11082,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="10" spans="1:120" ht="86.25">
+    <row r="10" spans="1:120" ht="86.25" hidden="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -8872,7 +11460,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="11" spans="1:120" ht="129">
+    <row r="11" spans="1:120" ht="129" hidden="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -9250,7 +11838,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="12" spans="1:120" ht="43.5">
+    <row r="12" spans="1:120" ht="43.5" hidden="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -9628,7 +12216,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="13" spans="1:120" ht="57.75">
+    <row r="13" spans="1:120" ht="57.75" hidden="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -10006,7 +12594,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="14" spans="1:120" ht="143.25">
+    <row r="14" spans="1:120" ht="143.25" hidden="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -10384,7 +12972,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:120" ht="100.5">
+    <row r="15" spans="1:120" ht="100.5" hidden="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -10762,7 +13350,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="16" spans="1:120" ht="57.75">
+    <row r="16" spans="1:120" ht="57.75" hidden="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -11140,7 +13728,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="17" spans="1:120" ht="105.75" customHeight="1">
+    <row r="17" spans="1:120" ht="105.75" hidden="1" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -11518,7 +14106,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="18" spans="1:120" ht="127.5" customHeight="1">
+    <row r="18" spans="1:120" ht="127.5" hidden="1" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -12274,7 +14862,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="67.900000000000006" customHeight="1">
+    <row r="20" spans="1:120" ht="67.900000000000006" hidden="1" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -12652,7 +15240,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="21" spans="1:120" ht="72">
+    <row r="21" spans="1:120" ht="72" hidden="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -13030,7 +15618,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="22" spans="1:120" ht="114.75">
+    <row r="22" spans="1:120" ht="114.75" hidden="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -13408,7 +15996,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="23" spans="1:120" ht="86.25">
+    <row r="23" spans="1:120" ht="86.25" hidden="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -14920,7 +17508,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="27" spans="1:120" ht="57.75">
+    <row r="27" spans="1:120" ht="57.75" hidden="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -15298,7 +17886,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="28" spans="1:120" ht="100.5">
+    <row r="28" spans="1:120" ht="100.5" hidden="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -16054,7 +18642,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="30" spans="1:120" ht="114.75">
+    <row r="30" spans="1:120" ht="114.75" hidden="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -16432,7 +19020,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="31" spans="1:120" ht="86.25">
+    <row r="31" spans="1:120" ht="86.25" hidden="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -16810,7 +19398,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="32" spans="1:120" ht="43.5">
+    <row r="32" spans="1:120" ht="43.5" hidden="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -17188,7 +19776,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="33" spans="1:120" ht="129">
+    <row r="33" spans="1:120" ht="129" hidden="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -17566,7 +20154,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="34" spans="1:120" ht="72">
+    <row r="34" spans="1:120" ht="72" hidden="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -17944,7 +20532,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="35" spans="1:120" ht="43.5">
+    <row r="35" spans="1:120" ht="43.5" hidden="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -18322,7 +20910,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="36" spans="1:120" ht="86.25">
+    <row r="36" spans="1:120" ht="86.25" hidden="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -18700,7 +21288,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="37" spans="1:120" ht="43.5">
+    <row r="37" spans="1:120" ht="43.5" hidden="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -19456,7 +22044,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="39" spans="1:120" ht="24.75" customHeight="1">
+    <row r="39" spans="1:120" ht="24.75" hidden="1" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -19834,7 +22422,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="40" spans="1:120" ht="100.5">
+    <row r="40" spans="1:120" ht="100.5" hidden="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -20212,7 +22800,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="41" spans="1:120" ht="98.25" customHeight="1">
+    <row r="41" spans="1:120" ht="98.25" hidden="1" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -20590,7 +23178,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="42" spans="1:120" ht="145.5" customHeight="1">
+    <row r="42" spans="1:120" ht="145.5" hidden="1" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -20968,7 +23556,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="43" spans="1:120" ht="249" customHeight="1">
+    <row r="43" spans="1:120" ht="249" hidden="1" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -21720,7 +24308,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="45" spans="1:120" ht="86.25">
+    <row r="45" spans="1:120" ht="86.25" hidden="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -22098,7 +24686,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="46" spans="1:120" ht="24.75" customHeight="1">
+    <row r="46" spans="1:120" ht="24.75" hidden="1" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -22476,7 +25064,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="47" spans="1:120" ht="75" customHeight="1">
+    <row r="47" spans="1:120" ht="75" hidden="1" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -22854,7 +25442,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="48" spans="1:120" ht="129">
+    <row r="48" spans="1:120" ht="129" hidden="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -23232,7 +25820,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="49" spans="1:120" ht="72">
+    <row r="49" spans="1:120" ht="72" hidden="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -23610,7 +26198,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="50" spans="1:120" ht="105" customHeight="1">
+    <row r="50" spans="1:120" ht="105" hidden="1" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -23988,7 +26576,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="51" spans="1:120" ht="113.25" customHeight="1">
+    <row r="51" spans="1:120" ht="113.25" hidden="1" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -24366,7 +26954,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="52" spans="1:120" ht="66" customHeight="1">
+    <row r="52" spans="1:120" ht="66" hidden="1" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -24744,7 +27332,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="53" spans="1:120" ht="59.45" customHeight="1">
+    <row r="53" spans="1:120" ht="59.45" hidden="1" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -25122,7 +27710,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="54" spans="1:120" ht="129">
+    <row r="54" spans="1:120" ht="129" hidden="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -25500,7 +28088,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="55" spans="1:120" ht="24.75" customHeight="1">
+    <row r="55" spans="1:120" ht="24.75" hidden="1" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -25878,7 +28466,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="56" spans="1:120" ht="91.5" customHeight="1">
+    <row r="56" spans="1:120" ht="91.5" hidden="1" customHeight="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -26256,7 +28844,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="57" spans="1:120" ht="114.75">
+    <row r="57" spans="1:120" ht="114.75" hidden="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -26634,7 +29222,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="58" spans="1:120" ht="24.75" customHeight="1">
+    <row r="58" spans="1:120" ht="24.75" hidden="1" customHeight="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -27012,7 +29600,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="59" spans="1:120" ht="100.5">
+    <row r="59" spans="1:120" ht="100.5" hidden="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -27390,7 +29978,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="60" spans="1:120" ht="29.25">
+    <row r="60" spans="1:120" ht="29.25" hidden="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -27768,7 +30356,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="61" spans="1:120" ht="72">
+    <row r="61" spans="1:120" ht="72" hidden="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -28902,7 +31490,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="64" spans="1:120" ht="169.9" customHeight="1">
+    <row r="64" spans="1:120" ht="169.9" hidden="1" customHeight="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -30036,7 +32624,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="67" spans="1:120" ht="43.15" customHeight="1">
+    <row r="67" spans="1:120" ht="43.15" hidden="1" customHeight="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -30792,7 +33380,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="69" spans="1:120" ht="143.25">
+    <row r="69" spans="1:120" ht="143.25" hidden="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -31548,7 +34136,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="71" spans="1:120" ht="138" customHeight="1">
+    <row r="71" spans="1:120" ht="138" hidden="1" customHeight="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -31926,7 +34514,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="72" spans="1:120" ht="112.5" customHeight="1">
+    <row r="72" spans="1:120" ht="112.5" hidden="1" customHeight="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -32304,7 +34892,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="73" spans="1:120" ht="157.15" customHeight="1">
+    <row r="73" spans="1:120" ht="157.15" hidden="1" customHeight="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -32682,7 +35270,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="74" spans="1:120" ht="43.5">
+    <row r="74" spans="1:120" ht="43.5" hidden="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -33060,7 +35648,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="75" spans="1:120" ht="142.5" customHeight="1">
+    <row r="75" spans="1:120" ht="142.5" hidden="1" customHeight="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -33438,7 +36026,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="76" spans="1:120" ht="43.9" customHeight="1">
+    <row r="76" spans="1:120" ht="43.9" hidden="1" customHeight="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -33816,7 +36404,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="77" spans="1:120" ht="87.6" customHeight="1">
+    <row r="77" spans="1:120" ht="87.6" hidden="1" customHeight="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -34194,7 +36782,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="78" spans="1:120" ht="33" customHeight="1">
+    <row r="78" spans="1:120" ht="33" hidden="1" customHeight="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -34572,7 +37160,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="79" spans="1:120" ht="54.6" customHeight="1">
+    <row r="79" spans="1:120" ht="54.6" hidden="1" customHeight="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -35328,7 +37916,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="81" spans="1:120" ht="64.150000000000006" customHeight="1">
+    <row r="81" spans="1:120" ht="64.150000000000006" hidden="1" customHeight="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -35706,7 +38294,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="82" spans="1:120" ht="75" customHeight="1">
+    <row r="82" spans="1:120" ht="75" hidden="1" customHeight="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -36840,7 +39428,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="85" spans="1:120" ht="75" customHeight="1">
+    <row r="85" spans="1:120" ht="75" hidden="1" customHeight="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -37218,7 +39806,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="86" spans="1:120" ht="53.45" customHeight="1">
+    <row r="86" spans="1:120" ht="53.45" hidden="1" customHeight="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -37596,7 +40184,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="87" spans="1:120" ht="141.75" customHeight="1">
+    <row r="87" spans="1:120" ht="141.75" hidden="1" customHeight="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -38352,7 +40940,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="89" spans="1:120" ht="97.9" customHeight="1">
+    <row r="89" spans="1:120" ht="97.9" hidden="1" customHeight="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -39486,7 +42074,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="92" spans="1:120" ht="245.25" customHeight="1">
+    <row r="92" spans="1:120" ht="245.25" hidden="1" customHeight="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -39864,7 +42452,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="93" spans="1:120" ht="43.9" customHeight="1">
+    <row r="93" spans="1:120" ht="43.9" hidden="1" customHeight="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -40242,7 +42830,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="94" spans="1:120" ht="53.45" customHeight="1">
+    <row r="94" spans="1:120" ht="53.45" hidden="1" customHeight="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -40998,7 +43586,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="96" spans="1:120" ht="43.9" customHeight="1">
+    <row r="96" spans="1:120" ht="43.9" hidden="1" customHeight="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -41754,7 +44342,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="98" spans="1:120" ht="86.25">
+    <row r="98" spans="1:120" ht="86.25" hidden="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -42132,7 +44720,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="99" spans="1:120" ht="231" customHeight="1">
+    <row r="99" spans="1:120" ht="231" hidden="1" customHeight="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -42510,7 +45098,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="100" spans="1:120" ht="120" customHeight="1">
+    <row r="100" spans="1:120" ht="120" hidden="1" customHeight="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -42888,7 +45476,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="101" spans="1:120" ht="24.75" customHeight="1">
+    <row r="101" spans="1:120" ht="24.75" hidden="1" customHeight="1">
       <c r="AA101" s="55">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -52011,5 +54599,8 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/analysis/data/lying_data.xlsx
+++ b/analysis/data/lying_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2025\Spring 2025\INFO 698 - Capstone\GitHub Repo\misinformation-study\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F59118E-1915-45C4-BB8B-7B9D6351725D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068228F0-68D7-4CF3-BCD4-8B943AE7BF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9629" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9626" uniqueCount="1446">
   <si>
     <t>GROUP</t>
   </si>
@@ -4431,7 +4431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7248,13 +7248,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2C848D5-A266-46C6-A87A-C4B9154CB138}" name="Table1" displayName="Table1" ref="A1:DP101" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
-  <autoFilter ref="A1:DP101" xr:uid="{C2C848D5-A266-46C6-A87A-C4B9154CB138}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Control Group (Audio)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:DP101" xr:uid="{C2C848D5-A266-46C6-A87A-C4B9154CB138}"/>
   <tableColumns count="120">
     <tableColumn id="1" xr3:uid="{4BEAC8A5-9226-4BA2-91E7-14E9B47D3E09}" name="PARTICIPANT ID" dataDxfId="119"/>
     <tableColumn id="2" xr3:uid="{EF4C3F5A-7852-4C02-8541-AEC12D919BF3}" name="GROUP" dataDxfId="118"/>
@@ -7607,87 +7601,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="38.375" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="28.125" customWidth="1"/>
+    <col min="12" max="12" width="34.375" customWidth="1"/>
+    <col min="13" max="13" width="26.625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.75" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="19" width="22.7109375" customWidth="1"/>
-    <col min="20" max="22" width="21.140625" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" customWidth="1"/>
-    <col min="26" max="26" width="46.28515625" customWidth="1"/>
-    <col min="27" max="27" width="33.42578125" customWidth="1"/>
-    <col min="28" max="28" width="27.28515625" style="47" customWidth="1"/>
-    <col min="29" max="29" width="49.7109375" customWidth="1"/>
-    <col min="30" max="30" width="49.7109375" style="47" customWidth="1"/>
-    <col min="31" max="31" width="40.85546875" customWidth="1"/>
-    <col min="32" max="32" width="40.85546875" style="47" customWidth="1"/>
-    <col min="33" max="33" width="40.85546875" customWidth="1"/>
-    <col min="34" max="34" width="47.7109375" customWidth="1"/>
-    <col min="35" max="36" width="38.42578125" customWidth="1"/>
-    <col min="37" max="37" width="28.28515625" style="47" customWidth="1"/>
-    <col min="38" max="38" width="28.5703125" style="47" customWidth="1"/>
-    <col min="39" max="39" width="34.42578125" style="47" customWidth="1"/>
-    <col min="40" max="43" width="35.140625" customWidth="1"/>
-    <col min="44" max="45" width="38.42578125" customWidth="1"/>
-    <col min="46" max="46" width="28.28515625" style="47" customWidth="1"/>
-    <col min="47" max="49" width="36.28515625" style="47" customWidth="1"/>
-    <col min="50" max="63" width="59.7109375" customWidth="1"/>
+    <col min="17" max="19" width="22.75" customWidth="1"/>
+    <col min="20" max="22" width="21.125" customWidth="1"/>
+    <col min="23" max="23" width="22.25" customWidth="1"/>
+    <col min="24" max="24" width="20.125" customWidth="1"/>
+    <col min="25" max="25" width="20.625" customWidth="1"/>
+    <col min="26" max="26" width="46.25" customWidth="1"/>
+    <col min="27" max="27" width="33.375" customWidth="1"/>
+    <col min="28" max="28" width="27.25" style="47" customWidth="1"/>
+    <col min="29" max="29" width="49.75" customWidth="1"/>
+    <col min="30" max="30" width="49.75" style="47" customWidth="1"/>
+    <col min="31" max="31" width="40.875" customWidth="1"/>
+    <col min="32" max="32" width="40.875" style="47" customWidth="1"/>
+    <col min="33" max="33" width="40.875" customWidth="1"/>
+    <col min="34" max="34" width="47.75" customWidth="1"/>
+    <col min="35" max="36" width="38.375" customWidth="1"/>
+    <col min="37" max="37" width="28.25" style="47" customWidth="1"/>
+    <col min="38" max="38" width="28.625" style="47" customWidth="1"/>
+    <col min="39" max="39" width="34.375" style="47" customWidth="1"/>
+    <col min="40" max="43" width="35.125" customWidth="1"/>
+    <col min="44" max="45" width="38.375" customWidth="1"/>
+    <col min="46" max="46" width="28.25" style="47" customWidth="1"/>
+    <col min="47" max="49" width="36.25" style="47" customWidth="1"/>
+    <col min="50" max="63" width="59.75" customWidth="1"/>
     <col min="64" max="64" width="22" style="31" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="23.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="23.42578125" style="31" customWidth="1"/>
-    <col min="67" max="67" width="18.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="59.7109375" style="33" customWidth="1"/>
-    <col min="69" max="87" width="59.7109375" customWidth="1"/>
-    <col min="88" max="88" width="26.85546875" customWidth="1"/>
-    <col min="89" max="89" width="28.7109375" customWidth="1"/>
+    <col min="65" max="65" width="23.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="23.375" style="31" customWidth="1"/>
+    <col min="67" max="67" width="18.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="59.75" style="33" customWidth="1"/>
+    <col min="69" max="87" width="59.75" customWidth="1"/>
+    <col min="88" max="88" width="26.875" customWidth="1"/>
+    <col min="89" max="89" width="28.75" customWidth="1"/>
     <col min="90" max="90" width="23" customWidth="1"/>
-    <col min="91" max="97" width="59.7109375" customWidth="1"/>
-    <col min="98" max="98" width="30.28515625" customWidth="1"/>
-    <col min="99" max="99" width="34.28515625" customWidth="1"/>
-    <col min="100" max="100" width="36.28515625" customWidth="1"/>
-    <col min="101" max="101" width="29.85546875" customWidth="1"/>
-    <col min="102" max="102" width="35.28515625" customWidth="1"/>
-    <col min="103" max="103" width="32.140625" customWidth="1"/>
-    <col min="104" max="104" width="32.5703125" customWidth="1"/>
-    <col min="105" max="105" width="34.42578125" customWidth="1"/>
-    <col min="106" max="106" width="35.140625" customWidth="1"/>
-    <col min="107" max="107" width="38.42578125" customWidth="1"/>
-    <col min="108" max="108" width="35.28515625" customWidth="1"/>
-    <col min="109" max="109" width="41.140625" customWidth="1"/>
-    <col min="110" max="110" width="31.42578125" customWidth="1"/>
-    <col min="111" max="111" width="25.5703125" customWidth="1"/>
-    <col min="112" max="112" width="27.42578125" customWidth="1"/>
-    <col min="113" max="113" width="21.7109375" customWidth="1"/>
-    <col min="114" max="114" width="36.28515625" style="10" customWidth="1"/>
-    <col min="115" max="115" width="24.85546875" customWidth="1"/>
-    <col min="116" max="116" width="31.5703125" customWidth="1"/>
-    <col min="117" max="117" width="23.42578125" customWidth="1"/>
+    <col min="91" max="97" width="59.75" customWidth="1"/>
+    <col min="98" max="98" width="30.25" customWidth="1"/>
+    <col min="99" max="99" width="34.25" customWidth="1"/>
+    <col min="100" max="100" width="36.25" customWidth="1"/>
+    <col min="101" max="101" width="29.875" customWidth="1"/>
+    <col min="102" max="102" width="35.25" customWidth="1"/>
+    <col min="103" max="103" width="32.125" customWidth="1"/>
+    <col min="104" max="104" width="32.625" customWidth="1"/>
+    <col min="105" max="105" width="34.375" customWidth="1"/>
+    <col min="106" max="106" width="35.125" customWidth="1"/>
+    <col min="107" max="107" width="38.375" customWidth="1"/>
+    <col min="108" max="108" width="35.25" customWidth="1"/>
+    <col min="109" max="109" width="41.125" customWidth="1"/>
+    <col min="110" max="110" width="31.375" customWidth="1"/>
+    <col min="111" max="111" width="25.625" customWidth="1"/>
+    <col min="112" max="112" width="27.375" customWidth="1"/>
+    <col min="113" max="113" width="21.75" customWidth="1"/>
+    <col min="114" max="114" width="36.25" style="10" customWidth="1"/>
+    <col min="115" max="115" width="24.875" customWidth="1"/>
+    <col min="116" max="116" width="31.625" customWidth="1"/>
+    <col min="117" max="117" width="23.375" customWidth="1"/>
     <col min="118" max="118" width="23" style="15" customWidth="1"/>
-    <col min="119" max="119" width="17.28515625" style="15" customWidth="1"/>
-    <col min="120" max="120" width="25.42578125" customWidth="1"/>
+    <col min="119" max="119" width="17.25" style="15" customWidth="1"/>
+    <col min="120" max="120" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:120" s="10" customFormat="1" ht="18.75" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -8049,7 +8043,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="2" spans="1:120" ht="240.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:120" ht="200.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8427,7 +8421,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="3" spans="1:120" ht="45.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:120" ht="43.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -8805,7 +8799,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:120" ht="45.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:120" ht="43.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9183,7 +9177,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="165.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:120" ht="157.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -9561,7 +9555,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="6" spans="1:120" ht="60.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:120" ht="57.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -9939,7 +9933,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="7" spans="1:120" ht="150.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:120" ht="143.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -10317,7 +10311,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="8" spans="1:120" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:120" ht="58.5" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -10695,7 +10689,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="9" spans="1:120" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:120" ht="24.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -11073,7 +11067,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="10" spans="1:120" ht="105.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:120" ht="86.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -11451,7 +11445,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="11" spans="1:120" ht="150.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:120" ht="129">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -11829,7 +11823,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="12" spans="1:120" ht="60.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:120" ht="43.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -12207,7 +12201,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="13" spans="1:120" ht="75.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:120" ht="57.75">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -12585,7 +12579,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="14" spans="1:120" ht="150.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:120" ht="143.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -12643,15 +12637,9 @@
       <c r="S14" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>274</v>
-      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
         <v>84</v>
       </c>
@@ -12963,7 +12951,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:120" ht="120.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:120" ht="100.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -13341,7 +13329,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="16" spans="1:120" ht="60.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:120" ht="57.75">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -13719,7 +13707,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="17" spans="1:120" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:120" ht="105.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -14097,7 +14085,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="18" spans="1:120" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:120" ht="127.5" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -14475,7 +14463,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:120" ht="85.5" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -14853,7 +14841,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="67.900000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:120" ht="67.900000000000006" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -15231,7 +15219,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="21" spans="1:120" ht="90.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:120" ht="72">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -15609,7 +15597,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="22" spans="1:120" ht="135.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:120" ht="114.75">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -15987,7 +15975,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="23" spans="1:120" ht="90.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:120" ht="86.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -16365,7 +16353,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="24" spans="1:120" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:120" ht="43.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -16743,7 +16731,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="25" spans="1:120" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:120" ht="45.6" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -17121,7 +17109,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="26" spans="1:120" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:120" ht="86.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -17499,7 +17487,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="27" spans="1:120" ht="60.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:120" ht="57.75">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -17877,7 +17865,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="28" spans="1:120" ht="105.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:120" ht="100.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -18255,7 +18243,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="29" spans="1:120" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:120" ht="72">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -18633,7 +18621,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="30" spans="1:120" ht="120.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:120" ht="114.75">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -19011,7 +18999,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="31" spans="1:120" ht="105.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:120" ht="86.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -19389,7 +19377,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="32" spans="1:120" ht="60.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:120" ht="43.5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -19767,7 +19755,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="33" spans="1:120" ht="150.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:120" ht="129">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -20145,7 +20133,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="34" spans="1:120" ht="90.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:120" ht="72">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -20523,7 +20511,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="35" spans="1:120" ht="60.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:120" ht="43.5">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -20901,7 +20889,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="36" spans="1:120" ht="105.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:120" ht="86.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -21279,7 +21267,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="37" spans="1:120" ht="45.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:120" ht="43.5">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -21657,7 +21645,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="38" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:120" ht="24.75" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -22035,7 +22023,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="39" spans="1:120" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:120" ht="24.75" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -22413,7 +22401,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="40" spans="1:120" ht="105.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:120" ht="100.5">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -22791,7 +22779,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="41" spans="1:120" ht="98.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:120" ht="98.25" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -23169,7 +23157,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="42" spans="1:120" ht="145.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:120" ht="145.5" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -23547,7 +23535,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="43" spans="1:120" ht="249" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:120" ht="249" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -23925,7 +23913,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="44" spans="1:120" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:120" ht="74.45" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -24299,7 +24287,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="45" spans="1:120" ht="90.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:120" ht="86.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -24677,7 +24665,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="46" spans="1:120" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:120" ht="24.75" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -25055,7 +25043,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="47" spans="1:120" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:120" ht="75" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -25433,7 +25421,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="48" spans="1:120" ht="150.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:120" ht="129">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -25811,7 +25799,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="49" spans="1:120" ht="75.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:120" ht="72">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -26189,7 +26177,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="50" spans="1:120" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:120" ht="105" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -26567,7 +26555,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="51" spans="1:120" ht="113.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:120" ht="113.25" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -26945,7 +26933,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="52" spans="1:120" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:120" ht="66" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -27323,7 +27311,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="53" spans="1:120" ht="59.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:120" ht="59.45" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -27701,7 +27689,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="54" spans="1:120" ht="150.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:120" ht="129">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -28079,7 +28067,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="55" spans="1:120" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:120" ht="24.75" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -28457,7 +28445,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="56" spans="1:120" ht="91.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:120" ht="91.5" customHeight="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -28835,7 +28823,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="57" spans="1:120" ht="135.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:120" ht="114.75">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -29213,7 +29201,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="58" spans="1:120" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:120" ht="24.75" customHeight="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -29591,7 +29579,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="59" spans="1:120" ht="120.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:120" ht="100.5">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -29969,7 +29957,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="60" spans="1:120" ht="30.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:120" ht="29.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -30347,7 +30335,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="61" spans="1:120" ht="90.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:120" ht="72">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -30725,7 +30713,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="62" spans="1:120" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:120" ht="86.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -31103,7 +31091,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="63" spans="1:120" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:120" ht="100.5">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -31481,7 +31469,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="64" spans="1:120" ht="169.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:120" ht="169.9" customHeight="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -31859,7 +31847,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="65" spans="1:120" ht="75.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:120" ht="72">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -32237,7 +32225,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="66" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:120" ht="24.75" customHeight="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -32615,7 +32603,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="67" spans="1:120" ht="43.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:120" ht="43.15" customHeight="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -32993,7 +32981,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="68" spans="1:120" ht="233.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:120" ht="233.45" customHeight="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -33371,7 +33359,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="69" spans="1:120" ht="150.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:120" ht="143.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -33749,7 +33737,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="70" spans="1:120" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:120" ht="152.25" customHeight="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -34127,7 +34115,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="71" spans="1:120" ht="138" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:120" ht="138" customHeight="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -34505,7 +34493,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="72" spans="1:120" ht="112.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:120" ht="112.5" customHeight="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -34883,7 +34871,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="73" spans="1:120" ht="157.15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:120" ht="157.15" customHeight="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -35261,7 +35249,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="74" spans="1:120" ht="45.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:120" ht="43.5">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -35639,7 +35627,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="75" spans="1:120" ht="142.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:120" ht="142.5" customHeight="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -36017,7 +36005,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="76" spans="1:120" ht="43.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:120" ht="43.9" customHeight="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -36395,7 +36383,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="77" spans="1:120" ht="87.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:120" ht="87.6" customHeight="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -36773,7 +36761,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="78" spans="1:120" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:120" ht="33" customHeight="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -37151,7 +37139,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="79" spans="1:120" ht="54.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:120" ht="54.6" customHeight="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -37529,7 +37517,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="80" spans="1:120" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:120" ht="86.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -37907,7 +37895,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="81" spans="1:120" ht="64.150000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:120" ht="64.150000000000006" customHeight="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -38285,7 +38273,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="82" spans="1:120" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:120" ht="75" customHeight="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -38663,7 +38651,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="83" spans="1:120" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:120" ht="66" customHeight="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -39041,7 +39029,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="84" spans="1:120" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:120" ht="72" customHeight="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -39419,7 +39407,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="85" spans="1:120" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:120" ht="75" customHeight="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -39797,7 +39785,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="86" spans="1:120" ht="53.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:120" ht="53.45" customHeight="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -40175,7 +40163,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="87" spans="1:120" ht="141.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:120" ht="141.75" customHeight="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -40553,7 +40541,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="88" spans="1:120" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:120" ht="126" customHeight="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -40931,7 +40919,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="89" spans="1:120" ht="97.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:120" ht="97.9" customHeight="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -41309,7 +41297,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="90" spans="1:120" ht="125.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:120" ht="125.45" customHeight="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -41687,7 +41675,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="91" spans="1:120" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:120" ht="98.25" customHeight="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -42065,7 +42053,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="92" spans="1:120" ht="245.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:120" ht="245.25" customHeight="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -42443,7 +42431,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="93" spans="1:120" ht="43.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:120" ht="43.9" customHeight="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -42821,7 +42809,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="94" spans="1:120" ht="53.45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:120" ht="53.45" customHeight="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -43199,7 +43187,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="95" spans="1:120" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:120" ht="49.15" customHeight="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -43577,7 +43565,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="96" spans="1:120" ht="43.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:120" ht="43.9" customHeight="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -43955,7 +43943,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="97" spans="1:120" ht="169.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:120" ht="169.15" customHeight="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -44333,7 +44321,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="98" spans="1:120" ht="105.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:120" ht="86.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -44711,7 +44699,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="99" spans="1:120" ht="231" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:120" ht="231" customHeight="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -45089,7 +45077,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="100" spans="1:120" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:120" ht="120" customHeight="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -45467,7 +45455,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="101" spans="1:120" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:120" ht="24.75" customHeight="1">
       <c r="AA101" s="4">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -45528,7 +45516,7 @@
       <c r="DH101" s="4"/>
       <c r="DI101" s="7"/>
     </row>
-    <row r="102" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:120" ht="24.75" customHeight="1">
       <c r="BL102" s="30"/>
       <c r="BM102" s="30"/>
       <c r="BN102" s="30"/>
@@ -45538,7 +45526,7 @@
       <c r="DH102" s="4"/>
       <c r="DI102" s="7"/>
     </row>
-    <row r="103" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:120" ht="24.75" customHeight="1">
       <c r="AJ103" s="10" t="s">
         <v>1395</v>
       </c>
@@ -45554,7 +45542,7 @@
       <c r="DH103" s="4"/>
       <c r="DI103" s="7"/>
     </row>
-    <row r="104" spans="1:120" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:120" ht="28.5">
       <c r="AJ104" s="40" t="s">
         <v>1398</v>
       </c>
@@ -45571,7 +45559,7 @@
       <c r="DI104" s="7"/>
       <c r="DM104" s="8"/>
     </row>
-    <row r="105" spans="1:120" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:120" ht="28.5">
       <c r="AJ105" s="10" t="s">
         <v>1399</v>
       </c>
@@ -45588,7 +45576,7 @@
       <c r="DI105" s="7"/>
       <c r="DM105" s="8"/>
     </row>
-    <row r="106" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:120" ht="24.75" customHeight="1">
       <c r="AJ106" t="s">
         <v>1404</v>
       </c>
@@ -45602,7 +45590,7 @@
       <c r="DI106" s="7"/>
       <c r="DM106" s="8"/>
     </row>
-    <row r="107" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:120" ht="24.75" customHeight="1">
       <c r="BL107" s="30"/>
       <c r="BM107" s="30"/>
       <c r="BN107" s="30"/>
@@ -45612,7 +45600,7 @@
       <c r="DH107" s="4"/>
       <c r="DI107" s="7"/>
     </row>
-    <row r="108" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:120" ht="24.75" customHeight="1">
       <c r="BL108" s="30"/>
       <c r="BM108" s="30"/>
       <c r="BN108" s="30"/>
@@ -45622,7 +45610,7 @@
       <c r="DH108" s="4"/>
       <c r="DI108" s="7"/>
     </row>
-    <row r="109" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:120" ht="24.75" customHeight="1">
       <c r="BL109" s="30"/>
       <c r="BM109" s="30"/>
       <c r="BN109" s="30"/>
@@ -45632,7 +45620,7 @@
       <c r="DH109" s="4"/>
       <c r="DI109" s="7"/>
     </row>
-    <row r="110" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:120" ht="24.75" customHeight="1">
       <c r="BL110" s="30"/>
       <c r="BM110" s="30"/>
       <c r="BN110" s="30"/>
@@ -45642,7 +45630,7 @@
       <c r="DH110" s="4"/>
       <c r="DI110" s="7"/>
     </row>
-    <row r="111" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:120" ht="24.75" customHeight="1">
       <c r="BL111" s="30"/>
       <c r="BM111" s="30"/>
       <c r="BN111" s="30"/>
@@ -45652,7 +45640,7 @@
       <c r="DH111" s="4"/>
       <c r="DI111" s="7"/>
     </row>
-    <row r="112" spans="1:120" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:120" ht="24.75" customHeight="1">
       <c r="BL112" s="30"/>
       <c r="BM112" s="30"/>
       <c r="BN112" s="30"/>
@@ -45662,7 +45650,7 @@
       <c r="DH112" s="4"/>
       <c r="DI112" s="7"/>
     </row>
-    <row r="113" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL113" s="30"/>
       <c r="BM113" s="30"/>
       <c r="BN113" s="30"/>
@@ -45672,7 +45660,7 @@
       <c r="DH113" s="4"/>
       <c r="DI113" s="7"/>
     </row>
-    <row r="114" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL114" s="30"/>
       <c r="BM114" s="30"/>
       <c r="BN114" s="30"/>
@@ -45682,7 +45670,7 @@
       <c r="DH114" s="4"/>
       <c r="DI114" s="7"/>
     </row>
-    <row r="115" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL115" s="30"/>
       <c r="BM115" s="30"/>
       <c r="BN115" s="30"/>
@@ -45692,7 +45680,7 @@
       <c r="DH115" s="4"/>
       <c r="DI115" s="7"/>
     </row>
-    <row r="116" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL116" s="30"/>
       <c r="BM116" s="30"/>
       <c r="BN116" s="30"/>
@@ -45702,7 +45690,7 @@
       <c r="DH116" s="4"/>
       <c r="DI116" s="7"/>
     </row>
-    <row r="117" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL117" s="30"/>
       <c r="BM117" s="30"/>
       <c r="BN117" s="30"/>
@@ -45712,7 +45700,7 @@
       <c r="DH117" s="4"/>
       <c r="DI117" s="7"/>
     </row>
-    <row r="118" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL118" s="30"/>
       <c r="BM118" s="30"/>
       <c r="BN118" s="30"/>
@@ -45722,7 +45710,7 @@
       <c r="DH118" s="4"/>
       <c r="DI118" s="7"/>
     </row>
-    <row r="119" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL119" s="30"/>
       <c r="BM119" s="30"/>
       <c r="BN119" s="30"/>
@@ -45732,7 +45720,7 @@
       <c r="DH119" s="4"/>
       <c r="DI119" s="7"/>
     </row>
-    <row r="120" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL120" s="30"/>
       <c r="BM120" s="30"/>
       <c r="BN120" s="30"/>
@@ -45742,7 +45730,7 @@
       <c r="DH120" s="4"/>
       <c r="DI120" s="7"/>
     </row>
-    <row r="121" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL121" s="30"/>
       <c r="BM121" s="30"/>
       <c r="BN121" s="30"/>
@@ -45752,7 +45740,7 @@
       <c r="DH121" s="4"/>
       <c r="DI121" s="7"/>
     </row>
-    <row r="122" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL122" s="30"/>
       <c r="BM122" s="30"/>
       <c r="BN122" s="30"/>
@@ -45762,7 +45750,7 @@
       <c r="DH122" s="4"/>
       <c r="DI122" s="7"/>
     </row>
-    <row r="123" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL123" s="30"/>
       <c r="BM123" s="30"/>
       <c r="BN123" s="30"/>
@@ -45772,7 +45760,7 @@
       <c r="DH123" s="4"/>
       <c r="DI123" s="7"/>
     </row>
-    <row r="124" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL124" s="30"/>
       <c r="BM124" s="30"/>
       <c r="BN124" s="30"/>
@@ -45782,7 +45770,7 @@
       <c r="DH124" s="4"/>
       <c r="DI124" s="7"/>
     </row>
-    <row r="125" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL125" s="30"/>
       <c r="BM125" s="30"/>
       <c r="BN125" s="30"/>
@@ -45792,7 +45780,7 @@
       <c r="DH125" s="4"/>
       <c r="DI125" s="7"/>
     </row>
-    <row r="126" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL126" s="30"/>
       <c r="BM126" s="30"/>
       <c r="BN126" s="30"/>
@@ -45802,7 +45790,7 @@
       <c r="DH126" s="4"/>
       <c r="DI126" s="7"/>
     </row>
-    <row r="127" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL127" s="30"/>
       <c r="BM127" s="30"/>
       <c r="BN127" s="30"/>
@@ -45812,7 +45800,7 @@
       <c r="DH127" s="4"/>
       <c r="DI127" s="7"/>
     </row>
-    <row r="128" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL128" s="30"/>
       <c r="BM128" s="30"/>
       <c r="BN128" s="30"/>
@@ -45822,7 +45810,7 @@
       <c r="DH128" s="4"/>
       <c r="DI128" s="7"/>
     </row>
-    <row r="129" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL129" s="30"/>
       <c r="BM129" s="30"/>
       <c r="BN129" s="30"/>
@@ -45832,7 +45820,7 @@
       <c r="DH129" s="4"/>
       <c r="DI129" s="7"/>
     </row>
-    <row r="130" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL130" s="30"/>
       <c r="BM130" s="30"/>
       <c r="BN130" s="30"/>
@@ -45842,7 +45830,7 @@
       <c r="DH130" s="4"/>
       <c r="DI130" s="7"/>
     </row>
-    <row r="131" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL131" s="30"/>
       <c r="BM131" s="30"/>
       <c r="BN131" s="30"/>
@@ -45852,7 +45840,7 @@
       <c r="DH131" s="4"/>
       <c r="DI131" s="7"/>
     </row>
-    <row r="132" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL132" s="30"/>
       <c r="BM132" s="30"/>
       <c r="BN132" s="30"/>
@@ -45862,7 +45850,7 @@
       <c r="DH132" s="4"/>
       <c r="DI132" s="7"/>
     </row>
-    <row r="133" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL133" s="30"/>
       <c r="BM133" s="30"/>
       <c r="BN133" s="30"/>
@@ -45872,7 +45860,7 @@
       <c r="DH133" s="4"/>
       <c r="DI133" s="7"/>
     </row>
-    <row r="134" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL134" s="30"/>
       <c r="BM134" s="30"/>
       <c r="BN134" s="30"/>
@@ -45882,7 +45870,7 @@
       <c r="DH134" s="4"/>
       <c r="DI134" s="7"/>
     </row>
-    <row r="135" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL135" s="30"/>
       <c r="BM135" s="30"/>
       <c r="BN135" s="30"/>
@@ -45892,7 +45880,7 @@
       <c r="DH135" s="4"/>
       <c r="DI135" s="7"/>
     </row>
-    <row r="136" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL136" s="30"/>
       <c r="BM136" s="30"/>
       <c r="BN136" s="30"/>
@@ -45902,7 +45890,7 @@
       <c r="DH136" s="4"/>
       <c r="DI136" s="7"/>
     </row>
-    <row r="137" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL137" s="30"/>
       <c r="BM137" s="30"/>
       <c r="BN137" s="30"/>
@@ -45912,7 +45900,7 @@
       <c r="DH137" s="4"/>
       <c r="DI137" s="7"/>
     </row>
-    <row r="138" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL138" s="30"/>
       <c r="BM138" s="30"/>
       <c r="BN138" s="30"/>
@@ -45922,7 +45910,7 @@
       <c r="DH138" s="4"/>
       <c r="DI138" s="7"/>
     </row>
-    <row r="139" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL139" s="30"/>
       <c r="BM139" s="30"/>
       <c r="BN139" s="30"/>
@@ -45932,7 +45920,7 @@
       <c r="DH139" s="4"/>
       <c r="DI139" s="7"/>
     </row>
-    <row r="140" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL140" s="30"/>
       <c r="BM140" s="30"/>
       <c r="BN140" s="30"/>
@@ -45942,7 +45930,7 @@
       <c r="DH140" s="4"/>
       <c r="DI140" s="7"/>
     </row>
-    <row r="141" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL141" s="30"/>
       <c r="BM141" s="30"/>
       <c r="BN141" s="30"/>
@@ -45952,7 +45940,7 @@
       <c r="DH141" s="4"/>
       <c r="DI141" s="7"/>
     </row>
-    <row r="142" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL142" s="30"/>
       <c r="BM142" s="30"/>
       <c r="BN142" s="30"/>
@@ -45962,7 +45950,7 @@
       <c r="DH142" s="4"/>
       <c r="DI142" s="7"/>
     </row>
-    <row r="143" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL143" s="30"/>
       <c r="BM143" s="30"/>
       <c r="BN143" s="30"/>
@@ -45972,7 +45960,7 @@
       <c r="DH143" s="4"/>
       <c r="DI143" s="7"/>
     </row>
-    <row r="144" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL144" s="30"/>
       <c r="BM144" s="30"/>
       <c r="BN144" s="30"/>
@@ -45982,7 +45970,7 @@
       <c r="DH144" s="4"/>
       <c r="DI144" s="7"/>
     </row>
-    <row r="145" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL145" s="30"/>
       <c r="BM145" s="30"/>
       <c r="BN145" s="30"/>
@@ -45992,7 +45980,7 @@
       <c r="DH145" s="4"/>
       <c r="DI145" s="7"/>
     </row>
-    <row r="146" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL146" s="30"/>
       <c r="BM146" s="30"/>
       <c r="BN146" s="30"/>
@@ -46002,7 +45990,7 @@
       <c r="DH146" s="4"/>
       <c r="DI146" s="7"/>
     </row>
-    <row r="147" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL147" s="30"/>
       <c r="BM147" s="30"/>
       <c r="BN147" s="30"/>
@@ -46012,7 +46000,7 @@
       <c r="DH147" s="4"/>
       <c r="DI147" s="7"/>
     </row>
-    <row r="148" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL148" s="30"/>
       <c r="BM148" s="30"/>
       <c r="BN148" s="30"/>
@@ -46022,7 +46010,7 @@
       <c r="DH148" s="4"/>
       <c r="DI148" s="7"/>
     </row>
-    <row r="149" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL149" s="30"/>
       <c r="BM149" s="30"/>
       <c r="BN149" s="30"/>
@@ -46032,7 +46020,7 @@
       <c r="DH149" s="4"/>
       <c r="DI149" s="7"/>
     </row>
-    <row r="150" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL150" s="30"/>
       <c r="BM150" s="30"/>
       <c r="BN150" s="30"/>
@@ -46042,7 +46030,7 @@
       <c r="DH150" s="4"/>
       <c r="DI150" s="7"/>
     </row>
-    <row r="151" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL151" s="30"/>
       <c r="BM151" s="30"/>
       <c r="BN151" s="30"/>
@@ -46052,7 +46040,7 @@
       <c r="DH151" s="4"/>
       <c r="DI151" s="7"/>
     </row>
-    <row r="152" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL152" s="30"/>
       <c r="BM152" s="30"/>
       <c r="BN152" s="30"/>
@@ -46062,7 +46050,7 @@
       <c r="DH152" s="4"/>
       <c r="DI152" s="7"/>
     </row>
-    <row r="153" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL153" s="30"/>
       <c r="BM153" s="30"/>
       <c r="BN153" s="30"/>
@@ -46072,7 +46060,7 @@
       <c r="DH153" s="4"/>
       <c r="DI153" s="7"/>
     </row>
-    <row r="154" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL154" s="30"/>
       <c r="BM154" s="30"/>
       <c r="BN154" s="30"/>
@@ -46082,7 +46070,7 @@
       <c r="DH154" s="4"/>
       <c r="DI154" s="7"/>
     </row>
-    <row r="155" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL155" s="30"/>
       <c r="BM155" s="30"/>
       <c r="BN155" s="30"/>
@@ -46092,7 +46080,7 @@
       <c r="DH155" s="4"/>
       <c r="DI155" s="7"/>
     </row>
-    <row r="156" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL156" s="30"/>
       <c r="BM156" s="30"/>
       <c r="BN156" s="30"/>
@@ -46102,7 +46090,7 @@
       <c r="DH156" s="4"/>
       <c r="DI156" s="7"/>
     </row>
-    <row r="157" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL157" s="30"/>
       <c r="BM157" s="30"/>
       <c r="BN157" s="30"/>
@@ -46112,7 +46100,7 @@
       <c r="DH157" s="4"/>
       <c r="DI157" s="7"/>
     </row>
-    <row r="158" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL158" s="30"/>
       <c r="BM158" s="30"/>
       <c r="BN158" s="30"/>
@@ -46122,7 +46110,7 @@
       <c r="DH158" s="4"/>
       <c r="DI158" s="7"/>
     </row>
-    <row r="159" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL159" s="30"/>
       <c r="BM159" s="30"/>
       <c r="BN159" s="30"/>
@@ -46132,7 +46120,7 @@
       <c r="DH159" s="4"/>
       <c r="DI159" s="7"/>
     </row>
-    <row r="160" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL160" s="30"/>
       <c r="BM160" s="30"/>
       <c r="BN160" s="30"/>
@@ -46142,7 +46130,7 @@
       <c r="DH160" s="4"/>
       <c r="DI160" s="7"/>
     </row>
-    <row r="161" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL161" s="30"/>
       <c r="BM161" s="30"/>
       <c r="BN161" s="30"/>
@@ -46152,7 +46140,7 @@
       <c r="DH161" s="4"/>
       <c r="DI161" s="7"/>
     </row>
-    <row r="162" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL162" s="30"/>
       <c r="BM162" s="30"/>
       <c r="BN162" s="30"/>
@@ -46162,7 +46150,7 @@
       <c r="DH162" s="4"/>
       <c r="DI162" s="7"/>
     </row>
-    <row r="163" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL163" s="30"/>
       <c r="BM163" s="30"/>
       <c r="BN163" s="30"/>
@@ -46172,7 +46160,7 @@
       <c r="DH163" s="4"/>
       <c r="DI163" s="7"/>
     </row>
-    <row r="164" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL164" s="30"/>
       <c r="BM164" s="30"/>
       <c r="BN164" s="30"/>
@@ -46182,7 +46170,7 @@
       <c r="DH164" s="4"/>
       <c r="DI164" s="7"/>
     </row>
-    <row r="165" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL165" s="30"/>
       <c r="BM165" s="30"/>
       <c r="BN165" s="30"/>
@@ -46192,7 +46180,7 @@
       <c r="DH165" s="4"/>
       <c r="DI165" s="7"/>
     </row>
-    <row r="166" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL166" s="30"/>
       <c r="BM166" s="30"/>
       <c r="BN166" s="30"/>
@@ -46202,7 +46190,7 @@
       <c r="DH166" s="4"/>
       <c r="DI166" s="7"/>
     </row>
-    <row r="167" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL167" s="30"/>
       <c r="BM167" s="30"/>
       <c r="BN167" s="30"/>
@@ -46212,7 +46200,7 @@
       <c r="DH167" s="4"/>
       <c r="DI167" s="7"/>
     </row>
-    <row r="168" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL168" s="30"/>
       <c r="BM168" s="30"/>
       <c r="BN168" s="30"/>
@@ -46222,7 +46210,7 @@
       <c r="DH168" s="4"/>
       <c r="DI168" s="7"/>
     </row>
-    <row r="169" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL169" s="30"/>
       <c r="BM169" s="30"/>
       <c r="BN169" s="30"/>
@@ -46232,7 +46220,7 @@
       <c r="DH169" s="4"/>
       <c r="DI169" s="7"/>
     </row>
-    <row r="170" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL170" s="30"/>
       <c r="BM170" s="30"/>
       <c r="BN170" s="30"/>
@@ -46242,7 +46230,7 @@
       <c r="DH170" s="4"/>
       <c r="DI170" s="7"/>
     </row>
-    <row r="171" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL171" s="30"/>
       <c r="BM171" s="30"/>
       <c r="BN171" s="30"/>
@@ -46252,7 +46240,7 @@
       <c r="DH171" s="4"/>
       <c r="DI171" s="7"/>
     </row>
-    <row r="172" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL172" s="30"/>
       <c r="BM172" s="30"/>
       <c r="BN172" s="30"/>
@@ -46262,7 +46250,7 @@
       <c r="DH172" s="4"/>
       <c r="DI172" s="7"/>
     </row>
-    <row r="173" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL173" s="30"/>
       <c r="BM173" s="30"/>
       <c r="BN173" s="30"/>
@@ -46272,7 +46260,7 @@
       <c r="DH173" s="4"/>
       <c r="DI173" s="7"/>
     </row>
-    <row r="174" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL174" s="30"/>
       <c r="BM174" s="30"/>
       <c r="BN174" s="30"/>
@@ -46282,7 +46270,7 @@
       <c r="DH174" s="4"/>
       <c r="DI174" s="7"/>
     </row>
-    <row r="175" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL175" s="30"/>
       <c r="BM175" s="30"/>
       <c r="BN175" s="30"/>
@@ -46292,7 +46280,7 @@
       <c r="DH175" s="4"/>
       <c r="DI175" s="7"/>
     </row>
-    <row r="176" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL176" s="30"/>
       <c r="BM176" s="30"/>
       <c r="BN176" s="30"/>
@@ -46302,7 +46290,7 @@
       <c r="DH176" s="4"/>
       <c r="DI176" s="7"/>
     </row>
-    <row r="177" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL177" s="30"/>
       <c r="BM177" s="30"/>
       <c r="BN177" s="30"/>
@@ -46312,7 +46300,7 @@
       <c r="DH177" s="4"/>
       <c r="DI177" s="7"/>
     </row>
-    <row r="178" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL178" s="30"/>
       <c r="BM178" s="30"/>
       <c r="BN178" s="30"/>
@@ -46322,7 +46310,7 @@
       <c r="DH178" s="4"/>
       <c r="DI178" s="7"/>
     </row>
-    <row r="179" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL179" s="30"/>
       <c r="BM179" s="30"/>
       <c r="BN179" s="30"/>
@@ -46332,7 +46320,7 @@
       <c r="DH179" s="4"/>
       <c r="DI179" s="7"/>
     </row>
-    <row r="180" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL180" s="30"/>
       <c r="BM180" s="30"/>
       <c r="BN180" s="30"/>
@@ -46342,7 +46330,7 @@
       <c r="DH180" s="4"/>
       <c r="DI180" s="7"/>
     </row>
-    <row r="181" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL181" s="30"/>
       <c r="BM181" s="30"/>
       <c r="BN181" s="30"/>
@@ -46352,7 +46340,7 @@
       <c r="DH181" s="4"/>
       <c r="DI181" s="7"/>
     </row>
-    <row r="182" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL182" s="30"/>
       <c r="BM182" s="30"/>
       <c r="BN182" s="30"/>
@@ -46362,7 +46350,7 @@
       <c r="DH182" s="4"/>
       <c r="DI182" s="7"/>
     </row>
-    <row r="183" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL183" s="30"/>
       <c r="BM183" s="30"/>
       <c r="BN183" s="30"/>
@@ -46372,7 +46360,7 @@
       <c r="DH183" s="4"/>
       <c r="DI183" s="7"/>
     </row>
-    <row r="184" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL184" s="30"/>
       <c r="BM184" s="30"/>
       <c r="BN184" s="30"/>
@@ -46382,7 +46370,7 @@
       <c r="DH184" s="4"/>
       <c r="DI184" s="7"/>
     </row>
-    <row r="185" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL185" s="30"/>
       <c r="BM185" s="30"/>
       <c r="BN185" s="30"/>
@@ -46392,7 +46380,7 @@
       <c r="DH185" s="4"/>
       <c r="DI185" s="7"/>
     </row>
-    <row r="186" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL186" s="30"/>
       <c r="BM186" s="30"/>
       <c r="BN186" s="30"/>
@@ -46402,7 +46390,7 @@
       <c r="DH186" s="4"/>
       <c r="DI186" s="7"/>
     </row>
-    <row r="187" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL187" s="30"/>
       <c r="BM187" s="30"/>
       <c r="BN187" s="30"/>
@@ -46412,7 +46400,7 @@
       <c r="DH187" s="4"/>
       <c r="DI187" s="7"/>
     </row>
-    <row r="188" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL188" s="30"/>
       <c r="BM188" s="30"/>
       <c r="BN188" s="30"/>
@@ -46422,7 +46410,7 @@
       <c r="DH188" s="4"/>
       <c r="DI188" s="7"/>
     </row>
-    <row r="189" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL189" s="30"/>
       <c r="BM189" s="30"/>
       <c r="BN189" s="30"/>
@@ -46432,7 +46420,7 @@
       <c r="DH189" s="4"/>
       <c r="DI189" s="7"/>
     </row>
-    <row r="190" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL190" s="30"/>
       <c r="BM190" s="30"/>
       <c r="BN190" s="30"/>
@@ -46442,7 +46430,7 @@
       <c r="DH190" s="4"/>
       <c r="DI190" s="7"/>
     </row>
-    <row r="191" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL191" s="30"/>
       <c r="BM191" s="30"/>
       <c r="BN191" s="30"/>
@@ -46452,7 +46440,7 @@
       <c r="DH191" s="4"/>
       <c r="DI191" s="7"/>
     </row>
-    <row r="192" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL192" s="30"/>
       <c r="BM192" s="30"/>
       <c r="BN192" s="30"/>
@@ -46462,7 +46450,7 @@
       <c r="DH192" s="4"/>
       <c r="DI192" s="7"/>
     </row>
-    <row r="193" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL193" s="30"/>
       <c r="BM193" s="30"/>
       <c r="BN193" s="30"/>
@@ -46472,7 +46460,7 @@
       <c r="DH193" s="4"/>
       <c r="DI193" s="7"/>
     </row>
-    <row r="194" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL194" s="30"/>
       <c r="BM194" s="30"/>
       <c r="BN194" s="30"/>
@@ -46482,7 +46470,7 @@
       <c r="DH194" s="4"/>
       <c r="DI194" s="7"/>
     </row>
-    <row r="195" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL195" s="30"/>
       <c r="BM195" s="30"/>
       <c r="BN195" s="30"/>
@@ -46492,7 +46480,7 @@
       <c r="DH195" s="4"/>
       <c r="DI195" s="7"/>
     </row>
-    <row r="196" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL196" s="30"/>
       <c r="BM196" s="30"/>
       <c r="BN196" s="30"/>
@@ -46502,7 +46490,7 @@
       <c r="DH196" s="4"/>
       <c r="DI196" s="7"/>
     </row>
-    <row r="197" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL197" s="30"/>
       <c r="BM197" s="30"/>
       <c r="BN197" s="30"/>
@@ -46512,7 +46500,7 @@
       <c r="DH197" s="4"/>
       <c r="DI197" s="7"/>
     </row>
-    <row r="198" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL198" s="30"/>
       <c r="BM198" s="30"/>
       <c r="BN198" s="30"/>
@@ -46522,7 +46510,7 @@
       <c r="DH198" s="4"/>
       <c r="DI198" s="7"/>
     </row>
-    <row r="199" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL199" s="30"/>
       <c r="BM199" s="30"/>
       <c r="BN199" s="30"/>
@@ -46532,7 +46520,7 @@
       <c r="DH199" s="4"/>
       <c r="DI199" s="7"/>
     </row>
-    <row r="200" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL200" s="30"/>
       <c r="BM200" s="30"/>
       <c r="BN200" s="30"/>
@@ -46542,7 +46530,7 @@
       <c r="DH200" s="4"/>
       <c r="DI200" s="7"/>
     </row>
-    <row r="201" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL201" s="30"/>
       <c r="BM201" s="30"/>
       <c r="BN201" s="30"/>
@@ -46552,7 +46540,7 @@
       <c r="DH201" s="4"/>
       <c r="DI201" s="7"/>
     </row>
-    <row r="202" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL202" s="30"/>
       <c r="BM202" s="30"/>
       <c r="BN202" s="30"/>
@@ -46562,7 +46550,7 @@
       <c r="DH202" s="4"/>
       <c r="DI202" s="7"/>
     </row>
-    <row r="203" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL203" s="30"/>
       <c r="BM203" s="30"/>
       <c r="BN203" s="30"/>
@@ -46572,7 +46560,7 @@
       <c r="DH203" s="4"/>
       <c r="DI203" s="7"/>
     </row>
-    <row r="204" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL204" s="30"/>
       <c r="BM204" s="30"/>
       <c r="BN204" s="30"/>
@@ -46582,7 +46570,7 @@
       <c r="DH204" s="4"/>
       <c r="DI204" s="7"/>
     </row>
-    <row r="205" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL205" s="30"/>
       <c r="BM205" s="30"/>
       <c r="BN205" s="30"/>
@@ -46592,7 +46580,7 @@
       <c r="DH205" s="4"/>
       <c r="DI205" s="7"/>
     </row>
-    <row r="206" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL206" s="30"/>
       <c r="BM206" s="30"/>
       <c r="BN206" s="30"/>
@@ -46602,7 +46590,7 @@
       <c r="DH206" s="4"/>
       <c r="DI206" s="7"/>
     </row>
-    <row r="207" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL207" s="30"/>
       <c r="BM207" s="30"/>
       <c r="BN207" s="30"/>
@@ -46612,7 +46600,7 @@
       <c r="DH207" s="4"/>
       <c r="DI207" s="7"/>
     </row>
-    <row r="208" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL208" s="30"/>
       <c r="BM208" s="30"/>
       <c r="BN208" s="30"/>
@@ -46622,7 +46610,7 @@
       <c r="DH208" s="4"/>
       <c r="DI208" s="7"/>
     </row>
-    <row r="209" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL209" s="30"/>
       <c r="BM209" s="30"/>
       <c r="BN209" s="30"/>
@@ -46632,7 +46620,7 @@
       <c r="DH209" s="4"/>
       <c r="DI209" s="7"/>
     </row>
-    <row r="210" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL210" s="30"/>
       <c r="BM210" s="30"/>
       <c r="BN210" s="30"/>
@@ -46642,7 +46630,7 @@
       <c r="DH210" s="4"/>
       <c r="DI210" s="7"/>
     </row>
-    <row r="211" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL211" s="30"/>
       <c r="BM211" s="30"/>
       <c r="BN211" s="30"/>
@@ -46652,7 +46640,7 @@
       <c r="DH211" s="4"/>
       <c r="DI211" s="7"/>
     </row>
-    <row r="212" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL212" s="30"/>
       <c r="BM212" s="30"/>
       <c r="BN212" s="30"/>
@@ -46662,7 +46650,7 @@
       <c r="DH212" s="4"/>
       <c r="DI212" s="7"/>
     </row>
-    <row r="213" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL213" s="30"/>
       <c r="BM213" s="30"/>
       <c r="BN213" s="30"/>
@@ -46672,7 +46660,7 @@
       <c r="DH213" s="4"/>
       <c r="DI213" s="7"/>
     </row>
-    <row r="214" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL214" s="30"/>
       <c r="BM214" s="30"/>
       <c r="BN214" s="30"/>
@@ -46682,7 +46670,7 @@
       <c r="DH214" s="4"/>
       <c r="DI214" s="7"/>
     </row>
-    <row r="215" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL215" s="30"/>
       <c r="BM215" s="30"/>
       <c r="BN215" s="30"/>
@@ -46692,7 +46680,7 @@
       <c r="DH215" s="4"/>
       <c r="DI215" s="7"/>
     </row>
-    <row r="216" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL216" s="30"/>
       <c r="BM216" s="30"/>
       <c r="BN216" s="30"/>
@@ -46702,7 +46690,7 @@
       <c r="DH216" s="4"/>
       <c r="DI216" s="7"/>
     </row>
-    <row r="217" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL217" s="30"/>
       <c r="BM217" s="30"/>
       <c r="BN217" s="30"/>
@@ -46712,7 +46700,7 @@
       <c r="DH217" s="4"/>
       <c r="DI217" s="7"/>
     </row>
-    <row r="218" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL218" s="30"/>
       <c r="BM218" s="30"/>
       <c r="BN218" s="30"/>
@@ -46722,7 +46710,7 @@
       <c r="DH218" s="4"/>
       <c r="DI218" s="7"/>
     </row>
-    <row r="219" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL219" s="30"/>
       <c r="BM219" s="30"/>
       <c r="BN219" s="30"/>
@@ -46732,7 +46720,7 @@
       <c r="DH219" s="4"/>
       <c r="DI219" s="7"/>
     </row>
-    <row r="220" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL220" s="30"/>
       <c r="BM220" s="30"/>
       <c r="BN220" s="30"/>
@@ -46742,7 +46730,7 @@
       <c r="DH220" s="4"/>
       <c r="DI220" s="7"/>
     </row>
-    <row r="221" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL221" s="30"/>
       <c r="BM221" s="30"/>
       <c r="BN221" s="30"/>
@@ -46752,7 +46740,7 @@
       <c r="DH221" s="4"/>
       <c r="DI221" s="7"/>
     </row>
-    <row r="222" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL222" s="30"/>
       <c r="BM222" s="30"/>
       <c r="BN222" s="30"/>
@@ -46762,7 +46750,7 @@
       <c r="DH222" s="4"/>
       <c r="DI222" s="7"/>
     </row>
-    <row r="223" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL223" s="30"/>
       <c r="BM223" s="30"/>
       <c r="BN223" s="30"/>
@@ -46772,7 +46760,7 @@
       <c r="DH223" s="4"/>
       <c r="DI223" s="7"/>
     </row>
-    <row r="224" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL224" s="30"/>
       <c r="BM224" s="30"/>
       <c r="BN224" s="30"/>
@@ -46782,7 +46770,7 @@
       <c r="DH224" s="4"/>
       <c r="DI224" s="7"/>
     </row>
-    <row r="225" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL225" s="30"/>
       <c r="BM225" s="30"/>
       <c r="BN225" s="30"/>
@@ -46792,7 +46780,7 @@
       <c r="DH225" s="4"/>
       <c r="DI225" s="7"/>
     </row>
-    <row r="226" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL226" s="30"/>
       <c r="BM226" s="30"/>
       <c r="BN226" s="30"/>
@@ -46802,7 +46790,7 @@
       <c r="DH226" s="4"/>
       <c r="DI226" s="7"/>
     </row>
-    <row r="227" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL227" s="30"/>
       <c r="BM227" s="30"/>
       <c r="BN227" s="30"/>
@@ -46812,7 +46800,7 @@
       <c r="DH227" s="4"/>
       <c r="DI227" s="7"/>
     </row>
-    <row r="228" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL228" s="30"/>
       <c r="BM228" s="30"/>
       <c r="BN228" s="30"/>
@@ -46822,7 +46810,7 @@
       <c r="DH228" s="4"/>
       <c r="DI228" s="7"/>
     </row>
-    <row r="229" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL229" s="30"/>
       <c r="BM229" s="30"/>
       <c r="BN229" s="30"/>
@@ -46832,7 +46820,7 @@
       <c r="DH229" s="4"/>
       <c r="DI229" s="7"/>
     </row>
-    <row r="230" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL230" s="30"/>
       <c r="BM230" s="30"/>
       <c r="BN230" s="30"/>
@@ -46842,7 +46830,7 @@
       <c r="DH230" s="4"/>
       <c r="DI230" s="7"/>
     </row>
-    <row r="231" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL231" s="30"/>
       <c r="BM231" s="30"/>
       <c r="BN231" s="30"/>
@@ -46852,7 +46840,7 @@
       <c r="DH231" s="4"/>
       <c r="DI231" s="7"/>
     </row>
-    <row r="232" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL232" s="30"/>
       <c r="BM232" s="30"/>
       <c r="BN232" s="30"/>
@@ -46862,7 +46850,7 @@
       <c r="DH232" s="4"/>
       <c r="DI232" s="7"/>
     </row>
-    <row r="233" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL233" s="30"/>
       <c r="BM233" s="30"/>
       <c r="BN233" s="30"/>
@@ -46872,7 +46860,7 @@
       <c r="DH233" s="4"/>
       <c r="DI233" s="7"/>
     </row>
-    <row r="234" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL234" s="30"/>
       <c r="BM234" s="30"/>
       <c r="BN234" s="30"/>
@@ -46882,7 +46870,7 @@
       <c r="DH234" s="4"/>
       <c r="DI234" s="7"/>
     </row>
-    <row r="235" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL235" s="30"/>
       <c r="BM235" s="30"/>
       <c r="BN235" s="30"/>
@@ -46892,7 +46880,7 @@
       <c r="DH235" s="4"/>
       <c r="DI235" s="7"/>
     </row>
-    <row r="236" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL236" s="30"/>
       <c r="BM236" s="30"/>
       <c r="BN236" s="30"/>
@@ -46902,7 +46890,7 @@
       <c r="DH236" s="4"/>
       <c r="DI236" s="7"/>
     </row>
-    <row r="237" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL237" s="30"/>
       <c r="BM237" s="30"/>
       <c r="BN237" s="30"/>
@@ -46912,7 +46900,7 @@
       <c r="DH237" s="4"/>
       <c r="DI237" s="7"/>
     </row>
-    <row r="238" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL238" s="30"/>
       <c r="BM238" s="30"/>
       <c r="BN238" s="30"/>
@@ -46922,7 +46910,7 @@
       <c r="DH238" s="4"/>
       <c r="DI238" s="7"/>
     </row>
-    <row r="239" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL239" s="30"/>
       <c r="BM239" s="30"/>
       <c r="BN239" s="30"/>
@@ -46932,7 +46920,7 @@
       <c r="DH239" s="4"/>
       <c r="DI239" s="7"/>
     </row>
-    <row r="240" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL240" s="30"/>
       <c r="BM240" s="30"/>
       <c r="BN240" s="30"/>
@@ -46942,7 +46930,7 @@
       <c r="DH240" s="4"/>
       <c r="DI240" s="7"/>
     </row>
-    <row r="241" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL241" s="30"/>
       <c r="BM241" s="30"/>
       <c r="BN241" s="30"/>
@@ -46952,7 +46940,7 @@
       <c r="DH241" s="4"/>
       <c r="DI241" s="7"/>
     </row>
-    <row r="242" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL242" s="30"/>
       <c r="BM242" s="30"/>
       <c r="BN242" s="30"/>
@@ -46962,7 +46950,7 @@
       <c r="DH242" s="4"/>
       <c r="DI242" s="7"/>
     </row>
-    <row r="243" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL243" s="30"/>
       <c r="BM243" s="30"/>
       <c r="BN243" s="30"/>
@@ -46972,7 +46960,7 @@
       <c r="DH243" s="4"/>
       <c r="DI243" s="7"/>
     </row>
-    <row r="244" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL244" s="30"/>
       <c r="BM244" s="30"/>
       <c r="BN244" s="30"/>
@@ -46982,7 +46970,7 @@
       <c r="DH244" s="4"/>
       <c r="DI244" s="7"/>
     </row>
-    <row r="245" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL245" s="30"/>
       <c r="BM245" s="30"/>
       <c r="BN245" s="30"/>
@@ -46992,7 +46980,7 @@
       <c r="DH245" s="4"/>
       <c r="DI245" s="7"/>
     </row>
-    <row r="246" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL246" s="30"/>
       <c r="BM246" s="30"/>
       <c r="BN246" s="30"/>
@@ -47002,7 +46990,7 @@
       <c r="DH246" s="4"/>
       <c r="DI246" s="7"/>
     </row>
-    <row r="247" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL247" s="30"/>
       <c r="BM247" s="30"/>
       <c r="BN247" s="30"/>
@@ -47012,7 +47000,7 @@
       <c r="DH247" s="4"/>
       <c r="DI247" s="7"/>
     </row>
-    <row r="248" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL248" s="30"/>
       <c r="BM248" s="30"/>
       <c r="BN248" s="30"/>
@@ -47022,7 +47010,7 @@
       <c r="DH248" s="4"/>
       <c r="DI248" s="7"/>
     </row>
-    <row r="249" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL249" s="30"/>
       <c r="BM249" s="30"/>
       <c r="BN249" s="30"/>
@@ -47032,7 +47020,7 @@
       <c r="DH249" s="4"/>
       <c r="DI249" s="7"/>
     </row>
-    <row r="250" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL250" s="30"/>
       <c r="BM250" s="30"/>
       <c r="BN250" s="30"/>
@@ -47042,7 +47030,7 @@
       <c r="DH250" s="4"/>
       <c r="DI250" s="7"/>
     </row>
-    <row r="251" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL251" s="30"/>
       <c r="BM251" s="30"/>
       <c r="BN251" s="30"/>
@@ -47052,7 +47040,7 @@
       <c r="DH251" s="4"/>
       <c r="DI251" s="7"/>
     </row>
-    <row r="252" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL252" s="30"/>
       <c r="BM252" s="30"/>
       <c r="BN252" s="30"/>
@@ -47062,7 +47050,7 @@
       <c r="DH252" s="4"/>
       <c r="DI252" s="7"/>
     </row>
-    <row r="253" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL253" s="30"/>
       <c r="BM253" s="30"/>
       <c r="BN253" s="30"/>
@@ -47072,7 +47060,7 @@
       <c r="DH253" s="4"/>
       <c r="DI253" s="7"/>
     </row>
-    <row r="254" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL254" s="30"/>
       <c r="BM254" s="30"/>
       <c r="BN254" s="30"/>
@@ -47082,7 +47070,7 @@
       <c r="DH254" s="4"/>
       <c r="DI254" s="7"/>
     </row>
-    <row r="255" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL255" s="30"/>
       <c r="BM255" s="30"/>
       <c r="BN255" s="30"/>
@@ -47092,7 +47080,7 @@
       <c r="DH255" s="4"/>
       <c r="DI255" s="7"/>
     </row>
-    <row r="256" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL256" s="30"/>
       <c r="BM256" s="30"/>
       <c r="BN256" s="30"/>
@@ -47102,7 +47090,7 @@
       <c r="DH256" s="4"/>
       <c r="DI256" s="7"/>
     </row>
-    <row r="257" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL257" s="30"/>
       <c r="BM257" s="30"/>
       <c r="BN257" s="30"/>
@@ -47112,7 +47100,7 @@
       <c r="DH257" s="4"/>
       <c r="DI257" s="7"/>
     </row>
-    <row r="258" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL258" s="30"/>
       <c r="BM258" s="30"/>
       <c r="BN258" s="30"/>
@@ -47122,7 +47110,7 @@
       <c r="DH258" s="4"/>
       <c r="DI258" s="7"/>
     </row>
-    <row r="259" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL259" s="30"/>
       <c r="BM259" s="30"/>
       <c r="BN259" s="30"/>
@@ -47132,7 +47120,7 @@
       <c r="DH259" s="4"/>
       <c r="DI259" s="7"/>
     </row>
-    <row r="260" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL260" s="30"/>
       <c r="BM260" s="30"/>
       <c r="BN260" s="30"/>
@@ -47142,7 +47130,7 @@
       <c r="DH260" s="4"/>
       <c r="DI260" s="7"/>
     </row>
-    <row r="261" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL261" s="30"/>
       <c r="BM261" s="30"/>
       <c r="BN261" s="30"/>
@@ -47152,7 +47140,7 @@
       <c r="DH261" s="4"/>
       <c r="DI261" s="7"/>
     </row>
-    <row r="262" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL262" s="30"/>
       <c r="BM262" s="30"/>
       <c r="BN262" s="30"/>
@@ -47162,7 +47150,7 @@
       <c r="DH262" s="4"/>
       <c r="DI262" s="7"/>
     </row>
-    <row r="263" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL263" s="30"/>
       <c r="BM263" s="30"/>
       <c r="BN263" s="30"/>
@@ -47172,7 +47160,7 @@
       <c r="DH263" s="4"/>
       <c r="DI263" s="7"/>
     </row>
-    <row r="264" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL264" s="30"/>
       <c r="BM264" s="30"/>
       <c r="BN264" s="30"/>
@@ -47182,7 +47170,7 @@
       <c r="DH264" s="4"/>
       <c r="DI264" s="7"/>
     </row>
-    <row r="265" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL265" s="30"/>
       <c r="BM265" s="30"/>
       <c r="BN265" s="30"/>
@@ -47192,7 +47180,7 @@
       <c r="DH265" s="4"/>
       <c r="DI265" s="7"/>
     </row>
-    <row r="266" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL266" s="30"/>
       <c r="BM266" s="30"/>
       <c r="BN266" s="30"/>
@@ -47202,7 +47190,7 @@
       <c r="DH266" s="4"/>
       <c r="DI266" s="7"/>
     </row>
-    <row r="267" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL267" s="30"/>
       <c r="BM267" s="30"/>
       <c r="BN267" s="30"/>
@@ -47212,7 +47200,7 @@
       <c r="DH267" s="4"/>
       <c r="DI267" s="7"/>
     </row>
-    <row r="268" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL268" s="30"/>
       <c r="BM268" s="30"/>
       <c r="BN268" s="30"/>
@@ -47222,7 +47210,7 @@
       <c r="DH268" s="4"/>
       <c r="DI268" s="7"/>
     </row>
-    <row r="269" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL269" s="30"/>
       <c r="BM269" s="30"/>
       <c r="BN269" s="30"/>
@@ -47232,7 +47220,7 @@
       <c r="DH269" s="4"/>
       <c r="DI269" s="7"/>
     </row>
-    <row r="270" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL270" s="30"/>
       <c r="BM270" s="30"/>
       <c r="BN270" s="30"/>
@@ -47242,7 +47230,7 @@
       <c r="DH270" s="4"/>
       <c r="DI270" s="7"/>
     </row>
-    <row r="271" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL271" s="30"/>
       <c r="BM271" s="30"/>
       <c r="BN271" s="30"/>
@@ -47252,7 +47240,7 @@
       <c r="DH271" s="4"/>
       <c r="DI271" s="7"/>
     </row>
-    <row r="272" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL272" s="30"/>
       <c r="BM272" s="30"/>
       <c r="BN272" s="30"/>
@@ -47262,7 +47250,7 @@
       <c r="DH272" s="4"/>
       <c r="DI272" s="7"/>
     </row>
-    <row r="273" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL273" s="30"/>
       <c r="BM273" s="30"/>
       <c r="BN273" s="30"/>
@@ -47272,7 +47260,7 @@
       <c r="DH273" s="4"/>
       <c r="DI273" s="7"/>
     </row>
-    <row r="274" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL274" s="30"/>
       <c r="BM274" s="30"/>
       <c r="BN274" s="30"/>
@@ -47282,7 +47270,7 @@
       <c r="DH274" s="4"/>
       <c r="DI274" s="7"/>
     </row>
-    <row r="275" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL275" s="30"/>
       <c r="BM275" s="30"/>
       <c r="BN275" s="30"/>
@@ -47292,7 +47280,7 @@
       <c r="DH275" s="4"/>
       <c r="DI275" s="7"/>
     </row>
-    <row r="276" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL276" s="30"/>
       <c r="BM276" s="30"/>
       <c r="BN276" s="30"/>
@@ -47302,7 +47290,7 @@
       <c r="DH276" s="4"/>
       <c r="DI276" s="7"/>
     </row>
-    <row r="277" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL277" s="30"/>
       <c r="BM277" s="30"/>
       <c r="BN277" s="30"/>
@@ -47312,7 +47300,7 @@
       <c r="DH277" s="4"/>
       <c r="DI277" s="7"/>
     </row>
-    <row r="278" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL278" s="30"/>
       <c r="BM278" s="30"/>
       <c r="BN278" s="30"/>
@@ -47322,7 +47310,7 @@
       <c r="DH278" s="4"/>
       <c r="DI278" s="7"/>
     </row>
-    <row r="279" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL279" s="30"/>
       <c r="BM279" s="30"/>
       <c r="BN279" s="30"/>
@@ -47332,7 +47320,7 @@
       <c r="DH279" s="4"/>
       <c r="DI279" s="7"/>
     </row>
-    <row r="280" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL280" s="30"/>
       <c r="BM280" s="30"/>
       <c r="BN280" s="30"/>
@@ -47342,7 +47330,7 @@
       <c r="DH280" s="4"/>
       <c r="DI280" s="7"/>
     </row>
-    <row r="281" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL281" s="30"/>
       <c r="BM281" s="30"/>
       <c r="BN281" s="30"/>
@@ -47352,7 +47340,7 @@
       <c r="DH281" s="4"/>
       <c r="DI281" s="7"/>
     </row>
-    <row r="282" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL282" s="30"/>
       <c r="BM282" s="30"/>
       <c r="BN282" s="30"/>
@@ -47362,7 +47350,7 @@
       <c r="DH282" s="4"/>
       <c r="DI282" s="7"/>
     </row>
-    <row r="283" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL283" s="30"/>
       <c r="BM283" s="30"/>
       <c r="BN283" s="30"/>
@@ -47372,7 +47360,7 @@
       <c r="DH283" s="4"/>
       <c r="DI283" s="7"/>
     </row>
-    <row r="284" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL284" s="30"/>
       <c r="BM284" s="30"/>
       <c r="BN284" s="30"/>
@@ -47382,7 +47370,7 @@
       <c r="DH284" s="4"/>
       <c r="DI284" s="7"/>
     </row>
-    <row r="285" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL285" s="30"/>
       <c r="BM285" s="30"/>
       <c r="BN285" s="30"/>
@@ -47392,7 +47380,7 @@
       <c r="DH285" s="4"/>
       <c r="DI285" s="7"/>
     </row>
-    <row r="286" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL286" s="30"/>
       <c r="BM286" s="30"/>
       <c r="BN286" s="30"/>
@@ -47402,7 +47390,7 @@
       <c r="DH286" s="4"/>
       <c r="DI286" s="7"/>
     </row>
-    <row r="287" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL287" s="30"/>
       <c r="BM287" s="30"/>
       <c r="BN287" s="30"/>
@@ -47412,7 +47400,7 @@
       <c r="DH287" s="4"/>
       <c r="DI287" s="7"/>
     </row>
-    <row r="288" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL288" s="30"/>
       <c r="BM288" s="30"/>
       <c r="BN288" s="30"/>
@@ -47422,7 +47410,7 @@
       <c r="DH288" s="4"/>
       <c r="DI288" s="7"/>
     </row>
-    <row r="289" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL289" s="30"/>
       <c r="BM289" s="30"/>
       <c r="BN289" s="30"/>
@@ -47432,7 +47420,7 @@
       <c r="DH289" s="4"/>
       <c r="DI289" s="7"/>
     </row>
-    <row r="290" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL290" s="30"/>
       <c r="BM290" s="30"/>
       <c r="BN290" s="30"/>
@@ -47442,7 +47430,7 @@
       <c r="DH290" s="4"/>
       <c r="DI290" s="7"/>
     </row>
-    <row r="291" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL291" s="30"/>
       <c r="BM291" s="30"/>
       <c r="BN291" s="30"/>
@@ -47452,7 +47440,7 @@
       <c r="DH291" s="4"/>
       <c r="DI291" s="7"/>
     </row>
-    <row r="292" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL292" s="30"/>
       <c r="BM292" s="30"/>
       <c r="BN292" s="30"/>
@@ -47462,7 +47450,7 @@
       <c r="DH292" s="4"/>
       <c r="DI292" s="7"/>
     </row>
-    <row r="293" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL293" s="30"/>
       <c r="BM293" s="30"/>
       <c r="BN293" s="30"/>
@@ -47472,7 +47460,7 @@
       <c r="DH293" s="4"/>
       <c r="DI293" s="7"/>
     </row>
-    <row r="294" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL294" s="30"/>
       <c r="BM294" s="30"/>
       <c r="BN294" s="30"/>
@@ -47482,7 +47470,7 @@
       <c r="DH294" s="4"/>
       <c r="DI294" s="7"/>
     </row>
-    <row r="295" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL295" s="30"/>
       <c r="BM295" s="30"/>
       <c r="BN295" s="30"/>
@@ -47492,7 +47480,7 @@
       <c r="DH295" s="4"/>
       <c r="DI295" s="7"/>
     </row>
-    <row r="296" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL296" s="30"/>
       <c r="BM296" s="30"/>
       <c r="BN296" s="30"/>
@@ -47502,7 +47490,7 @@
       <c r="DH296" s="4"/>
       <c r="DI296" s="7"/>
     </row>
-    <row r="297" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL297" s="30"/>
       <c r="BM297" s="30"/>
       <c r="BN297" s="30"/>
@@ -47512,7 +47500,7 @@
       <c r="DH297" s="4"/>
       <c r="DI297" s="7"/>
     </row>
-    <row r="298" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL298" s="30"/>
       <c r="BM298" s="30"/>
       <c r="BN298" s="30"/>
@@ -47522,7 +47510,7 @@
       <c r="DH298" s="4"/>
       <c r="DI298" s="7"/>
     </row>
-    <row r="299" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL299" s="30"/>
       <c r="BM299" s="30"/>
       <c r="BN299" s="30"/>
@@ -47532,7 +47520,7 @@
       <c r="DH299" s="4"/>
       <c r="DI299" s="7"/>
     </row>
-    <row r="300" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL300" s="30"/>
       <c r="BM300" s="30"/>
       <c r="BN300" s="30"/>
@@ -47542,7 +47530,7 @@
       <c r="DH300" s="4"/>
       <c r="DI300" s="7"/>
     </row>
-    <row r="301" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL301" s="30"/>
       <c r="BM301" s="30"/>
       <c r="BN301" s="30"/>
@@ -47552,7 +47540,7 @@
       <c r="DH301" s="4"/>
       <c r="DI301" s="7"/>
     </row>
-    <row r="302" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL302" s="30"/>
       <c r="BM302" s="30"/>
       <c r="BN302" s="30"/>
@@ -47562,7 +47550,7 @@
       <c r="DH302" s="4"/>
       <c r="DI302" s="7"/>
     </row>
-    <row r="303" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL303" s="30"/>
       <c r="BM303" s="30"/>
       <c r="BN303" s="30"/>
@@ -47572,7 +47560,7 @@
       <c r="DH303" s="4"/>
       <c r="DI303" s="7"/>
     </row>
-    <row r="304" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL304" s="30"/>
       <c r="BM304" s="30"/>
       <c r="BN304" s="30"/>
@@ -47582,7 +47570,7 @@
       <c r="DH304" s="4"/>
       <c r="DI304" s="7"/>
     </row>
-    <row r="305" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL305" s="30"/>
       <c r="BM305" s="30"/>
       <c r="BN305" s="30"/>
@@ -47592,7 +47580,7 @@
       <c r="DH305" s="4"/>
       <c r="DI305" s="7"/>
     </row>
-    <row r="306" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL306" s="30"/>
       <c r="BM306" s="30"/>
       <c r="BN306" s="30"/>
@@ -47602,7 +47590,7 @@
       <c r="DH306" s="4"/>
       <c r="DI306" s="7"/>
     </row>
-    <row r="307" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL307" s="30"/>
       <c r="BM307" s="30"/>
       <c r="BN307" s="30"/>
@@ -47612,7 +47600,7 @@
       <c r="DH307" s="4"/>
       <c r="DI307" s="7"/>
     </row>
-    <row r="308" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL308" s="30"/>
       <c r="BM308" s="30"/>
       <c r="BN308" s="30"/>
@@ -47622,7 +47610,7 @@
       <c r="DH308" s="4"/>
       <c r="DI308" s="7"/>
     </row>
-    <row r="309" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL309" s="30"/>
       <c r="BM309" s="30"/>
       <c r="BN309" s="30"/>
@@ -47632,7 +47620,7 @@
       <c r="DH309" s="4"/>
       <c r="DI309" s="7"/>
     </row>
-    <row r="310" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL310" s="30"/>
       <c r="BM310" s="30"/>
       <c r="BN310" s="30"/>
@@ -47642,7 +47630,7 @@
       <c r="DH310" s="4"/>
       <c r="DI310" s="7"/>
     </row>
-    <row r="311" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL311" s="30"/>
       <c r="BM311" s="30"/>
       <c r="BN311" s="30"/>
@@ -47652,7 +47640,7 @@
       <c r="DH311" s="4"/>
       <c r="DI311" s="7"/>
     </row>
-    <row r="312" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL312" s="30"/>
       <c r="BM312" s="30"/>
       <c r="BN312" s="30"/>
@@ -47662,7 +47650,7 @@
       <c r="DH312" s="4"/>
       <c r="DI312" s="7"/>
     </row>
-    <row r="313" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL313" s="30"/>
       <c r="BM313" s="30"/>
       <c r="BN313" s="30"/>
@@ -47672,7 +47660,7 @@
       <c r="DH313" s="4"/>
       <c r="DI313" s="7"/>
     </row>
-    <row r="314" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL314" s="30"/>
       <c r="BM314" s="30"/>
       <c r="BN314" s="30"/>
@@ -47682,7 +47670,7 @@
       <c r="DH314" s="4"/>
       <c r="DI314" s="7"/>
     </row>
-    <row r="315" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL315" s="30"/>
       <c r="BM315" s="30"/>
       <c r="BN315" s="30"/>
@@ -47692,7 +47680,7 @@
       <c r="DH315" s="4"/>
       <c r="DI315" s="7"/>
     </row>
-    <row r="316" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL316" s="30"/>
       <c r="BM316" s="30"/>
       <c r="BN316" s="30"/>
@@ -47702,7 +47690,7 @@
       <c r="DH316" s="4"/>
       <c r="DI316" s="7"/>
     </row>
-    <row r="317" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL317" s="30"/>
       <c r="BM317" s="30"/>
       <c r="BN317" s="30"/>
@@ -47712,7 +47700,7 @@
       <c r="DH317" s="4"/>
       <c r="DI317" s="7"/>
     </row>
-    <row r="318" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL318" s="30"/>
       <c r="BM318" s="30"/>
       <c r="BN318" s="30"/>
@@ -47722,7 +47710,7 @@
       <c r="DH318" s="4"/>
       <c r="DI318" s="7"/>
     </row>
-    <row r="319" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL319" s="30"/>
       <c r="BM319" s="30"/>
       <c r="BN319" s="30"/>
@@ -47732,7 +47720,7 @@
       <c r="DH319" s="4"/>
       <c r="DI319" s="7"/>
     </row>
-    <row r="320" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL320" s="30"/>
       <c r="BM320" s="30"/>
       <c r="BN320" s="30"/>
@@ -47742,7 +47730,7 @@
       <c r="DH320" s="4"/>
       <c r="DI320" s="7"/>
     </row>
-    <row r="321" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL321" s="30"/>
       <c r="BM321" s="30"/>
       <c r="BN321" s="30"/>
@@ -47752,7 +47740,7 @@
       <c r="DH321" s="4"/>
       <c r="DI321" s="7"/>
     </row>
-    <row r="322" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL322" s="30"/>
       <c r="BM322" s="30"/>
       <c r="BN322" s="30"/>
@@ -47762,7 +47750,7 @@
       <c r="DH322" s="4"/>
       <c r="DI322" s="7"/>
     </row>
-    <row r="323" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL323" s="30"/>
       <c r="BM323" s="30"/>
       <c r="BN323" s="30"/>
@@ -47772,7 +47760,7 @@
       <c r="DH323" s="4"/>
       <c r="DI323" s="7"/>
     </row>
-    <row r="324" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL324" s="30"/>
       <c r="BM324" s="30"/>
       <c r="BN324" s="30"/>
@@ -47782,7 +47770,7 @@
       <c r="DH324" s="4"/>
       <c r="DI324" s="7"/>
     </row>
-    <row r="325" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL325" s="30"/>
       <c r="BM325" s="30"/>
       <c r="BN325" s="30"/>
@@ -47792,7 +47780,7 @@
       <c r="DH325" s="4"/>
       <c r="DI325" s="7"/>
     </row>
-    <row r="326" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL326" s="30"/>
       <c r="BM326" s="30"/>
       <c r="BN326" s="30"/>
@@ -47802,7 +47790,7 @@
       <c r="DH326" s="4"/>
       <c r="DI326" s="7"/>
     </row>
-    <row r="327" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL327" s="30"/>
       <c r="BM327" s="30"/>
       <c r="BN327" s="30"/>
@@ -47812,7 +47800,7 @@
       <c r="DH327" s="4"/>
       <c r="DI327" s="7"/>
     </row>
-    <row r="328" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL328" s="30"/>
       <c r="BM328" s="30"/>
       <c r="BN328" s="30"/>
@@ -47822,7 +47810,7 @@
       <c r="DH328" s="4"/>
       <c r="DI328" s="7"/>
     </row>
-    <row r="329" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL329" s="30"/>
       <c r="BM329" s="30"/>
       <c r="BN329" s="30"/>
@@ -47832,7 +47820,7 @@
       <c r="DH329" s="4"/>
       <c r="DI329" s="7"/>
     </row>
-    <row r="330" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL330" s="30"/>
       <c r="BM330" s="30"/>
       <c r="BN330" s="30"/>
@@ -47842,7 +47830,7 @@
       <c r="DH330" s="4"/>
       <c r="DI330" s="7"/>
     </row>
-    <row r="331" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL331" s="30"/>
       <c r="BM331" s="30"/>
       <c r="BN331" s="30"/>
@@ -47852,7 +47840,7 @@
       <c r="DH331" s="4"/>
       <c r="DI331" s="7"/>
     </row>
-    <row r="332" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL332" s="30"/>
       <c r="BM332" s="30"/>
       <c r="BN332" s="30"/>
@@ -47862,7 +47850,7 @@
       <c r="DH332" s="4"/>
       <c r="DI332" s="7"/>
     </row>
-    <row r="333" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL333" s="30"/>
       <c r="BM333" s="30"/>
       <c r="BN333" s="30"/>
@@ -47872,7 +47860,7 @@
       <c r="DH333" s="4"/>
       <c r="DI333" s="7"/>
     </row>
-    <row r="334" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL334" s="30"/>
       <c r="BM334" s="30"/>
       <c r="BN334" s="30"/>
@@ -47882,7 +47870,7 @@
       <c r="DH334" s="4"/>
       <c r="DI334" s="7"/>
     </row>
-    <row r="335" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL335" s="30"/>
       <c r="BM335" s="30"/>
       <c r="BN335" s="30"/>
@@ -47892,7 +47880,7 @@
       <c r="DH335" s="4"/>
       <c r="DI335" s="7"/>
     </row>
-    <row r="336" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL336" s="30"/>
       <c r="BM336" s="30"/>
       <c r="BN336" s="30"/>
@@ -47902,7 +47890,7 @@
       <c r="DH336" s="4"/>
       <c r="DI336" s="7"/>
     </row>
-    <row r="337" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL337" s="30"/>
       <c r="BM337" s="30"/>
       <c r="BN337" s="30"/>
@@ -47912,7 +47900,7 @@
       <c r="DH337" s="4"/>
       <c r="DI337" s="7"/>
     </row>
-    <row r="338" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL338" s="30"/>
       <c r="BM338" s="30"/>
       <c r="BN338" s="30"/>
@@ -47922,7 +47910,7 @@
       <c r="DH338" s="4"/>
       <c r="DI338" s="7"/>
     </row>
-    <row r="339" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL339" s="30"/>
       <c r="BM339" s="30"/>
       <c r="BN339" s="30"/>
@@ -47932,7 +47920,7 @@
       <c r="DH339" s="4"/>
       <c r="DI339" s="7"/>
     </row>
-    <row r="340" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL340" s="30"/>
       <c r="BM340" s="30"/>
       <c r="BN340" s="30"/>
@@ -47942,7 +47930,7 @@
       <c r="DH340" s="4"/>
       <c r="DI340" s="7"/>
     </row>
-    <row r="341" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL341" s="30"/>
       <c r="BM341" s="30"/>
       <c r="BN341" s="30"/>
@@ -47952,7 +47940,7 @@
       <c r="DH341" s="4"/>
       <c r="DI341" s="7"/>
     </row>
-    <row r="342" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL342" s="30"/>
       <c r="BM342" s="30"/>
       <c r="BN342" s="30"/>
@@ -47962,7 +47950,7 @@
       <c r="DH342" s="4"/>
       <c r="DI342" s="7"/>
     </row>
-    <row r="343" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL343" s="30"/>
       <c r="BM343" s="30"/>
       <c r="BN343" s="30"/>
@@ -47972,7 +47960,7 @@
       <c r="DH343" s="4"/>
       <c r="DI343" s="7"/>
     </row>
-    <row r="344" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL344" s="30"/>
       <c r="BM344" s="30"/>
       <c r="BN344" s="30"/>
@@ -47982,7 +47970,7 @@
       <c r="DH344" s="4"/>
       <c r="DI344" s="7"/>
     </row>
-    <row r="345" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL345" s="30"/>
       <c r="BM345" s="30"/>
       <c r="BN345" s="30"/>
@@ -47992,7 +47980,7 @@
       <c r="DH345" s="4"/>
       <c r="DI345" s="7"/>
     </row>
-    <row r="346" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL346" s="30"/>
       <c r="BM346" s="30"/>
       <c r="BN346" s="30"/>
@@ -48002,7 +47990,7 @@
       <c r="DH346" s="4"/>
       <c r="DI346" s="7"/>
     </row>
-    <row r="347" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL347" s="30"/>
       <c r="BM347" s="30"/>
       <c r="BN347" s="30"/>
@@ -48012,7 +48000,7 @@
       <c r="DH347" s="4"/>
       <c r="DI347" s="7"/>
     </row>
-    <row r="348" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL348" s="30"/>
       <c r="BM348" s="30"/>
       <c r="BN348" s="30"/>
@@ -48022,7 +48010,7 @@
       <c r="DH348" s="4"/>
       <c r="DI348" s="7"/>
     </row>
-    <row r="349" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL349" s="30"/>
       <c r="BM349" s="30"/>
       <c r="BN349" s="30"/>
@@ -48032,7 +48020,7 @@
       <c r="DH349" s="4"/>
       <c r="DI349" s="7"/>
     </row>
-    <row r="350" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL350" s="30"/>
       <c r="BM350" s="30"/>
       <c r="BN350" s="30"/>
@@ -48042,7 +48030,7 @@
       <c r="DH350" s="4"/>
       <c r="DI350" s="7"/>
     </row>
-    <row r="351" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL351" s="30"/>
       <c r="BM351" s="30"/>
       <c r="BN351" s="30"/>
@@ -48052,7 +48040,7 @@
       <c r="DH351" s="4"/>
       <c r="DI351" s="7"/>
     </row>
-    <row r="352" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL352" s="30"/>
       <c r="BM352" s="30"/>
       <c r="BN352" s="30"/>
@@ -48062,7 +48050,7 @@
       <c r="DH352" s="4"/>
       <c r="DI352" s="7"/>
     </row>
-    <row r="353" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL353" s="30"/>
       <c r="BM353" s="30"/>
       <c r="BN353" s="30"/>
@@ -48072,7 +48060,7 @@
       <c r="DH353" s="4"/>
       <c r="DI353" s="7"/>
     </row>
-    <row r="354" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL354" s="30"/>
       <c r="BM354" s="30"/>
       <c r="BN354" s="30"/>
@@ -48082,7 +48070,7 @@
       <c r="DH354" s="4"/>
       <c r="DI354" s="7"/>
     </row>
-    <row r="355" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL355" s="30"/>
       <c r="BM355" s="30"/>
       <c r="BN355" s="30"/>
@@ -48092,7 +48080,7 @@
       <c r="DH355" s="4"/>
       <c r="DI355" s="7"/>
     </row>
-    <row r="356" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL356" s="30"/>
       <c r="BM356" s="30"/>
       <c r="BN356" s="30"/>
@@ -48102,7 +48090,7 @@
       <c r="DH356" s="4"/>
       <c r="DI356" s="7"/>
     </row>
-    <row r="357" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL357" s="30"/>
       <c r="BM357" s="30"/>
       <c r="BN357" s="30"/>
@@ -48112,7 +48100,7 @@
       <c r="DH357" s="4"/>
       <c r="DI357" s="7"/>
     </row>
-    <row r="358" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL358" s="30"/>
       <c r="BM358" s="30"/>
       <c r="BN358" s="30"/>
@@ -48122,7 +48110,7 @@
       <c r="DH358" s="4"/>
       <c r="DI358" s="7"/>
     </row>
-    <row r="359" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL359" s="30"/>
       <c r="BM359" s="30"/>
       <c r="BN359" s="30"/>
@@ -48132,7 +48120,7 @@
       <c r="DH359" s="4"/>
       <c r="DI359" s="7"/>
     </row>
-    <row r="360" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL360" s="30"/>
       <c r="BM360" s="30"/>
       <c r="BN360" s="30"/>
@@ -48142,7 +48130,7 @@
       <c r="DH360" s="4"/>
       <c r="DI360" s="7"/>
     </row>
-    <row r="361" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL361" s="30"/>
       <c r="BM361" s="30"/>
       <c r="BN361" s="30"/>
@@ -48152,7 +48140,7 @@
       <c r="DH361" s="4"/>
       <c r="DI361" s="7"/>
     </row>
-    <row r="362" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL362" s="30"/>
       <c r="BM362" s="30"/>
       <c r="BN362" s="30"/>
@@ -48162,7 +48150,7 @@
       <c r="DH362" s="4"/>
       <c r="DI362" s="7"/>
     </row>
-    <row r="363" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL363" s="30"/>
       <c r="BM363" s="30"/>
       <c r="BN363" s="30"/>
@@ -48172,7 +48160,7 @@
       <c r="DH363" s="4"/>
       <c r="DI363" s="7"/>
     </row>
-    <row r="364" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL364" s="30"/>
       <c r="BM364" s="30"/>
       <c r="BN364" s="30"/>
@@ -48182,7 +48170,7 @@
       <c r="DH364" s="4"/>
       <c r="DI364" s="7"/>
     </row>
-    <row r="365" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL365" s="30"/>
       <c r="BM365" s="30"/>
       <c r="BN365" s="30"/>
@@ -48192,7 +48180,7 @@
       <c r="DH365" s="4"/>
       <c r="DI365" s="7"/>
     </row>
-    <row r="366" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL366" s="30"/>
       <c r="BM366" s="30"/>
       <c r="BN366" s="30"/>
@@ -48202,7 +48190,7 @@
       <c r="DH366" s="4"/>
       <c r="DI366" s="7"/>
     </row>
-    <row r="367" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL367" s="30"/>
       <c r="BM367" s="30"/>
       <c r="BN367" s="30"/>
@@ -48212,7 +48200,7 @@
       <c r="DH367" s="4"/>
       <c r="DI367" s="7"/>
     </row>
-    <row r="368" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL368" s="30"/>
       <c r="BM368" s="30"/>
       <c r="BN368" s="30"/>
@@ -48222,7 +48210,7 @@
       <c r="DH368" s="4"/>
       <c r="DI368" s="7"/>
     </row>
-    <row r="369" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL369" s="30"/>
       <c r="BM369" s="30"/>
       <c r="BN369" s="30"/>
@@ -48232,7 +48220,7 @@
       <c r="DH369" s="4"/>
       <c r="DI369" s="7"/>
     </row>
-    <row r="370" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL370" s="30"/>
       <c r="BM370" s="30"/>
       <c r="BN370" s="30"/>
@@ -48242,7 +48230,7 @@
       <c r="DH370" s="4"/>
       <c r="DI370" s="7"/>
     </row>
-    <row r="371" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL371" s="30"/>
       <c r="BM371" s="30"/>
       <c r="BN371" s="30"/>
@@ -48252,7 +48240,7 @@
       <c r="DH371" s="4"/>
       <c r="DI371" s="7"/>
     </row>
-    <row r="372" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL372" s="30"/>
       <c r="BM372" s="30"/>
       <c r="BN372" s="30"/>
@@ -48262,7 +48250,7 @@
       <c r="DH372" s="4"/>
       <c r="DI372" s="7"/>
     </row>
-    <row r="373" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL373" s="30"/>
       <c r="BM373" s="30"/>
       <c r="BN373" s="30"/>
@@ -48272,7 +48260,7 @@
       <c r="DH373" s="4"/>
       <c r="DI373" s="7"/>
     </row>
-    <row r="374" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL374" s="30"/>
       <c r="BM374" s="30"/>
       <c r="BN374" s="30"/>
@@ -48282,7 +48270,7 @@
       <c r="DH374" s="4"/>
       <c r="DI374" s="7"/>
     </row>
-    <row r="375" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL375" s="30"/>
       <c r="BM375" s="30"/>
       <c r="BN375" s="30"/>
@@ -48292,7 +48280,7 @@
       <c r="DH375" s="4"/>
       <c r="DI375" s="7"/>
     </row>
-    <row r="376" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL376" s="30"/>
       <c r="BM376" s="30"/>
       <c r="BN376" s="30"/>
@@ -48302,7 +48290,7 @@
       <c r="DH376" s="4"/>
       <c r="DI376" s="7"/>
     </row>
-    <row r="377" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL377" s="30"/>
       <c r="BM377" s="30"/>
       <c r="BN377" s="30"/>
@@ -48312,7 +48300,7 @@
       <c r="DH377" s="4"/>
       <c r="DI377" s="7"/>
     </row>
-    <row r="378" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL378" s="30"/>
       <c r="BM378" s="30"/>
       <c r="BN378" s="30"/>
@@ -48322,7 +48310,7 @@
       <c r="DH378" s="4"/>
       <c r="DI378" s="7"/>
     </row>
-    <row r="379" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL379" s="30"/>
       <c r="BM379" s="30"/>
       <c r="BN379" s="30"/>
@@ -48332,7 +48320,7 @@
       <c r="DH379" s="4"/>
       <c r="DI379" s="7"/>
     </row>
-    <row r="380" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL380" s="30"/>
       <c r="BM380" s="30"/>
       <c r="BN380" s="30"/>
@@ -48342,7 +48330,7 @@
       <c r="DH380" s="4"/>
       <c r="DI380" s="7"/>
     </row>
-    <row r="381" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL381" s="30"/>
       <c r="BM381" s="30"/>
       <c r="BN381" s="30"/>
@@ -48352,7 +48340,7 @@
       <c r="DH381" s="4"/>
       <c r="DI381" s="7"/>
     </row>
-    <row r="382" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL382" s="30"/>
       <c r="BM382" s="30"/>
       <c r="BN382" s="30"/>
@@ -48362,7 +48350,7 @@
       <c r="DH382" s="4"/>
       <c r="DI382" s="7"/>
     </row>
-    <row r="383" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL383" s="30"/>
       <c r="BM383" s="30"/>
       <c r="BN383" s="30"/>
@@ -48372,7 +48360,7 @@
       <c r="DH383" s="4"/>
       <c r="DI383" s="7"/>
     </row>
-    <row r="384" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL384" s="30"/>
       <c r="BM384" s="30"/>
       <c r="BN384" s="30"/>
@@ -48382,7 +48370,7 @@
       <c r="DH384" s="4"/>
       <c r="DI384" s="7"/>
     </row>
-    <row r="385" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL385" s="30"/>
       <c r="BM385" s="30"/>
       <c r="BN385" s="30"/>
@@ -48392,7 +48380,7 @@
       <c r="DH385" s="4"/>
       <c r="DI385" s="7"/>
     </row>
-    <row r="386" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL386" s="30"/>
       <c r="BM386" s="30"/>
       <c r="BN386" s="30"/>
@@ -48402,7 +48390,7 @@
       <c r="DH386" s="4"/>
       <c r="DI386" s="7"/>
     </row>
-    <row r="387" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL387" s="30"/>
       <c r="BM387" s="30"/>
       <c r="BN387" s="30"/>
@@ -48412,7 +48400,7 @@
       <c r="DH387" s="4"/>
       <c r="DI387" s="7"/>
     </row>
-    <row r="388" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL388" s="30"/>
       <c r="BM388" s="30"/>
       <c r="BN388" s="30"/>
@@ -48422,7 +48410,7 @@
       <c r="DH388" s="4"/>
       <c r="DI388" s="7"/>
     </row>
-    <row r="389" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL389" s="30"/>
       <c r="BM389" s="30"/>
       <c r="BN389" s="30"/>
@@ -48432,7 +48420,7 @@
       <c r="DH389" s="4"/>
       <c r="DI389" s="7"/>
     </row>
-    <row r="390" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL390" s="30"/>
       <c r="BM390" s="30"/>
       <c r="BN390" s="30"/>
@@ -48442,7 +48430,7 @@
       <c r="DH390" s="4"/>
       <c r="DI390" s="7"/>
     </row>
-    <row r="391" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL391" s="30"/>
       <c r="BM391" s="30"/>
       <c r="BN391" s="30"/>
@@ -48452,7 +48440,7 @@
       <c r="DH391" s="4"/>
       <c r="DI391" s="7"/>
     </row>
-    <row r="392" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL392" s="30"/>
       <c r="BM392" s="30"/>
       <c r="BN392" s="30"/>
@@ -48462,7 +48450,7 @@
       <c r="DH392" s="4"/>
       <c r="DI392" s="7"/>
     </row>
-    <row r="393" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL393" s="30"/>
       <c r="BM393" s="30"/>
       <c r="BN393" s="30"/>
@@ -48472,7 +48460,7 @@
       <c r="DH393" s="4"/>
       <c r="DI393" s="7"/>
     </row>
-    <row r="394" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL394" s="30"/>
       <c r="BM394" s="30"/>
       <c r="BN394" s="30"/>
@@ -48482,7 +48470,7 @@
       <c r="DH394" s="4"/>
       <c r="DI394" s="7"/>
     </row>
-    <row r="395" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL395" s="30"/>
       <c r="BM395" s="30"/>
       <c r="BN395" s="30"/>
@@ -48492,7 +48480,7 @@
       <c r="DH395" s="4"/>
       <c r="DI395" s="7"/>
     </row>
-    <row r="396" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL396" s="30"/>
       <c r="BM396" s="30"/>
       <c r="BN396" s="30"/>
@@ -48502,7 +48490,7 @@
       <c r="DH396" s="4"/>
       <c r="DI396" s="7"/>
     </row>
-    <row r="397" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL397" s="30"/>
       <c r="BM397" s="30"/>
       <c r="BN397" s="30"/>
@@ -48512,7 +48500,7 @@
       <c r="DH397" s="4"/>
       <c r="DI397" s="7"/>
     </row>
-    <row r="398" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL398" s="30"/>
       <c r="BM398" s="30"/>
       <c r="BN398" s="30"/>
@@ -48522,7 +48510,7 @@
       <c r="DH398" s="4"/>
       <c r="DI398" s="7"/>
     </row>
-    <row r="399" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL399" s="30"/>
       <c r="BM399" s="30"/>
       <c r="BN399" s="30"/>
@@ -48532,7 +48520,7 @@
       <c r="DH399" s="4"/>
       <c r="DI399" s="7"/>
     </row>
-    <row r="400" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL400" s="30"/>
       <c r="BM400" s="30"/>
       <c r="BN400" s="30"/>
@@ -48542,7 +48530,7 @@
       <c r="DH400" s="4"/>
       <c r="DI400" s="7"/>
     </row>
-    <row r="401" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL401" s="30"/>
       <c r="BM401" s="30"/>
       <c r="BN401" s="30"/>
@@ -48552,7 +48540,7 @@
       <c r="DH401" s="4"/>
       <c r="DI401" s="7"/>
     </row>
-    <row r="402" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL402" s="30"/>
       <c r="BM402" s="30"/>
       <c r="BN402" s="30"/>
@@ -48562,7 +48550,7 @@
       <c r="DH402" s="4"/>
       <c r="DI402" s="7"/>
     </row>
-    <row r="403" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL403" s="30"/>
       <c r="BM403" s="30"/>
       <c r="BN403" s="30"/>
@@ -48572,7 +48560,7 @@
       <c r="DH403" s="4"/>
       <c r="DI403" s="7"/>
     </row>
-    <row r="404" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL404" s="30"/>
       <c r="BM404" s="30"/>
       <c r="BN404" s="30"/>
@@ -48582,7 +48570,7 @@
       <c r="DH404" s="4"/>
       <c r="DI404" s="7"/>
     </row>
-    <row r="405" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL405" s="30"/>
       <c r="BM405" s="30"/>
       <c r="BN405" s="30"/>
@@ -48592,7 +48580,7 @@
       <c r="DH405" s="4"/>
       <c r="DI405" s="7"/>
     </row>
-    <row r="406" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL406" s="30"/>
       <c r="BM406" s="30"/>
       <c r="BN406" s="30"/>
@@ -48602,7 +48590,7 @@
       <c r="DH406" s="4"/>
       <c r="DI406" s="7"/>
     </row>
-    <row r="407" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL407" s="30"/>
       <c r="BM407" s="30"/>
       <c r="BN407" s="30"/>
@@ -48612,7 +48600,7 @@
       <c r="DH407" s="4"/>
       <c r="DI407" s="7"/>
     </row>
-    <row r="408" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL408" s="30"/>
       <c r="BM408" s="30"/>
       <c r="BN408" s="30"/>
@@ -48622,7 +48610,7 @@
       <c r="DH408" s="4"/>
       <c r="DI408" s="7"/>
     </row>
-    <row r="409" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL409" s="30"/>
       <c r="BM409" s="30"/>
       <c r="BN409" s="30"/>
@@ -48632,7 +48620,7 @@
       <c r="DH409" s="4"/>
       <c r="DI409" s="7"/>
     </row>
-    <row r="410" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL410" s="30"/>
       <c r="BM410" s="30"/>
       <c r="BN410" s="30"/>
@@ -48642,7 +48630,7 @@
       <c r="DH410" s="4"/>
       <c r="DI410" s="7"/>
     </row>
-    <row r="411" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL411" s="30"/>
       <c r="BM411" s="30"/>
       <c r="BN411" s="30"/>
@@ -48652,7 +48640,7 @@
       <c r="DH411" s="4"/>
       <c r="DI411" s="7"/>
     </row>
-    <row r="412" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL412" s="30"/>
       <c r="BM412" s="30"/>
       <c r="BN412" s="30"/>
@@ -48662,7 +48650,7 @@
       <c r="DH412" s="4"/>
       <c r="DI412" s="7"/>
     </row>
-    <row r="413" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL413" s="30"/>
       <c r="BM413" s="30"/>
       <c r="BN413" s="30"/>
@@ -48672,7 +48660,7 @@
       <c r="DH413" s="4"/>
       <c r="DI413" s="7"/>
     </row>
-    <row r="414" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL414" s="30"/>
       <c r="BM414" s="30"/>
       <c r="BN414" s="30"/>
@@ -48682,7 +48670,7 @@
       <c r="DH414" s="4"/>
       <c r="DI414" s="7"/>
     </row>
-    <row r="415" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL415" s="30"/>
       <c r="BM415" s="30"/>
       <c r="BN415" s="30"/>
@@ -48692,7 +48680,7 @@
       <c r="DH415" s="4"/>
       <c r="DI415" s="7"/>
     </row>
-    <row r="416" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL416" s="30"/>
       <c r="BM416" s="30"/>
       <c r="BN416" s="30"/>
@@ -48702,7 +48690,7 @@
       <c r="DH416" s="4"/>
       <c r="DI416" s="7"/>
     </row>
-    <row r="417" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL417" s="30"/>
       <c r="BM417" s="30"/>
       <c r="BN417" s="30"/>
@@ -48712,7 +48700,7 @@
       <c r="DH417" s="4"/>
       <c r="DI417" s="7"/>
     </row>
-    <row r="418" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL418" s="30"/>
       <c r="BM418" s="30"/>
       <c r="BN418" s="30"/>
@@ -48722,7 +48710,7 @@
       <c r="DH418" s="4"/>
       <c r="DI418" s="7"/>
     </row>
-    <row r="419" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL419" s="30"/>
       <c r="BM419" s="30"/>
       <c r="BN419" s="30"/>
@@ -48732,7 +48720,7 @@
       <c r="DH419" s="4"/>
       <c r="DI419" s="7"/>
     </row>
-    <row r="420" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL420" s="30"/>
       <c r="BM420" s="30"/>
       <c r="BN420" s="30"/>
@@ -48742,7 +48730,7 @@
       <c r="DH420" s="4"/>
       <c r="DI420" s="7"/>
     </row>
-    <row r="421" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL421" s="30"/>
       <c r="BM421" s="30"/>
       <c r="BN421" s="30"/>
@@ -48752,7 +48740,7 @@
       <c r="DH421" s="4"/>
       <c r="DI421" s="7"/>
     </row>
-    <row r="422" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL422" s="30"/>
       <c r="BM422" s="30"/>
       <c r="BN422" s="30"/>
@@ -48762,7 +48750,7 @@
       <c r="DH422" s="4"/>
       <c r="DI422" s="7"/>
     </row>
-    <row r="423" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL423" s="30"/>
       <c r="BM423" s="30"/>
       <c r="BN423" s="30"/>
@@ -48772,7 +48760,7 @@
       <c r="DH423" s="4"/>
       <c r="DI423" s="7"/>
     </row>
-    <row r="424" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL424" s="30"/>
       <c r="BM424" s="30"/>
       <c r="BN424" s="30"/>
@@ -48782,7 +48770,7 @@
       <c r="DH424" s="4"/>
       <c r="DI424" s="7"/>
     </row>
-    <row r="425" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL425" s="30"/>
       <c r="BM425" s="30"/>
       <c r="BN425" s="30"/>
@@ -48792,7 +48780,7 @@
       <c r="DH425" s="4"/>
       <c r="DI425" s="7"/>
     </row>
-    <row r="426" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL426" s="30"/>
       <c r="BM426" s="30"/>
       <c r="BN426" s="30"/>
@@ -48802,7 +48790,7 @@
       <c r="DH426" s="4"/>
       <c r="DI426" s="7"/>
     </row>
-    <row r="427" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL427" s="30"/>
       <c r="BM427" s="30"/>
       <c r="BN427" s="30"/>
@@ -48812,7 +48800,7 @@
       <c r="DH427" s="4"/>
       <c r="DI427" s="7"/>
     </row>
-    <row r="428" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL428" s="30"/>
       <c r="BM428" s="30"/>
       <c r="BN428" s="30"/>
@@ -48822,7 +48810,7 @@
       <c r="DH428" s="4"/>
       <c r="DI428" s="7"/>
     </row>
-    <row r="429" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL429" s="30"/>
       <c r="BM429" s="30"/>
       <c r="BN429" s="30"/>
@@ -48832,7 +48820,7 @@
       <c r="DH429" s="4"/>
       <c r="DI429" s="7"/>
     </row>
-    <row r="430" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL430" s="30"/>
       <c r="BM430" s="30"/>
       <c r="BN430" s="30"/>
@@ -48842,7 +48830,7 @@
       <c r="DH430" s="4"/>
       <c r="DI430" s="7"/>
     </row>
-    <row r="431" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL431" s="30"/>
       <c r="BM431" s="30"/>
       <c r="BN431" s="30"/>
@@ -48852,7 +48840,7 @@
       <c r="DH431" s="4"/>
       <c r="DI431" s="7"/>
     </row>
-    <row r="432" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL432" s="30"/>
       <c r="BM432" s="30"/>
       <c r="BN432" s="30"/>
@@ -48862,7 +48850,7 @@
       <c r="DH432" s="4"/>
       <c r="DI432" s="7"/>
     </row>
-    <row r="433" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL433" s="30"/>
       <c r="BM433" s="30"/>
       <c r="BN433" s="30"/>
@@ -48872,7 +48860,7 @@
       <c r="DH433" s="4"/>
       <c r="DI433" s="7"/>
     </row>
-    <row r="434" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL434" s="30"/>
       <c r="BM434" s="30"/>
       <c r="BN434" s="30"/>
@@ -48882,7 +48870,7 @@
       <c r="DH434" s="4"/>
       <c r="DI434" s="7"/>
     </row>
-    <row r="435" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL435" s="30"/>
       <c r="BM435" s="30"/>
       <c r="BN435" s="30"/>
@@ -48892,7 +48880,7 @@
       <c r="DH435" s="4"/>
       <c r="DI435" s="7"/>
     </row>
-    <row r="436" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL436" s="30"/>
       <c r="BM436" s="30"/>
       <c r="BN436" s="30"/>
@@ -48902,7 +48890,7 @@
       <c r="DH436" s="4"/>
       <c r="DI436" s="7"/>
     </row>
-    <row r="437" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL437" s="30"/>
       <c r="BM437" s="30"/>
       <c r="BN437" s="30"/>
@@ -48912,7 +48900,7 @@
       <c r="DH437" s="4"/>
       <c r="DI437" s="7"/>
     </row>
-    <row r="438" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL438" s="30"/>
       <c r="BM438" s="30"/>
       <c r="BN438" s="30"/>
@@ -48922,7 +48910,7 @@
       <c r="DH438" s="4"/>
       <c r="DI438" s="7"/>
     </row>
-    <row r="439" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL439" s="30"/>
       <c r="BM439" s="30"/>
       <c r="BN439" s="30"/>
@@ -48932,7 +48920,7 @@
       <c r="DH439" s="4"/>
       <c r="DI439" s="7"/>
     </row>
-    <row r="440" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL440" s="30"/>
       <c r="BM440" s="30"/>
       <c r="BN440" s="30"/>
@@ -48942,7 +48930,7 @@
       <c r="DH440" s="4"/>
       <c r="DI440" s="7"/>
     </row>
-    <row r="441" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL441" s="30"/>
       <c r="BM441" s="30"/>
       <c r="BN441" s="30"/>
@@ -48952,7 +48940,7 @@
       <c r="DH441" s="4"/>
       <c r="DI441" s="7"/>
     </row>
-    <row r="442" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL442" s="30"/>
       <c r="BM442" s="30"/>
       <c r="BN442" s="30"/>
@@ -48962,7 +48950,7 @@
       <c r="DH442" s="4"/>
       <c r="DI442" s="7"/>
     </row>
-    <row r="443" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL443" s="30"/>
       <c r="BM443" s="30"/>
       <c r="BN443" s="30"/>
@@ -48972,7 +48960,7 @@
       <c r="DH443" s="4"/>
       <c r="DI443" s="7"/>
     </row>
-    <row r="444" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL444" s="30"/>
       <c r="BM444" s="30"/>
       <c r="BN444" s="30"/>
@@ -48982,7 +48970,7 @@
       <c r="DH444" s="4"/>
       <c r="DI444" s="7"/>
     </row>
-    <row r="445" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL445" s="30"/>
       <c r="BM445" s="30"/>
       <c r="BN445" s="30"/>
@@ -48992,7 +48980,7 @@
       <c r="DH445" s="4"/>
       <c r="DI445" s="7"/>
     </row>
-    <row r="446" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL446" s="30"/>
       <c r="BM446" s="30"/>
       <c r="BN446" s="30"/>
@@ -49002,7 +48990,7 @@
       <c r="DH446" s="4"/>
       <c r="DI446" s="7"/>
     </row>
-    <row r="447" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL447" s="30"/>
       <c r="BM447" s="30"/>
       <c r="BN447" s="30"/>
@@ -49012,7 +49000,7 @@
       <c r="DH447" s="4"/>
       <c r="DI447" s="7"/>
     </row>
-    <row r="448" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL448" s="30"/>
       <c r="BM448" s="30"/>
       <c r="BN448" s="30"/>
@@ -49022,7 +49010,7 @@
       <c r="DH448" s="4"/>
       <c r="DI448" s="7"/>
     </row>
-    <row r="449" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL449" s="30"/>
       <c r="BM449" s="30"/>
       <c r="BN449" s="30"/>
@@ -49032,7 +49020,7 @@
       <c r="DH449" s="4"/>
       <c r="DI449" s="7"/>
     </row>
-    <row r="450" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL450" s="30"/>
       <c r="BM450" s="30"/>
       <c r="BN450" s="30"/>
@@ -49042,7 +49030,7 @@
       <c r="DH450" s="4"/>
       <c r="DI450" s="7"/>
     </row>
-    <row r="451" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL451" s="30"/>
       <c r="BM451" s="30"/>
       <c r="BN451" s="30"/>
@@ -49052,7 +49040,7 @@
       <c r="DH451" s="4"/>
       <c r="DI451" s="7"/>
     </row>
-    <row r="452" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL452" s="30"/>
       <c r="BM452" s="30"/>
       <c r="BN452" s="30"/>
@@ -49062,7 +49050,7 @@
       <c r="DH452" s="4"/>
       <c r="DI452" s="7"/>
     </row>
-    <row r="453" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL453" s="30"/>
       <c r="BM453" s="30"/>
       <c r="BN453" s="30"/>
@@ -49072,7 +49060,7 @@
       <c r="DH453" s="4"/>
       <c r="DI453" s="7"/>
     </row>
-    <row r="454" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL454" s="30"/>
       <c r="BM454" s="30"/>
       <c r="BN454" s="30"/>
@@ -49082,7 +49070,7 @@
       <c r="DH454" s="4"/>
       <c r="DI454" s="7"/>
     </row>
-    <row r="455" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL455" s="30"/>
       <c r="BM455" s="30"/>
       <c r="BN455" s="30"/>
@@ -49092,7 +49080,7 @@
       <c r="DH455" s="4"/>
       <c r="DI455" s="7"/>
     </row>
-    <row r="456" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL456" s="30"/>
       <c r="BM456" s="30"/>
       <c r="BN456" s="30"/>
@@ -49102,7 +49090,7 @@
       <c r="DH456" s="4"/>
       <c r="DI456" s="7"/>
     </row>
-    <row r="457" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL457" s="30"/>
       <c r="BM457" s="30"/>
       <c r="BN457" s="30"/>
@@ -49112,7 +49100,7 @@
       <c r="DH457" s="4"/>
       <c r="DI457" s="7"/>
     </row>
-    <row r="458" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL458" s="30"/>
       <c r="BM458" s="30"/>
       <c r="BN458" s="30"/>
@@ -49122,7 +49110,7 @@
       <c r="DH458" s="4"/>
       <c r="DI458" s="7"/>
     </row>
-    <row r="459" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL459" s="30"/>
       <c r="BM459" s="30"/>
       <c r="BN459" s="30"/>
@@ -49132,7 +49120,7 @@
       <c r="DH459" s="4"/>
       <c r="DI459" s="7"/>
     </row>
-    <row r="460" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL460" s="30"/>
       <c r="BM460" s="30"/>
       <c r="BN460" s="30"/>
@@ -49142,7 +49130,7 @@
       <c r="DH460" s="4"/>
       <c r="DI460" s="7"/>
     </row>
-    <row r="461" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL461" s="30"/>
       <c r="BM461" s="30"/>
       <c r="BN461" s="30"/>
@@ -49152,7 +49140,7 @@
       <c r="DH461" s="4"/>
       <c r="DI461" s="7"/>
     </row>
-    <row r="462" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL462" s="30"/>
       <c r="BM462" s="30"/>
       <c r="BN462" s="30"/>
@@ -49162,7 +49150,7 @@
       <c r="DH462" s="4"/>
       <c r="DI462" s="7"/>
     </row>
-    <row r="463" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL463" s="30"/>
       <c r="BM463" s="30"/>
       <c r="BN463" s="30"/>
@@ -49172,7 +49160,7 @@
       <c r="DH463" s="4"/>
       <c r="DI463" s="7"/>
     </row>
-    <row r="464" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL464" s="30"/>
       <c r="BM464" s="30"/>
       <c r="BN464" s="30"/>
@@ -49182,7 +49170,7 @@
       <c r="DH464" s="4"/>
       <c r="DI464" s="7"/>
     </row>
-    <row r="465" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL465" s="30"/>
       <c r="BM465" s="30"/>
       <c r="BN465" s="30"/>
@@ -49192,7 +49180,7 @@
       <c r="DH465" s="4"/>
       <c r="DI465" s="7"/>
     </row>
-    <row r="466" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL466" s="30"/>
       <c r="BM466" s="30"/>
       <c r="BN466" s="30"/>
@@ -49202,7 +49190,7 @@
       <c r="DH466" s="4"/>
       <c r="DI466" s="7"/>
     </row>
-    <row r="467" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL467" s="30"/>
       <c r="BM467" s="30"/>
       <c r="BN467" s="30"/>
@@ -49212,7 +49200,7 @@
       <c r="DH467" s="4"/>
       <c r="DI467" s="7"/>
     </row>
-    <row r="468" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL468" s="30"/>
       <c r="BM468" s="30"/>
       <c r="BN468" s="30"/>
@@ -49222,7 +49210,7 @@
       <c r="DH468" s="4"/>
       <c r="DI468" s="7"/>
     </row>
-    <row r="469" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL469" s="30"/>
       <c r="BM469" s="30"/>
       <c r="BN469" s="30"/>
@@ -49232,7 +49220,7 @@
       <c r="DH469" s="4"/>
       <c r="DI469" s="7"/>
     </row>
-    <row r="470" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL470" s="30"/>
       <c r="BM470" s="30"/>
       <c r="BN470" s="30"/>
@@ -49242,7 +49230,7 @@
       <c r="DH470" s="4"/>
       <c r="DI470" s="7"/>
     </row>
-    <row r="471" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL471" s="30"/>
       <c r="BM471" s="30"/>
       <c r="BN471" s="30"/>
@@ -49252,7 +49240,7 @@
       <c r="DH471" s="4"/>
       <c r="DI471" s="7"/>
     </row>
-    <row r="472" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL472" s="30"/>
       <c r="BM472" s="30"/>
       <c r="BN472" s="30"/>
@@ -49262,7 +49250,7 @@
       <c r="DH472" s="4"/>
       <c r="DI472" s="7"/>
     </row>
-    <row r="473" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL473" s="30"/>
       <c r="BM473" s="30"/>
       <c r="BN473" s="30"/>
@@ -49272,7 +49260,7 @@
       <c r="DH473" s="4"/>
       <c r="DI473" s="7"/>
     </row>
-    <row r="474" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL474" s="30"/>
       <c r="BM474" s="30"/>
       <c r="BN474" s="30"/>
@@ -49282,7 +49270,7 @@
       <c r="DH474" s="4"/>
       <c r="DI474" s="7"/>
     </row>
-    <row r="475" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL475" s="30"/>
       <c r="BM475" s="30"/>
       <c r="BN475" s="30"/>
@@ -49292,7 +49280,7 @@
       <c r="DH475" s="4"/>
       <c r="DI475" s="7"/>
     </row>
-    <row r="476" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL476" s="30"/>
       <c r="BM476" s="30"/>
       <c r="BN476" s="30"/>
@@ -49302,7 +49290,7 @@
       <c r="DH476" s="4"/>
       <c r="DI476" s="7"/>
     </row>
-    <row r="477" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL477" s="30"/>
       <c r="BM477" s="30"/>
       <c r="BN477" s="30"/>
@@ -49312,7 +49300,7 @@
       <c r="DH477" s="4"/>
       <c r="DI477" s="7"/>
     </row>
-    <row r="478" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL478" s="30"/>
       <c r="BM478" s="30"/>
       <c r="BN478" s="30"/>
@@ -49322,7 +49310,7 @@
       <c r="DH478" s="4"/>
       <c r="DI478" s="7"/>
     </row>
-    <row r="479" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL479" s="30"/>
       <c r="BM479" s="30"/>
       <c r="BN479" s="30"/>
@@ -49332,7 +49320,7 @@
       <c r="DH479" s="4"/>
       <c r="DI479" s="7"/>
     </row>
-    <row r="480" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL480" s="30"/>
       <c r="BM480" s="30"/>
       <c r="BN480" s="30"/>
@@ -49342,7 +49330,7 @@
       <c r="DH480" s="4"/>
       <c r="DI480" s="7"/>
     </row>
-    <row r="481" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL481" s="30"/>
       <c r="BM481" s="30"/>
       <c r="BN481" s="30"/>
@@ -49352,7 +49340,7 @@
       <c r="DH481" s="4"/>
       <c r="DI481" s="7"/>
     </row>
-    <row r="482" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL482" s="30"/>
       <c r="BM482" s="30"/>
       <c r="BN482" s="30"/>
@@ -49362,7 +49350,7 @@
       <c r="DH482" s="4"/>
       <c r="DI482" s="7"/>
     </row>
-    <row r="483" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL483" s="30"/>
       <c r="BM483" s="30"/>
       <c r="BN483" s="30"/>
@@ -49372,7 +49360,7 @@
       <c r="DH483" s="4"/>
       <c r="DI483" s="7"/>
     </row>
-    <row r="484" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL484" s="30"/>
       <c r="BM484" s="30"/>
       <c r="BN484" s="30"/>
@@ -49382,7 +49370,7 @@
       <c r="DH484" s="4"/>
       <c r="DI484" s="7"/>
     </row>
-    <row r="485" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL485" s="30"/>
       <c r="BM485" s="30"/>
       <c r="BN485" s="30"/>
@@ -49392,7 +49380,7 @@
       <c r="DH485" s="4"/>
       <c r="DI485" s="7"/>
     </row>
-    <row r="486" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL486" s="30"/>
       <c r="BM486" s="30"/>
       <c r="BN486" s="30"/>
@@ -49402,7 +49390,7 @@
       <c r="DH486" s="4"/>
       <c r="DI486" s="7"/>
     </row>
-    <row r="487" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL487" s="30"/>
       <c r="BM487" s="30"/>
       <c r="BN487" s="30"/>
@@ -49412,7 +49400,7 @@
       <c r="DH487" s="4"/>
       <c r="DI487" s="7"/>
     </row>
-    <row r="488" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL488" s="30"/>
       <c r="BM488" s="30"/>
       <c r="BN488" s="30"/>
@@ -49422,7 +49410,7 @@
       <c r="DH488" s="4"/>
       <c r="DI488" s="7"/>
     </row>
-    <row r="489" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL489" s="30"/>
       <c r="BM489" s="30"/>
       <c r="BN489" s="30"/>
@@ -49432,7 +49420,7 @@
       <c r="DH489" s="4"/>
       <c r="DI489" s="7"/>
     </row>
-    <row r="490" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL490" s="30"/>
       <c r="BM490" s="30"/>
       <c r="BN490" s="30"/>
@@ -49442,7 +49430,7 @@
       <c r="DH490" s="4"/>
       <c r="DI490" s="7"/>
     </row>
-    <row r="491" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL491" s="30"/>
       <c r="BM491" s="30"/>
       <c r="BN491" s="30"/>
@@ -49452,7 +49440,7 @@
       <c r="DH491" s="4"/>
       <c r="DI491" s="7"/>
     </row>
-    <row r="492" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL492" s="30"/>
       <c r="BM492" s="30"/>
       <c r="BN492" s="30"/>
@@ -49462,7 +49450,7 @@
       <c r="DH492" s="4"/>
       <c r="DI492" s="7"/>
     </row>
-    <row r="493" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL493" s="30"/>
       <c r="BM493" s="30"/>
       <c r="BN493" s="30"/>
@@ -49472,7 +49460,7 @@
       <c r="DH493" s="4"/>
       <c r="DI493" s="7"/>
     </row>
-    <row r="494" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL494" s="30"/>
       <c r="BM494" s="30"/>
       <c r="BN494" s="30"/>
@@ -49482,7 +49470,7 @@
       <c r="DH494" s="4"/>
       <c r="DI494" s="7"/>
     </row>
-    <row r="495" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL495" s="30"/>
       <c r="BM495" s="30"/>
       <c r="BN495" s="30"/>
@@ -49492,7 +49480,7 @@
       <c r="DH495" s="4"/>
       <c r="DI495" s="7"/>
     </row>
-    <row r="496" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL496" s="30"/>
       <c r="BM496" s="30"/>
       <c r="BN496" s="30"/>
@@ -49502,7 +49490,7 @@
       <c r="DH496" s="4"/>
       <c r="DI496" s="7"/>
     </row>
-    <row r="497" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL497" s="30"/>
       <c r="BM497" s="30"/>
       <c r="BN497" s="30"/>
@@ -49512,7 +49500,7 @@
       <c r="DH497" s="4"/>
       <c r="DI497" s="7"/>
     </row>
-    <row r="498" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL498" s="30"/>
       <c r="BM498" s="30"/>
       <c r="BN498" s="30"/>
@@ -49522,7 +49510,7 @@
       <c r="DH498" s="4"/>
       <c r="DI498" s="7"/>
     </row>
-    <row r="499" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL499" s="30"/>
       <c r="BM499" s="30"/>
       <c r="BN499" s="30"/>
@@ -49532,7 +49520,7 @@
       <c r="DH499" s="4"/>
       <c r="DI499" s="7"/>
     </row>
-    <row r="500" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL500" s="30"/>
       <c r="BM500" s="30"/>
       <c r="BN500" s="30"/>
@@ -49542,7 +49530,7 @@
       <c r="DH500" s="4"/>
       <c r="DI500" s="7"/>
     </row>
-    <row r="501" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL501" s="30"/>
       <c r="BM501" s="30"/>
       <c r="BN501" s="30"/>
@@ -49552,7 +49540,7 @@
       <c r="DH501" s="4"/>
       <c r="DI501" s="7"/>
     </row>
-    <row r="502" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL502" s="30"/>
       <c r="BM502" s="30"/>
       <c r="BN502" s="30"/>
@@ -49562,7 +49550,7 @@
       <c r="DH502" s="4"/>
       <c r="DI502" s="7"/>
     </row>
-    <row r="503" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL503" s="30"/>
       <c r="BM503" s="30"/>
       <c r="BN503" s="30"/>
@@ -49572,7 +49560,7 @@
       <c r="DH503" s="4"/>
       <c r="DI503" s="7"/>
     </row>
-    <row r="504" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL504" s="30"/>
       <c r="BM504" s="30"/>
       <c r="BN504" s="30"/>
@@ -49582,7 +49570,7 @@
       <c r="DH504" s="4"/>
       <c r="DI504" s="7"/>
     </row>
-    <row r="505" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL505" s="30"/>
       <c r="BM505" s="30"/>
       <c r="BN505" s="30"/>
@@ -49592,7 +49580,7 @@
       <c r="DH505" s="4"/>
       <c r="DI505" s="7"/>
     </row>
-    <row r="506" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL506" s="30"/>
       <c r="BM506" s="30"/>
       <c r="BN506" s="30"/>
@@ -49602,7 +49590,7 @@
       <c r="DH506" s="4"/>
       <c r="DI506" s="7"/>
     </row>
-    <row r="507" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL507" s="30"/>
       <c r="BM507" s="30"/>
       <c r="BN507" s="30"/>
@@ -49612,7 +49600,7 @@
       <c r="DH507" s="4"/>
       <c r="DI507" s="7"/>
     </row>
-    <row r="508" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL508" s="30"/>
       <c r="BM508" s="30"/>
       <c r="BN508" s="30"/>
@@ -49622,7 +49610,7 @@
       <c r="DH508" s="4"/>
       <c r="DI508" s="7"/>
     </row>
-    <row r="509" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL509" s="30"/>
       <c r="BM509" s="30"/>
       <c r="BN509" s="30"/>
@@ -49632,7 +49620,7 @@
       <c r="DH509" s="4"/>
       <c r="DI509" s="7"/>
     </row>
-    <row r="510" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL510" s="30"/>
       <c r="BM510" s="30"/>
       <c r="BN510" s="30"/>
@@ -49642,7 +49630,7 @@
       <c r="DH510" s="4"/>
       <c r="DI510" s="7"/>
     </row>
-    <row r="511" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL511" s="30"/>
       <c r="BM511" s="30"/>
       <c r="BN511" s="30"/>
@@ -49652,7 +49640,7 @@
       <c r="DH511" s="4"/>
       <c r="DI511" s="7"/>
     </row>
-    <row r="512" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL512" s="30"/>
       <c r="BM512" s="30"/>
       <c r="BN512" s="30"/>
@@ -49662,7 +49650,7 @@
       <c r="DH512" s="4"/>
       <c r="DI512" s="7"/>
     </row>
-    <row r="513" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL513" s="30"/>
       <c r="BM513" s="30"/>
       <c r="BN513" s="30"/>
@@ -49672,7 +49660,7 @@
       <c r="DH513" s="4"/>
       <c r="DI513" s="7"/>
     </row>
-    <row r="514" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL514" s="30"/>
       <c r="BM514" s="30"/>
       <c r="BN514" s="30"/>
@@ -49682,7 +49670,7 @@
       <c r="DH514" s="4"/>
       <c r="DI514" s="7"/>
     </row>
-    <row r="515" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL515" s="30"/>
       <c r="BM515" s="30"/>
       <c r="BN515" s="30"/>
@@ -49692,7 +49680,7 @@
       <c r="DH515" s="4"/>
       <c r="DI515" s="7"/>
     </row>
-    <row r="516" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL516" s="30"/>
       <c r="BM516" s="30"/>
       <c r="BN516" s="30"/>
@@ -49702,7 +49690,7 @@
       <c r="DH516" s="4"/>
       <c r="DI516" s="7"/>
     </row>
-    <row r="517" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL517" s="30"/>
       <c r="BM517" s="30"/>
       <c r="BN517" s="30"/>
@@ -49712,7 +49700,7 @@
       <c r="DH517" s="4"/>
       <c r="DI517" s="7"/>
     </row>
-    <row r="518" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL518" s="30"/>
       <c r="BM518" s="30"/>
       <c r="BN518" s="30"/>
@@ -49722,7 +49710,7 @@
       <c r="DH518" s="4"/>
       <c r="DI518" s="7"/>
     </row>
-    <row r="519" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL519" s="30"/>
       <c r="BM519" s="30"/>
       <c r="BN519" s="30"/>
@@ -49732,7 +49720,7 @@
       <c r="DH519" s="4"/>
       <c r="DI519" s="7"/>
     </row>
-    <row r="520" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL520" s="30"/>
       <c r="BM520" s="30"/>
       <c r="BN520" s="30"/>
@@ -49742,7 +49730,7 @@
       <c r="DH520" s="4"/>
       <c r="DI520" s="7"/>
     </row>
-    <row r="521" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL521" s="30"/>
       <c r="BM521" s="30"/>
       <c r="BN521" s="30"/>
@@ -49752,7 +49740,7 @@
       <c r="DH521" s="4"/>
       <c r="DI521" s="7"/>
     </row>
-    <row r="522" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL522" s="30"/>
       <c r="BM522" s="30"/>
       <c r="BN522" s="30"/>
@@ -49762,7 +49750,7 @@
       <c r="DH522" s="4"/>
       <c r="DI522" s="7"/>
     </row>
-    <row r="523" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL523" s="30"/>
       <c r="BM523" s="30"/>
       <c r="BN523" s="30"/>
@@ -49772,7 +49760,7 @@
       <c r="DH523" s="4"/>
       <c r="DI523" s="7"/>
     </row>
-    <row r="524" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL524" s="30"/>
       <c r="BM524" s="30"/>
       <c r="BN524" s="30"/>
@@ -49782,7 +49770,7 @@
       <c r="DH524" s="4"/>
       <c r="DI524" s="7"/>
     </row>
-    <row r="525" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL525" s="30"/>
       <c r="BM525" s="30"/>
       <c r="BN525" s="30"/>
@@ -49792,7 +49780,7 @@
       <c r="DH525" s="4"/>
       <c r="DI525" s="7"/>
     </row>
-    <row r="526" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL526" s="30"/>
       <c r="BM526" s="30"/>
       <c r="BN526" s="30"/>
@@ -49802,7 +49790,7 @@
       <c r="DH526" s="4"/>
       <c r="DI526" s="7"/>
     </row>
-    <row r="527" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL527" s="30"/>
       <c r="BM527" s="30"/>
       <c r="BN527" s="30"/>
@@ -49812,7 +49800,7 @@
       <c r="DH527" s="4"/>
       <c r="DI527" s="7"/>
     </row>
-    <row r="528" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL528" s="30"/>
       <c r="BM528" s="30"/>
       <c r="BN528" s="30"/>
@@ -49822,7 +49810,7 @@
       <c r="DH528" s="4"/>
       <c r="DI528" s="7"/>
     </row>
-    <row r="529" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL529" s="30"/>
       <c r="BM529" s="30"/>
       <c r="BN529" s="30"/>
@@ -49832,7 +49820,7 @@
       <c r="DH529" s="4"/>
       <c r="DI529" s="7"/>
     </row>
-    <row r="530" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL530" s="30"/>
       <c r="BM530" s="30"/>
       <c r="BN530" s="30"/>
@@ -49842,7 +49830,7 @@
       <c r="DH530" s="4"/>
       <c r="DI530" s="7"/>
     </row>
-    <row r="531" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL531" s="30"/>
       <c r="BM531" s="30"/>
       <c r="BN531" s="30"/>
@@ -49852,7 +49840,7 @@
       <c r="DH531" s="4"/>
       <c r="DI531" s="7"/>
     </row>
-    <row r="532" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL532" s="30"/>
       <c r="BM532" s="30"/>
       <c r="BN532" s="30"/>
@@ -49862,7 +49850,7 @@
       <c r="DH532" s="4"/>
       <c r="DI532" s="7"/>
     </row>
-    <row r="533" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL533" s="30"/>
       <c r="BM533" s="30"/>
       <c r="BN533" s="30"/>
@@ -49872,7 +49860,7 @@
       <c r="DH533" s="4"/>
       <c r="DI533" s="7"/>
     </row>
-    <row r="534" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL534" s="30"/>
       <c r="BM534" s="30"/>
       <c r="BN534" s="30"/>
@@ -49882,7 +49870,7 @@
       <c r="DH534" s="4"/>
       <c r="DI534" s="7"/>
     </row>
-    <row r="535" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL535" s="30"/>
       <c r="BM535" s="30"/>
       <c r="BN535" s="30"/>
@@ -49892,7 +49880,7 @@
       <c r="DH535" s="4"/>
       <c r="DI535" s="7"/>
     </row>
-    <row r="536" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL536" s="30"/>
       <c r="BM536" s="30"/>
       <c r="BN536" s="30"/>
@@ -49902,7 +49890,7 @@
       <c r="DH536" s="4"/>
       <c r="DI536" s="7"/>
     </row>
-    <row r="537" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL537" s="30"/>
       <c r="BM537" s="30"/>
       <c r="BN537" s="30"/>
@@ -49912,7 +49900,7 @@
       <c r="DH537" s="4"/>
       <c r="DI537" s="7"/>
     </row>
-    <row r="538" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL538" s="30"/>
       <c r="BM538" s="30"/>
       <c r="BN538" s="30"/>
@@ -49922,7 +49910,7 @@
       <c r="DH538" s="4"/>
       <c r="DI538" s="7"/>
     </row>
-    <row r="539" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL539" s="30"/>
       <c r="BM539" s="30"/>
       <c r="BN539" s="30"/>
@@ -49932,7 +49920,7 @@
       <c r="DH539" s="4"/>
       <c r="DI539" s="7"/>
     </row>
-    <row r="540" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL540" s="30"/>
       <c r="BM540" s="30"/>
       <c r="BN540" s="30"/>
@@ -49942,7 +49930,7 @@
       <c r="DH540" s="4"/>
       <c r="DI540" s="7"/>
     </row>
-    <row r="541" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL541" s="30"/>
       <c r="BM541" s="30"/>
       <c r="BN541" s="30"/>
@@ -49952,7 +49940,7 @@
       <c r="DH541" s="4"/>
       <c r="DI541" s="7"/>
     </row>
-    <row r="542" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL542" s="30"/>
       <c r="BM542" s="30"/>
       <c r="BN542" s="30"/>
@@ -49962,7 +49950,7 @@
       <c r="DH542" s="4"/>
       <c r="DI542" s="7"/>
     </row>
-    <row r="543" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL543" s="30"/>
       <c r="BM543" s="30"/>
       <c r="BN543" s="30"/>
@@ -49972,7 +49960,7 @@
       <c r="DH543" s="4"/>
       <c r="DI543" s="7"/>
     </row>
-    <row r="544" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL544" s="30"/>
       <c r="BM544" s="30"/>
       <c r="BN544" s="30"/>
@@ -49982,7 +49970,7 @@
       <c r="DH544" s="4"/>
       <c r="DI544" s="7"/>
     </row>
-    <row r="545" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL545" s="30"/>
       <c r="BM545" s="30"/>
       <c r="BN545" s="30"/>
@@ -49992,7 +49980,7 @@
       <c r="DH545" s="4"/>
       <c r="DI545" s="7"/>
     </row>
-    <row r="546" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL546" s="30"/>
       <c r="BM546" s="30"/>
       <c r="BN546" s="30"/>
@@ -50002,7 +49990,7 @@
       <c r="DH546" s="4"/>
       <c r="DI546" s="7"/>
     </row>
-    <row r="547" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL547" s="30"/>
       <c r="BM547" s="30"/>
       <c r="BN547" s="30"/>
@@ -50012,7 +50000,7 @@
       <c r="DH547" s="4"/>
       <c r="DI547" s="7"/>
     </row>
-    <row r="548" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL548" s="30"/>
       <c r="BM548" s="30"/>
       <c r="BN548" s="30"/>
@@ -50022,7 +50010,7 @@
       <c r="DH548" s="4"/>
       <c r="DI548" s="7"/>
     </row>
-    <row r="549" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL549" s="30"/>
       <c r="BM549" s="30"/>
       <c r="BN549" s="30"/>
@@ -50032,7 +50020,7 @@
       <c r="DH549" s="4"/>
       <c r="DI549" s="7"/>
     </row>
-    <row r="550" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL550" s="30"/>
       <c r="BM550" s="30"/>
       <c r="BN550" s="30"/>
@@ -50042,7 +50030,7 @@
       <c r="DH550" s="4"/>
       <c r="DI550" s="7"/>
     </row>
-    <row r="551" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL551" s="30"/>
       <c r="BM551" s="30"/>
       <c r="BN551" s="30"/>
@@ -50052,7 +50040,7 @@
       <c r="DH551" s="4"/>
       <c r="DI551" s="7"/>
     </row>
-    <row r="552" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL552" s="30"/>
       <c r="BM552" s="30"/>
       <c r="BN552" s="30"/>
@@ -50062,7 +50050,7 @@
       <c r="DH552" s="4"/>
       <c r="DI552" s="7"/>
     </row>
-    <row r="553" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL553" s="30"/>
       <c r="BM553" s="30"/>
       <c r="BN553" s="30"/>
@@ -50072,7 +50060,7 @@
       <c r="DH553" s="4"/>
       <c r="DI553" s="7"/>
     </row>
-    <row r="554" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL554" s="30"/>
       <c r="BM554" s="30"/>
       <c r="BN554" s="30"/>
@@ -50082,7 +50070,7 @@
       <c r="DH554" s="4"/>
       <c r="DI554" s="7"/>
     </row>
-    <row r="555" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL555" s="30"/>
       <c r="BM555" s="30"/>
       <c r="BN555" s="30"/>
@@ -50092,7 +50080,7 @@
       <c r="DH555" s="4"/>
       <c r="DI555" s="7"/>
     </row>
-    <row r="556" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL556" s="30"/>
       <c r="BM556" s="30"/>
       <c r="BN556" s="30"/>
@@ -50102,7 +50090,7 @@
       <c r="DH556" s="4"/>
       <c r="DI556" s="7"/>
     </row>
-    <row r="557" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL557" s="30"/>
       <c r="BM557" s="30"/>
       <c r="BN557" s="30"/>
@@ -50112,7 +50100,7 @@
       <c r="DH557" s="4"/>
       <c r="DI557" s="7"/>
     </row>
-    <row r="558" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL558" s="30"/>
       <c r="BM558" s="30"/>
       <c r="BN558" s="30"/>
@@ -50122,7 +50110,7 @@
       <c r="DH558" s="4"/>
       <c r="DI558" s="7"/>
     </row>
-    <row r="559" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL559" s="30"/>
       <c r="BM559" s="30"/>
       <c r="BN559" s="30"/>
@@ -50132,7 +50120,7 @@
       <c r="DH559" s="4"/>
       <c r="DI559" s="7"/>
     </row>
-    <row r="560" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL560" s="30"/>
       <c r="BM560" s="30"/>
       <c r="BN560" s="30"/>
@@ -50142,7 +50130,7 @@
       <c r="DH560" s="4"/>
       <c r="DI560" s="7"/>
     </row>
-    <row r="561" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL561" s="30"/>
       <c r="BM561" s="30"/>
       <c r="BN561" s="30"/>
@@ -50152,7 +50140,7 @@
       <c r="DH561" s="4"/>
       <c r="DI561" s="7"/>
     </row>
-    <row r="562" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL562" s="30"/>
       <c r="BM562" s="30"/>
       <c r="BN562" s="30"/>
@@ -50162,7 +50150,7 @@
       <c r="DH562" s="4"/>
       <c r="DI562" s="7"/>
     </row>
-    <row r="563" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL563" s="30"/>
       <c r="BM563" s="30"/>
       <c r="BN563" s="30"/>
@@ -50172,7 +50160,7 @@
       <c r="DH563" s="4"/>
       <c r="DI563" s="7"/>
     </row>
-    <row r="564" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL564" s="30"/>
       <c r="BM564" s="30"/>
       <c r="BN564" s="30"/>
@@ -50182,7 +50170,7 @@
       <c r="DH564" s="4"/>
       <c r="DI564" s="7"/>
     </row>
-    <row r="565" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL565" s="30"/>
       <c r="BM565" s="30"/>
       <c r="BN565" s="30"/>
@@ -50192,7 +50180,7 @@
       <c r="DH565" s="4"/>
       <c r="DI565" s="7"/>
     </row>
-    <row r="566" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL566" s="30"/>
       <c r="BM566" s="30"/>
       <c r="BN566" s="30"/>
@@ -50202,7 +50190,7 @@
       <c r="DH566" s="4"/>
       <c r="DI566" s="7"/>
     </row>
-    <row r="567" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL567" s="30"/>
       <c r="BM567" s="30"/>
       <c r="BN567" s="30"/>
@@ -50212,7 +50200,7 @@
       <c r="DH567" s="4"/>
       <c r="DI567" s="7"/>
     </row>
-    <row r="568" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL568" s="30"/>
       <c r="BM568" s="30"/>
       <c r="BN568" s="30"/>
@@ -50222,7 +50210,7 @@
       <c r="DH568" s="4"/>
       <c r="DI568" s="7"/>
     </row>
-    <row r="569" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL569" s="30"/>
       <c r="BM569" s="30"/>
       <c r="BN569" s="30"/>
@@ -50232,7 +50220,7 @@
       <c r="DH569" s="4"/>
       <c r="DI569" s="7"/>
     </row>
-    <row r="570" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL570" s="30"/>
       <c r="BM570" s="30"/>
       <c r="BN570" s="30"/>
@@ -50242,7 +50230,7 @@
       <c r="DH570" s="4"/>
       <c r="DI570" s="7"/>
     </row>
-    <row r="571" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL571" s="30"/>
       <c r="BM571" s="30"/>
       <c r="BN571" s="30"/>
@@ -50252,7 +50240,7 @@
       <c r="DH571" s="4"/>
       <c r="DI571" s="7"/>
     </row>
-    <row r="572" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL572" s="30"/>
       <c r="BM572" s="30"/>
       <c r="BN572" s="30"/>
@@ -50262,7 +50250,7 @@
       <c r="DH572" s="4"/>
       <c r="DI572" s="7"/>
     </row>
-    <row r="573" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL573" s="30"/>
       <c r="BM573" s="30"/>
       <c r="BN573" s="30"/>
@@ -50272,7 +50260,7 @@
       <c r="DH573" s="4"/>
       <c r="DI573" s="7"/>
     </row>
-    <row r="574" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL574" s="30"/>
       <c r="BM574" s="30"/>
       <c r="BN574" s="30"/>
@@ -50282,7 +50270,7 @@
       <c r="DH574" s="4"/>
       <c r="DI574" s="7"/>
     </row>
-    <row r="575" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL575" s="30"/>
       <c r="BM575" s="30"/>
       <c r="BN575" s="30"/>
@@ -50292,7 +50280,7 @@
       <c r="DH575" s="4"/>
       <c r="DI575" s="7"/>
     </row>
-    <row r="576" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL576" s="30"/>
       <c r="BM576" s="30"/>
       <c r="BN576" s="30"/>
@@ -50302,7 +50290,7 @@
       <c r="DH576" s="4"/>
       <c r="DI576" s="7"/>
     </row>
-    <row r="577" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL577" s="30"/>
       <c r="BM577" s="30"/>
       <c r="BN577" s="30"/>
@@ -50312,7 +50300,7 @@
       <c r="DH577" s="4"/>
       <c r="DI577" s="7"/>
     </row>
-    <row r="578" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL578" s="30"/>
       <c r="BM578" s="30"/>
       <c r="BN578" s="30"/>
@@ -50322,7 +50310,7 @@
       <c r="DH578" s="4"/>
       <c r="DI578" s="7"/>
     </row>
-    <row r="579" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL579" s="30"/>
       <c r="BM579" s="30"/>
       <c r="BN579" s="30"/>
@@ -50332,7 +50320,7 @@
       <c r="DH579" s="4"/>
       <c r="DI579" s="7"/>
     </row>
-    <row r="580" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL580" s="30"/>
       <c r="BM580" s="30"/>
       <c r="BN580" s="30"/>
@@ -50342,7 +50330,7 @@
       <c r="DH580" s="4"/>
       <c r="DI580" s="7"/>
     </row>
-    <row r="581" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL581" s="30"/>
       <c r="BM581" s="30"/>
       <c r="BN581" s="30"/>
@@ -50352,7 +50340,7 @@
       <c r="DH581" s="4"/>
       <c r="DI581" s="7"/>
     </row>
-    <row r="582" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL582" s="30"/>
       <c r="BM582" s="30"/>
       <c r="BN582" s="30"/>
@@ -50362,7 +50350,7 @@
       <c r="DH582" s="4"/>
       <c r="DI582" s="7"/>
     </row>
-    <row r="583" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL583" s="30"/>
       <c r="BM583" s="30"/>
       <c r="BN583" s="30"/>
@@ -50372,7 +50360,7 @@
       <c r="DH583" s="4"/>
       <c r="DI583" s="7"/>
     </row>
-    <row r="584" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL584" s="30"/>
       <c r="BM584" s="30"/>
       <c r="BN584" s="30"/>
@@ -50382,7 +50370,7 @@
       <c r="DH584" s="4"/>
       <c r="DI584" s="7"/>
     </row>
-    <row r="585" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL585" s="30"/>
       <c r="BM585" s="30"/>
       <c r="BN585" s="30"/>
@@ -50392,7 +50380,7 @@
       <c r="DH585" s="4"/>
       <c r="DI585" s="7"/>
     </row>
-    <row r="586" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL586" s="30"/>
       <c r="BM586" s="30"/>
       <c r="BN586" s="30"/>
@@ -50402,7 +50390,7 @@
       <c r="DH586" s="4"/>
       <c r="DI586" s="7"/>
     </row>
-    <row r="587" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL587" s="30"/>
       <c r="BM587" s="30"/>
       <c r="BN587" s="30"/>
@@ -50412,7 +50400,7 @@
       <c r="DH587" s="4"/>
       <c r="DI587" s="7"/>
     </row>
-    <row r="588" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL588" s="30"/>
       <c r="BM588" s="30"/>
       <c r="BN588" s="30"/>
@@ -50422,7 +50410,7 @@
       <c r="DH588" s="4"/>
       <c r="DI588" s="7"/>
     </row>
-    <row r="589" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL589" s="30"/>
       <c r="BM589" s="30"/>
       <c r="BN589" s="30"/>
@@ -50432,7 +50420,7 @@
       <c r="DH589" s="4"/>
       <c r="DI589" s="7"/>
     </row>
-    <row r="590" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL590" s="30"/>
       <c r="BM590" s="30"/>
       <c r="BN590" s="30"/>
@@ -50442,7 +50430,7 @@
       <c r="DH590" s="4"/>
       <c r="DI590" s="7"/>
     </row>
-    <row r="591" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL591" s="30"/>
       <c r="BM591" s="30"/>
       <c r="BN591" s="30"/>
@@ -50452,7 +50440,7 @@
       <c r="DH591" s="4"/>
       <c r="DI591" s="7"/>
     </row>
-    <row r="592" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL592" s="30"/>
       <c r="BM592" s="30"/>
       <c r="BN592" s="30"/>
@@ -50462,7 +50450,7 @@
       <c r="DH592" s="4"/>
       <c r="DI592" s="7"/>
     </row>
-    <row r="593" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL593" s="30"/>
       <c r="BM593" s="30"/>
       <c r="BN593" s="30"/>
@@ -50472,7 +50460,7 @@
       <c r="DH593" s="4"/>
       <c r="DI593" s="7"/>
     </row>
-    <row r="594" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL594" s="30"/>
       <c r="BM594" s="30"/>
       <c r="BN594" s="30"/>
@@ -50482,7 +50470,7 @@
       <c r="DH594" s="4"/>
       <c r="DI594" s="7"/>
     </row>
-    <row r="595" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL595" s="30"/>
       <c r="BM595" s="30"/>
       <c r="BN595" s="30"/>
@@ -50492,7 +50480,7 @@
       <c r="DH595" s="4"/>
       <c r="DI595" s="7"/>
     </row>
-    <row r="596" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL596" s="30"/>
       <c r="BM596" s="30"/>
       <c r="BN596" s="30"/>
@@ -50502,7 +50490,7 @@
       <c r="DH596" s="4"/>
       <c r="DI596" s="7"/>
     </row>
-    <row r="597" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL597" s="30"/>
       <c r="BM597" s="30"/>
       <c r="BN597" s="30"/>
@@ -50512,7 +50500,7 @@
       <c r="DH597" s="4"/>
       <c r="DI597" s="7"/>
     </row>
-    <row r="598" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL598" s="30"/>
       <c r="BM598" s="30"/>
       <c r="BN598" s="30"/>
@@ -50522,7 +50510,7 @@
       <c r="DH598" s="4"/>
       <c r="DI598" s="7"/>
     </row>
-    <row r="599" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL599" s="30"/>
       <c r="BM599" s="30"/>
       <c r="BN599" s="30"/>
@@ -50532,7 +50520,7 @@
       <c r="DH599" s="4"/>
       <c r="DI599" s="7"/>
     </row>
-    <row r="600" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL600" s="30"/>
       <c r="BM600" s="30"/>
       <c r="BN600" s="30"/>
@@ -50542,7 +50530,7 @@
       <c r="DH600" s="4"/>
       <c r="DI600" s="7"/>
     </row>
-    <row r="601" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL601" s="30"/>
       <c r="BM601" s="30"/>
       <c r="BN601" s="30"/>
@@ -50552,7 +50540,7 @@
       <c r="DH601" s="4"/>
       <c r="DI601" s="7"/>
     </row>
-    <row r="602" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL602" s="30"/>
       <c r="BM602" s="30"/>
       <c r="BN602" s="30"/>
@@ -50562,7 +50550,7 @@
       <c r="DH602" s="4"/>
       <c r="DI602" s="7"/>
     </row>
-    <row r="603" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL603" s="30"/>
       <c r="BM603" s="30"/>
       <c r="BN603" s="30"/>
@@ -50572,7 +50560,7 @@
       <c r="DH603" s="4"/>
       <c r="DI603" s="7"/>
     </row>
-    <row r="604" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL604" s="30"/>
       <c r="BM604" s="30"/>
       <c r="BN604" s="30"/>
@@ -50582,7 +50570,7 @@
       <c r="DH604" s="4"/>
       <c r="DI604" s="7"/>
     </row>
-    <row r="605" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL605" s="30"/>
       <c r="BM605" s="30"/>
       <c r="BN605" s="30"/>
@@ -50592,7 +50580,7 @@
       <c r="DH605" s="4"/>
       <c r="DI605" s="7"/>
     </row>
-    <row r="606" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL606" s="30"/>
       <c r="BM606" s="30"/>
       <c r="BN606" s="30"/>
@@ -50602,7 +50590,7 @@
       <c r="DH606" s="4"/>
       <c r="DI606" s="7"/>
     </row>
-    <row r="607" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL607" s="30"/>
       <c r="BM607" s="30"/>
       <c r="BN607" s="30"/>
@@ -50612,7 +50600,7 @@
       <c r="DH607" s="4"/>
       <c r="DI607" s="7"/>
     </row>
-    <row r="608" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL608" s="30"/>
       <c r="BM608" s="30"/>
       <c r="BN608" s="30"/>
@@ -50622,7 +50610,7 @@
       <c r="DH608" s="4"/>
       <c r="DI608" s="7"/>
     </row>
-    <row r="609" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL609" s="30"/>
       <c r="BM609" s="30"/>
       <c r="BN609" s="30"/>
@@ -50632,7 +50620,7 @@
       <c r="DH609" s="4"/>
       <c r="DI609" s="7"/>
     </row>
-    <row r="610" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL610" s="30"/>
       <c r="BM610" s="30"/>
       <c r="BN610" s="30"/>
@@ -50642,7 +50630,7 @@
       <c r="DH610" s="4"/>
       <c r="DI610" s="7"/>
     </row>
-    <row r="611" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL611" s="30"/>
       <c r="BM611" s="30"/>
       <c r="BN611" s="30"/>
@@ -50652,7 +50640,7 @@
       <c r="DH611" s="4"/>
       <c r="DI611" s="7"/>
     </row>
-    <row r="612" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL612" s="30"/>
       <c r="BM612" s="30"/>
       <c r="BN612" s="30"/>
@@ -50662,7 +50650,7 @@
       <c r="DH612" s="4"/>
       <c r="DI612" s="7"/>
     </row>
-    <row r="613" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL613" s="30"/>
       <c r="BM613" s="30"/>
       <c r="BN613" s="30"/>
@@ -50672,7 +50660,7 @@
       <c r="DH613" s="4"/>
       <c r="DI613" s="7"/>
     </row>
-    <row r="614" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL614" s="30"/>
       <c r="BM614" s="30"/>
       <c r="BN614" s="30"/>
@@ -50682,7 +50670,7 @@
       <c r="DH614" s="4"/>
       <c r="DI614" s="7"/>
     </row>
-    <row r="615" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL615" s="30"/>
       <c r="BM615" s="30"/>
       <c r="BN615" s="30"/>
@@ -50692,7 +50680,7 @@
       <c r="DH615" s="4"/>
       <c r="DI615" s="7"/>
     </row>
-    <row r="616" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL616" s="30"/>
       <c r="BM616" s="30"/>
       <c r="BN616" s="30"/>
@@ -50702,7 +50690,7 @@
       <c r="DH616" s="4"/>
       <c r="DI616" s="7"/>
     </row>
-    <row r="617" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL617" s="30"/>
       <c r="BM617" s="30"/>
       <c r="BN617" s="30"/>
@@ -50712,7 +50700,7 @@
       <c r="DH617" s="4"/>
       <c r="DI617" s="7"/>
     </row>
-    <row r="618" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL618" s="30"/>
       <c r="BM618" s="30"/>
       <c r="BN618" s="30"/>
@@ -50722,7 +50710,7 @@
       <c r="DH618" s="4"/>
       <c r="DI618" s="7"/>
     </row>
-    <row r="619" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL619" s="30"/>
       <c r="BM619" s="30"/>
       <c r="BN619" s="30"/>
@@ -50732,7 +50720,7 @@
       <c r="DH619" s="4"/>
       <c r="DI619" s="7"/>
     </row>
-    <row r="620" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL620" s="30"/>
       <c r="BM620" s="30"/>
       <c r="BN620" s="30"/>
@@ -50742,7 +50730,7 @@
       <c r="DH620" s="4"/>
       <c r="DI620" s="7"/>
     </row>
-    <row r="621" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL621" s="30"/>
       <c r="BM621" s="30"/>
       <c r="BN621" s="30"/>
@@ -50752,7 +50740,7 @@
       <c r="DH621" s="4"/>
       <c r="DI621" s="7"/>
     </row>
-    <row r="622" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL622" s="30"/>
       <c r="BM622" s="30"/>
       <c r="BN622" s="30"/>
@@ -50762,7 +50750,7 @@
       <c r="DH622" s="4"/>
       <c r="DI622" s="7"/>
     </row>
-    <row r="623" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL623" s="30"/>
       <c r="BM623" s="30"/>
       <c r="BN623" s="30"/>
@@ -50772,7 +50760,7 @@
       <c r="DH623" s="4"/>
       <c r="DI623" s="7"/>
     </row>
-    <row r="624" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL624" s="30"/>
       <c r="BM624" s="30"/>
       <c r="BN624" s="30"/>
@@ -50782,7 +50770,7 @@
       <c r="DH624" s="4"/>
       <c r="DI624" s="7"/>
     </row>
-    <row r="625" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL625" s="30"/>
       <c r="BM625" s="30"/>
       <c r="BN625" s="30"/>
@@ -50792,7 +50780,7 @@
       <c r="DH625" s="4"/>
       <c r="DI625" s="7"/>
     </row>
-    <row r="626" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL626" s="30"/>
       <c r="BM626" s="30"/>
       <c r="BN626" s="30"/>
@@ -50802,7 +50790,7 @@
       <c r="DH626" s="4"/>
       <c r="DI626" s="7"/>
     </row>
-    <row r="627" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL627" s="30"/>
       <c r="BM627" s="30"/>
       <c r="BN627" s="30"/>
@@ -50812,7 +50800,7 @@
       <c r="DH627" s="4"/>
       <c r="DI627" s="7"/>
     </row>
-    <row r="628" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL628" s="30"/>
       <c r="BM628" s="30"/>
       <c r="BN628" s="30"/>
@@ -50822,7 +50810,7 @@
       <c r="DH628" s="4"/>
       <c r="DI628" s="7"/>
     </row>
-    <row r="629" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL629" s="30"/>
       <c r="BM629" s="30"/>
       <c r="BN629" s="30"/>
@@ -50832,7 +50820,7 @@
       <c r="DH629" s="4"/>
       <c r="DI629" s="7"/>
     </row>
-    <row r="630" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL630" s="30"/>
       <c r="BM630" s="30"/>
       <c r="BN630" s="30"/>
@@ -50842,7 +50830,7 @@
       <c r="DH630" s="4"/>
       <c r="DI630" s="7"/>
     </row>
-    <row r="631" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL631" s="30"/>
       <c r="BM631" s="30"/>
       <c r="BN631" s="30"/>
@@ -50852,7 +50840,7 @@
       <c r="DH631" s="4"/>
       <c r="DI631" s="7"/>
     </row>
-    <row r="632" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL632" s="30"/>
       <c r="BM632" s="30"/>
       <c r="BN632" s="30"/>
@@ -50862,7 +50850,7 @@
       <c r="DH632" s="4"/>
       <c r="DI632" s="7"/>
     </row>
-    <row r="633" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL633" s="30"/>
       <c r="BM633" s="30"/>
       <c r="BN633" s="30"/>
@@ -50872,7 +50860,7 @@
       <c r="DH633" s="4"/>
       <c r="DI633" s="7"/>
     </row>
-    <row r="634" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL634" s="30"/>
       <c r="BM634" s="30"/>
       <c r="BN634" s="30"/>
@@ -50882,7 +50870,7 @@
       <c r="DH634" s="4"/>
       <c r="DI634" s="7"/>
     </row>
-    <row r="635" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL635" s="30"/>
       <c r="BM635" s="30"/>
       <c r="BN635" s="30"/>
@@ -50892,7 +50880,7 @@
       <c r="DH635" s="4"/>
       <c r="DI635" s="7"/>
     </row>
-    <row r="636" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL636" s="30"/>
       <c r="BM636" s="30"/>
       <c r="BN636" s="30"/>
@@ -50902,7 +50890,7 @@
       <c r="DH636" s="4"/>
       <c r="DI636" s="7"/>
     </row>
-    <row r="637" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL637" s="30"/>
       <c r="BM637" s="30"/>
       <c r="BN637" s="30"/>
@@ -50912,7 +50900,7 @@
       <c r="DH637" s="4"/>
       <c r="DI637" s="7"/>
     </row>
-    <row r="638" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL638" s="30"/>
       <c r="BM638" s="30"/>
       <c r="BN638" s="30"/>
@@ -50922,7 +50910,7 @@
       <c r="DH638" s="4"/>
       <c r="DI638" s="7"/>
     </row>
-    <row r="639" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL639" s="30"/>
       <c r="BM639" s="30"/>
       <c r="BN639" s="30"/>
@@ -50932,7 +50920,7 @@
       <c r="DH639" s="4"/>
       <c r="DI639" s="7"/>
     </row>
-    <row r="640" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL640" s="30"/>
       <c r="BM640" s="30"/>
       <c r="BN640" s="30"/>
@@ -50942,7 +50930,7 @@
       <c r="DH640" s="4"/>
       <c r="DI640" s="7"/>
     </row>
-    <row r="641" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL641" s="30"/>
       <c r="BM641" s="30"/>
       <c r="BN641" s="30"/>
@@ -50952,7 +50940,7 @@
       <c r="DH641" s="4"/>
       <c r="DI641" s="7"/>
     </row>
-    <row r="642" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL642" s="30"/>
       <c r="BM642" s="30"/>
       <c r="BN642" s="30"/>
@@ -50962,7 +50950,7 @@
       <c r="DH642" s="4"/>
       <c r="DI642" s="7"/>
     </row>
-    <row r="643" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL643" s="30"/>
       <c r="BM643" s="30"/>
       <c r="BN643" s="30"/>
@@ -50972,7 +50960,7 @@
       <c r="DH643" s="4"/>
       <c r="DI643" s="7"/>
     </row>
-    <row r="644" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL644" s="30"/>
       <c r="BM644" s="30"/>
       <c r="BN644" s="30"/>
@@ -50982,7 +50970,7 @@
       <c r="DH644" s="4"/>
       <c r="DI644" s="7"/>
     </row>
-    <row r="645" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL645" s="30"/>
       <c r="BM645" s="30"/>
       <c r="BN645" s="30"/>
@@ -50992,7 +50980,7 @@
       <c r="DH645" s="4"/>
       <c r="DI645" s="7"/>
     </row>
-    <row r="646" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL646" s="30"/>
       <c r="BM646" s="30"/>
       <c r="BN646" s="30"/>
@@ -51002,7 +50990,7 @@
       <c r="DH646" s="4"/>
       <c r="DI646" s="7"/>
     </row>
-    <row r="647" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL647" s="30"/>
       <c r="BM647" s="30"/>
       <c r="BN647" s="30"/>
@@ -51012,7 +51000,7 @@
       <c r="DH647" s="4"/>
       <c r="DI647" s="7"/>
     </row>
-    <row r="648" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL648" s="30"/>
       <c r="BM648" s="30"/>
       <c r="BN648" s="30"/>
@@ -51022,7 +51010,7 @@
       <c r="DH648" s="4"/>
       <c r="DI648" s="7"/>
     </row>
-    <row r="649" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL649" s="30"/>
       <c r="BM649" s="30"/>
       <c r="BN649" s="30"/>
@@ -51032,7 +51020,7 @@
       <c r="DH649" s="4"/>
       <c r="DI649" s="7"/>
     </row>
-    <row r="650" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL650" s="30"/>
       <c r="BM650" s="30"/>
       <c r="BN650" s="30"/>
@@ -51042,7 +51030,7 @@
       <c r="DH650" s="4"/>
       <c r="DI650" s="7"/>
     </row>
-    <row r="651" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL651" s="30"/>
       <c r="BM651" s="30"/>
       <c r="BN651" s="30"/>
@@ -51052,7 +51040,7 @@
       <c r="DH651" s="4"/>
       <c r="DI651" s="7"/>
     </row>
-    <row r="652" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL652" s="30"/>
       <c r="BM652" s="30"/>
       <c r="BN652" s="30"/>
@@ -51062,7 +51050,7 @@
       <c r="DH652" s="4"/>
       <c r="DI652" s="7"/>
     </row>
-    <row r="653" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL653" s="30"/>
       <c r="BM653" s="30"/>
       <c r="BN653" s="30"/>
@@ -51072,7 +51060,7 @@
       <c r="DH653" s="4"/>
       <c r="DI653" s="7"/>
     </row>
-    <row r="654" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL654" s="30"/>
       <c r="BM654" s="30"/>
       <c r="BN654" s="30"/>
@@ -51082,7 +51070,7 @@
       <c r="DH654" s="4"/>
       <c r="DI654" s="7"/>
     </row>
-    <row r="655" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL655" s="30"/>
       <c r="BM655" s="30"/>
       <c r="BN655" s="30"/>
@@ -51092,7 +51080,7 @@
       <c r="DH655" s="4"/>
       <c r="DI655" s="7"/>
     </row>
-    <row r="656" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL656" s="30"/>
       <c r="BM656" s="30"/>
       <c r="BN656" s="30"/>
@@ -51102,7 +51090,7 @@
       <c r="DH656" s="4"/>
       <c r="DI656" s="7"/>
     </row>
-    <row r="657" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL657" s="30"/>
       <c r="BM657" s="30"/>
       <c r="BN657" s="30"/>
@@ -51112,7 +51100,7 @@
       <c r="DH657" s="4"/>
       <c r="DI657" s="7"/>
     </row>
-    <row r="658" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL658" s="30"/>
       <c r="BM658" s="30"/>
       <c r="BN658" s="30"/>
@@ -51122,7 +51110,7 @@
       <c r="DH658" s="4"/>
       <c r="DI658" s="7"/>
     </row>
-    <row r="659" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL659" s="30"/>
       <c r="BM659" s="30"/>
       <c r="BN659" s="30"/>
@@ -51132,7 +51120,7 @@
       <c r="DH659" s="4"/>
       <c r="DI659" s="7"/>
     </row>
-    <row r="660" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL660" s="30"/>
       <c r="BM660" s="30"/>
       <c r="BN660" s="30"/>
@@ -51142,7 +51130,7 @@
       <c r="DH660" s="4"/>
       <c r="DI660" s="7"/>
     </row>
-    <row r="661" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL661" s="30"/>
       <c r="BM661" s="30"/>
       <c r="BN661" s="30"/>
@@ -51152,7 +51140,7 @@
       <c r="DH661" s="4"/>
       <c r="DI661" s="7"/>
     </row>
-    <row r="662" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL662" s="30"/>
       <c r="BM662" s="30"/>
       <c r="BN662" s="30"/>
@@ -51162,7 +51150,7 @@
       <c r="DH662" s="4"/>
       <c r="DI662" s="7"/>
     </row>
-    <row r="663" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL663" s="30"/>
       <c r="BM663" s="30"/>
       <c r="BN663" s="30"/>
@@ -51172,7 +51160,7 @@
       <c r="DH663" s="4"/>
       <c r="DI663" s="7"/>
     </row>
-    <row r="664" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL664" s="30"/>
       <c r="BM664" s="30"/>
       <c r="BN664" s="30"/>
@@ -51182,7 +51170,7 @@
       <c r="DH664" s="4"/>
       <c r="DI664" s="7"/>
     </row>
-    <row r="665" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL665" s="30"/>
       <c r="BM665" s="30"/>
       <c r="BN665" s="30"/>
@@ -51192,7 +51180,7 @@
       <c r="DH665" s="4"/>
       <c r="DI665" s="7"/>
     </row>
-    <row r="666" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL666" s="30"/>
       <c r="BM666" s="30"/>
       <c r="BN666" s="30"/>
@@ -51202,7 +51190,7 @@
       <c r="DH666" s="4"/>
       <c r="DI666" s="7"/>
     </row>
-    <row r="667" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL667" s="30"/>
       <c r="BM667" s="30"/>
       <c r="BN667" s="30"/>
@@ -51212,7 +51200,7 @@
       <c r="DH667" s="4"/>
       <c r="DI667" s="7"/>
     </row>
-    <row r="668" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL668" s="30"/>
       <c r="BM668" s="30"/>
       <c r="BN668" s="30"/>
@@ -51222,7 +51210,7 @@
       <c r="DH668" s="4"/>
       <c r="DI668" s="7"/>
     </row>
-    <row r="669" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL669" s="30"/>
       <c r="BM669" s="30"/>
       <c r="BN669" s="30"/>
@@ -51232,7 +51220,7 @@
       <c r="DH669" s="4"/>
       <c r="DI669" s="7"/>
     </row>
-    <row r="670" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL670" s="30"/>
       <c r="BM670" s="30"/>
       <c r="BN670" s="30"/>
@@ -51242,7 +51230,7 @@
       <c r="DH670" s="4"/>
       <c r="DI670" s="7"/>
     </row>
-    <row r="671" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL671" s="30"/>
       <c r="BM671" s="30"/>
       <c r="BN671" s="30"/>
@@ -51252,7 +51240,7 @@
       <c r="DH671" s="4"/>
       <c r="DI671" s="7"/>
     </row>
-    <row r="672" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL672" s="30"/>
       <c r="BM672" s="30"/>
       <c r="BN672" s="30"/>
@@ -51262,7 +51250,7 @@
       <c r="DH672" s="4"/>
       <c r="DI672" s="7"/>
     </row>
-    <row r="673" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL673" s="30"/>
       <c r="BM673" s="30"/>
       <c r="BN673" s="30"/>
@@ -51272,7 +51260,7 @@
       <c r="DH673" s="4"/>
       <c r="DI673" s="7"/>
     </row>
-    <row r="674" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL674" s="30"/>
       <c r="BM674" s="30"/>
       <c r="BN674" s="30"/>
@@ -51282,7 +51270,7 @@
       <c r="DH674" s="4"/>
       <c r="DI674" s="7"/>
     </row>
-    <row r="675" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL675" s="30"/>
       <c r="BM675" s="30"/>
       <c r="BN675" s="30"/>
@@ -51292,7 +51280,7 @@
       <c r="DH675" s="4"/>
       <c r="DI675" s="7"/>
     </row>
-    <row r="676" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL676" s="30"/>
       <c r="BM676" s="30"/>
       <c r="BN676" s="30"/>
@@ -51302,7 +51290,7 @@
       <c r="DH676" s="4"/>
       <c r="DI676" s="7"/>
     </row>
-    <row r="677" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL677" s="30"/>
       <c r="BM677" s="30"/>
       <c r="BN677" s="30"/>
@@ -51312,7 +51300,7 @@
       <c r="DH677" s="4"/>
       <c r="DI677" s="7"/>
     </row>
-    <row r="678" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL678" s="30"/>
       <c r="BM678" s="30"/>
       <c r="BN678" s="30"/>
@@ -51322,7 +51310,7 @@
       <c r="DH678" s="4"/>
       <c r="DI678" s="7"/>
     </row>
-    <row r="679" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL679" s="30"/>
       <c r="BM679" s="30"/>
       <c r="BN679" s="30"/>
@@ -51332,7 +51320,7 @@
       <c r="DH679" s="4"/>
       <c r="DI679" s="7"/>
     </row>
-    <row r="680" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL680" s="30"/>
       <c r="BM680" s="30"/>
       <c r="BN680" s="30"/>
@@ -51342,7 +51330,7 @@
       <c r="DH680" s="4"/>
       <c r="DI680" s="7"/>
     </row>
-    <row r="681" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL681" s="30"/>
       <c r="BM681" s="30"/>
       <c r="BN681" s="30"/>
@@ -51352,7 +51340,7 @@
       <c r="DH681" s="4"/>
       <c r="DI681" s="7"/>
     </row>
-    <row r="682" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL682" s="30"/>
       <c r="BM682" s="30"/>
       <c r="BN682" s="30"/>
@@ -51362,7 +51350,7 @@
       <c r="DH682" s="4"/>
       <c r="DI682" s="7"/>
     </row>
-    <row r="683" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL683" s="30"/>
       <c r="BM683" s="30"/>
       <c r="BN683" s="30"/>
@@ -51372,7 +51360,7 @@
       <c r="DH683" s="4"/>
       <c r="DI683" s="7"/>
     </row>
-    <row r="684" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL684" s="30"/>
       <c r="BM684" s="30"/>
       <c r="BN684" s="30"/>
@@ -51382,7 +51370,7 @@
       <c r="DH684" s="4"/>
       <c r="DI684" s="7"/>
     </row>
-    <row r="685" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL685" s="30"/>
       <c r="BM685" s="30"/>
       <c r="BN685" s="30"/>
@@ -51392,7 +51380,7 @@
       <c r="DH685" s="4"/>
       <c r="DI685" s="7"/>
     </row>
-    <row r="686" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL686" s="30"/>
       <c r="BM686" s="30"/>
       <c r="BN686" s="30"/>
@@ -51402,7 +51390,7 @@
       <c r="DH686" s="4"/>
       <c r="DI686" s="7"/>
     </row>
-    <row r="687" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL687" s="30"/>
       <c r="BM687" s="30"/>
       <c r="BN687" s="30"/>
@@ -51412,7 +51400,7 @@
       <c r="DH687" s="4"/>
       <c r="DI687" s="7"/>
     </row>
-    <row r="688" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL688" s="30"/>
       <c r="BM688" s="30"/>
       <c r="BN688" s="30"/>
@@ -51422,7 +51410,7 @@
       <c r="DH688" s="4"/>
       <c r="DI688" s="7"/>
     </row>
-    <row r="689" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL689" s="30"/>
       <c r="BM689" s="30"/>
       <c r="BN689" s="30"/>
@@ -51432,7 +51420,7 @@
       <c r="DH689" s="4"/>
       <c r="DI689" s="7"/>
     </row>
-    <row r="690" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL690" s="30"/>
       <c r="BM690" s="30"/>
       <c r="BN690" s="30"/>
@@ -51442,7 +51430,7 @@
       <c r="DH690" s="4"/>
       <c r="DI690" s="7"/>
     </row>
-    <row r="691" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL691" s="30"/>
       <c r="BM691" s="30"/>
       <c r="BN691" s="30"/>
@@ -51452,7 +51440,7 @@
       <c r="DH691" s="4"/>
       <c r="DI691" s="7"/>
     </row>
-    <row r="692" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL692" s="30"/>
       <c r="BM692" s="30"/>
       <c r="BN692" s="30"/>
@@ -51462,7 +51450,7 @@
       <c r="DH692" s="4"/>
       <c r="DI692" s="7"/>
     </row>
-    <row r="693" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL693" s="30"/>
       <c r="BM693" s="30"/>
       <c r="BN693" s="30"/>
@@ -51472,7 +51460,7 @@
       <c r="DH693" s="4"/>
       <c r="DI693" s="7"/>
     </row>
-    <row r="694" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL694" s="30"/>
       <c r="BM694" s="30"/>
       <c r="BN694" s="30"/>
@@ -51482,7 +51470,7 @@
       <c r="DH694" s="4"/>
       <c r="DI694" s="7"/>
     </row>
-    <row r="695" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL695" s="30"/>
       <c r="BM695" s="30"/>
       <c r="BN695" s="30"/>
@@ -51492,7 +51480,7 @@
       <c r="DH695" s="4"/>
       <c r="DI695" s="7"/>
     </row>
-    <row r="696" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL696" s="30"/>
       <c r="BM696" s="30"/>
       <c r="BN696" s="30"/>
@@ -51502,7 +51490,7 @@
       <c r="DH696" s="4"/>
       <c r="DI696" s="7"/>
     </row>
-    <row r="697" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL697" s="30"/>
       <c r="BM697" s="30"/>
       <c r="BN697" s="30"/>
@@ -51512,7 +51500,7 @@
       <c r="DH697" s="4"/>
       <c r="DI697" s="7"/>
     </row>
-    <row r="698" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL698" s="30"/>
       <c r="BM698" s="30"/>
       <c r="BN698" s="30"/>
@@ -51522,7 +51510,7 @@
       <c r="DH698" s="4"/>
       <c r="DI698" s="7"/>
     </row>
-    <row r="699" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL699" s="30"/>
       <c r="BM699" s="30"/>
       <c r="BN699" s="30"/>
@@ -51532,7 +51520,7 @@
       <c r="DH699" s="4"/>
       <c r="DI699" s="7"/>
     </row>
-    <row r="700" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL700" s="30"/>
       <c r="BM700" s="30"/>
       <c r="BN700" s="30"/>
@@ -51542,7 +51530,7 @@
       <c r="DH700" s="4"/>
       <c r="DI700" s="7"/>
     </row>
-    <row r="701" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL701" s="30"/>
       <c r="BM701" s="30"/>
       <c r="BN701" s="30"/>
@@ -51552,7 +51540,7 @@
       <c r="DH701" s="4"/>
       <c r="DI701" s="7"/>
     </row>
-    <row r="702" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL702" s="30"/>
       <c r="BM702" s="30"/>
       <c r="BN702" s="30"/>
@@ -51562,7 +51550,7 @@
       <c r="DH702" s="4"/>
       <c r="DI702" s="7"/>
     </row>
-    <row r="703" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL703" s="30"/>
       <c r="BM703" s="30"/>
       <c r="BN703" s="30"/>
@@ -51572,7 +51560,7 @@
       <c r="DH703" s="4"/>
       <c r="DI703" s="7"/>
     </row>
-    <row r="704" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL704" s="30"/>
       <c r="BM704" s="30"/>
       <c r="BN704" s="30"/>
@@ -51582,7 +51570,7 @@
       <c r="DH704" s="4"/>
       <c r="DI704" s="7"/>
     </row>
-    <row r="705" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL705" s="30"/>
       <c r="BM705" s="30"/>
       <c r="BN705" s="30"/>
@@ -51592,7 +51580,7 @@
       <c r="DH705" s="4"/>
       <c r="DI705" s="7"/>
     </row>
-    <row r="706" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL706" s="30"/>
       <c r="BM706" s="30"/>
       <c r="BN706" s="30"/>
@@ -51602,7 +51590,7 @@
       <c r="DH706" s="4"/>
       <c r="DI706" s="7"/>
     </row>
-    <row r="707" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL707" s="30"/>
       <c r="BM707" s="30"/>
       <c r="BN707" s="30"/>
@@ -51612,7 +51600,7 @@
       <c r="DH707" s="4"/>
       <c r="DI707" s="7"/>
     </row>
-    <row r="708" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL708" s="30"/>
       <c r="BM708" s="30"/>
       <c r="BN708" s="30"/>
@@ -51622,7 +51610,7 @@
       <c r="DH708" s="4"/>
       <c r="DI708" s="7"/>
     </row>
-    <row r="709" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL709" s="30"/>
       <c r="BM709" s="30"/>
       <c r="BN709" s="30"/>
@@ -51632,7 +51620,7 @@
       <c r="DH709" s="4"/>
       <c r="DI709" s="7"/>
     </row>
-    <row r="710" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL710" s="30"/>
       <c r="BM710" s="30"/>
       <c r="BN710" s="30"/>
@@ -51642,7 +51630,7 @@
       <c r="DH710" s="4"/>
       <c r="DI710" s="7"/>
     </row>
-    <row r="711" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL711" s="30"/>
       <c r="BM711" s="30"/>
       <c r="BN711" s="30"/>
@@ -51652,7 +51640,7 @@
       <c r="DH711" s="4"/>
       <c r="DI711" s="7"/>
     </row>
-    <row r="712" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL712" s="30"/>
       <c r="BM712" s="30"/>
       <c r="BN712" s="30"/>
@@ -51662,7 +51650,7 @@
       <c r="DH712" s="4"/>
       <c r="DI712" s="7"/>
     </row>
-    <row r="713" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL713" s="30"/>
       <c r="BM713" s="30"/>
       <c r="BN713" s="30"/>
@@ -51672,7 +51660,7 @@
       <c r="DH713" s="4"/>
       <c r="DI713" s="7"/>
     </row>
-    <row r="714" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL714" s="30"/>
       <c r="BM714" s="30"/>
       <c r="BN714" s="30"/>
@@ -51682,7 +51670,7 @@
       <c r="DH714" s="4"/>
       <c r="DI714" s="7"/>
     </row>
-    <row r="715" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL715" s="30"/>
       <c r="BM715" s="30"/>
       <c r="BN715" s="30"/>
@@ -51692,7 +51680,7 @@
       <c r="DH715" s="4"/>
       <c r="DI715" s="7"/>
     </row>
-    <row r="716" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL716" s="30"/>
       <c r="BM716" s="30"/>
       <c r="BN716" s="30"/>
@@ -51702,7 +51690,7 @@
       <c r="DH716" s="4"/>
       <c r="DI716" s="7"/>
     </row>
-    <row r="717" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL717" s="30"/>
       <c r="BM717" s="30"/>
       <c r="BN717" s="30"/>
@@ -51712,7 +51700,7 @@
       <c r="DH717" s="4"/>
       <c r="DI717" s="7"/>
     </row>
-    <row r="718" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL718" s="30"/>
       <c r="BM718" s="30"/>
       <c r="BN718" s="30"/>
@@ -51722,7 +51710,7 @@
       <c r="DH718" s="4"/>
       <c r="DI718" s="7"/>
     </row>
-    <row r="719" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL719" s="30"/>
       <c r="BM719" s="30"/>
       <c r="BN719" s="30"/>
@@ -51732,7 +51720,7 @@
       <c r="DH719" s="4"/>
       <c r="DI719" s="7"/>
     </row>
-    <row r="720" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL720" s="30"/>
       <c r="BM720" s="30"/>
       <c r="BN720" s="30"/>
@@ -51742,7 +51730,7 @@
       <c r="DH720" s="4"/>
       <c r="DI720" s="7"/>
     </row>
-    <row r="721" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL721" s="30"/>
       <c r="BM721" s="30"/>
       <c r="BN721" s="30"/>
@@ -51752,7 +51740,7 @@
       <c r="DH721" s="4"/>
       <c r="DI721" s="7"/>
     </row>
-    <row r="722" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL722" s="30"/>
       <c r="BM722" s="30"/>
       <c r="BN722" s="30"/>
@@ -51762,7 +51750,7 @@
       <c r="DH722" s="4"/>
       <c r="DI722" s="7"/>
     </row>
-    <row r="723" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL723" s="30"/>
       <c r="BM723" s="30"/>
       <c r="BN723" s="30"/>
@@ -51772,7 +51760,7 @@
       <c r="DH723" s="4"/>
       <c r="DI723" s="7"/>
     </row>
-    <row r="724" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL724" s="30"/>
       <c r="BM724" s="30"/>
       <c r="BN724" s="30"/>
@@ -51782,7 +51770,7 @@
       <c r="DH724" s="4"/>
       <c r="DI724" s="7"/>
     </row>
-    <row r="725" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL725" s="30"/>
       <c r="BM725" s="30"/>
       <c r="BN725" s="30"/>
@@ -51792,7 +51780,7 @@
       <c r="DH725" s="4"/>
       <c r="DI725" s="7"/>
     </row>
-    <row r="726" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL726" s="30"/>
       <c r="BM726" s="30"/>
       <c r="BN726" s="30"/>
@@ -51802,7 +51790,7 @@
       <c r="DH726" s="4"/>
       <c r="DI726" s="7"/>
     </row>
-    <row r="727" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL727" s="30"/>
       <c r="BM727" s="30"/>
       <c r="BN727" s="30"/>
@@ -51812,7 +51800,7 @@
       <c r="DH727" s="4"/>
       <c r="DI727" s="7"/>
     </row>
-    <row r="728" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL728" s="30"/>
       <c r="BM728" s="30"/>
       <c r="BN728" s="30"/>
@@ -51822,7 +51810,7 @@
       <c r="DH728" s="4"/>
       <c r="DI728" s="7"/>
     </row>
-    <row r="729" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL729" s="30"/>
       <c r="BM729" s="30"/>
       <c r="BN729" s="30"/>
@@ -51832,7 +51820,7 @@
       <c r="DH729" s="4"/>
       <c r="DI729" s="7"/>
     </row>
-    <row r="730" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL730" s="30"/>
       <c r="BM730" s="30"/>
       <c r="BN730" s="30"/>
@@ -51842,7 +51830,7 @@
       <c r="DH730" s="4"/>
       <c r="DI730" s="7"/>
     </row>
-    <row r="731" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL731" s="30"/>
       <c r="BM731" s="30"/>
       <c r="BN731" s="30"/>
@@ -51852,7 +51840,7 @@
       <c r="DH731" s="4"/>
       <c r="DI731" s="7"/>
     </row>
-    <row r="732" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL732" s="30"/>
       <c r="BM732" s="30"/>
       <c r="BN732" s="30"/>
@@ -51862,7 +51850,7 @@
       <c r="DH732" s="4"/>
       <c r="DI732" s="7"/>
     </row>
-    <row r="733" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL733" s="30"/>
       <c r="BM733" s="30"/>
       <c r="BN733" s="30"/>
@@ -51872,7 +51860,7 @@
       <c r="DH733" s="4"/>
       <c r="DI733" s="7"/>
     </row>
-    <row r="734" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL734" s="30"/>
       <c r="BM734" s="30"/>
       <c r="BN734" s="30"/>
@@ -51882,7 +51870,7 @@
       <c r="DH734" s="4"/>
       <c r="DI734" s="7"/>
     </row>
-    <row r="735" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL735" s="30"/>
       <c r="BM735" s="30"/>
       <c r="BN735" s="30"/>
@@ -51892,7 +51880,7 @@
       <c r="DH735" s="4"/>
       <c r="DI735" s="7"/>
     </row>
-    <row r="736" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL736" s="30"/>
       <c r="BM736" s="30"/>
       <c r="BN736" s="30"/>
@@ -51902,7 +51890,7 @@
       <c r="DH736" s="4"/>
       <c r="DI736" s="7"/>
     </row>
-    <row r="737" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL737" s="30"/>
       <c r="BM737" s="30"/>
       <c r="BN737" s="30"/>
@@ -51912,7 +51900,7 @@
       <c r="DH737" s="4"/>
       <c r="DI737" s="7"/>
     </row>
-    <row r="738" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL738" s="30"/>
       <c r="BM738" s="30"/>
       <c r="BN738" s="30"/>
@@ -51922,7 +51910,7 @@
       <c r="DH738" s="4"/>
       <c r="DI738" s="7"/>
     </row>
-    <row r="739" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL739" s="30"/>
       <c r="BM739" s="30"/>
       <c r="BN739" s="30"/>
@@ -51932,7 +51920,7 @@
       <c r="DH739" s="4"/>
       <c r="DI739" s="7"/>
     </row>
-    <row r="740" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL740" s="30"/>
       <c r="BM740" s="30"/>
       <c r="BN740" s="30"/>
@@ -51942,7 +51930,7 @@
       <c r="DH740" s="4"/>
       <c r="DI740" s="7"/>
     </row>
-    <row r="741" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL741" s="30"/>
       <c r="BM741" s="30"/>
       <c r="BN741" s="30"/>
@@ -51952,7 +51940,7 @@
       <c r="DH741" s="4"/>
       <c r="DI741" s="7"/>
     </row>
-    <row r="742" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL742" s="30"/>
       <c r="BM742" s="30"/>
       <c r="BN742" s="30"/>
@@ -51962,7 +51950,7 @@
       <c r="DH742" s="4"/>
       <c r="DI742" s="7"/>
     </row>
-    <row r="743" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL743" s="30"/>
       <c r="BM743" s="30"/>
       <c r="BN743" s="30"/>
@@ -51972,7 +51960,7 @@
       <c r="DH743" s="4"/>
       <c r="DI743" s="7"/>
     </row>
-    <row r="744" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL744" s="30"/>
       <c r="BM744" s="30"/>
       <c r="BN744" s="30"/>
@@ -51982,7 +51970,7 @@
       <c r="DH744" s="4"/>
       <c r="DI744" s="7"/>
     </row>
-    <row r="745" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL745" s="30"/>
       <c r="BM745" s="30"/>
       <c r="BN745" s="30"/>
@@ -51992,7 +51980,7 @@
       <c r="DH745" s="4"/>
       <c r="DI745" s="7"/>
     </row>
-    <row r="746" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL746" s="30"/>
       <c r="BM746" s="30"/>
       <c r="BN746" s="30"/>
@@ -52002,7 +51990,7 @@
       <c r="DH746" s="4"/>
       <c r="DI746" s="7"/>
     </row>
-    <row r="747" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL747" s="30"/>
       <c r="BM747" s="30"/>
       <c r="BN747" s="30"/>
@@ -52012,7 +52000,7 @@
       <c r="DH747" s="4"/>
       <c r="DI747" s="7"/>
     </row>
-    <row r="748" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL748" s="30"/>
       <c r="BM748" s="30"/>
       <c r="BN748" s="30"/>
@@ -52022,7 +52010,7 @@
       <c r="DH748" s="4"/>
       <c r="DI748" s="7"/>
     </row>
-    <row r="749" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL749" s="30"/>
       <c r="BM749" s="30"/>
       <c r="BN749" s="30"/>
@@ -52032,7 +52020,7 @@
       <c r="DH749" s="4"/>
       <c r="DI749" s="7"/>
     </row>
-    <row r="750" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL750" s="30"/>
       <c r="BM750" s="30"/>
       <c r="BN750" s="30"/>
@@ -52042,7 +52030,7 @@
       <c r="DH750" s="4"/>
       <c r="DI750" s="7"/>
     </row>
-    <row r="751" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL751" s="30"/>
       <c r="BM751" s="30"/>
       <c r="BN751" s="30"/>
@@ -52052,7 +52040,7 @@
       <c r="DH751" s="4"/>
       <c r="DI751" s="7"/>
     </row>
-    <row r="752" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL752" s="30"/>
       <c r="BM752" s="30"/>
       <c r="BN752" s="30"/>
@@ -52062,7 +52050,7 @@
       <c r="DH752" s="4"/>
       <c r="DI752" s="7"/>
     </row>
-    <row r="753" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL753" s="30"/>
       <c r="BM753" s="30"/>
       <c r="BN753" s="30"/>
@@ -52072,7 +52060,7 @@
       <c r="DH753" s="4"/>
       <c r="DI753" s="7"/>
     </row>
-    <row r="754" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL754" s="30"/>
       <c r="BM754" s="30"/>
       <c r="BN754" s="30"/>
@@ -52082,7 +52070,7 @@
       <c r="DH754" s="4"/>
       <c r="DI754" s="7"/>
     </row>
-    <row r="755" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL755" s="30"/>
       <c r="BM755" s="30"/>
       <c r="BN755" s="30"/>
@@ -52092,7 +52080,7 @@
       <c r="DH755" s="4"/>
       <c r="DI755" s="7"/>
     </row>
-    <row r="756" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL756" s="30"/>
       <c r="BM756" s="30"/>
       <c r="BN756" s="30"/>
@@ -52102,7 +52090,7 @@
       <c r="DH756" s="4"/>
       <c r="DI756" s="7"/>
     </row>
-    <row r="757" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL757" s="30"/>
       <c r="BM757" s="30"/>
       <c r="BN757" s="30"/>
@@ -52112,7 +52100,7 @@
       <c r="DH757" s="4"/>
       <c r="DI757" s="7"/>
     </row>
-    <row r="758" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL758" s="30"/>
       <c r="BM758" s="30"/>
       <c r="BN758" s="30"/>
@@ -52122,7 +52110,7 @@
       <c r="DH758" s="4"/>
       <c r="DI758" s="7"/>
     </row>
-    <row r="759" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL759" s="30"/>
       <c r="BM759" s="30"/>
       <c r="BN759" s="30"/>
@@ -52132,7 +52120,7 @@
       <c r="DH759" s="4"/>
       <c r="DI759" s="7"/>
     </row>
-    <row r="760" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL760" s="30"/>
       <c r="BM760" s="30"/>
       <c r="BN760" s="30"/>
@@ -52142,7 +52130,7 @@
       <c r="DH760" s="4"/>
       <c r="DI760" s="7"/>
     </row>
-    <row r="761" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL761" s="30"/>
       <c r="BM761" s="30"/>
       <c r="BN761" s="30"/>
@@ -52152,7 +52140,7 @@
       <c r="DH761" s="4"/>
       <c r="DI761" s="7"/>
     </row>
-    <row r="762" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL762" s="30"/>
       <c r="BM762" s="30"/>
       <c r="BN762" s="30"/>
@@ -52162,7 +52150,7 @@
       <c r="DH762" s="4"/>
       <c r="DI762" s="7"/>
     </row>
-    <row r="763" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL763" s="30"/>
       <c r="BM763" s="30"/>
       <c r="BN763" s="30"/>
@@ -52172,7 +52160,7 @@
       <c r="DH763" s="4"/>
       <c r="DI763" s="7"/>
     </row>
-    <row r="764" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL764" s="30"/>
       <c r="BM764" s="30"/>
       <c r="BN764" s="30"/>
@@ -52182,7 +52170,7 @@
       <c r="DH764" s="4"/>
       <c r="DI764" s="7"/>
     </row>
-    <row r="765" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL765" s="30"/>
       <c r="BM765" s="30"/>
       <c r="BN765" s="30"/>
@@ -52192,7 +52180,7 @@
       <c r="DH765" s="4"/>
       <c r="DI765" s="7"/>
     </row>
-    <row r="766" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL766" s="30"/>
       <c r="BM766" s="30"/>
       <c r="BN766" s="30"/>
@@ -52202,7 +52190,7 @@
       <c r="DH766" s="4"/>
       <c r="DI766" s="7"/>
     </row>
-    <row r="767" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL767" s="30"/>
       <c r="BM767" s="30"/>
       <c r="BN767" s="30"/>
@@ -52212,7 +52200,7 @@
       <c r="DH767" s="4"/>
       <c r="DI767" s="7"/>
     </row>
-    <row r="768" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL768" s="30"/>
       <c r="BM768" s="30"/>
       <c r="BN768" s="30"/>
@@ -52222,7 +52210,7 @@
       <c r="DH768" s="4"/>
       <c r="DI768" s="7"/>
     </row>
-    <row r="769" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL769" s="30"/>
       <c r="BM769" s="30"/>
       <c r="BN769" s="30"/>
@@ -52232,7 +52220,7 @@
       <c r="DH769" s="4"/>
       <c r="DI769" s="7"/>
     </row>
-    <row r="770" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL770" s="30"/>
       <c r="BM770" s="30"/>
       <c r="BN770" s="30"/>
@@ -52242,7 +52230,7 @@
       <c r="DH770" s="4"/>
       <c r="DI770" s="7"/>
     </row>
-    <row r="771" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL771" s="30"/>
       <c r="BM771" s="30"/>
       <c r="BN771" s="30"/>
@@ -52252,7 +52240,7 @@
       <c r="DH771" s="4"/>
       <c r="DI771" s="7"/>
     </row>
-    <row r="772" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL772" s="30"/>
       <c r="BM772" s="30"/>
       <c r="BN772" s="30"/>
@@ -52262,7 +52250,7 @@
       <c r="DH772" s="4"/>
       <c r="DI772" s="7"/>
     </row>
-    <row r="773" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL773" s="30"/>
       <c r="BM773" s="30"/>
       <c r="BN773" s="30"/>
@@ -52272,7 +52260,7 @@
       <c r="DH773" s="4"/>
       <c r="DI773" s="7"/>
     </row>
-    <row r="774" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL774" s="30"/>
       <c r="BM774" s="30"/>
       <c r="BN774" s="30"/>
@@ -52282,7 +52270,7 @@
       <c r="DH774" s="4"/>
       <c r="DI774" s="7"/>
     </row>
-    <row r="775" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL775" s="30"/>
       <c r="BM775" s="30"/>
       <c r="BN775" s="30"/>
@@ -52292,7 +52280,7 @@
       <c r="DH775" s="4"/>
       <c r="DI775" s="7"/>
     </row>
-    <row r="776" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL776" s="30"/>
       <c r="BM776" s="30"/>
       <c r="BN776" s="30"/>
@@ -52302,7 +52290,7 @@
       <c r="DH776" s="4"/>
       <c r="DI776" s="7"/>
     </row>
-    <row r="777" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL777" s="30"/>
       <c r="BM777" s="30"/>
       <c r="BN777" s="30"/>
@@ -52312,7 +52300,7 @@
       <c r="DH777" s="4"/>
       <c r="DI777" s="7"/>
     </row>
-    <row r="778" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL778" s="30"/>
       <c r="BM778" s="30"/>
       <c r="BN778" s="30"/>
@@ -52322,7 +52310,7 @@
       <c r="DH778" s="4"/>
       <c r="DI778" s="7"/>
     </row>
-    <row r="779" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL779" s="30"/>
       <c r="BM779" s="30"/>
       <c r="BN779" s="30"/>
@@ -52332,7 +52320,7 @@
       <c r="DH779" s="4"/>
       <c r="DI779" s="7"/>
     </row>
-    <row r="780" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL780" s="30"/>
       <c r="BM780" s="30"/>
       <c r="BN780" s="30"/>
@@ -52342,7 +52330,7 @@
       <c r="DH780" s="4"/>
       <c r="DI780" s="7"/>
     </row>
-    <row r="781" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL781" s="30"/>
       <c r="BM781" s="30"/>
       <c r="BN781" s="30"/>
@@ -52352,7 +52340,7 @@
       <c r="DH781" s="4"/>
       <c r="DI781" s="7"/>
     </row>
-    <row r="782" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL782" s="30"/>
       <c r="BM782" s="30"/>
       <c r="BN782" s="30"/>
@@ -52362,7 +52350,7 @@
       <c r="DH782" s="4"/>
       <c r="DI782" s="7"/>
     </row>
-    <row r="783" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL783" s="30"/>
       <c r="BM783" s="30"/>
       <c r="BN783" s="30"/>
@@ -52372,7 +52360,7 @@
       <c r="DH783" s="4"/>
       <c r="DI783" s="7"/>
     </row>
-    <row r="784" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL784" s="30"/>
       <c r="BM784" s="30"/>
       <c r="BN784" s="30"/>
@@ -52382,7 +52370,7 @@
       <c r="DH784" s="4"/>
       <c r="DI784" s="7"/>
     </row>
-    <row r="785" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL785" s="30"/>
       <c r="BM785" s="30"/>
       <c r="BN785" s="30"/>
@@ -52392,7 +52380,7 @@
       <c r="DH785" s="4"/>
       <c r="DI785" s="7"/>
     </row>
-    <row r="786" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL786" s="30"/>
       <c r="BM786" s="30"/>
       <c r="BN786" s="30"/>
@@ -52402,7 +52390,7 @@
       <c r="DH786" s="4"/>
       <c r="DI786" s="7"/>
     </row>
-    <row r="787" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL787" s="30"/>
       <c r="BM787" s="30"/>
       <c r="BN787" s="30"/>
@@ -52412,7 +52400,7 @@
       <c r="DH787" s="4"/>
       <c r="DI787" s="7"/>
     </row>
-    <row r="788" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL788" s="30"/>
       <c r="BM788" s="30"/>
       <c r="BN788" s="30"/>
@@ -52422,7 +52410,7 @@
       <c r="DH788" s="4"/>
       <c r="DI788" s="7"/>
     </row>
-    <row r="789" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL789" s="30"/>
       <c r="BM789" s="30"/>
       <c r="BN789" s="30"/>
@@ -52432,7 +52420,7 @@
       <c r="DH789" s="4"/>
       <c r="DI789" s="7"/>
     </row>
-    <row r="790" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL790" s="30"/>
       <c r="BM790" s="30"/>
       <c r="BN790" s="30"/>
@@ -52442,7 +52430,7 @@
       <c r="DH790" s="4"/>
       <c r="DI790" s="7"/>
     </row>
-    <row r="791" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL791" s="30"/>
       <c r="BM791" s="30"/>
       <c r="BN791" s="30"/>
@@ -52452,7 +52440,7 @@
       <c r="DH791" s="4"/>
       <c r="DI791" s="7"/>
     </row>
-    <row r="792" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL792" s="30"/>
       <c r="BM792" s="30"/>
       <c r="BN792" s="30"/>
@@ -52462,7 +52450,7 @@
       <c r="DH792" s="4"/>
       <c r="DI792" s="7"/>
     </row>
-    <row r="793" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL793" s="30"/>
       <c r="BM793" s="30"/>
       <c r="BN793" s="30"/>
@@ -52472,7 +52460,7 @@
       <c r="DH793" s="4"/>
       <c r="DI793" s="7"/>
     </row>
-    <row r="794" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL794" s="30"/>
       <c r="BM794" s="30"/>
       <c r="BN794" s="30"/>
@@ -52482,7 +52470,7 @@
       <c r="DH794" s="4"/>
       <c r="DI794" s="7"/>
     </row>
-    <row r="795" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL795" s="30"/>
       <c r="BM795" s="30"/>
       <c r="BN795" s="30"/>
@@ -52492,7 +52480,7 @@
       <c r="DH795" s="4"/>
       <c r="DI795" s="7"/>
     </row>
-    <row r="796" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL796" s="30"/>
       <c r="BM796" s="30"/>
       <c r="BN796" s="30"/>
@@ -52502,7 +52490,7 @@
       <c r="DH796" s="4"/>
       <c r="DI796" s="7"/>
     </row>
-    <row r="797" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL797" s="30"/>
       <c r="BM797" s="30"/>
       <c r="BN797" s="30"/>
@@ -52512,7 +52500,7 @@
       <c r="DH797" s="4"/>
       <c r="DI797" s="7"/>
     </row>
-    <row r="798" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL798" s="30"/>
       <c r="BM798" s="30"/>
       <c r="BN798" s="30"/>
@@ -52522,7 +52510,7 @@
       <c r="DH798" s="4"/>
       <c r="DI798" s="7"/>
     </row>
-    <row r="799" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL799" s="30"/>
       <c r="BM799" s="30"/>
       <c r="BN799" s="30"/>
@@ -52532,7 +52520,7 @@
       <c r="DH799" s="4"/>
       <c r="DI799" s="7"/>
     </row>
-    <row r="800" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL800" s="30"/>
       <c r="BM800" s="30"/>
       <c r="BN800" s="30"/>
@@ -52542,7 +52530,7 @@
       <c r="DH800" s="4"/>
       <c r="DI800" s="7"/>
     </row>
-    <row r="801" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL801" s="30"/>
       <c r="BM801" s="30"/>
       <c r="BN801" s="30"/>
@@ -52552,7 +52540,7 @@
       <c r="DH801" s="4"/>
       <c r="DI801" s="7"/>
     </row>
-    <row r="802" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL802" s="30"/>
       <c r="BM802" s="30"/>
       <c r="BN802" s="30"/>
@@ -52562,7 +52550,7 @@
       <c r="DH802" s="4"/>
       <c r="DI802" s="7"/>
     </row>
-    <row r="803" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL803" s="30"/>
       <c r="BM803" s="30"/>
       <c r="BN803" s="30"/>
@@ -52572,7 +52560,7 @@
       <c r="DH803" s="4"/>
       <c r="DI803" s="7"/>
     </row>
-    <row r="804" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL804" s="30"/>
       <c r="BM804" s="30"/>
       <c r="BN804" s="30"/>
@@ -52582,7 +52570,7 @@
       <c r="DH804" s="4"/>
       <c r="DI804" s="7"/>
     </row>
-    <row r="805" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL805" s="30"/>
       <c r="BM805" s="30"/>
       <c r="BN805" s="30"/>
@@ -52592,7 +52580,7 @@
       <c r="DH805" s="4"/>
       <c r="DI805" s="7"/>
     </row>
-    <row r="806" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL806" s="30"/>
       <c r="BM806" s="30"/>
       <c r="BN806" s="30"/>
@@ -52602,7 +52590,7 @@
       <c r="DH806" s="4"/>
       <c r="DI806" s="7"/>
     </row>
-    <row r="807" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL807" s="30"/>
       <c r="BM807" s="30"/>
       <c r="BN807" s="30"/>
@@ -52612,7 +52600,7 @@
       <c r="DH807" s="4"/>
       <c r="DI807" s="7"/>
     </row>
-    <row r="808" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL808" s="30"/>
       <c r="BM808" s="30"/>
       <c r="BN808" s="30"/>
@@ -52622,7 +52610,7 @@
       <c r="DH808" s="4"/>
       <c r="DI808" s="7"/>
     </row>
-    <row r="809" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL809" s="30"/>
       <c r="BM809" s="30"/>
       <c r="BN809" s="30"/>
@@ -52632,7 +52620,7 @@
       <c r="DH809" s="4"/>
       <c r="DI809" s="7"/>
     </row>
-    <row r="810" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL810" s="30"/>
       <c r="BM810" s="30"/>
       <c r="BN810" s="30"/>
@@ -52642,7 +52630,7 @@
       <c r="DH810" s="4"/>
       <c r="DI810" s="7"/>
     </row>
-    <row r="811" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL811" s="30"/>
       <c r="BM811" s="30"/>
       <c r="BN811" s="30"/>
@@ -52652,7 +52640,7 @@
       <c r="DH811" s="4"/>
       <c r="DI811" s="7"/>
     </row>
-    <row r="812" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL812" s="30"/>
       <c r="BM812" s="30"/>
       <c r="BN812" s="30"/>
@@ -52662,7 +52650,7 @@
       <c r="DH812" s="4"/>
       <c r="DI812" s="7"/>
     </row>
-    <row r="813" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL813" s="30"/>
       <c r="BM813" s="30"/>
       <c r="BN813" s="30"/>
@@ -52672,7 +52660,7 @@
       <c r="DH813" s="4"/>
       <c r="DI813" s="7"/>
     </row>
-    <row r="814" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL814" s="30"/>
       <c r="BM814" s="30"/>
       <c r="BN814" s="30"/>
@@ -52682,7 +52670,7 @@
       <c r="DH814" s="4"/>
       <c r="DI814" s="7"/>
     </row>
-    <row r="815" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL815" s="30"/>
       <c r="BM815" s="30"/>
       <c r="BN815" s="30"/>
@@ -52692,7 +52680,7 @@
       <c r="DH815" s="4"/>
       <c r="DI815" s="7"/>
     </row>
-    <row r="816" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL816" s="30"/>
       <c r="BM816" s="30"/>
       <c r="BN816" s="30"/>
@@ -52702,7 +52690,7 @@
       <c r="DH816" s="4"/>
       <c r="DI816" s="7"/>
     </row>
-    <row r="817" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL817" s="30"/>
       <c r="BM817" s="30"/>
       <c r="BN817" s="30"/>
@@ -52712,7 +52700,7 @@
       <c r="DH817" s="4"/>
       <c r="DI817" s="7"/>
     </row>
-    <row r="818" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL818" s="30"/>
       <c r="BM818" s="30"/>
       <c r="BN818" s="30"/>
@@ -52722,7 +52710,7 @@
       <c r="DH818" s="4"/>
       <c r="DI818" s="7"/>
     </row>
-    <row r="819" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL819" s="30"/>
       <c r="BM819" s="30"/>
       <c r="BN819" s="30"/>
@@ -52732,7 +52720,7 @@
       <c r="DH819" s="4"/>
       <c r="DI819" s="7"/>
     </row>
-    <row r="820" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL820" s="30"/>
       <c r="BM820" s="30"/>
       <c r="BN820" s="30"/>
@@ -52742,7 +52730,7 @@
       <c r="DH820" s="4"/>
       <c r="DI820" s="7"/>
     </row>
-    <row r="821" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL821" s="30"/>
       <c r="BM821" s="30"/>
       <c r="BN821" s="30"/>
@@ -52752,7 +52740,7 @@
       <c r="DH821" s="4"/>
       <c r="DI821" s="7"/>
     </row>
-    <row r="822" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL822" s="30"/>
       <c r="BM822" s="30"/>
       <c r="BN822" s="30"/>
@@ -52762,7 +52750,7 @@
       <c r="DH822" s="4"/>
       <c r="DI822" s="7"/>
     </row>
-    <row r="823" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL823" s="30"/>
       <c r="BM823" s="30"/>
       <c r="BN823" s="30"/>
@@ -52772,7 +52760,7 @@
       <c r="DH823" s="4"/>
       <c r="DI823" s="7"/>
     </row>
-    <row r="824" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL824" s="30"/>
       <c r="BM824" s="30"/>
       <c r="BN824" s="30"/>
@@ -52782,7 +52770,7 @@
       <c r="DH824" s="4"/>
       <c r="DI824" s="7"/>
     </row>
-    <row r="825" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL825" s="30"/>
       <c r="BM825" s="30"/>
       <c r="BN825" s="30"/>
@@ -52792,7 +52780,7 @@
       <c r="DH825" s="4"/>
       <c r="DI825" s="7"/>
     </row>
-    <row r="826" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL826" s="30"/>
       <c r="BM826" s="30"/>
       <c r="BN826" s="30"/>
@@ -52802,7 +52790,7 @@
       <c r="DH826" s="4"/>
       <c r="DI826" s="7"/>
     </row>
-    <row r="827" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL827" s="30"/>
       <c r="BM827" s="30"/>
       <c r="BN827" s="30"/>
@@ -52812,7 +52800,7 @@
       <c r="DH827" s="4"/>
       <c r="DI827" s="7"/>
     </row>
-    <row r="828" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL828" s="30"/>
       <c r="BM828" s="30"/>
       <c r="BN828" s="30"/>
@@ -52822,7 +52810,7 @@
       <c r="DH828" s="4"/>
       <c r="DI828" s="7"/>
     </row>
-    <row r="829" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL829" s="30"/>
       <c r="BM829" s="30"/>
       <c r="BN829" s="30"/>
@@ -52832,7 +52820,7 @@
       <c r="DH829" s="4"/>
       <c r="DI829" s="7"/>
     </row>
-    <row r="830" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL830" s="30"/>
       <c r="BM830" s="30"/>
       <c r="BN830" s="30"/>
@@ -52842,7 +52830,7 @@
       <c r="DH830" s="4"/>
       <c r="DI830" s="7"/>
     </row>
-    <row r="831" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL831" s="30"/>
       <c r="BM831" s="30"/>
       <c r="BN831" s="30"/>
@@ -52852,7 +52840,7 @@
       <c r="DH831" s="4"/>
       <c r="DI831" s="7"/>
     </row>
-    <row r="832" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL832" s="30"/>
       <c r="BM832" s="30"/>
       <c r="BN832" s="30"/>
@@ -52862,7 +52850,7 @@
       <c r="DH832" s="4"/>
       <c r="DI832" s="7"/>
     </row>
-    <row r="833" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL833" s="30"/>
       <c r="BM833" s="30"/>
       <c r="BN833" s="30"/>
@@ -52872,7 +52860,7 @@
       <c r="DH833" s="4"/>
       <c r="DI833" s="7"/>
     </row>
-    <row r="834" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL834" s="30"/>
       <c r="BM834" s="30"/>
       <c r="BN834" s="30"/>
@@ -52882,7 +52870,7 @@
       <c r="DH834" s="4"/>
       <c r="DI834" s="7"/>
     </row>
-    <row r="835" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL835" s="30"/>
       <c r="BM835" s="30"/>
       <c r="BN835" s="30"/>
@@ -52892,7 +52880,7 @@
       <c r="DH835" s="4"/>
       <c r="DI835" s="7"/>
     </row>
-    <row r="836" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL836" s="30"/>
       <c r="BM836" s="30"/>
       <c r="BN836" s="30"/>
@@ -52902,7 +52890,7 @@
       <c r="DH836" s="4"/>
       <c r="DI836" s="7"/>
     </row>
-    <row r="837" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL837" s="30"/>
       <c r="BM837" s="30"/>
       <c r="BN837" s="30"/>
@@ -52912,7 +52900,7 @@
       <c r="DH837" s="4"/>
       <c r="DI837" s="7"/>
     </row>
-    <row r="838" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL838" s="30"/>
       <c r="BM838" s="30"/>
       <c r="BN838" s="30"/>
@@ -52922,7 +52910,7 @@
       <c r="DH838" s="4"/>
       <c r="DI838" s="7"/>
     </row>
-    <row r="839" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL839" s="30"/>
       <c r="BM839" s="30"/>
       <c r="BN839" s="30"/>
@@ -52932,7 +52920,7 @@
       <c r="DH839" s="4"/>
       <c r="DI839" s="7"/>
     </row>
-    <row r="840" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL840" s="30"/>
       <c r="BM840" s="30"/>
       <c r="BN840" s="30"/>
@@ -52942,7 +52930,7 @@
       <c r="DH840" s="4"/>
       <c r="DI840" s="7"/>
     </row>
-    <row r="841" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL841" s="30"/>
       <c r="BM841" s="30"/>
       <c r="BN841" s="30"/>
@@ -52952,7 +52940,7 @@
       <c r="DH841" s="4"/>
       <c r="DI841" s="7"/>
     </row>
-    <row r="842" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL842" s="30"/>
       <c r="BM842" s="30"/>
       <c r="BN842" s="30"/>
@@ -52962,7 +52950,7 @@
       <c r="DH842" s="4"/>
       <c r="DI842" s="7"/>
     </row>
-    <row r="843" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL843" s="30"/>
       <c r="BM843" s="30"/>
       <c r="BN843" s="30"/>
@@ -52972,7 +52960,7 @@
       <c r="DH843" s="4"/>
       <c r="DI843" s="7"/>
     </row>
-    <row r="844" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL844" s="30"/>
       <c r="BM844" s="30"/>
       <c r="BN844" s="30"/>
@@ -52982,7 +52970,7 @@
       <c r="DH844" s="4"/>
       <c r="DI844" s="7"/>
     </row>
-    <row r="845" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL845" s="30"/>
       <c r="BM845" s="30"/>
       <c r="BN845" s="30"/>
@@ -52992,7 +52980,7 @@
       <c r="DH845" s="4"/>
       <c r="DI845" s="7"/>
     </row>
-    <row r="846" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL846" s="30"/>
       <c r="BM846" s="30"/>
       <c r="BN846" s="30"/>
@@ -53002,7 +52990,7 @@
       <c r="DH846" s="4"/>
       <c r="DI846" s="7"/>
     </row>
-    <row r="847" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL847" s="30"/>
       <c r="BM847" s="30"/>
       <c r="BN847" s="30"/>
@@ -53012,7 +53000,7 @@
       <c r="DH847" s="4"/>
       <c r="DI847" s="7"/>
     </row>
-    <row r="848" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL848" s="30"/>
       <c r="BM848" s="30"/>
       <c r="BN848" s="30"/>
@@ -53022,7 +53010,7 @@
       <c r="DH848" s="4"/>
       <c r="DI848" s="7"/>
     </row>
-    <row r="849" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL849" s="30"/>
       <c r="BM849" s="30"/>
       <c r="BN849" s="30"/>
@@ -53032,7 +53020,7 @@
       <c r="DH849" s="4"/>
       <c r="DI849" s="7"/>
     </row>
-    <row r="850" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL850" s="30"/>
       <c r="BM850" s="30"/>
       <c r="BN850" s="30"/>
@@ -53042,7 +53030,7 @@
       <c r="DH850" s="4"/>
       <c r="DI850" s="7"/>
     </row>
-    <row r="851" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL851" s="30"/>
       <c r="BM851" s="30"/>
       <c r="BN851" s="30"/>
@@ -53052,7 +53040,7 @@
       <c r="DH851" s="4"/>
       <c r="DI851" s="7"/>
     </row>
-    <row r="852" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL852" s="30"/>
       <c r="BM852" s="30"/>
       <c r="BN852" s="30"/>
@@ -53062,7 +53050,7 @@
       <c r="DH852" s="4"/>
       <c r="DI852" s="7"/>
     </row>
-    <row r="853" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL853" s="30"/>
       <c r="BM853" s="30"/>
       <c r="BN853" s="30"/>
@@ -53072,7 +53060,7 @@
       <c r="DH853" s="4"/>
       <c r="DI853" s="7"/>
     </row>
-    <row r="854" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL854" s="30"/>
       <c r="BM854" s="30"/>
       <c r="BN854" s="30"/>
@@ -53082,7 +53070,7 @@
       <c r="DH854" s="4"/>
       <c r="DI854" s="7"/>
     </row>
-    <row r="855" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL855" s="30"/>
       <c r="BM855" s="30"/>
       <c r="BN855" s="30"/>
@@ -53092,7 +53080,7 @@
       <c r="DH855" s="4"/>
       <c r="DI855" s="7"/>
     </row>
-    <row r="856" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL856" s="30"/>
       <c r="BM856" s="30"/>
       <c r="BN856" s="30"/>
@@ -53102,7 +53090,7 @@
       <c r="DH856" s="4"/>
       <c r="DI856" s="7"/>
     </row>
-    <row r="857" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL857" s="30"/>
       <c r="BM857" s="30"/>
       <c r="BN857" s="30"/>
@@ -53112,7 +53100,7 @@
       <c r="DH857" s="4"/>
       <c r="DI857" s="7"/>
     </row>
-    <row r="858" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL858" s="30"/>
       <c r="BM858" s="30"/>
       <c r="BN858" s="30"/>
@@ -53122,7 +53110,7 @@
       <c r="DH858" s="4"/>
       <c r="DI858" s="7"/>
     </row>
-    <row r="859" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL859" s="30"/>
       <c r="BM859" s="30"/>
       <c r="BN859" s="30"/>
@@ -53132,7 +53120,7 @@
       <c r="DH859" s="4"/>
       <c r="DI859" s="7"/>
     </row>
-    <row r="860" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL860" s="30"/>
       <c r="BM860" s="30"/>
       <c r="BN860" s="30"/>
@@ -53142,7 +53130,7 @@
       <c r="DH860" s="4"/>
       <c r="DI860" s="7"/>
     </row>
-    <row r="861" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL861" s="30"/>
       <c r="BM861" s="30"/>
       <c r="BN861" s="30"/>
@@ -53152,7 +53140,7 @@
       <c r="DH861" s="4"/>
       <c r="DI861" s="7"/>
     </row>
-    <row r="862" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL862" s="30"/>
       <c r="BM862" s="30"/>
       <c r="BN862" s="30"/>
@@ -53162,7 +53150,7 @@
       <c r="DH862" s="4"/>
       <c r="DI862" s="7"/>
     </row>
-    <row r="863" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL863" s="30"/>
       <c r="BM863" s="30"/>
       <c r="BN863" s="30"/>
@@ -53172,7 +53160,7 @@
       <c r="DH863" s="4"/>
       <c r="DI863" s="7"/>
     </row>
-    <row r="864" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL864" s="30"/>
       <c r="BM864" s="30"/>
       <c r="BN864" s="30"/>
@@ -53182,7 +53170,7 @@
       <c r="DH864" s="4"/>
       <c r="DI864" s="7"/>
     </row>
-    <row r="865" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL865" s="30"/>
       <c r="BM865" s="30"/>
       <c r="BN865" s="30"/>
@@ -53192,7 +53180,7 @@
       <c r="DH865" s="4"/>
       <c r="DI865" s="7"/>
     </row>
-    <row r="866" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL866" s="30"/>
       <c r="BM866" s="30"/>
       <c r="BN866" s="30"/>
@@ -53202,7 +53190,7 @@
       <c r="DH866" s="4"/>
       <c r="DI866" s="7"/>
     </row>
-    <row r="867" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL867" s="30"/>
       <c r="BM867" s="30"/>
       <c r="BN867" s="30"/>
@@ -53212,7 +53200,7 @@
       <c r="DH867" s="4"/>
       <c r="DI867" s="7"/>
     </row>
-    <row r="868" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL868" s="30"/>
       <c r="BM868" s="30"/>
       <c r="BN868" s="30"/>
@@ -53222,7 +53210,7 @@
       <c r="DH868" s="4"/>
       <c r="DI868" s="7"/>
     </row>
-    <row r="869" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL869" s="30"/>
       <c r="BM869" s="30"/>
       <c r="BN869" s="30"/>
@@ -53232,7 +53220,7 @@
       <c r="DH869" s="4"/>
       <c r="DI869" s="7"/>
     </row>
-    <row r="870" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL870" s="30"/>
       <c r="BM870" s="30"/>
       <c r="BN870" s="30"/>
@@ -53242,7 +53230,7 @@
       <c r="DH870" s="4"/>
       <c r="DI870" s="7"/>
     </row>
-    <row r="871" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL871" s="30"/>
       <c r="BM871" s="30"/>
       <c r="BN871" s="30"/>
@@ -53252,7 +53240,7 @@
       <c r="DH871" s="4"/>
       <c r="DI871" s="7"/>
     </row>
-    <row r="872" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL872" s="30"/>
       <c r="BM872" s="30"/>
       <c r="BN872" s="30"/>
@@ -53262,7 +53250,7 @@
       <c r="DH872" s="4"/>
       <c r="DI872" s="7"/>
     </row>
-    <row r="873" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL873" s="30"/>
       <c r="BM873" s="30"/>
       <c r="BN873" s="30"/>
@@ -53272,7 +53260,7 @@
       <c r="DH873" s="4"/>
       <c r="DI873" s="7"/>
     </row>
-    <row r="874" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL874" s="30"/>
       <c r="BM874" s="30"/>
       <c r="BN874" s="30"/>
@@ -53282,7 +53270,7 @@
       <c r="DH874" s="4"/>
       <c r="DI874" s="7"/>
     </row>
-    <row r="875" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL875" s="30"/>
       <c r="BM875" s="30"/>
       <c r="BN875" s="30"/>
@@ -53292,7 +53280,7 @@
       <c r="DH875" s="4"/>
       <c r="DI875" s="7"/>
     </row>
-    <row r="876" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL876" s="30"/>
       <c r="BM876" s="30"/>
       <c r="BN876" s="30"/>
@@ -53302,7 +53290,7 @@
       <c r="DH876" s="4"/>
       <c r="DI876" s="7"/>
     </row>
-    <row r="877" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL877" s="30"/>
       <c r="BM877" s="30"/>
       <c r="BN877" s="30"/>
@@ -53312,7 +53300,7 @@
       <c r="DH877" s="4"/>
       <c r="DI877" s="7"/>
     </row>
-    <row r="878" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL878" s="30"/>
       <c r="BM878" s="30"/>
       <c r="BN878" s="30"/>
@@ -53322,7 +53310,7 @@
       <c r="DH878" s="4"/>
       <c r="DI878" s="7"/>
     </row>
-    <row r="879" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL879" s="30"/>
       <c r="BM879" s="30"/>
       <c r="BN879" s="30"/>
@@ -53332,7 +53320,7 @@
       <c r="DH879" s="4"/>
       <c r="DI879" s="7"/>
     </row>
-    <row r="880" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL880" s="30"/>
       <c r="BM880" s="30"/>
       <c r="BN880" s="30"/>
@@ -53342,7 +53330,7 @@
       <c r="DH880" s="4"/>
       <c r="DI880" s="7"/>
     </row>
-    <row r="881" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL881" s="30"/>
       <c r="BM881" s="30"/>
       <c r="BN881" s="30"/>
@@ -53352,7 +53340,7 @@
       <c r="DH881" s="4"/>
       <c r="DI881" s="7"/>
     </row>
-    <row r="882" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL882" s="30"/>
       <c r="BM882" s="30"/>
       <c r="BN882" s="30"/>
@@ -53362,7 +53350,7 @@
       <c r="DH882" s="4"/>
       <c r="DI882" s="7"/>
     </row>
-    <row r="883" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL883" s="30"/>
       <c r="BM883" s="30"/>
       <c r="BN883" s="30"/>
@@ -53372,7 +53360,7 @@
       <c r="DH883" s="4"/>
       <c r="DI883" s="7"/>
     </row>
-    <row r="884" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL884" s="30"/>
       <c r="BM884" s="30"/>
       <c r="BN884" s="30"/>
@@ -53382,7 +53370,7 @@
       <c r="DH884" s="4"/>
       <c r="DI884" s="7"/>
     </row>
-    <row r="885" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL885" s="30"/>
       <c r="BM885" s="30"/>
       <c r="BN885" s="30"/>
@@ -53392,7 +53380,7 @@
       <c r="DH885" s="4"/>
       <c r="DI885" s="7"/>
     </row>
-    <row r="886" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL886" s="30"/>
       <c r="BM886" s="30"/>
       <c r="BN886" s="30"/>
@@ -53402,7 +53390,7 @@
       <c r="DH886" s="4"/>
       <c r="DI886" s="7"/>
     </row>
-    <row r="887" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL887" s="30"/>
       <c r="BM887" s="30"/>
       <c r="BN887" s="30"/>
@@ -53412,7 +53400,7 @@
       <c r="DH887" s="4"/>
       <c r="DI887" s="7"/>
     </row>
-    <row r="888" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL888" s="30"/>
       <c r="BM888" s="30"/>
       <c r="BN888" s="30"/>
@@ -53422,7 +53410,7 @@
       <c r="DH888" s="4"/>
       <c r="DI888" s="7"/>
     </row>
-    <row r="889" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL889" s="30"/>
       <c r="BM889" s="30"/>
       <c r="BN889" s="30"/>
@@ -53432,7 +53420,7 @@
       <c r="DH889" s="4"/>
       <c r="DI889" s="7"/>
     </row>
-    <row r="890" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL890" s="30"/>
       <c r="BM890" s="30"/>
       <c r="BN890" s="30"/>
@@ -53442,7 +53430,7 @@
       <c r="DH890" s="4"/>
       <c r="DI890" s="7"/>
     </row>
-    <row r="891" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL891" s="30"/>
       <c r="BM891" s="30"/>
       <c r="BN891" s="30"/>
@@ -53452,7 +53440,7 @@
       <c r="DH891" s="4"/>
       <c r="DI891" s="7"/>
     </row>
-    <row r="892" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL892" s="30"/>
       <c r="BM892" s="30"/>
       <c r="BN892" s="30"/>
@@ -53462,7 +53450,7 @@
       <c r="DH892" s="4"/>
       <c r="DI892" s="7"/>
     </row>
-    <row r="893" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL893" s="30"/>
       <c r="BM893" s="30"/>
       <c r="BN893" s="30"/>
@@ -53472,7 +53460,7 @@
       <c r="DH893" s="4"/>
       <c r="DI893" s="7"/>
     </row>
-    <row r="894" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL894" s="30"/>
       <c r="BM894" s="30"/>
       <c r="BN894" s="30"/>
@@ -53482,7 +53470,7 @@
       <c r="DH894" s="4"/>
       <c r="DI894" s="7"/>
     </row>
-    <row r="895" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL895" s="30"/>
       <c r="BM895" s="30"/>
       <c r="BN895" s="30"/>
@@ -53492,7 +53480,7 @@
       <c r="DH895" s="4"/>
       <c r="DI895" s="7"/>
     </row>
-    <row r="896" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL896" s="30"/>
       <c r="BM896" s="30"/>
       <c r="BN896" s="30"/>
@@ -53502,7 +53490,7 @@
       <c r="DH896" s="4"/>
       <c r="DI896" s="7"/>
     </row>
-    <row r="897" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL897" s="30"/>
       <c r="BM897" s="30"/>
       <c r="BN897" s="30"/>
@@ -53512,7 +53500,7 @@
       <c r="DH897" s="4"/>
       <c r="DI897" s="7"/>
     </row>
-    <row r="898" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL898" s="30"/>
       <c r="BM898" s="30"/>
       <c r="BN898" s="30"/>
@@ -53522,7 +53510,7 @@
       <c r="DH898" s="4"/>
       <c r="DI898" s="7"/>
     </row>
-    <row r="899" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL899" s="30"/>
       <c r="BM899" s="30"/>
       <c r="BN899" s="30"/>
@@ -53532,7 +53520,7 @@
       <c r="DH899" s="4"/>
       <c r="DI899" s="7"/>
     </row>
-    <row r="900" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL900" s="30"/>
       <c r="BM900" s="30"/>
       <c r="BN900" s="30"/>
@@ -53542,7 +53530,7 @@
       <c r="DH900" s="4"/>
       <c r="DI900" s="7"/>
     </row>
-    <row r="901" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL901" s="30"/>
       <c r="BM901" s="30"/>
       <c r="BN901" s="30"/>
@@ -53552,7 +53540,7 @@
       <c r="DH901" s="4"/>
       <c r="DI901" s="7"/>
     </row>
-    <row r="902" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL902" s="30"/>
       <c r="BM902" s="30"/>
       <c r="BN902" s="30"/>
@@ -53562,7 +53550,7 @@
       <c r="DH902" s="4"/>
       <c r="DI902" s="7"/>
     </row>
-    <row r="903" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL903" s="30"/>
       <c r="BM903" s="30"/>
       <c r="BN903" s="30"/>
@@ -53572,7 +53560,7 @@
       <c r="DH903" s="4"/>
       <c r="DI903" s="7"/>
     </row>
-    <row r="904" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL904" s="30"/>
       <c r="BM904" s="30"/>
       <c r="BN904" s="30"/>
@@ -53582,7 +53570,7 @@
       <c r="DH904" s="4"/>
       <c r="DI904" s="7"/>
     </row>
-    <row r="905" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL905" s="30"/>
       <c r="BM905" s="30"/>
       <c r="BN905" s="30"/>
@@ -53592,7 +53580,7 @@
       <c r="DH905" s="4"/>
       <c r="DI905" s="7"/>
     </row>
-    <row r="906" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL906" s="30"/>
       <c r="BM906" s="30"/>
       <c r="BN906" s="30"/>
@@ -53602,7 +53590,7 @@
       <c r="DH906" s="4"/>
       <c r="DI906" s="7"/>
     </row>
-    <row r="907" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL907" s="30"/>
       <c r="BM907" s="30"/>
       <c r="BN907" s="30"/>
@@ -53612,7 +53600,7 @@
       <c r="DH907" s="4"/>
       <c r="DI907" s="7"/>
     </row>
-    <row r="908" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL908" s="30"/>
       <c r="BM908" s="30"/>
       <c r="BN908" s="30"/>
@@ -53622,7 +53610,7 @@
       <c r="DH908" s="4"/>
       <c r="DI908" s="7"/>
     </row>
-    <row r="909" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL909" s="30"/>
       <c r="BM909" s="30"/>
       <c r="BN909" s="30"/>
@@ -53632,7 +53620,7 @@
       <c r="DH909" s="4"/>
       <c r="DI909" s="7"/>
     </row>
-    <row r="910" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL910" s="30"/>
       <c r="BM910" s="30"/>
       <c r="BN910" s="30"/>
@@ -53642,7 +53630,7 @@
       <c r="DH910" s="4"/>
       <c r="DI910" s="7"/>
     </row>
-    <row r="911" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL911" s="30"/>
       <c r="BM911" s="30"/>
       <c r="BN911" s="30"/>
@@ -53652,7 +53640,7 @@
       <c r="DH911" s="4"/>
       <c r="DI911" s="7"/>
     </row>
-    <row r="912" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL912" s="30"/>
       <c r="BM912" s="30"/>
       <c r="BN912" s="30"/>
@@ -53662,7 +53650,7 @@
       <c r="DH912" s="4"/>
       <c r="DI912" s="7"/>
     </row>
-    <row r="913" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL913" s="30"/>
       <c r="BM913" s="30"/>
       <c r="BN913" s="30"/>
@@ -53672,7 +53660,7 @@
       <c r="DH913" s="4"/>
       <c r="DI913" s="7"/>
     </row>
-    <row r="914" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL914" s="30"/>
       <c r="BM914" s="30"/>
       <c r="BN914" s="30"/>
@@ -53682,7 +53670,7 @@
       <c r="DH914" s="4"/>
       <c r="DI914" s="7"/>
     </row>
-    <row r="915" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL915" s="30"/>
       <c r="BM915" s="30"/>
       <c r="BN915" s="30"/>
@@ -53692,7 +53680,7 @@
       <c r="DH915" s="4"/>
       <c r="DI915" s="7"/>
     </row>
-    <row r="916" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL916" s="30"/>
       <c r="BM916" s="30"/>
       <c r="BN916" s="30"/>
@@ -53702,7 +53690,7 @@
       <c r="DH916" s="4"/>
       <c r="DI916" s="7"/>
     </row>
-    <row r="917" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL917" s="30"/>
       <c r="BM917" s="30"/>
       <c r="BN917" s="30"/>
@@ -53712,7 +53700,7 @@
       <c r="DH917" s="4"/>
       <c r="DI917" s="7"/>
     </row>
-    <row r="918" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL918" s="30"/>
       <c r="BM918" s="30"/>
       <c r="BN918" s="30"/>
@@ -53722,7 +53710,7 @@
       <c r="DH918" s="4"/>
       <c r="DI918" s="7"/>
     </row>
-    <row r="919" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL919" s="30"/>
       <c r="BM919" s="30"/>
       <c r="BN919" s="30"/>
@@ -53732,7 +53720,7 @@
       <c r="DH919" s="4"/>
       <c r="DI919" s="7"/>
     </row>
-    <row r="920" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL920" s="30"/>
       <c r="BM920" s="30"/>
       <c r="BN920" s="30"/>
@@ -53742,7 +53730,7 @@
       <c r="DH920" s="4"/>
       <c r="DI920" s="7"/>
     </row>
-    <row r="921" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL921" s="30"/>
       <c r="BM921" s="30"/>
       <c r="BN921" s="30"/>
@@ -53752,7 +53740,7 @@
       <c r="DH921" s="4"/>
       <c r="DI921" s="7"/>
     </row>
-    <row r="922" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL922" s="30"/>
       <c r="BM922" s="30"/>
       <c r="BN922" s="30"/>
@@ -53762,7 +53750,7 @@
       <c r="DH922" s="4"/>
       <c r="DI922" s="7"/>
     </row>
-    <row r="923" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL923" s="30"/>
       <c r="BM923" s="30"/>
       <c r="BN923" s="30"/>
@@ -53772,7 +53760,7 @@
       <c r="DH923" s="4"/>
       <c r="DI923" s="7"/>
     </row>
-    <row r="924" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL924" s="30"/>
       <c r="BM924" s="30"/>
       <c r="BN924" s="30"/>
@@ -53782,7 +53770,7 @@
       <c r="DH924" s="4"/>
       <c r="DI924" s="7"/>
     </row>
-    <row r="925" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL925" s="30"/>
       <c r="BM925" s="30"/>
       <c r="BN925" s="30"/>
@@ -53792,7 +53780,7 @@
       <c r="DH925" s="4"/>
       <c r="DI925" s="7"/>
     </row>
-    <row r="926" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL926" s="30"/>
       <c r="BM926" s="30"/>
       <c r="BN926" s="30"/>
@@ -53802,7 +53790,7 @@
       <c r="DH926" s="4"/>
       <c r="DI926" s="7"/>
     </row>
-    <row r="927" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL927" s="30"/>
       <c r="BM927" s="30"/>
       <c r="BN927" s="30"/>
@@ -53812,7 +53800,7 @@
       <c r="DH927" s="4"/>
       <c r="DI927" s="7"/>
     </row>
-    <row r="928" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL928" s="30"/>
       <c r="BM928" s="30"/>
       <c r="BN928" s="30"/>
@@ -53822,7 +53810,7 @@
       <c r="DH928" s="4"/>
       <c r="DI928" s="7"/>
     </row>
-    <row r="929" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL929" s="30"/>
       <c r="BM929" s="30"/>
       <c r="BN929" s="30"/>
@@ -53832,7 +53820,7 @@
       <c r="DH929" s="4"/>
       <c r="DI929" s="7"/>
     </row>
-    <row r="930" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL930" s="30"/>
       <c r="BM930" s="30"/>
       <c r="BN930" s="30"/>
@@ -53842,7 +53830,7 @@
       <c r="DH930" s="4"/>
       <c r="DI930" s="7"/>
     </row>
-    <row r="931" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL931" s="30"/>
       <c r="BM931" s="30"/>
       <c r="BN931" s="30"/>
@@ -53852,7 +53840,7 @@
       <c r="DH931" s="4"/>
       <c r="DI931" s="7"/>
     </row>
-    <row r="932" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL932" s="30"/>
       <c r="BM932" s="30"/>
       <c r="BN932" s="30"/>
@@ -53862,7 +53850,7 @@
       <c r="DH932" s="4"/>
       <c r="DI932" s="7"/>
     </row>
-    <row r="933" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL933" s="30"/>
       <c r="BM933" s="30"/>
       <c r="BN933" s="30"/>
@@ -53872,7 +53860,7 @@
       <c r="DH933" s="4"/>
       <c r="DI933" s="7"/>
     </row>
-    <row r="934" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL934" s="30"/>
       <c r="BM934" s="30"/>
       <c r="BN934" s="30"/>
@@ -53882,7 +53870,7 @@
       <c r="DH934" s="4"/>
       <c r="DI934" s="7"/>
     </row>
-    <row r="935" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL935" s="30"/>
       <c r="BM935" s="30"/>
       <c r="BN935" s="30"/>
@@ -53892,7 +53880,7 @@
       <c r="DH935" s="4"/>
       <c r="DI935" s="7"/>
     </row>
-    <row r="936" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL936" s="30"/>
       <c r="BM936" s="30"/>
       <c r="BN936" s="30"/>
@@ -53902,7 +53890,7 @@
       <c r="DH936" s="4"/>
       <c r="DI936" s="7"/>
     </row>
-    <row r="937" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL937" s="30"/>
       <c r="BM937" s="30"/>
       <c r="BN937" s="30"/>
@@ -53912,7 +53900,7 @@
       <c r="DH937" s="4"/>
       <c r="DI937" s="7"/>
     </row>
-    <row r="938" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL938" s="30"/>
       <c r="BM938" s="30"/>
       <c r="BN938" s="30"/>
@@ -53922,7 +53910,7 @@
       <c r="DH938" s="4"/>
       <c r="DI938" s="7"/>
     </row>
-    <row r="939" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL939" s="30"/>
       <c r="BM939" s="30"/>
       <c r="BN939" s="30"/>
@@ -53932,7 +53920,7 @@
       <c r="DH939" s="4"/>
       <c r="DI939" s="7"/>
     </row>
-    <row r="940" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL940" s="30"/>
       <c r="BM940" s="30"/>
       <c r="BN940" s="30"/>
@@ -53942,7 +53930,7 @@
       <c r="DH940" s="4"/>
       <c r="DI940" s="7"/>
     </row>
-    <row r="941" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL941" s="30"/>
       <c r="BM941" s="30"/>
       <c r="BN941" s="30"/>
@@ -53952,7 +53940,7 @@
       <c r="DH941" s="4"/>
       <c r="DI941" s="7"/>
     </row>
-    <row r="942" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL942" s="30"/>
       <c r="BM942" s="30"/>
       <c r="BN942" s="30"/>
@@ -53962,7 +53950,7 @@
       <c r="DH942" s="4"/>
       <c r="DI942" s="7"/>
     </row>
-    <row r="943" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL943" s="30"/>
       <c r="BM943" s="30"/>
       <c r="BN943" s="30"/>
@@ -53972,7 +53960,7 @@
       <c r="DH943" s="4"/>
       <c r="DI943" s="7"/>
     </row>
-    <row r="944" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL944" s="30"/>
       <c r="BM944" s="30"/>
       <c r="BN944" s="30"/>
@@ -53982,7 +53970,7 @@
       <c r="DH944" s="4"/>
       <c r="DI944" s="7"/>
     </row>
-    <row r="945" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL945" s="30"/>
       <c r="BM945" s="30"/>
       <c r="BN945" s="30"/>
@@ -53992,7 +53980,7 @@
       <c r="DH945" s="4"/>
       <c r="DI945" s="7"/>
     </row>
-    <row r="946" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL946" s="30"/>
       <c r="BM946" s="30"/>
       <c r="BN946" s="30"/>
@@ -54002,7 +53990,7 @@
       <c r="DH946" s="4"/>
       <c r="DI946" s="7"/>
     </row>
-    <row r="947" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL947" s="30"/>
       <c r="BM947" s="30"/>
       <c r="BN947" s="30"/>
@@ -54012,7 +54000,7 @@
       <c r="DH947" s="4"/>
       <c r="DI947" s="7"/>
     </row>
-    <row r="948" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL948" s="30"/>
       <c r="BM948" s="30"/>
       <c r="BN948" s="30"/>
@@ -54022,7 +54010,7 @@
       <c r="DH948" s="4"/>
       <c r="DI948" s="7"/>
     </row>
-    <row r="949" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL949" s="30"/>
       <c r="BM949" s="30"/>
       <c r="BN949" s="30"/>
@@ -54032,7 +54020,7 @@
       <c r="DH949" s="4"/>
       <c r="DI949" s="7"/>
     </row>
-    <row r="950" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL950" s="30"/>
       <c r="BM950" s="30"/>
       <c r="BN950" s="30"/>
@@ -54042,7 +54030,7 @@
       <c r="DH950" s="4"/>
       <c r="DI950" s="7"/>
     </row>
-    <row r="951" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL951" s="30"/>
       <c r="BM951" s="30"/>
       <c r="BN951" s="30"/>
@@ -54052,7 +54040,7 @@
       <c r="DH951" s="4"/>
       <c r="DI951" s="7"/>
     </row>
-    <row r="952" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL952" s="30"/>
       <c r="BM952" s="30"/>
       <c r="BN952" s="30"/>
@@ -54062,7 +54050,7 @@
       <c r="DH952" s="4"/>
       <c r="DI952" s="7"/>
     </row>
-    <row r="953" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL953" s="30"/>
       <c r="BM953" s="30"/>
       <c r="BN953" s="30"/>
@@ -54072,7 +54060,7 @@
       <c r="DH953" s="4"/>
       <c r="DI953" s="7"/>
     </row>
-    <row r="954" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL954" s="30"/>
       <c r="BM954" s="30"/>
       <c r="BN954" s="30"/>
@@ -54082,7 +54070,7 @@
       <c r="DH954" s="4"/>
       <c r="DI954" s="7"/>
     </row>
-    <row r="955" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL955" s="30"/>
       <c r="BM955" s="30"/>
       <c r="BN955" s="30"/>
@@ -54092,7 +54080,7 @@
       <c r="DH955" s="4"/>
       <c r="DI955" s="7"/>
     </row>
-    <row r="956" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL956" s="30"/>
       <c r="BM956" s="30"/>
       <c r="BN956" s="30"/>
@@ -54102,7 +54090,7 @@
       <c r="DH956" s="4"/>
       <c r="DI956" s="7"/>
     </row>
-    <row r="957" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL957" s="30"/>
       <c r="BM957" s="30"/>
       <c r="BN957" s="30"/>
@@ -54112,7 +54100,7 @@
       <c r="DH957" s="4"/>
       <c r="DI957" s="7"/>
     </row>
-    <row r="958" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL958" s="30"/>
       <c r="BM958" s="30"/>
       <c r="BN958" s="30"/>
@@ -54122,7 +54110,7 @@
       <c r="DH958" s="4"/>
       <c r="DI958" s="7"/>
     </row>
-    <row r="959" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL959" s="30"/>
       <c r="BM959" s="30"/>
       <c r="BN959" s="30"/>
@@ -54132,7 +54120,7 @@
       <c r="DH959" s="4"/>
       <c r="DI959" s="7"/>
     </row>
-    <row r="960" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL960" s="30"/>
       <c r="BM960" s="30"/>
       <c r="BN960" s="30"/>
@@ -54142,7 +54130,7 @@
       <c r="DH960" s="4"/>
       <c r="DI960" s="7"/>
     </row>
-    <row r="961" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL961" s="30"/>
       <c r="BM961" s="30"/>
       <c r="BN961" s="30"/>
@@ -54152,7 +54140,7 @@
       <c r="DH961" s="4"/>
       <c r="DI961" s="7"/>
     </row>
-    <row r="962" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL962" s="30"/>
       <c r="BM962" s="30"/>
       <c r="BN962" s="30"/>
@@ -54162,7 +54150,7 @@
       <c r="DH962" s="4"/>
       <c r="DI962" s="7"/>
     </row>
-    <row r="963" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL963" s="30"/>
       <c r="BM963" s="30"/>
       <c r="BN963" s="30"/>
@@ -54172,7 +54160,7 @@
       <c r="DH963" s="4"/>
       <c r="DI963" s="7"/>
     </row>
-    <row r="964" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL964" s="30"/>
       <c r="BM964" s="30"/>
       <c r="BN964" s="30"/>
@@ -54182,7 +54170,7 @@
       <c r="DH964" s="4"/>
       <c r="DI964" s="7"/>
     </row>
-    <row r="965" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL965" s="30"/>
       <c r="BM965" s="30"/>
       <c r="BN965" s="30"/>
@@ -54192,7 +54180,7 @@
       <c r="DH965" s="4"/>
       <c r="DI965" s="7"/>
     </row>
-    <row r="966" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL966" s="30"/>
       <c r="BM966" s="30"/>
       <c r="BN966" s="30"/>
@@ -54202,7 +54190,7 @@
       <c r="DH966" s="4"/>
       <c r="DI966" s="7"/>
     </row>
-    <row r="967" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL967" s="30"/>
       <c r="BM967" s="30"/>
       <c r="BN967" s="30"/>
@@ -54212,7 +54200,7 @@
       <c r="DH967" s="4"/>
       <c r="DI967" s="7"/>
     </row>
-    <row r="968" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL968" s="30"/>
       <c r="BM968" s="30"/>
       <c r="BN968" s="30"/>
@@ -54222,7 +54210,7 @@
       <c r="DH968" s="4"/>
       <c r="DI968" s="7"/>
     </row>
-    <row r="969" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL969" s="30"/>
       <c r="BM969" s="30"/>
       <c r="BN969" s="30"/>
@@ -54232,7 +54220,7 @@
       <c r="DH969" s="4"/>
       <c r="DI969" s="7"/>
     </row>
-    <row r="970" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL970" s="30"/>
       <c r="BM970" s="30"/>
       <c r="BN970" s="30"/>
@@ -54242,7 +54230,7 @@
       <c r="DH970" s="4"/>
       <c r="DI970" s="7"/>
     </row>
-    <row r="971" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL971" s="30"/>
       <c r="BM971" s="30"/>
       <c r="BN971" s="30"/>
@@ -54252,7 +54240,7 @@
       <c r="DH971" s="4"/>
       <c r="DI971" s="7"/>
     </row>
-    <row r="972" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL972" s="30"/>
       <c r="BM972" s="30"/>
       <c r="BN972" s="30"/>
@@ -54262,7 +54250,7 @@
       <c r="DH972" s="4"/>
       <c r="DI972" s="7"/>
     </row>
-    <row r="973" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL973" s="30"/>
       <c r="BM973" s="30"/>
       <c r="BN973" s="30"/>
@@ -54272,7 +54260,7 @@
       <c r="DH973" s="4"/>
       <c r="DI973" s="7"/>
     </row>
-    <row r="974" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL974" s="30"/>
       <c r="BM974" s="30"/>
       <c r="BN974" s="30"/>
@@ -54282,7 +54270,7 @@
       <c r="DH974" s="4"/>
       <c r="DI974" s="7"/>
     </row>
-    <row r="975" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL975" s="30"/>
       <c r="BM975" s="30"/>
       <c r="BN975" s="30"/>
@@ -54292,7 +54280,7 @@
       <c r="DH975" s="4"/>
       <c r="DI975" s="7"/>
     </row>
-    <row r="976" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL976" s="30"/>
       <c r="BM976" s="30"/>
       <c r="BN976" s="30"/>
@@ -54302,7 +54290,7 @@
       <c r="DH976" s="4"/>
       <c r="DI976" s="7"/>
     </row>
-    <row r="977" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL977" s="30"/>
       <c r="BM977" s="30"/>
       <c r="BN977" s="30"/>
@@ -54312,7 +54300,7 @@
       <c r="DH977" s="4"/>
       <c r="DI977" s="7"/>
     </row>
-    <row r="978" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL978" s="30"/>
       <c r="BM978" s="30"/>
       <c r="BN978" s="30"/>
@@ -54322,7 +54310,7 @@
       <c r="DH978" s="4"/>
       <c r="DI978" s="7"/>
     </row>
-    <row r="979" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL979" s="30"/>
       <c r="BM979" s="30"/>
       <c r="BN979" s="30"/>
@@ -54332,7 +54320,7 @@
       <c r="DH979" s="4"/>
       <c r="DI979" s="7"/>
     </row>
-    <row r="980" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL980" s="30"/>
       <c r="BM980" s="30"/>
       <c r="BN980" s="30"/>
@@ -54342,7 +54330,7 @@
       <c r="DH980" s="4"/>
       <c r="DI980" s="7"/>
     </row>
-    <row r="981" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL981" s="30"/>
       <c r="BM981" s="30"/>
       <c r="BN981" s="30"/>
@@ -54352,7 +54340,7 @@
       <c r="DH981" s="4"/>
       <c r="DI981" s="7"/>
     </row>
-    <row r="982" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL982" s="30"/>
       <c r="BM982" s="30"/>
       <c r="BN982" s="30"/>
@@ -54362,7 +54350,7 @@
       <c r="DH982" s="4"/>
       <c r="DI982" s="7"/>
     </row>
-    <row r="983" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL983" s="30"/>
       <c r="BM983" s="30"/>
       <c r="BN983" s="30"/>
@@ -54372,7 +54360,7 @@
       <c r="DH983" s="4"/>
       <c r="DI983" s="7"/>
     </row>
-    <row r="984" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL984" s="30"/>
       <c r="BM984" s="30"/>
       <c r="BN984" s="30"/>
@@ -54382,7 +54370,7 @@
       <c r="DH984" s="4"/>
       <c r="DI984" s="7"/>
     </row>
-    <row r="985" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL985" s="30"/>
       <c r="BM985" s="30"/>
       <c r="BN985" s="30"/>
@@ -54392,7 +54380,7 @@
       <c r="DH985" s="4"/>
       <c r="DI985" s="7"/>
     </row>
-    <row r="986" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL986" s="30"/>
       <c r="BM986" s="30"/>
       <c r="BN986" s="30"/>
@@ -54402,7 +54390,7 @@
       <c r="DH986" s="4"/>
       <c r="DI986" s="7"/>
     </row>
-    <row r="987" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL987" s="30"/>
       <c r="BM987" s="30"/>
       <c r="BN987" s="30"/>
@@ -54412,7 +54400,7 @@
       <c r="DH987" s="4"/>
       <c r="DI987" s="7"/>
     </row>
-    <row r="988" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL988" s="30"/>
       <c r="BM988" s="30"/>
       <c r="BN988" s="30"/>
@@ -54422,7 +54410,7 @@
       <c r="DH988" s="4"/>
       <c r="DI988" s="7"/>
     </row>
-    <row r="989" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL989" s="30"/>
       <c r="BM989" s="30"/>
       <c r="BN989" s="30"/>
@@ -54432,7 +54420,7 @@
       <c r="DH989" s="4"/>
       <c r="DI989" s="7"/>
     </row>
-    <row r="990" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL990" s="30"/>
       <c r="BM990" s="30"/>
       <c r="BN990" s="30"/>
@@ -54442,7 +54430,7 @@
       <c r="DH990" s="4"/>
       <c r="DI990" s="7"/>
     </row>
-    <row r="991" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL991" s="30"/>
       <c r="BM991" s="30"/>
       <c r="BN991" s="30"/>
@@ -54452,7 +54440,7 @@
       <c r="DH991" s="4"/>
       <c r="DI991" s="7"/>
     </row>
-    <row r="992" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL992" s="30"/>
       <c r="BM992" s="30"/>
       <c r="BN992" s="30"/>
@@ -54462,7 +54450,7 @@
       <c r="DH992" s="4"/>
       <c r="DI992" s="7"/>
     </row>
-    <row r="993" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL993" s="30"/>
       <c r="BM993" s="30"/>
       <c r="BN993" s="30"/>
@@ -54472,7 +54460,7 @@
       <c r="DH993" s="4"/>
       <c r="DI993" s="7"/>
     </row>
-    <row r="994" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL994" s="30"/>
       <c r="BM994" s="30"/>
       <c r="BN994" s="30"/>
@@ -54482,7 +54470,7 @@
       <c r="DH994" s="4"/>
       <c r="DI994" s="7"/>
     </row>
-    <row r="995" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL995" s="30"/>
       <c r="BM995" s="30"/>
       <c r="BN995" s="30"/>
@@ -54492,7 +54480,7 @@
       <c r="DH995" s="4"/>
       <c r="DI995" s="7"/>
     </row>
-    <row r="996" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL996" s="30"/>
       <c r="BM996" s="30"/>
       <c r="BN996" s="30"/>
@@ -54502,7 +54490,7 @@
       <c r="DH996" s="4"/>
       <c r="DI996" s="7"/>
     </row>
-    <row r="997" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL997" s="30"/>
       <c r="BM997" s="30"/>
       <c r="BN997" s="30"/>
@@ -54512,7 +54500,7 @@
       <c r="DH997" s="4"/>
       <c r="DI997" s="7"/>
     </row>
-    <row r="998" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL998" s="30"/>
       <c r="BM998" s="30"/>
       <c r="BN998" s="30"/>
@@ -54522,7 +54510,7 @@
       <c r="DH998" s="4"/>
       <c r="DI998" s="7"/>
     </row>
-    <row r="999" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL999" s="30"/>
       <c r="BM999" s="30"/>
       <c r="BN999" s="30"/>
@@ -54532,7 +54520,7 @@
       <c r="DH999" s="4"/>
       <c r="DI999" s="7"/>
     </row>
-    <row r="1000" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL1000" s="30"/>
       <c r="BM1000" s="30"/>
       <c r="BN1000" s="30"/>
@@ -54542,7 +54530,7 @@
       <c r="DH1000" s="4"/>
       <c r="DI1000" s="7"/>
     </row>
-    <row r="1001" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL1001" s="30"/>
       <c r="BM1001" s="30"/>
       <c r="BN1001" s="30"/>
@@ -54552,7 +54540,7 @@
       <c r="DH1001" s="4"/>
       <c r="DI1001" s="7"/>
     </row>
-    <row r="1002" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL1002" s="30"/>
       <c r="BM1002" s="30"/>
       <c r="BN1002" s="30"/>
@@ -54562,7 +54550,7 @@
       <c r="DH1002" s="4"/>
       <c r="DI1002" s="7"/>
     </row>
-    <row r="1003" spans="64:113" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="64:113" ht="24.75" customHeight="1">
       <c r="BL1003" s="30"/>
       <c r="BM1003" s="30"/>
       <c r="BN1003" s="30"/>
@@ -54574,7 +54562,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI100 AO2:AO17 AO19:AO100" xr:uid="{5FBD5AA7-16D2-437E-B72E-9EF6476D3ACD}">
       <formula1>"View stayed about the same, View had some/moderate change, View significantantly changed"</formula1>
     </dataValidation>

--- a/analysis/data/lying_data.xlsx
+++ b/analysis/data/lying_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2025\Spring 2025\INFO 698 - Capstone\GitHub Repo\misinformation-study\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8938F039-9EE9-4D1C-A51A-421BB67391EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A888F8FB-9926-4028-B85D-E92FD3859407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7469,7 +7469,7 @@
     <tableColumn id="35" xr3:uid="{51242746-597E-450A-8250-ADE59D980592}" name="CHANGED_VIEWS_QQ1" dataDxfId="88"/>
     <tableColumn id="127" xr3:uid="{78D5562E-6490-4F74-B3AE-C83DC06D03F9}" name="CHANGED_LENGTH_QQ12" dataDxfId="87"/>
     <tableColumn id="126" xr3:uid="{C6575F81-C0ED-4987-9ECE-5B7E33E4EF2F}" name="QQ1_SENTENCE_COUNT_AFTER" dataDxfId="86">
-      <calculatedColumnFormula>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="38" xr3:uid="{00A88F16-24F8-49C7-8B6C-BAF6A9A8B609}" name="QQ1_WORD_COUNT_AFTER" dataDxfId="85">
       <calculatedColumnFormula>IF(LEN(TRIM(AK2))=0, 0, LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, "/", " "), "-", " "), "  ", " "))) - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)</calculatedColumnFormula>
@@ -7791,8 +7791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" topLeftCell="Z43" workbookViewId="0">
+      <selection activeCell="AC44" sqref="AC44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -7819,7 +7819,8 @@
     <col min="24" max="24" width="20.09765625" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
     <col min="26" max="26" width="46.19921875" customWidth="1"/>
-    <col min="27" max="28" width="19.3984375" style="46" customWidth="1"/>
+    <col min="27" max="27" width="19.3984375" style="46" customWidth="1"/>
+    <col min="28" max="28" width="35.19921875" style="46" customWidth="1"/>
     <col min="29" max="29" width="16.59765625" style="54" customWidth="1"/>
     <col min="30" max="30" width="49.69921875" customWidth="1"/>
     <col min="31" max="31" width="15.8984375" style="46" customWidth="1"/>
@@ -8395,8 +8396,8 @@
         <v>1393</v>
       </c>
       <c r="AN2" s="45">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO2" s="45">
         <f t="shared" ref="AO2:AO33" si="2">IF(LEN(TRIM(AK2))=0, 0, LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, "/", " "), "-", " "), "  ", " "))) - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)</f>
@@ -8415,7 +8416,7 @@
       </c>
       <c r="AQ2" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR2" s="45">
         <f t="shared" ref="AR2:AR33" si="3">AO2-AA2</f>
@@ -8811,7 +8812,7 @@
         <v>1393</v>
       </c>
       <c r="AN3" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO3" s="45">
@@ -9227,7 +9228,7 @@
         <v>1393</v>
       </c>
       <c r="AN4" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO4" s="45">
@@ -9643,7 +9644,7 @@
         <v>1392</v>
       </c>
       <c r="AN5" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>2</v>
       </c>
       <c r="AO5" s="45">
@@ -10059,7 +10060,7 @@
         <v>1392</v>
       </c>
       <c r="AN6" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO6" s="45">
@@ -10475,8 +10476,8 @@
         <v>1393</v>
       </c>
       <c r="AN7" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO7" s="45">
         <f t="shared" si="2"/>
@@ -10495,7 +10496,7 @@
       </c>
       <c r="AQ7" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR7" s="45">
         <f t="shared" si="3"/>
@@ -10891,7 +10892,7 @@
         <v>1389</v>
       </c>
       <c r="AN8" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO8" s="45">
@@ -11307,7 +11308,7 @@
         <v>1389</v>
       </c>
       <c r="AN9" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO9" s="45">
@@ -11723,8 +11724,8 @@
         <v>1393</v>
       </c>
       <c r="AN10" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO10" s="45">
         <f t="shared" si="2"/>
@@ -11743,7 +11744,7 @@
       </c>
       <c r="AQ10" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR10" s="45">
         <f t="shared" si="3"/>
@@ -12139,8 +12140,8 @@
         <v>1392</v>
       </c>
       <c r="AN11" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO11" s="45">
         <f t="shared" si="2"/>
@@ -12159,7 +12160,7 @@
       </c>
       <c r="AQ11" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="45">
         <f t="shared" si="3"/>
@@ -12555,8 +12556,8 @@
         <v>1389</v>
       </c>
       <c r="AN12" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO12" s="45">
         <f t="shared" si="2"/>
@@ -12575,7 +12576,7 @@
       </c>
       <c r="AQ12" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="45">
         <f t="shared" si="3"/>
@@ -12971,7 +12972,7 @@
         <v>1389</v>
       </c>
       <c r="AN13" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO13" s="45">
@@ -13381,8 +13382,8 @@
         <v>1392</v>
       </c>
       <c r="AN14" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>3</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>4</v>
       </c>
       <c r="AO14" s="45">
         <f t="shared" si="2"/>
@@ -13401,7 +13402,7 @@
       </c>
       <c r="AQ14" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="45">
         <f t="shared" si="3"/>
@@ -13797,8 +13798,8 @@
         <v>1392</v>
       </c>
       <c r="AN15" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>1</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>3</v>
       </c>
       <c r="AO15" s="45">
         <f t="shared" si="2"/>
@@ -13817,7 +13818,7 @@
       </c>
       <c r="AQ15" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR15" s="45">
         <f t="shared" si="3"/>
@@ -14213,7 +14214,7 @@
         <v>1393</v>
       </c>
       <c r="AN16" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO16" s="45">
@@ -14629,7 +14630,7 @@
         <v>1389</v>
       </c>
       <c r="AN17" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO17" s="45">
@@ -15045,8 +15046,8 @@
         <v>1392</v>
       </c>
       <c r="AN18" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>1</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>3</v>
       </c>
       <c r="AO18" s="45">
         <f t="shared" si="2"/>
@@ -15065,7 +15066,7 @@
       </c>
       <c r="AQ18" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR18" s="45">
         <f t="shared" si="3"/>
@@ -15461,7 +15462,7 @@
         <v>1389</v>
       </c>
       <c r="AN19" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO19" s="45">
@@ -15877,7 +15878,7 @@
         <v>1392</v>
       </c>
       <c r="AN20" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>2</v>
       </c>
       <c r="AO20" s="45">
@@ -16293,7 +16294,7 @@
         <v>1389</v>
       </c>
       <c r="AN21" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO21" s="45">
@@ -16709,8 +16710,8 @@
         <v>1393</v>
       </c>
       <c r="AN22" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO22" s="45">
         <f t="shared" si="2"/>
@@ -16729,7 +16730,7 @@
       </c>
       <c r="AQ22" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR22" s="45">
         <f t="shared" si="3"/>
@@ -17125,7 +17126,7 @@
         <v>1392</v>
       </c>
       <c r="AN23" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO23" s="45">
@@ -17541,7 +17542,7 @@
         <v>1393</v>
       </c>
       <c r="AN24" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO24" s="45">
@@ -17957,7 +17958,7 @@
         <v>1393</v>
       </c>
       <c r="AN25" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO25" s="45">
@@ -18373,8 +18374,8 @@
         <v>1393</v>
       </c>
       <c r="AN26" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO26" s="45">
         <f t="shared" si="2"/>
@@ -18393,7 +18394,7 @@
       </c>
       <c r="AQ26" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="45">
         <f t="shared" si="3"/>
@@ -18789,7 +18790,7 @@
         <v>1393</v>
       </c>
       <c r="AN27" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO27" s="45">
@@ -19205,7 +19206,7 @@
         <v>1393</v>
       </c>
       <c r="AN28" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO28" s="45">
@@ -19621,7 +19622,7 @@
         <v>1393</v>
       </c>
       <c r="AN29" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO29" s="45">
@@ -20037,7 +20038,7 @@
         <v>1389</v>
       </c>
       <c r="AN30" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO30" s="45">
@@ -20453,8 +20454,8 @@
         <v>1393</v>
       </c>
       <c r="AN31" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>3</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO31" s="45">
         <f t="shared" si="2"/>
@@ -20473,7 +20474,7 @@
       </c>
       <c r="AQ31" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AR31" s="45">
         <f t="shared" si="3"/>
@@ -20869,7 +20870,7 @@
         <v>1392</v>
       </c>
       <c r="AN32" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO32" s="45">
@@ -21285,8 +21286,8 @@
         <v>1393</v>
       </c>
       <c r="AN33" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO33" s="45">
         <f t="shared" si="2"/>
@@ -21305,7 +21306,7 @@
       </c>
       <c r="AQ33" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="45">
         <f t="shared" si="3"/>
@@ -21708,8 +21709,8 @@
         <v>1389</v>
       </c>
       <c r="AN34" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>3</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO34" s="45">
         <f t="shared" ref="AO34:AO65" si="15">IF(LEN(TRIM(AK34))=0, 0, LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK34, "/", " "), "-", " "), "  ", " "))) - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK34, "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)</f>
@@ -21728,7 +21729,7 @@
       </c>
       <c r="AQ34" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="45">
         <f t="shared" ref="AR34:AR65" si="16">AO34-AA34</f>
@@ -22124,7 +22125,7 @@
         <v>1389</v>
       </c>
       <c r="AN35" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO35" s="45">
@@ -22540,7 +22541,7 @@
         <v>1393</v>
       </c>
       <c r="AN36" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>2</v>
       </c>
       <c r="AO36" s="45">
@@ -22956,7 +22957,7 @@
         <v>1389</v>
       </c>
       <c r="AN37" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO37" s="45">
@@ -23372,7 +23373,7 @@
         <v>1389</v>
       </c>
       <c r="AN38" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO38" s="45">
@@ -23788,7 +23789,7 @@
         <v>1389</v>
       </c>
       <c r="AN39" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO39" s="45">
@@ -24204,7 +24205,7 @@
         <v>1393</v>
       </c>
       <c r="AN40" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO40" s="45">
@@ -24620,8 +24621,8 @@
         <v>1392</v>
       </c>
       <c r="AN41" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>1</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>3</v>
       </c>
       <c r="AO41" s="45">
         <f t="shared" si="15"/>
@@ -24640,7 +24641,7 @@
       </c>
       <c r="AQ41" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR41" s="45">
         <f t="shared" si="16"/>
@@ -25036,8 +25037,8 @@
         <v>1393</v>
       </c>
       <c r="AN42" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>3</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>2</v>
       </c>
       <c r="AO42" s="45">
         <f t="shared" si="15"/>
@@ -25056,7 +25057,7 @@
       </c>
       <c r="AQ42" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="45">
         <f t="shared" si="16"/>
@@ -25452,8 +25453,8 @@
         <v>1393</v>
       </c>
       <c r="AN43" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>11</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO43" s="45">
         <f t="shared" si="15"/>
@@ -25472,7 +25473,7 @@
       </c>
       <c r="AQ43" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AR43" s="45">
         <f t="shared" si="16"/>
@@ -25864,7 +25865,7 @@
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
       <c r="AN44" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO44" s="45">
@@ -26280,8 +26281,8 @@
         <v>1389</v>
       </c>
       <c r="AN45" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO45" s="45">
         <f t="shared" si="15"/>
@@ -26300,7 +26301,7 @@
       </c>
       <c r="AQ45" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="45">
         <f t="shared" si="16"/>
@@ -26696,7 +26697,7 @@
         <v>1389</v>
       </c>
       <c r="AN46" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO46" s="45">
@@ -27112,7 +27113,7 @@
         <v>1393</v>
       </c>
       <c r="AN47" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO47" s="45">
@@ -27528,7 +27529,7 @@
         <v>1392</v>
       </c>
       <c r="AN48" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO48" s="45">
@@ -27944,8 +27945,8 @@
         <v>1392</v>
       </c>
       <c r="AN49" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO49" s="45">
         <f t="shared" si="15"/>
@@ -27964,7 +27965,7 @@
       </c>
       <c r="AQ49" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="45">
         <f t="shared" si="16"/>
@@ -28360,8 +28361,8 @@
         <v>1392</v>
       </c>
       <c r="AN50" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>1</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>3</v>
       </c>
       <c r="AO50" s="45">
         <f t="shared" si="15"/>
@@ -28380,7 +28381,7 @@
       </c>
       <c r="AQ50" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AR50" s="45">
         <f t="shared" si="16"/>
@@ -28776,7 +28777,7 @@
         <v>1389</v>
       </c>
       <c r="AN51" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO51" s="45">
@@ -29192,8 +29193,8 @@
         <v>1389</v>
       </c>
       <c r="AN52" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO52" s="45">
         <f t="shared" si="15"/>
@@ -29212,7 +29213,7 @@
       </c>
       <c r="AQ52" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR52" s="45">
         <f t="shared" si="16"/>
@@ -29608,7 +29609,7 @@
         <v>1389</v>
       </c>
       <c r="AN53" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO53" s="45">
@@ -30024,8 +30025,8 @@
         <v>1392</v>
       </c>
       <c r="AN54" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>3</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>2</v>
       </c>
       <c r="AO54" s="45">
         <f t="shared" si="15"/>
@@ -30044,7 +30045,7 @@
       </c>
       <c r="AQ54" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR54" s="45">
         <f t="shared" si="16"/>
@@ -30440,7 +30441,7 @@
         <v>1389</v>
       </c>
       <c r="AN55" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO55" s="45">
@@ -30856,7 +30857,7 @@
         <v>1389</v>
       </c>
       <c r="AN56" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO56" s="45">
@@ -31272,8 +31273,8 @@
         <v>1389</v>
       </c>
       <c r="AN57" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>3</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>2</v>
       </c>
       <c r="AO57" s="45">
         <f t="shared" si="15"/>
@@ -31292,7 +31293,7 @@
       </c>
       <c r="AQ57" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="45">
         <f t="shared" si="16"/>
@@ -31688,7 +31689,7 @@
         <v>1389</v>
       </c>
       <c r="AN58" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO58" s="45">
@@ -32104,8 +32105,8 @@
         <v>1389</v>
       </c>
       <c r="AN59" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>3</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>2</v>
       </c>
       <c r="AO59" s="45">
         <f t="shared" si="15"/>
@@ -32124,7 +32125,7 @@
       </c>
       <c r="AQ59" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59" s="45">
         <f t="shared" si="16"/>
@@ -32520,7 +32521,7 @@
         <v>1393</v>
       </c>
       <c r="AN60" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO60" s="45">
@@ -32936,8 +32937,8 @@
         <v>1393</v>
       </c>
       <c r="AN61" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO61" s="45">
         <f t="shared" si="15"/>
@@ -32956,7 +32957,7 @@
       </c>
       <c r="AQ61" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR61" s="45">
         <f t="shared" si="16"/>
@@ -33352,8 +33353,8 @@
         <v>1393</v>
       </c>
       <c r="AN62" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO62" s="45">
         <f t="shared" si="15"/>
@@ -33372,7 +33373,7 @@
       </c>
       <c r="AQ62" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR62" s="45">
         <f t="shared" si="16"/>
@@ -33768,7 +33769,7 @@
         <v>1389</v>
       </c>
       <c r="AN63" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO63" s="45">
@@ -34184,8 +34185,8 @@
         <v>1389</v>
       </c>
       <c r="AN64" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>6</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>7</v>
       </c>
       <c r="AO64" s="45">
         <f t="shared" si="15"/>
@@ -34204,7 +34205,7 @@
       </c>
       <c r="AQ64" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR64" s="45">
         <f t="shared" si="16"/>
@@ -34600,7 +34601,7 @@
         <v>1393</v>
       </c>
       <c r="AN65" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>2</v>
       </c>
       <c r="AO65" s="45">
@@ -35023,7 +35024,7 @@
         <v>1389</v>
       </c>
       <c r="AN66" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO66" s="45">
@@ -35439,7 +35440,7 @@
         <v>1389</v>
       </c>
       <c r="AN67" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO67" s="45">
@@ -35802,7 +35803,7 @@
         <v>930</v>
       </c>
       <c r="AA68" s="45">
-        <f t="shared" si="27"/>
+        <f>IF(LEN(TRIM(Z68))=0, 0, LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Z68, "/", " "), "-", " "), "  ", " "))) - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Z68, "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)</f>
         <v>163</v>
       </c>
       <c r="AB68" s="45">
@@ -35855,8 +35856,8 @@
         <v>1393</v>
       </c>
       <c r="AN68" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>6</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>5</v>
       </c>
       <c r="AO68" s="45">
         <f t="shared" si="22"/>
@@ -35875,7 +35876,7 @@
       </c>
       <c r="AQ68" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR68" s="45">
         <f t="shared" si="23"/>
@@ -36271,7 +36272,7 @@
         <v>1393</v>
       </c>
       <c r="AN69" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>2</v>
       </c>
       <c r="AO69" s="45">
@@ -36687,7 +36688,7 @@
         <v>1392</v>
       </c>
       <c r="AN70" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>2</v>
       </c>
       <c r="AO70" s="45">
@@ -37103,8 +37104,8 @@
         <v>1389</v>
       </c>
       <c r="AN71" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>3</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>2</v>
       </c>
       <c r="AO71" s="45">
         <f t="shared" si="22"/>
@@ -37123,7 +37124,7 @@
       </c>
       <c r="AQ71" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR71" s="45">
         <f t="shared" si="23"/>
@@ -37519,7 +37520,7 @@
         <v>1392</v>
       </c>
       <c r="AN72" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO72" s="45">
@@ -37935,7 +37936,7 @@
         <v>1392</v>
       </c>
       <c r="AN73" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>2</v>
       </c>
       <c r="AO73" s="45">
@@ -38351,7 +38352,7 @@
         <v>1392</v>
       </c>
       <c r="AN74" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO74" s="45">
@@ -38767,7 +38768,7 @@
         <v>1392</v>
       </c>
       <c r="AN75" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO75" s="45">
@@ -39183,7 +39184,7 @@
         <v>1389</v>
       </c>
       <c r="AN76" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO76" s="45">
@@ -39599,8 +39600,8 @@
         <v>1393</v>
       </c>
       <c r="AN77" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO77" s="45">
         <f t="shared" si="22"/>
@@ -39619,7 +39620,7 @@
       </c>
       <c r="AQ77" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR77" s="45">
         <f t="shared" si="23"/>
@@ -40015,7 +40016,7 @@
         <v>1393</v>
       </c>
       <c r="AN78" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO78" s="45">
@@ -40431,7 +40432,7 @@
         <v>1389</v>
       </c>
       <c r="AN79" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO79" s="45">
@@ -40847,8 +40848,8 @@
         <v>1389</v>
       </c>
       <c r="AN80" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO80" s="45">
         <f t="shared" si="22"/>
@@ -40867,7 +40868,7 @@
       </c>
       <c r="AQ80" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR80" s="45">
         <f t="shared" si="23"/>
@@ -41263,7 +41264,7 @@
         <v>1389</v>
       </c>
       <c r="AN81" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO81" s="45">
@@ -41679,7 +41680,7 @@
         <v>1393</v>
       </c>
       <c r="AN82" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO82" s="45">
@@ -42095,7 +42096,7 @@
         <v>1389</v>
       </c>
       <c r="AN83" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO83" s="45">
@@ -42378,7 +42379,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="84" spans="1:126" ht="72" customHeight="1">
+    <row r="84" spans="1:126" ht="156.6" customHeight="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -42511,8 +42512,8 @@
         <v>1393</v>
       </c>
       <c r="AN84" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO84" s="45">
         <f t="shared" si="22"/>
@@ -42531,7 +42532,7 @@
       </c>
       <c r="AQ84" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AR84" s="45">
         <f t="shared" si="23"/>
@@ -42927,8 +42928,8 @@
         <v>1389</v>
       </c>
       <c r="AN85" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>3</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO85" s="45">
         <f t="shared" si="22"/>
@@ -42947,7 +42948,7 @@
       </c>
       <c r="AQ85" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR85" s="45">
         <f t="shared" si="23"/>
@@ -43343,7 +43344,7 @@
         <v>1393</v>
       </c>
       <c r="AN86" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO86" s="45">
@@ -43759,8 +43760,8 @@
         <v>1393</v>
       </c>
       <c r="AN87" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>2</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO87" s="45">
         <f t="shared" si="22"/>
@@ -43779,7 +43780,7 @@
       </c>
       <c r="AQ87" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR87" s="45">
         <f t="shared" si="23"/>
@@ -44175,8 +44176,8 @@
         <v>1393</v>
       </c>
       <c r="AN88" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>3</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>1</v>
       </c>
       <c r="AO88" s="45">
         <f t="shared" si="22"/>
@@ -44195,7 +44196,7 @@
       </c>
       <c r="AQ88" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR88" s="45">
         <f t="shared" si="23"/>
@@ -44591,7 +44592,7 @@
         <v>1393</v>
       </c>
       <c r="AN89" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO89" s="45">
@@ -45007,7 +45008,7 @@
         <v>1392</v>
       </c>
       <c r="AN90" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>2</v>
       </c>
       <c r="AO90" s="45">
@@ -45423,7 +45424,7 @@
         <v>1389</v>
       </c>
       <c r="AN91" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO91" s="45">
@@ -45839,7 +45840,7 @@
         <v>1392</v>
       </c>
       <c r="AN92" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO92" s="45">
@@ -46255,7 +46256,7 @@
         <v>1389</v>
       </c>
       <c r="AN93" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO93" s="45">
@@ -46671,7 +46672,7 @@
         <v>1389</v>
       </c>
       <c r="AN94" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO94" s="45">
@@ -47087,8 +47088,8 @@
         <v>1392</v>
       </c>
       <c r="AN95" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>1</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>2</v>
       </c>
       <c r="AO95" s="45">
         <f t="shared" si="22"/>
@@ -47107,7 +47108,7 @@
       </c>
       <c r="AQ95" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR95" s="45">
         <f t="shared" si="23"/>
@@ -47503,7 +47504,7 @@
         <v>1389</v>
       </c>
       <c r="AN96" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO96" s="45">
@@ -47919,8 +47920,8 @@
         <v>1393</v>
       </c>
       <c r="AN97" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>8</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>2</v>
       </c>
       <c r="AO97" s="45">
         <f t="shared" si="22"/>
@@ -47939,7 +47940,7 @@
       </c>
       <c r="AQ97" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AR97" s="45">
         <f t="shared" si="23"/>
@@ -48335,7 +48336,7 @@
         <v>1389</v>
       </c>
       <c r="AN98" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO98" s="45">
@@ -48751,8 +48752,8 @@
         <v>1389</v>
       </c>
       <c r="AN99" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
-        <v>4</v>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
+        <v>2</v>
       </c>
       <c r="AO99" s="45">
         <f t="shared" si="22"/>
@@ -48771,7 +48772,7 @@
       </c>
       <c r="AQ99" s="45">
         <f>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR99" s="45">
         <f t="shared" si="23"/>
@@ -49167,7 +49168,7 @@
         <v>1393</v>
       </c>
       <c r="AN100" s="55">
-        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</f>
+        <f>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</f>
         <v>1</v>
       </c>
       <c r="AO100" s="45">

--- a/analysis/data/lying_data.xlsx
+++ b/analysis/data/lying_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2025\Spring 2025\INFO 698 - Capstone\GitHub Repo\misinformation-study\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A888F8FB-9926-4028-B85D-E92FD3859407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C00C4A2-A435-47B1-ABBD-92E5181DDA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9628" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9728" uniqueCount="1457">
   <si>
     <t>GROUP</t>
   </si>
@@ -4444,12 +4444,27 @@
   <si>
     <t>QQ1_AFTER</t>
   </si>
+  <si>
+    <t>FUTURE_STUDY</t>
+  </si>
+  <si>
+    <t>Slightly Unwilling</t>
+  </si>
+  <si>
+    <t>Slightly Willing</t>
+  </si>
+  <si>
+    <t>Very Unwilling</t>
+  </si>
+  <si>
+    <t>Very Willing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4487,6 +4502,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4546,7 +4568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4744,11 +4766,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4916,11 +4953,40 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="129">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7398,42 +7464,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2C848D5-A266-46C6-A87A-C4B9154CB138}" name="Table1" displayName="Table1" ref="A1:DV100" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
-  <autoFilter ref="A1:DV100" xr:uid="{C2C848D5-A266-46C6-A87A-C4B9154CB138}"/>
-  <tableColumns count="126">
-    <tableColumn id="1" xr3:uid="{4BEAC8A5-9226-4BA2-91E7-14E9B47D3E09}" name="PARTICIPANT ID" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{EF4C3F5A-7852-4C02-8541-AEC12D919BF3}" name="GROUP" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{5AD7D02F-4433-4BB6-AB10-175ABD89725D}" name="Age" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{C3944AFF-CB17-4A39-B7B2-9AA8B7C0DF15}" name="Gender " dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{A672E2D8-B2B0-4BA8-BCEA-99F4B128B172}" name="Citizenship" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{8C6C4CF7-FD68-40C3-988F-97DABD2DD6B6}" name="Ethnicity" dataDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{2745B3D0-02AF-4EAA-A4BD-D7F8C66A6852}" name="Ethnicity_6_TEXT" dataDxfId="119"/>
-    <tableColumn id="8" xr3:uid="{FFC7D8DF-54AF-4BFD-9F93-111C0A4C9AA9}" name="Religion" dataDxfId="118"/>
-    <tableColumn id="9" xr3:uid="{A8935703-B1F9-44EA-8D55-FEC093ED243E}" name="Religion_11_TEXT" dataDxfId="117"/>
-    <tableColumn id="10" xr3:uid="{F5EC22AC-F6C1-4F89-84BF-3AB7E60FF2C5}" name="Politics " dataDxfId="116"/>
-    <tableColumn id="11" xr3:uid="{08077061-C415-4122-ADDB-4411B80422D4}" name="Politics _5_TEXT" dataDxfId="115"/>
-    <tableColumn id="12" xr3:uid="{046C78C3-B246-426E-825C-B67991456A64}" name="Platforms" dataDxfId="114"/>
-    <tableColumn id="13" xr3:uid="{1F5F6CB3-1C53-4D44-B093-875E28D7B87F}" name="Platforms_6_TEXT" dataDxfId="113"/>
-    <tableColumn id="14" xr3:uid="{8B0A6479-8F36-4D80-9467-2E6C877E9B36}" name="Time Spent " dataDxfId="112"/>
-    <tableColumn id="15" xr3:uid="{AA4C553D-9C80-4F2D-B566-432D3139CD6B}" name="News_From_Social" dataDxfId="111"/>
-    <tableColumn id="16" xr3:uid="{52CAEF06-4684-4382-A692-689D053742B1}" name="Often_Listen_Podcasts" dataDxfId="110"/>
-    <tableColumn id="17" xr3:uid="{23133F51-3192-438A-BD8D-D404A0C88E76}" name="Top 3 Entertainment_1" dataDxfId="109"/>
-    <tableColumn id="18" xr3:uid="{32E5C7BE-7A81-4CC5-877B-2C6A5C699E25}" name="Top 3 Entertainment_2" dataDxfId="108"/>
-    <tableColumn id="19" xr3:uid="{179179B7-9860-4C35-9122-768E71B1C8BF}" name="Top 3 Entertainment_3" dataDxfId="107"/>
-    <tableColumn id="20" xr3:uid="{DC855606-9EE0-4366-A880-6410D2FE3C36}" name="Top 3 Educational _1" dataDxfId="106"/>
-    <tableColumn id="21" xr3:uid="{B37D843E-1665-43B4-9FDE-463B9202FA78}" name="Top 3 Educational _2" dataDxfId="105"/>
-    <tableColumn id="22" xr3:uid="{7AFF2AAD-C91D-42A8-A7CA-4AAFB4A31AA7}" name="Top 3 Educational _3" dataDxfId="104"/>
-    <tableColumn id="23" xr3:uid="{97679BA8-D60F-47B3-9D18-24E8B1591F63}" name="Ad-Free" dataDxfId="103"/>
-    <tableColumn id="24" xr3:uid="{0A168C1A-0CB2-4F81-A476-9D1DA064A3DB}" name="Ad Skipping " dataDxfId="102"/>
-    <tableColumn id="25" xr3:uid="{B0A972B6-2DF8-4C1F-AED4-97F270F0A97C}" name="Podcast_Recommendation" dataDxfId="101"/>
-    <tableColumn id="26" xr3:uid="{5268196F-F2A5-4714-A739-3A125662C4EF}" name="QQ1_BEFORE" dataDxfId="100"/>
-    <tableColumn id="27" xr3:uid="{AACD74D8-EC60-4B39-A24D-09BD8B5DB799}" name="QQ1_WORD_COUNT_BEFORE" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2C848D5-A266-46C6-A87A-C4B9154CB138}" name="Table1" displayName="Table1" ref="A1:DW100" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127">
+  <autoFilter ref="A1:DW100" xr:uid="{C2C848D5-A266-46C6-A87A-C4B9154CB138}"/>
+  <tableColumns count="127">
+    <tableColumn id="1" xr3:uid="{4BEAC8A5-9226-4BA2-91E7-14E9B47D3E09}" name="PARTICIPANT ID" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{EF4C3F5A-7852-4C02-8541-AEC12D919BF3}" name="GROUP" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{5AD7D02F-4433-4BB6-AB10-175ABD89725D}" name="Age" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{C3944AFF-CB17-4A39-B7B2-9AA8B7C0DF15}" name="Gender " dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{A672E2D8-B2B0-4BA8-BCEA-99F4B128B172}" name="Citizenship" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{8C6C4CF7-FD68-40C3-988F-97DABD2DD6B6}" name="Ethnicity" dataDxfId="121"/>
+    <tableColumn id="7" xr3:uid="{2745B3D0-02AF-4EAA-A4BD-D7F8C66A6852}" name="Ethnicity_6_TEXT" dataDxfId="120"/>
+    <tableColumn id="8" xr3:uid="{FFC7D8DF-54AF-4BFD-9F93-111C0A4C9AA9}" name="Religion" dataDxfId="119"/>
+    <tableColumn id="9" xr3:uid="{A8935703-B1F9-44EA-8D55-FEC093ED243E}" name="Religion_11_TEXT" dataDxfId="118"/>
+    <tableColumn id="10" xr3:uid="{F5EC22AC-F6C1-4F89-84BF-3AB7E60FF2C5}" name="Politics " dataDxfId="117"/>
+    <tableColumn id="11" xr3:uid="{08077061-C415-4122-ADDB-4411B80422D4}" name="Politics _5_TEXT" dataDxfId="116"/>
+    <tableColumn id="12" xr3:uid="{046C78C3-B246-426E-825C-B67991456A64}" name="Platforms" dataDxfId="115"/>
+    <tableColumn id="13" xr3:uid="{1F5F6CB3-1C53-4D44-B093-875E28D7B87F}" name="Platforms_6_TEXT" dataDxfId="114"/>
+    <tableColumn id="14" xr3:uid="{8B0A6479-8F36-4D80-9467-2E6C877E9B36}" name="Time Spent " dataDxfId="113"/>
+    <tableColumn id="15" xr3:uid="{AA4C553D-9C80-4F2D-B566-432D3139CD6B}" name="News_From_Social" dataDxfId="112"/>
+    <tableColumn id="16" xr3:uid="{52CAEF06-4684-4382-A692-689D053742B1}" name="Often_Listen_Podcasts" dataDxfId="111"/>
+    <tableColumn id="17" xr3:uid="{23133F51-3192-438A-BD8D-D404A0C88E76}" name="Top 3 Entertainment_1" dataDxfId="110"/>
+    <tableColumn id="18" xr3:uid="{32E5C7BE-7A81-4CC5-877B-2C6A5C699E25}" name="Top 3 Entertainment_2" dataDxfId="109"/>
+    <tableColumn id="19" xr3:uid="{179179B7-9860-4C35-9122-768E71B1C8BF}" name="Top 3 Entertainment_3" dataDxfId="108"/>
+    <tableColumn id="20" xr3:uid="{DC855606-9EE0-4366-A880-6410D2FE3C36}" name="Top 3 Educational _1" dataDxfId="107"/>
+    <tableColumn id="21" xr3:uid="{B37D843E-1665-43B4-9FDE-463B9202FA78}" name="Top 3 Educational _2" dataDxfId="106"/>
+    <tableColumn id="22" xr3:uid="{7AFF2AAD-C91D-42A8-A7CA-4AAFB4A31AA7}" name="Top 3 Educational _3" dataDxfId="105"/>
+    <tableColumn id="23" xr3:uid="{97679BA8-D60F-47B3-9D18-24E8B1591F63}" name="Ad-Free" dataDxfId="104"/>
+    <tableColumn id="24" xr3:uid="{0A168C1A-0CB2-4F81-A476-9D1DA064A3DB}" name="Ad Skipping " dataDxfId="103"/>
+    <tableColumn id="25" xr3:uid="{B0A972B6-2DF8-4C1F-AED4-97F270F0A97C}" name="Podcast_Recommendation" dataDxfId="102"/>
+    <tableColumn id="26" xr3:uid="{5268196F-F2A5-4714-A739-3A125662C4EF}" name="QQ1_BEFORE" dataDxfId="101"/>
+    <tableColumn id="27" xr3:uid="{AACD74D8-EC60-4B39-A24D-09BD8B5DB799}" name="QQ1_WORD_COUNT_BEFORE" dataDxfId="100">
       <calculatedColumnFormula>IF(LEN(TRIM(Z2))=0, 0, LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Z2, "/", " "), "-", " "), "  ", " "))) - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Z2, "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="124" xr3:uid="{60CBFF4F-0C61-4A1F-8222-63BEEF46C9FF}" name="QQ1_SENTENCE_COUNT_BEFORE" dataDxfId="98">
+    <tableColumn id="124" xr3:uid="{60CBFF4F-0C61-4A1F-8222-63BEEF46C9FF}" name="QQ1_SENTENCE_COUNT_BEFORE" dataDxfId="99">
       <calculatedColumnFormula>IF(LEN(TRIM(Z2))=0, 0, MAX(1, LEN(Z2) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Z2, ".", ""), "!", ""), "?", ""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{CC9FF84B-7093-4D0E-ACB8-FDD03E8EF16A}" name="QQ1_AVG_WORDS_PER_SENTENCE" dataDxfId="97">
+    <tableColumn id="28" xr3:uid="{CC9FF84B-7093-4D0E-ACB8-FDD03E8EF16A}" name="QQ1_AVG_WORDS_PER_SENTENCE" dataDxfId="98">
       <calculatedColumnFormula>IF(LEN(TRIM(Z2))=0, 0,
     (LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Z2, "/", " "), "-", " "), "  ", " ")))
     - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Z2, "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)
@@ -7443,14 +7509,14 @@
     )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{FEE4BCDD-A2C8-4656-9142-5AF890258321}" name="QQ2_BEFORE" dataDxfId="96"/>
-    <tableColumn id="30" xr3:uid="{FF5F779A-A64E-4CB1-B65B-5CA32A55F251}" name="QQ2_WORD_COUNT_BEFORE" dataDxfId="95">
+    <tableColumn id="29" xr3:uid="{FEE4BCDD-A2C8-4656-9142-5AF890258321}" name="QQ2_BEFORE" dataDxfId="97"/>
+    <tableColumn id="30" xr3:uid="{FF5F779A-A64E-4CB1-B65B-5CA32A55F251}" name="QQ2_WORD_COUNT_BEFORE" dataDxfId="96">
       <calculatedColumnFormula>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], "/", " "), "-", " "), "  ", " "))) - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="123" xr3:uid="{EF61318A-ACEC-42E6-94AA-E27DE1FC3B44}" name="QQ2_SENTENCE_COUNT_BEFORE" dataDxfId="94">
+    <tableColumn id="123" xr3:uid="{EF61318A-ACEC-42E6-94AA-E27DE1FC3B44}" name="QQ2_SENTENCE_COUNT_BEFORE" dataDxfId="95">
       <calculatedColumnFormula>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ2_BEFORE]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], ".", ""), "!", ""), "?", ""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="122" xr3:uid="{64FB6EEA-D107-45B9-83B0-3EC21CCA5598}" name="QQ2_AVG_WORDS_PER_SENTENCE" dataDxfId="93">
+    <tableColumn id="122" xr3:uid="{64FB6EEA-D107-45B9-83B0-3EC21CCA5598}" name="QQ2_AVG_WORDS_PER_SENTENCE" dataDxfId="94">
       <calculatedColumnFormula>IF(LEN(TRIM(Table1[[#This Row],[QQ2_BEFORE]]))=0, 0,
     (LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], "/", " "), "-", " "), "  ", " ")))
     - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ2_BEFORE]], "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)
@@ -7460,21 +7526,21 @@
     )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{FCAE6D3E-6924-424E-82DC-DA1FD2269340}" name="QQ3_BEFORE" dataDxfId="92"/>
-    <tableColumn id="32" xr3:uid="{ECD1DCF8-19CB-47A7-88FF-807619705842}" name="QQ3_WORD_COUNT_BEFORE" dataDxfId="91">
+    <tableColumn id="31" xr3:uid="{FCAE6D3E-6924-424E-82DC-DA1FD2269340}" name="QQ3_BEFORE" dataDxfId="93"/>
+    <tableColumn id="32" xr3:uid="{ECD1DCF8-19CB-47A7-88FF-807619705842}" name="QQ3_WORD_COUNT_BEFORE" dataDxfId="92">
       <calculatedColumnFormula>IF(LEN(TRIM(Table1[[#This Row],[QQ3_BEFORE]]))=0, 0, LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ3_BEFORE]], "/", " "), "-", " "), "  ", " "))) - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ3_BEFORE]], "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{44BE72B4-0428-49A0-A9B7-BD7E5FEAE33D}" name="QQ3_TYPE_OF_LIE" dataDxfId="90"/>
-    <tableColumn id="34" xr3:uid="{E4BF8E40-1C1A-47FA-9619-D7EB54B8DB08}" name="QQ1_AFTER" dataDxfId="89"/>
-    <tableColumn id="35" xr3:uid="{51242746-597E-450A-8250-ADE59D980592}" name="CHANGED_VIEWS_QQ1" dataDxfId="88"/>
-    <tableColumn id="127" xr3:uid="{78D5562E-6490-4F74-B3AE-C83DC06D03F9}" name="CHANGED_LENGTH_QQ12" dataDxfId="87"/>
-    <tableColumn id="126" xr3:uid="{C6575F81-C0ED-4987-9ECE-5B7E33E4EF2F}" name="QQ1_SENTENCE_COUNT_AFTER" dataDxfId="86">
+    <tableColumn id="33" xr3:uid="{44BE72B4-0428-49A0-A9B7-BD7E5FEAE33D}" name="QQ3_TYPE_OF_LIE" dataDxfId="91"/>
+    <tableColumn id="34" xr3:uid="{E4BF8E40-1C1A-47FA-9619-D7EB54B8DB08}" name="QQ1_AFTER" dataDxfId="90"/>
+    <tableColumn id="35" xr3:uid="{51242746-597E-450A-8250-ADE59D980592}" name="CHANGED_VIEWS_QQ1" dataDxfId="89"/>
+    <tableColumn id="127" xr3:uid="{78D5562E-6490-4F74-B3AE-C83DC06D03F9}" name="CHANGED_LENGTH_QQ12" dataDxfId="88"/>
+    <tableColumn id="126" xr3:uid="{C6575F81-C0ED-4987-9ECE-5B7E33E4EF2F}" name="QQ1_SENTENCE_COUNT_AFTER" dataDxfId="87">
       <calculatedColumnFormula>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0, MAX(1, LEN(Table1[[#This Row],[QQ1_AFTER]]) - LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], ".", ""), "!", ""), "?", ""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{00A88F16-24F8-49C7-8B6C-BAF6A9A8B609}" name="QQ1_WORD_COUNT_AFTER" dataDxfId="85">
+    <tableColumn id="38" xr3:uid="{00A88F16-24F8-49C7-8B6C-BAF6A9A8B609}" name="QQ1_WORD_COUNT_AFTER" dataDxfId="86">
       <calculatedColumnFormula>IF(LEN(TRIM(AK2))=0, 0, LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, "/", " "), "-", " "), "  ", " "))) - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AK2, "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="131" xr3:uid="{48B0FE76-8C34-4D8A-BDE6-FE361159C379}" name="QQ1_AVG_WORDS_PER_SENTENCE_AFTER" dataDxfId="84">
+    <tableColumn id="131" xr3:uid="{48B0FE76-8C34-4D8A-BDE6-FE361159C379}" name="QQ1_AVG_WORDS_PER_SENTENCE_AFTER" dataDxfId="85">
       <calculatedColumnFormula>IF(LEN(TRIM(Table1[[#This Row],[QQ1_AFTER]]))=0, 0,
     (LEN(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], "/", " "), "-", " "), "  ", " ")))
     - LEN(SUBSTITUTE(TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(Table1[[#This Row],[QQ1_AFTER]], "/", " "), "-", " "), "  ", " ")), " ", "")) + 1)
@@ -7484,108 +7550,109 @@
     )
 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="128" xr3:uid="{F9305548-2284-4EE9-81EE-9BC3DCFECF9E}" name="QQ1_DIFFERENCE_SENTENCE_COUNT" dataDxfId="83">
+    <tableColumn id="128" xr3:uid="{F9305548-2284-4EE9-81EE-9BC3DCFECF9E}" name="QQ1_DIFFERENCE_SENTENCE_COUNT" dataDxfId="84">
       <calculatedColumnFormula>Table1[[#This Row],[QQ1_SENTENCE_COUNT_AFTER]]-Table1[[#This Row],[QQ1_SENTENCE_COUNT_BEFORE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{D2CFB1E9-9B58-46A4-864B-01E5505E0A24}" name="QQ1_DIFFERENCE_WORD_COUNT" dataDxfId="82">
+    <tableColumn id="39" xr3:uid="{D2CFB1E9-9B58-46A4-864B-01E5505E0A24}" name="QQ1_DIFFERENCE_WORD_COUNT" dataDxfId="83">
       <calculatedColumnFormula>AO2-AA2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="129" xr3:uid="{73B3A6FD-7ECA-4CA9-8217-6AD7D48C3298}" name="QQ1_DIFFERENCE_AVG_WORDS_PER_SENTENCE" dataDxfId="81">
+    <tableColumn id="129" xr3:uid="{73B3A6FD-7ECA-4CA9-8217-6AD7D48C3298}" name="QQ1_DIFFERENCE_AVG_WORDS_PER_SENTENCE" dataDxfId="82">
       <calculatedColumnFormula>Table1[[#This Row],[QQ1_AVG_WORDS_PER_SENTENCE_AFTER]]-Table1[[#This Row],[QQ1_AVG_WORDS_PER_SENTENCE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{8C461472-482A-4741-9B6D-5FFFB987CD10}" name="QQ2_AFTER" dataDxfId="80"/>
-    <tableColumn id="41" xr3:uid="{ACB016F6-819F-41AA-A2F2-D5079B2E9AAC}" name="CHANGED_VIEWS_QQ2" dataDxfId="79"/>
-    <tableColumn id="42" xr3:uid="{3F80A475-1932-4F86-949C-C885FD20CD25}" name="CHANGED_LENGTH_QQ2" dataDxfId="78"/>
-    <tableColumn id="43" xr3:uid="{67924914-4FC3-43C4-B317-D213ED3B7122}" name="Column1" dataDxfId="77">
+    <tableColumn id="40" xr3:uid="{8C461472-482A-4741-9B6D-5FFFB987CD10}" name="QQ2_AFTER" dataDxfId="81"/>
+    <tableColumn id="41" xr3:uid="{ACB016F6-819F-41AA-A2F2-D5079B2E9AAC}" name="CHANGED_VIEWS_QQ2" dataDxfId="80"/>
+    <tableColumn id="42" xr3:uid="{3F80A475-1932-4F86-949C-C885FD20CD25}" name="CHANGED_LENGTH_QQ2" dataDxfId="79"/>
+    <tableColumn id="43" xr3:uid="{67924914-4FC3-43C4-B317-D213ED3B7122}" name="Column1" dataDxfId="78">
       <calculatedColumnFormula>LEN(AT2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{8CD4B191-5EB5-489A-B428-64D7B622CABA}" name="QQ3_AFTER" dataDxfId="76"/>
-    <tableColumn id="45" xr3:uid="{A3B7A7AD-47E6-41BC-A728-B51182188F6D}" name="QQ3_LIE_2_SUMMARY" dataDxfId="75"/>
-    <tableColumn id="46" xr3:uid="{0AE9B888-FE63-429D-880E-B2FEEA510161}" name="QQ3_CHARACTER_COUNT7" dataDxfId="74">
+    <tableColumn id="44" xr3:uid="{8CD4B191-5EB5-489A-B428-64D7B622CABA}" name="QQ3_AFTER" dataDxfId="77"/>
+    <tableColumn id="45" xr3:uid="{A3B7A7AD-47E6-41BC-A728-B51182188F6D}" name="QQ3_LIE_2_SUMMARY" dataDxfId="76"/>
+    <tableColumn id="46" xr3:uid="{0AE9B888-FE63-429D-880E-B2FEEA510161}" name="QQ3_CHARACTER_COUNT7" dataDxfId="75">
       <calculatedColumnFormula>LEN(AX2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{11CB5346-14BF-4D9F-AAFE-36C0B0FC0B77}" name="QQ1_CHARACTER_COUNT_CHANGE" dataDxfId="73">
+    <tableColumn id="47" xr3:uid="{11CB5346-14BF-4D9F-AAFE-36C0B0FC0B77}" name="QQ1_CHARACTER_COUNT_CHANGE" dataDxfId="74">
       <calculatedColumnFormula>(#REF!-AC2)/AC2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{2C6DBD2E-6D7F-463F-9E45-C678275E5D7D}" name="QQ2_CHARACTER_COUNT_CHANGE" dataDxfId="72">
+    <tableColumn id="48" xr3:uid="{2C6DBD2E-6D7F-463F-9E45-C678275E5D7D}" name="QQ2_CHARACTER_COUNT_CHANGE" dataDxfId="73">
       <calculatedColumnFormula>(AW2-AE2)/AE2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{955BA9F3-115D-48D1-8479-E7404B6D4877}" name="QQ3_CHARACTER_COUNT_CHANGE" dataDxfId="71">
+    <tableColumn id="49" xr3:uid="{955BA9F3-115D-48D1-8479-E7404B6D4877}" name="QQ3_CHARACTER_COUNT_CHANGE" dataDxfId="72">
       <calculatedColumnFormula>(AZ2-AI2)/AI2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{52875AA7-BA55-46BB-B509-11A07AE571DF}" name="First Seven Items _1" dataDxfId="70"/>
-    <tableColumn id="51" xr3:uid="{C3E395C6-FA88-421D-964C-A367691119CA}" name="First Seven Items _2" dataDxfId="69"/>
-    <tableColumn id="52" xr3:uid="{57476F5A-91F8-486B-AD0D-CB2878B2596F}" name="First Seven Items _3" dataDxfId="68"/>
-    <tableColumn id="53" xr3:uid="{FFF1781E-3BDD-46F5-BE0D-9907D16FBBB5}" name="First Seven Items _4" dataDxfId="67"/>
-    <tableColumn id="54" xr3:uid="{7D4278ED-E007-413D-910A-5B9118EA06E9}" name="First Seven Items _5" dataDxfId="66"/>
-    <tableColumn id="55" xr3:uid="{5FF1B8E0-11B3-4878-9DE3-C922BE64D779}" name="First Seven Items _6" dataDxfId="65"/>
-    <tableColumn id="56" xr3:uid="{37F27C11-533D-45B1-8485-A661A4070B05}" name="First Seven Items _7" dataDxfId="64"/>
-    <tableColumn id="57" xr3:uid="{9BBED08D-654E-4186-B9E0-02D5BD6DF031}" name="Last Eight Items _1" dataDxfId="63"/>
-    <tableColumn id="58" xr3:uid="{AB5F6026-CE0C-4FBE-B1E4-C0EA0D68AB69}" name="Last Eight Items _2" dataDxfId="62"/>
-    <tableColumn id="59" xr3:uid="{E5777DF9-3867-40CC-9D17-A4BFE08E3385}" name="Last Eight Items _3" dataDxfId="61"/>
-    <tableColumn id="60" xr3:uid="{98A6A1A5-B21D-4EEE-B7F4-28695FDD1EA7}" name="Last Eight Items _4" dataDxfId="60"/>
-    <tableColumn id="61" xr3:uid="{C726EF96-0795-4D73-91D0-0D2DA7E6324D}" name="Last Eight Items _5" dataDxfId="59"/>
-    <tableColumn id="62" xr3:uid="{64DE2DE7-91FC-4CA4-AC29-6ED4D28486EC}" name="Last Eight Items _6" dataDxfId="58"/>
-    <tableColumn id="63" xr3:uid="{EE01A945-CBAC-4806-9223-360E61A55D53}" name="Last Eight Items _7" dataDxfId="57"/>
-    <tableColumn id="64" xr3:uid="{1D250565-C1DC-4501-BA94-F4989086BB47}" name="GCBS PRE SCORE" dataDxfId="56"/>
-    <tableColumn id="65" xr3:uid="{E1DCB0A1-CD04-4844-A1B5-F92862038714}" name="GCBS POST SCORE" dataDxfId="55"/>
-    <tableColumn id="66" xr3:uid="{6F9C5825-9528-4B1E-B5E9-0968FA5F1C59}" name="PRE &amp; POST SCORE" dataDxfId="54">
+    <tableColumn id="50" xr3:uid="{52875AA7-BA55-46BB-B509-11A07AE571DF}" name="First Seven Items _1" dataDxfId="71"/>
+    <tableColumn id="51" xr3:uid="{C3E395C6-FA88-421D-964C-A367691119CA}" name="First Seven Items _2" dataDxfId="70"/>
+    <tableColumn id="52" xr3:uid="{57476F5A-91F8-486B-AD0D-CB2878B2596F}" name="First Seven Items _3" dataDxfId="69"/>
+    <tableColumn id="53" xr3:uid="{FFF1781E-3BDD-46F5-BE0D-9907D16FBBB5}" name="First Seven Items _4" dataDxfId="68"/>
+    <tableColumn id="54" xr3:uid="{7D4278ED-E007-413D-910A-5B9118EA06E9}" name="First Seven Items _5" dataDxfId="67"/>
+    <tableColumn id="55" xr3:uid="{5FF1B8E0-11B3-4878-9DE3-C922BE64D779}" name="First Seven Items _6" dataDxfId="66"/>
+    <tableColumn id="56" xr3:uid="{37F27C11-533D-45B1-8485-A661A4070B05}" name="First Seven Items _7" dataDxfId="65"/>
+    <tableColumn id="57" xr3:uid="{9BBED08D-654E-4186-B9E0-02D5BD6DF031}" name="Last Eight Items _1" dataDxfId="64"/>
+    <tableColumn id="58" xr3:uid="{AB5F6026-CE0C-4FBE-B1E4-C0EA0D68AB69}" name="Last Eight Items _2" dataDxfId="63"/>
+    <tableColumn id="59" xr3:uid="{E5777DF9-3867-40CC-9D17-A4BFE08E3385}" name="Last Eight Items _3" dataDxfId="62"/>
+    <tableColumn id="60" xr3:uid="{98A6A1A5-B21D-4EEE-B7F4-28695FDD1EA7}" name="Last Eight Items _4" dataDxfId="61"/>
+    <tableColumn id="61" xr3:uid="{C726EF96-0795-4D73-91D0-0D2DA7E6324D}" name="Last Eight Items _5" dataDxfId="60"/>
+    <tableColumn id="62" xr3:uid="{64DE2DE7-91FC-4CA4-AC29-6ED4D28486EC}" name="Last Eight Items _6" dataDxfId="59"/>
+    <tableColumn id="63" xr3:uid="{EE01A945-CBAC-4806-9223-360E61A55D53}" name="Last Eight Items _7" dataDxfId="58"/>
+    <tableColumn id="64" xr3:uid="{1D250565-C1DC-4501-BA94-F4989086BB47}" name="GCBS PRE SCORE" dataDxfId="57"/>
+    <tableColumn id="65" xr3:uid="{E1DCB0A1-CD04-4844-A1B5-F92862038714}" name="GCBS POST SCORE" dataDxfId="56"/>
+    <tableColumn id="66" xr3:uid="{6F9C5825-9528-4B1E-B5E9-0968FA5F1C59}" name="PRE &amp; POST SCORE" dataDxfId="55">
       <calculatedColumnFormula>SUM(BR2:BS2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="67" xr3:uid="{64B44018-7B9B-49C9-B47A-10EE07477828}" name="GCBS CHANGE" dataDxfId="53"/>
-    <tableColumn id="68" xr3:uid="{D05EBDF8-6F23-4768-BEC7-290580234D78}" name="First 10 Items _1" dataDxfId="52"/>
-    <tableColumn id="69" xr3:uid="{78FDF35D-A2C9-4F20-ADF1-8F409D16BAC2}" name="First 10 Items _2" dataDxfId="51"/>
-    <tableColumn id="70" xr3:uid="{3849069E-7D74-4A6B-8514-EA1F6C5D9407}" name="First 10 Items _3" dataDxfId="50"/>
-    <tableColumn id="71" xr3:uid="{EB8BD901-B7EE-4753-A93F-7D1B2A8AB05D}" name="First 10 Items _4" dataDxfId="49"/>
-    <tableColumn id="72" xr3:uid="{0B4471B2-A1EC-445E-A221-185AC510DE69}" name="First 10 Items _5" dataDxfId="48"/>
-    <tableColumn id="73" xr3:uid="{A7A45CB3-2699-4173-8356-8CFCC9C26945}" name="First 10 Items _6" dataDxfId="47"/>
-    <tableColumn id="74" xr3:uid="{56639208-C651-4E19-B75F-5BC04D9F277E}" name="First 10 Items _7" dataDxfId="46"/>
-    <tableColumn id="75" xr3:uid="{ED007C6C-8D69-44B2-A49B-6215618A6FF0}" name="First 10 Items _8" dataDxfId="45"/>
-    <tableColumn id="76" xr3:uid="{3D93DA7D-B0AB-4BC3-8323-29758CDC5BF2}" name="First 10 Items _9" dataDxfId="44"/>
-    <tableColumn id="77" xr3:uid="{1BB8D791-37C4-4EC3-9130-1CC37FCB148A}" name="First 10 Items _10" dataDxfId="43"/>
-    <tableColumn id="78" xr3:uid="{0BBACBBC-0134-4580-A6EC-7BD330C8D329}" name="Last 10 Items _1" dataDxfId="42"/>
-    <tableColumn id="79" xr3:uid="{F6B2BFAC-DA1E-4218-8CC4-0C0C543F8F52}" name="Last 10 Items _2" dataDxfId="41"/>
-    <tableColumn id="80" xr3:uid="{40A07F04-9844-4C46-86F1-C428831CCC80}" name="Last 10 Items _3" dataDxfId="40"/>
-    <tableColumn id="81" xr3:uid="{571322F0-B47B-449A-AE94-4457E5840F95}" name="Last 10 Items _4" dataDxfId="39"/>
-    <tableColumn id="82" xr3:uid="{FF7D8433-D3E8-48A2-A2B1-4308E827B752}" name="Last 10 Items _5" dataDxfId="38"/>
-    <tableColumn id="83" xr3:uid="{252891B2-27EE-4339-95DE-2297A9A9A821}" name="Last 10 Items _6" dataDxfId="37"/>
-    <tableColumn id="84" xr3:uid="{5EA6DBB7-21AF-4978-A3FE-EE335C2DB1F8}" name="Last 10 Items _7" dataDxfId="36"/>
-    <tableColumn id="85" xr3:uid="{E735C487-ACBB-404D-A446-33BAC978BC08}" name="Last 10 Items _8" dataDxfId="35"/>
-    <tableColumn id="86" xr3:uid="{F910D3B3-504C-4FBA-9167-582D710FE80D}" name="Last 10 Items _9" dataDxfId="34"/>
-    <tableColumn id="87" xr3:uid="{CB09DEEB-33CA-488F-A988-66B6AFCA2741}" name="Last 10 Items _10" dataDxfId="33"/>
-    <tableColumn id="88" xr3:uid="{A0A76B7C-653F-4BCE-A222-FE7642536DCF}" name="MIST-20 PRE SCORE" dataDxfId="32"/>
-    <tableColumn id="89" xr3:uid="{D7932BF4-CEB8-47A3-A17B-91324F158C4F}" name="MIST-20 POST SCORE" dataDxfId="31"/>
-    <tableColumn id="90" xr3:uid="{9020B670-7601-4440-A455-A98979D9CB17}" name="MIST-20 CHANGE" dataDxfId="30"/>
-    <tableColumn id="91" xr3:uid="{CECB8A50-2F5F-4BAF-8170-D5E92CE3ACAC}" name="First 10 Items _18" dataDxfId="29"/>
-    <tableColumn id="92" xr3:uid="{55EFA626-FDC6-4F77-9551-DB48C565E325}" name="First 10 Items _29" dataDxfId="28"/>
-    <tableColumn id="93" xr3:uid="{D3002C40-62E5-4BDD-AC27-70227AF43CC2}" name="First 10 Items _310" dataDxfId="27"/>
-    <tableColumn id="94" xr3:uid="{4E55AC34-1AED-430E-8A82-86F322574543}" name="First 10 Items _411" dataDxfId="26"/>
-    <tableColumn id="95" xr3:uid="{86F212E2-707D-483A-BE69-EA925F6695A5}" name="First 10 Items _512" dataDxfId="25"/>
-    <tableColumn id="96" xr3:uid="{AD80D84C-8AE1-4AD4-908B-4341AE1BA996}" name="First 10 Items _613" dataDxfId="24"/>
-    <tableColumn id="97" xr3:uid="{7A0331EF-84F9-470D-A941-40A96FFAA5FF}" name="First 10 Items _714" dataDxfId="23"/>
-    <tableColumn id="98" xr3:uid="{E09E2D3C-6845-4205-BF29-282AF853D485}" name="First 10 Items _815" dataDxfId="22"/>
-    <tableColumn id="99" xr3:uid="{AAA88334-9BE2-4DAD-AAFB-A78EF20FB5B8}" name="First 10 Items _916" dataDxfId="21"/>
-    <tableColumn id="100" xr3:uid="{CD64C1BC-E9C3-46BB-B5C5-7614D35C354E}" name="First 10 Items _1017" dataDxfId="20"/>
-    <tableColumn id="101" xr3:uid="{CB8E04AE-7A3E-4496-B191-43B8015D1EA6}" name="Last 10 Items _118" dataDxfId="19"/>
-    <tableColumn id="102" xr3:uid="{C05EA660-6063-4DC8-BDAE-4A69C79843B2}" name="Last 10 Items _219" dataDxfId="18"/>
-    <tableColumn id="103" xr3:uid="{2B0C9DA6-6E2F-4DD8-93FB-C66090EACACA}" name="Last 10 Items _320" dataDxfId="17"/>
-    <tableColumn id="104" xr3:uid="{54652524-2CE9-4BD0-804F-7E97AB0C74F8}" name="Last 10 Items _421" dataDxfId="16"/>
-    <tableColumn id="105" xr3:uid="{6109BB98-1F79-4C5D-BB48-694BE0C63512}" name="Last 10 Items _522" dataDxfId="15"/>
-    <tableColumn id="106" xr3:uid="{054AE5AC-09DB-45C8-90D2-60236DFA98DF}" name="Last 10 Items _623" dataDxfId="14"/>
-    <tableColumn id="107" xr3:uid="{2931BB5E-9A5F-42FC-990B-C0CA7EB4F892}" name="Last 10 Items _724" dataDxfId="13"/>
-    <tableColumn id="108" xr3:uid="{DA38CB37-7A87-47B7-ADC2-CA17CB80D54A}" name="Last 10 Items _825" dataDxfId="12"/>
-    <tableColumn id="109" xr3:uid="{08E9BA4C-8938-4019-BBB8-8A8C7DDB3CA6}" name="Last 10 Items _926" dataDxfId="11"/>
-    <tableColumn id="110" xr3:uid="{546E32DB-1E36-4255-9DF1-028A978E009E}" name="Last 10 Items _1027" dataDxfId="10"/>
-    <tableColumn id="111" xr3:uid="{67BB6F01-8C7D-4B97-9885-C417D3638624}" name="ITMIST PRE SCORE" dataDxfId="9"/>
-    <tableColumn id="112" xr3:uid="{E181337A-2700-48FA-B1EA-C4209E0A7EE3}" name="ITMIST POST SCORE" dataDxfId="8"/>
-    <tableColumn id="113" xr3:uid="{420DFEA7-73B7-484F-89B2-156E45CA05F8}" name="ITMIST CHANGE" dataDxfId="7"/>
-    <tableColumn id="114" xr3:uid="{CC831C4F-FCD4-43DA-8227-B68C9414B21C}" name="1" dataDxfId="6"/>
-    <tableColumn id="115" xr3:uid="{5B964F72-8241-49D4-9725-A6A24FF35745}" name="2" dataDxfId="5"/>
-    <tableColumn id="116" xr3:uid="{8A74599D-823F-46DE-98B0-46B21E30F711}" name="3" dataDxfId="4"/>
-    <tableColumn id="117" xr3:uid="{30DC9047-2565-4B5C-81D2-6E8ADE65B512}" name="4" dataDxfId="3"/>
-    <tableColumn id="118" xr3:uid="{7A310991-FE71-42CD-9CAC-3D74F094CC96}" name="UNDERSTANDABILITY" dataDxfId="2"/>
-    <tableColumn id="119" xr3:uid="{30953372-ED4E-4283-A4F0-0213A7983FD6}" name="SENTIMENT" dataDxfId="1"/>
-    <tableColumn id="120" xr3:uid="{02B27F51-F5A7-4D31-97F0-2F08D06F6140}" name="ADDITIONAL THOUGHTS" dataDxfId="0"/>
+    <tableColumn id="67" xr3:uid="{64B44018-7B9B-49C9-B47A-10EE07477828}" name="GCBS CHANGE" dataDxfId="54"/>
+    <tableColumn id="68" xr3:uid="{D05EBDF8-6F23-4768-BEC7-290580234D78}" name="First 10 Items _1" dataDxfId="53"/>
+    <tableColumn id="69" xr3:uid="{78FDF35D-A2C9-4F20-ADF1-8F409D16BAC2}" name="First 10 Items _2" dataDxfId="52"/>
+    <tableColumn id="70" xr3:uid="{3849069E-7D74-4A6B-8514-EA1F6C5D9407}" name="First 10 Items _3" dataDxfId="51"/>
+    <tableColumn id="71" xr3:uid="{EB8BD901-B7EE-4753-A93F-7D1B2A8AB05D}" name="First 10 Items _4" dataDxfId="50"/>
+    <tableColumn id="72" xr3:uid="{0B4471B2-A1EC-445E-A221-185AC510DE69}" name="First 10 Items _5" dataDxfId="49"/>
+    <tableColumn id="73" xr3:uid="{A7A45CB3-2699-4173-8356-8CFCC9C26945}" name="First 10 Items _6" dataDxfId="48"/>
+    <tableColumn id="74" xr3:uid="{56639208-C651-4E19-B75F-5BC04D9F277E}" name="First 10 Items _7" dataDxfId="47"/>
+    <tableColumn id="75" xr3:uid="{ED007C6C-8D69-44B2-A49B-6215618A6FF0}" name="First 10 Items _8" dataDxfId="46"/>
+    <tableColumn id="76" xr3:uid="{3D93DA7D-B0AB-4BC3-8323-29758CDC5BF2}" name="First 10 Items _9" dataDxfId="45"/>
+    <tableColumn id="77" xr3:uid="{1BB8D791-37C4-4EC3-9130-1CC37FCB148A}" name="First 10 Items _10" dataDxfId="44"/>
+    <tableColumn id="78" xr3:uid="{0BBACBBC-0134-4580-A6EC-7BD330C8D329}" name="Last 10 Items _1" dataDxfId="43"/>
+    <tableColumn id="79" xr3:uid="{F6B2BFAC-DA1E-4218-8CC4-0C0C543F8F52}" name="Last 10 Items _2" dataDxfId="42"/>
+    <tableColumn id="80" xr3:uid="{40A07F04-9844-4C46-86F1-C428831CCC80}" name="Last 10 Items _3" dataDxfId="41"/>
+    <tableColumn id="81" xr3:uid="{571322F0-B47B-449A-AE94-4457E5840F95}" name="Last 10 Items _4" dataDxfId="40"/>
+    <tableColumn id="82" xr3:uid="{FF7D8433-D3E8-48A2-A2B1-4308E827B752}" name="Last 10 Items _5" dataDxfId="39"/>
+    <tableColumn id="83" xr3:uid="{252891B2-27EE-4339-95DE-2297A9A9A821}" name="Last 10 Items _6" dataDxfId="38"/>
+    <tableColumn id="84" xr3:uid="{5EA6DBB7-21AF-4978-A3FE-EE335C2DB1F8}" name="Last 10 Items _7" dataDxfId="37"/>
+    <tableColumn id="85" xr3:uid="{E735C487-ACBB-404D-A446-33BAC978BC08}" name="Last 10 Items _8" dataDxfId="36"/>
+    <tableColumn id="86" xr3:uid="{F910D3B3-504C-4FBA-9167-582D710FE80D}" name="Last 10 Items _9" dataDxfId="35"/>
+    <tableColumn id="87" xr3:uid="{CB09DEEB-33CA-488F-A988-66B6AFCA2741}" name="Last 10 Items _10" dataDxfId="34"/>
+    <tableColumn id="88" xr3:uid="{A0A76B7C-653F-4BCE-A222-FE7642536DCF}" name="MIST-20 PRE SCORE" dataDxfId="33"/>
+    <tableColumn id="89" xr3:uid="{D7932BF4-CEB8-47A3-A17B-91324F158C4F}" name="MIST-20 POST SCORE" dataDxfId="32"/>
+    <tableColumn id="90" xr3:uid="{9020B670-7601-4440-A455-A98979D9CB17}" name="MIST-20 CHANGE" dataDxfId="31"/>
+    <tableColumn id="91" xr3:uid="{CECB8A50-2F5F-4BAF-8170-D5E92CE3ACAC}" name="First 10 Items _18" dataDxfId="30"/>
+    <tableColumn id="92" xr3:uid="{55EFA626-FDC6-4F77-9551-DB48C565E325}" name="First 10 Items _29" dataDxfId="29"/>
+    <tableColumn id="93" xr3:uid="{D3002C40-62E5-4BDD-AC27-70227AF43CC2}" name="First 10 Items _310" dataDxfId="28"/>
+    <tableColumn id="94" xr3:uid="{4E55AC34-1AED-430E-8A82-86F322574543}" name="First 10 Items _411" dataDxfId="27"/>
+    <tableColumn id="95" xr3:uid="{86F212E2-707D-483A-BE69-EA925F6695A5}" name="First 10 Items _512" dataDxfId="26"/>
+    <tableColumn id="96" xr3:uid="{AD80D84C-8AE1-4AD4-908B-4341AE1BA996}" name="First 10 Items _613" dataDxfId="25"/>
+    <tableColumn id="97" xr3:uid="{7A0331EF-84F9-470D-A941-40A96FFAA5FF}" name="First 10 Items _714" dataDxfId="24"/>
+    <tableColumn id="98" xr3:uid="{E09E2D3C-6845-4205-BF29-282AF853D485}" name="First 10 Items _815" dataDxfId="23"/>
+    <tableColumn id="99" xr3:uid="{AAA88334-9BE2-4DAD-AAFB-A78EF20FB5B8}" name="First 10 Items _916" dataDxfId="22"/>
+    <tableColumn id="100" xr3:uid="{CD64C1BC-E9C3-46BB-B5C5-7614D35C354E}" name="First 10 Items _1017" dataDxfId="21"/>
+    <tableColumn id="101" xr3:uid="{CB8E04AE-7A3E-4496-B191-43B8015D1EA6}" name="Last 10 Items _118" dataDxfId="20"/>
+    <tableColumn id="102" xr3:uid="{C05EA660-6063-4DC8-BDAE-4A69C79843B2}" name="Last 10 Items _219" dataDxfId="19"/>
+    <tableColumn id="103" xr3:uid="{2B0C9DA6-6E2F-4DD8-93FB-C66090EACACA}" name="Last 10 Items _320" dataDxfId="18"/>
+    <tableColumn id="104" xr3:uid="{54652524-2CE9-4BD0-804F-7E97AB0C74F8}" name="Last 10 Items _421" dataDxfId="17"/>
+    <tableColumn id="105" xr3:uid="{6109BB98-1F79-4C5D-BB48-694BE0C63512}" name="Last 10 Items _522" dataDxfId="16"/>
+    <tableColumn id="106" xr3:uid="{054AE5AC-09DB-45C8-90D2-60236DFA98DF}" name="Last 10 Items _623" dataDxfId="15"/>
+    <tableColumn id="107" xr3:uid="{2931BB5E-9A5F-42FC-990B-C0CA7EB4F892}" name="Last 10 Items _724" dataDxfId="14"/>
+    <tableColumn id="108" xr3:uid="{DA38CB37-7A87-47B7-ADC2-CA17CB80D54A}" name="Last 10 Items _825" dataDxfId="13"/>
+    <tableColumn id="109" xr3:uid="{08E9BA4C-8938-4019-BBB8-8A8C7DDB3CA6}" name="Last 10 Items _926" dataDxfId="12"/>
+    <tableColumn id="110" xr3:uid="{546E32DB-1E36-4255-9DF1-028A978E009E}" name="Last 10 Items _1027" dataDxfId="11"/>
+    <tableColumn id="111" xr3:uid="{67BB6F01-8C7D-4B97-9885-C417D3638624}" name="ITMIST PRE SCORE" dataDxfId="10"/>
+    <tableColumn id="112" xr3:uid="{E181337A-2700-48FA-B1EA-C4209E0A7EE3}" name="ITMIST POST SCORE" dataDxfId="9"/>
+    <tableColumn id="113" xr3:uid="{420DFEA7-73B7-484F-89B2-156E45CA05F8}" name="ITMIST CHANGE" dataDxfId="8"/>
+    <tableColumn id="114" xr3:uid="{CC831C4F-FCD4-43DA-8227-B68C9414B21C}" name="1" dataDxfId="7"/>
+    <tableColumn id="115" xr3:uid="{5B964F72-8241-49D4-9725-A6A24FF35745}" name="2" dataDxfId="6"/>
+    <tableColumn id="116" xr3:uid="{8A74599D-823F-46DE-98B0-46B21E30F711}" name="3" dataDxfId="5"/>
+    <tableColumn id="117" xr3:uid="{30DC9047-2565-4B5C-81D2-6E8ADE65B512}" name="4" dataDxfId="4"/>
+    <tableColumn id="118" xr3:uid="{7A310991-FE71-42CD-9CAC-3D74F094CC96}" name="UNDERSTANDABILITY" dataDxfId="3"/>
+    <tableColumn id="119" xr3:uid="{30953372-ED4E-4283-A4F0-0213A7983FD6}" name="SENTIMENT" dataDxfId="2"/>
+    <tableColumn id="120" xr3:uid="{02B27F51-F5A7-4D31-97F0-2F08D06F6140}" name="ADDITIONAL THOUGHTS" dataDxfId="1"/>
+    <tableColumn id="37" xr3:uid="{178EDDB8-978E-4E05-AF2C-4A4F41B641C6}" name="FUTURE_STUDY" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7789,94 +7856,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV1002"/>
+  <dimension ref="A1:DW1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z43" workbookViewId="0">
-      <selection activeCell="AC44" sqref="AC44"/>
+    <sheetView tabSelected="1" topLeftCell="DP1" workbookViewId="0">
+      <selection activeCell="DW2" sqref="DW2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.09765625" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" customWidth="1"/>
-    <col min="6" max="6" width="34.19921875" customWidth="1"/>
-    <col min="7" max="7" width="38.3984375" customWidth="1"/>
-    <col min="8" max="8" width="23.09765625" customWidth="1"/>
-    <col min="9" max="9" width="19.19921875" customWidth="1"/>
-    <col min="10" max="10" width="19.69921875" customWidth="1"/>
-    <col min="11" max="11" width="28.09765625" customWidth="1"/>
-    <col min="12" max="12" width="34.3984375" customWidth="1"/>
-    <col min="13" max="13" width="26.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="38.375" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="28.125" customWidth="1"/>
+    <col min="12" max="12" width="34.375" customWidth="1"/>
+    <col min="13" max="13" width="26.625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="22.69921875" customWidth="1"/>
+    <col min="15" max="15" width="22.75" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="19" width="22.69921875" customWidth="1"/>
-    <col min="20" max="22" width="21.09765625" customWidth="1"/>
-    <col min="23" max="23" width="22.19921875" customWidth="1"/>
-    <col min="24" max="24" width="20.09765625" customWidth="1"/>
+    <col min="17" max="19" width="22.75" customWidth="1"/>
+    <col min="20" max="22" width="21.125" customWidth="1"/>
+    <col min="23" max="23" width="22.25" customWidth="1"/>
+    <col min="24" max="24" width="20.125" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="26" max="26" width="46.19921875" customWidth="1"/>
-    <col min="27" max="27" width="19.3984375" style="46" customWidth="1"/>
-    <col min="28" max="28" width="35.19921875" style="46" customWidth="1"/>
-    <col min="29" max="29" width="16.59765625" style="54" customWidth="1"/>
-    <col min="30" max="30" width="49.69921875" customWidth="1"/>
-    <col min="31" max="31" width="15.8984375" style="46" customWidth="1"/>
-    <col min="32" max="32" width="17.3984375" style="46" customWidth="1"/>
-    <col min="33" max="33" width="16.19921875" style="46" customWidth="1"/>
-    <col min="34" max="34" width="40.8984375" customWidth="1"/>
-    <col min="35" max="35" width="40.8984375" style="46" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="40.8984375" customWidth="1"/>
-    <col min="37" max="37" width="47.69921875" customWidth="1"/>
-    <col min="38" max="39" width="38.3984375" customWidth="1"/>
-    <col min="40" max="40" width="26.59765625" style="46" customWidth="1"/>
-    <col min="41" max="41" width="28.59765625" style="46" customWidth="1"/>
-    <col min="42" max="42" width="28.59765625" style="54" customWidth="1"/>
-    <col min="43" max="43" width="28.59765625" style="46" customWidth="1"/>
-    <col min="44" max="45" width="34.3984375" style="46" customWidth="1"/>
-    <col min="46" max="49" width="35.09765625" customWidth="1"/>
-    <col min="50" max="51" width="38.3984375" customWidth="1"/>
-    <col min="52" max="52" width="28.19921875" style="46" customWidth="1"/>
-    <col min="53" max="55" width="36.19921875" style="46" customWidth="1"/>
-    <col min="56" max="69" width="59.69921875" customWidth="1"/>
+    <col min="26" max="26" width="46.25" customWidth="1"/>
+    <col min="27" max="27" width="19.375" style="46" customWidth="1"/>
+    <col min="28" max="28" width="35.25" style="46" customWidth="1"/>
+    <col min="29" max="29" width="16.625" style="54" customWidth="1"/>
+    <col min="30" max="30" width="49.75" customWidth="1"/>
+    <col min="31" max="31" width="15.875" style="46" customWidth="1"/>
+    <col min="32" max="32" width="17.375" style="46" customWidth="1"/>
+    <col min="33" max="33" width="16.25" style="46" customWidth="1"/>
+    <col min="34" max="34" width="40.875" customWidth="1"/>
+    <col min="35" max="35" width="40.875" style="46" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="40.875" customWidth="1"/>
+    <col min="37" max="37" width="47.75" customWidth="1"/>
+    <col min="38" max="39" width="38.375" customWidth="1"/>
+    <col min="40" max="40" width="26.625" style="46" customWidth="1"/>
+    <col min="41" max="41" width="28.625" style="46" customWidth="1"/>
+    <col min="42" max="42" width="28.625" style="54" customWidth="1"/>
+    <col min="43" max="43" width="28.625" style="46" customWidth="1"/>
+    <col min="44" max="45" width="34.375" style="46" customWidth="1"/>
+    <col min="46" max="49" width="35.125" customWidth="1"/>
+    <col min="50" max="51" width="38.375" customWidth="1"/>
+    <col min="52" max="52" width="28.25" style="46" customWidth="1"/>
+    <col min="53" max="55" width="36.25" style="46" customWidth="1"/>
+    <col min="56" max="69" width="59.75" customWidth="1"/>
     <col min="70" max="70" width="22" style="31" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="23.3984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="23.3984375" style="31" customWidth="1"/>
-    <col min="73" max="73" width="18.19921875" style="37" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="59.69921875" style="33" customWidth="1"/>
-    <col min="75" max="93" width="59.69921875" customWidth="1"/>
-    <col min="94" max="94" width="26.8984375" customWidth="1"/>
-    <col min="95" max="95" width="28.69921875" customWidth="1"/>
+    <col min="71" max="71" width="23.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="23.375" style="31" customWidth="1"/>
+    <col min="73" max="73" width="18.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="59.75" style="33" customWidth="1"/>
+    <col min="75" max="93" width="59.75" customWidth="1"/>
+    <col min="94" max="94" width="26.875" customWidth="1"/>
+    <col min="95" max="95" width="28.75" customWidth="1"/>
     <col min="96" max="96" width="23" customWidth="1"/>
-    <col min="97" max="103" width="59.69921875" customWidth="1"/>
-    <col min="104" max="104" width="30.19921875" customWidth="1"/>
-    <col min="105" max="105" width="34.19921875" customWidth="1"/>
-    <col min="106" max="106" width="36.19921875" customWidth="1"/>
-    <col min="107" max="107" width="29.8984375" customWidth="1"/>
-    <col min="108" max="108" width="35.19921875" customWidth="1"/>
-    <col min="109" max="109" width="32.09765625" customWidth="1"/>
-    <col min="110" max="110" width="32.59765625" customWidth="1"/>
-    <col min="111" max="111" width="34.3984375" customWidth="1"/>
-    <col min="112" max="112" width="35.09765625" customWidth="1"/>
-    <col min="113" max="113" width="38.3984375" customWidth="1"/>
-    <col min="114" max="114" width="35.19921875" customWidth="1"/>
-    <col min="115" max="115" width="41.09765625" customWidth="1"/>
-    <col min="116" max="116" width="31.3984375" customWidth="1"/>
-    <col min="117" max="117" width="25.59765625" customWidth="1"/>
-    <col min="118" max="118" width="27.3984375" customWidth="1"/>
-    <col min="119" max="119" width="21.69921875" customWidth="1"/>
-    <col min="120" max="120" width="36.19921875" style="10" customWidth="1"/>
-    <col min="121" max="121" width="24.8984375" customWidth="1"/>
-    <col min="122" max="122" width="31.59765625" customWidth="1"/>
-    <col min="123" max="123" width="23.3984375" customWidth="1"/>
+    <col min="97" max="103" width="59.75" customWidth="1"/>
+    <col min="104" max="104" width="30.25" customWidth="1"/>
+    <col min="105" max="105" width="34.25" customWidth="1"/>
+    <col min="106" max="106" width="36.25" customWidth="1"/>
+    <col min="107" max="107" width="29.875" customWidth="1"/>
+    <col min="108" max="108" width="35.25" customWidth="1"/>
+    <col min="109" max="109" width="32.125" customWidth="1"/>
+    <col min="110" max="110" width="32.625" customWidth="1"/>
+    <col min="111" max="111" width="34.375" customWidth="1"/>
+    <col min="112" max="112" width="35.125" customWidth="1"/>
+    <col min="113" max="113" width="38.375" customWidth="1"/>
+    <col min="114" max="114" width="35.25" customWidth="1"/>
+    <col min="115" max="115" width="41.125" customWidth="1"/>
+    <col min="116" max="116" width="31.375" customWidth="1"/>
+    <col min="117" max="117" width="25.625" customWidth="1"/>
+    <col min="118" max="118" width="27.375" customWidth="1"/>
+    <col min="119" max="119" width="21.75" customWidth="1"/>
+    <col min="120" max="120" width="36.25" style="10" customWidth="1"/>
+    <col min="121" max="121" width="24.875" customWidth="1"/>
+    <col min="122" max="122" width="31.625" customWidth="1"/>
+    <col min="123" max="123" width="23.375" customWidth="1"/>
     <col min="124" max="124" width="23" style="15" customWidth="1"/>
-    <col min="125" max="125" width="17.19921875" style="15" customWidth="1"/>
-    <col min="126" max="126" width="25.3984375" customWidth="1"/>
+    <col min="125" max="125" width="17.25" style="15" customWidth="1"/>
+    <col min="126" max="126" width="25.375" customWidth="1"/>
+    <col min="127" max="127" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="10" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:127" s="10" customFormat="1" ht="44.25" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -8255,8 +8323,11 @@
       <c r="DV1" s="13" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="2" spans="1:126" ht="193.8">
+      <c r="DW1" s="59" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:127" ht="201" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8678,8 +8749,11 @@
       <c r="DV2" s="3" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="3" spans="1:126" ht="42">
+      <c r="DW2" s="60" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:127" ht="43.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9094,8 +9168,11 @@
       <c r="DV3" s="3" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="4" spans="1:126" ht="42">
+      <c r="DW3" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:127" ht="43.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9510,8 +9587,11 @@
       <c r="DV4" s="3" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="5" spans="1:126" ht="152.4">
+      <c r="DW4" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:127" ht="157.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -9926,8 +10006,11 @@
       <c r="DV5" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="6" spans="1:126" ht="55.8">
+      <c r="DW5" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:127" ht="57.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -10342,8 +10425,11 @@
       <c r="DV6" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="7" spans="1:126" ht="138.6">
+      <c r="DW6" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:127" ht="143.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -10758,8 +10844,11 @@
       <c r="DV7" s="3" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="8" spans="1:126" ht="58.5" customHeight="1">
+      <c r="DW7" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:127" ht="58.5" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -11174,8 +11263,11 @@
       <c r="DV8" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="9" spans="1:126" ht="24.75" customHeight="1">
+      <c r="DW8" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:127" ht="24.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -11590,8 +11682,11 @@
       <c r="DV9" s="3" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="10" spans="1:126" ht="83.4">
+      <c r="DW9" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:127" ht="86.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -12006,8 +12101,11 @@
       <c r="DV10" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="11" spans="1:126" ht="124.8">
+      <c r="DW10" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:127" ht="129">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -12422,8 +12520,11 @@
       <c r="DV11" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="12" spans="1:126" ht="42">
+      <c r="DW11" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:127" ht="43.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -12838,8 +12939,11 @@
       <c r="DV12" s="3" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="13" spans="1:126" ht="55.8">
+      <c r="DW12" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:127" ht="57.75">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -13254,8 +13358,11 @@
       <c r="DV13" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="14" spans="1:126" ht="124.8">
+      <c r="DW13" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:127" ht="143.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -13664,8 +13771,11 @@
       <c r="DV14" s="3" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="15" spans="1:126" ht="97.2">
+      <c r="DW14" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:127" ht="100.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -14080,8 +14190,11 @@
       <c r="DV15" s="3" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="16" spans="1:126" ht="55.8">
+      <c r="DW15" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:127" ht="57.75">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -14496,8 +14609,11 @@
       <c r="DV16" s="3" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="17" spans="1:126" ht="105.75" customHeight="1">
+      <c r="DW16" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:127" ht="105.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -14912,8 +15028,11 @@
       <c r="DV17" s="3" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="18" spans="1:126" ht="127.5" customHeight="1">
+      <c r="DW17" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:127" ht="127.5" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -15328,8 +15447,11 @@
       <c r="DV18" s="3" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="19" spans="1:126" ht="85.5" customHeight="1">
+      <c r="DW18" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:127" ht="85.5" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -15744,8 +15866,11 @@
       <c r="DV19" s="3" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="20" spans="1:126" ht="67.95" customHeight="1">
+      <c r="DW19" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:127" ht="67.900000000000006" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -16160,8 +16285,11 @@
       <c r="DV20" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="21" spans="1:126" ht="69.599999999999994">
+      <c r="DW20" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:127" ht="72">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -16576,8 +16704,11 @@
       <c r="DV21" s="3" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="22" spans="1:126" ht="111">
+      <c r="DW21" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:127" ht="114.75">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -16992,8 +17123,11 @@
       <c r="DV22" s="3" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="23" spans="1:126" ht="83.4">
+      <c r="DW22" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:127" ht="86.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -17408,8 +17542,11 @@
       <c r="DV23" s="3" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="24" spans="1:126" ht="42">
+      <c r="DW23" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:127" ht="43.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -17824,8 +17961,11 @@
       <c r="DV24" s="3" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="25" spans="1:126" ht="45.6" customHeight="1">
+      <c r="DW24" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:127" ht="45.6" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -18240,8 +18380,11 @@
       <c r="DV25" s="3" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="26" spans="1:126" ht="83.4">
+      <c r="DW25" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:127" ht="86.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -18656,8 +18799,11 @@
       <c r="DV26" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="27" spans="1:126" ht="42">
+      <c r="DW26" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:127" ht="57.75">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -19072,8 +19218,11 @@
       <c r="DV27" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="28" spans="1:126" ht="83.4">
+      <c r="DW27" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:127" ht="100.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -19488,8 +19637,11 @@
       <c r="DV28" s="3" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="29" spans="1:126" ht="69.599999999999994">
+      <c r="DW28" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:127" ht="72">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -19904,8 +20056,11 @@
       <c r="DV29" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="30" spans="1:126" ht="111">
+      <c r="DW29" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:127" ht="114.75">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -20320,8 +20475,11 @@
       <c r="DV30" s="3" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="31" spans="1:126" ht="83.4">
+      <c r="DW30" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:127" ht="86.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -20736,8 +20894,11 @@
       <c r="DV31" s="3" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="32" spans="1:126" ht="42">
+      <c r="DW31" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:127" ht="43.5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -21152,8 +21313,11 @@
       <c r="DV32" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="33" spans="1:126" ht="124.8">
+      <c r="DW32" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:127" ht="129">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -21568,8 +21732,11 @@
       <c r="DV33" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="34" spans="1:126" ht="69.599999999999994">
+      <c r="DW33" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:127" ht="72">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -21991,8 +22158,11 @@
       <c r="DV34" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="35" spans="1:126" ht="42">
+      <c r="DW34" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:127" ht="43.5">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -22407,8 +22577,11 @@
       <c r="DV35" s="3" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="36" spans="1:126" ht="83.4">
+      <c r="DW35" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:127" ht="86.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -22823,8 +22996,11 @@
       <c r="DV36" s="3" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="37" spans="1:126" ht="42">
+      <c r="DW36" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:127" ht="43.5">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -23239,8 +23415,11 @@
       <c r="DV37" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="38" spans="1:126" ht="24.75" customHeight="1">
+      <c r="DW37" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:127" ht="24.75" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -23655,8 +23834,11 @@
       <c r="DV38" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="39" spans="1:126" ht="24.75" customHeight="1">
+      <c r="DW38" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:127" ht="24.75" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -24071,8 +24253,11 @@
       <c r="DV39" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="40" spans="1:126" ht="97.2">
+      <c r="DW39" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:127" ht="100.5">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -24487,8 +24672,11 @@
       <c r="DV40" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="41" spans="1:126" ht="98.25" customHeight="1">
+      <c r="DW40" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:127" ht="98.25" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -24903,8 +25091,11 @@
       <c r="DV41" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="42" spans="1:126" ht="145.5" customHeight="1">
+      <c r="DW41" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:127" ht="145.5" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -25319,8 +25510,11 @@
       <c r="DV42" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="43" spans="1:126" ht="249" customHeight="1">
+      <c r="DW42" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:127" ht="249" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -25735,8 +25929,11 @@
       <c r="DV43" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="44" spans="1:126" ht="74.400000000000006" customHeight="1">
+      <c r="DW43" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:127" ht="74.45" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -26147,8 +26344,11 @@
       <c r="DV44" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="45" spans="1:126" ht="83.4">
+      <c r="DW44" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:127" ht="86.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -26563,8 +26763,11 @@
       <c r="DV45" s="3" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="46" spans="1:126" ht="24.75" customHeight="1">
+      <c r="DW45" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:127" ht="24.75" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -26979,8 +27182,11 @@
       <c r="DV46" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="47" spans="1:126" ht="75" customHeight="1">
+      <c r="DW46" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:127" ht="75" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -27395,8 +27601,11 @@
       <c r="DV47" s="3" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="48" spans="1:126" ht="124.8">
+      <c r="DW47" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:127" ht="129">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -27811,8 +28020,11 @@
       <c r="DV48" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="49" spans="1:126" ht="69.599999999999994">
+      <c r="DW48" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:127" ht="72">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -28227,8 +28439,11 @@
       <c r="DV49" s="3" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="50" spans="1:126" ht="105" customHeight="1">
+      <c r="DW49" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:127" ht="105" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -28643,8 +28858,11 @@
       <c r="DV50" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="51" spans="1:126" ht="113.25" customHeight="1">
+      <c r="DW50" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="51" spans="1:127" ht="113.25" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -29059,8 +29277,11 @@
       <c r="DV51" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="52" spans="1:126" ht="66" customHeight="1">
+      <c r="DW51" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:127" ht="66" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -29475,8 +29696,11 @@
       <c r="DV52" s="3" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="53" spans="1:126" ht="59.4" customHeight="1">
+      <c r="DW52" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:127" ht="59.45" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -29891,8 +30115,11 @@
       <c r="DV53" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="54" spans="1:126" ht="124.8">
+      <c r="DW53" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:127" ht="129">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -30307,8 +30534,11 @@
       <c r="DV54" s="3" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="55" spans="1:126" ht="24.75" customHeight="1">
+      <c r="DW54" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="55" spans="1:127" ht="24.75" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -30723,8 +30953,11 @@
       <c r="DV55" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="56" spans="1:126" ht="91.5" customHeight="1">
+      <c r="DW55" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:127" ht="91.5" customHeight="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -31139,8 +31372,11 @@
       <c r="DV56" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="57" spans="1:126" ht="111">
+      <c r="DW56" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="57" spans="1:127" ht="114.75">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -31555,8 +31791,11 @@
       <c r="DV57" s="3" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="58" spans="1:126" ht="24.75" customHeight="1">
+      <c r="DW57" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="58" spans="1:127" ht="24.75" customHeight="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -31971,8 +32210,11 @@
       <c r="DV58" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="59" spans="1:126" ht="97.2">
+      <c r="DW58" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:127" ht="100.5">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -32387,8 +32629,11 @@
       <c r="DV59" s="3" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="60" spans="1:126" ht="28.2">
+      <c r="DW59" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:127" ht="29.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -32803,8 +33048,11 @@
       <c r="DV60" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="61" spans="1:126" ht="69.599999999999994">
+      <c r="DW60" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:127" ht="72">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -33219,8 +33467,11 @@
       <c r="DV61" s="3" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="62" spans="1:126" ht="83.4">
+      <c r="DW61" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:127" ht="86.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -33635,8 +33886,11 @@
       <c r="DV62" s="3" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="63" spans="1:126" ht="97.2">
+      <c r="DW62" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:127" ht="100.5">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -34051,8 +34305,11 @@
       <c r="DV63" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="64" spans="1:126" ht="169.95" customHeight="1">
+      <c r="DW63" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:127" ht="169.9" customHeight="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -34467,8 +34724,11 @@
       <c r="DV64" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="65" spans="1:126" ht="55.8">
+      <c r="DW64" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:127" ht="72">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -34883,8 +35143,11 @@
       <c r="DV65" s="3" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="66" spans="1:126" ht="24.75" customHeight="1">
+      <c r="DW65" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:127" ht="24.75" customHeight="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -35306,8 +35569,11 @@
       <c r="DV66" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="67" spans="1:126" ht="43.2" customHeight="1">
+      <c r="DW66" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:127" ht="43.15" customHeight="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -35722,8 +35988,11 @@
       <c r="DV67" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="68" spans="1:126" ht="233.4" customHeight="1">
+      <c r="DW67" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:127" ht="233.45" customHeight="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -36138,8 +36407,11 @@
       <c r="DV68" s="3" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="69" spans="1:126" ht="124.8">
+      <c r="DW68" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="69" spans="1:127" ht="143.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -36554,8 +36826,11 @@
       <c r="DV69" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="70" spans="1:126" ht="152.25" customHeight="1">
+      <c r="DW69" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:127" ht="152.25" customHeight="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -36970,8 +37245,11 @@
       <c r="DV70" s="3" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="71" spans="1:126" ht="138" customHeight="1">
+      <c r="DW70" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:127" ht="138" customHeight="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -37386,8 +37664,11 @@
       <c r="DV71" s="3" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="72" spans="1:126" ht="112.5" customHeight="1">
+      <c r="DW71" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:127" ht="112.5" customHeight="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -37802,8 +38083,11 @@
       <c r="DV72" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="73" spans="1:126" ht="157.19999999999999" customHeight="1">
+      <c r="DW72" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="73" spans="1:127" ht="157.15" customHeight="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -38218,8 +38502,11 @@
       <c r="DV73" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="74" spans="1:126" ht="42">
+      <c r="DW73" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:127" ht="43.5">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -38634,8 +38921,11 @@
       <c r="DV74" s="3" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="75" spans="1:126" ht="142.5" customHeight="1">
+      <c r="DW74" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:127" ht="142.5" customHeight="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -39050,8 +39340,11 @@
       <c r="DV75" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="76" spans="1:126" ht="43.95" customHeight="1">
+      <c r="DW75" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:127" ht="43.9" customHeight="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -39466,8 +39759,11 @@
       <c r="DV76" s="3" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="77" spans="1:126" ht="87.6" customHeight="1">
+      <c r="DW76" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="77" spans="1:127" ht="87.6" customHeight="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -39882,8 +40178,11 @@
       <c r="DV77" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="78" spans="1:126" ht="33" customHeight="1">
+      <c r="DW77" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="78" spans="1:127" ht="33" customHeight="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -40298,8 +40597,11 @@
       <c r="DV78" s="3" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="79" spans="1:126" ht="54.6" customHeight="1">
+      <c r="DW78" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:127" ht="54.6" customHeight="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -40714,8 +41016,11 @@
       <c r="DV79" s="3" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="80" spans="1:126" ht="83.4">
+      <c r="DW79" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="80" spans="1:127" ht="86.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -41130,8 +41435,11 @@
       <c r="DV80" s="3" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="81" spans="1:126" ht="64.2" customHeight="1">
+      <c r="DW80" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:127" ht="64.150000000000006" customHeight="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -41546,8 +41854,11 @@
       <c r="DV81" s="3" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="82" spans="1:126" ht="75" customHeight="1">
+      <c r="DW81" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:127" ht="75" customHeight="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -41962,8 +42273,11 @@
       <c r="DV82" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="83" spans="1:126" ht="66" customHeight="1">
+      <c r="DW82" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:127" ht="66" customHeight="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -42378,8 +42692,11 @@
       <c r="DV83" s="3" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="84" spans="1:126" ht="156.6" customHeight="1">
+      <c r="DW83" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:127" ht="156.6" customHeight="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -42794,8 +43111,11 @@
       <c r="DV84" s="3" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="85" spans="1:126" ht="75" customHeight="1">
+      <c r="DW84" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:127" ht="75" customHeight="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -43210,8 +43530,11 @@
       <c r="DV85" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="86" spans="1:126" ht="53.4" customHeight="1">
+      <c r="DW85" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:127" ht="53.45" customHeight="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -43626,8 +43949,11 @@
       <c r="DV86" s="3" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="87" spans="1:126" ht="141.75" customHeight="1">
+      <c r="DW86" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="87" spans="1:127" ht="141.75" customHeight="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -44042,8 +44368,11 @@
       <c r="DV87" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="88" spans="1:126" ht="126" customHeight="1">
+      <c r="DW87" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:127" ht="126" customHeight="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -44458,8 +44787,11 @@
       <c r="DV88" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="89" spans="1:126" ht="97.95" customHeight="1">
+      <c r="DW88" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:127" ht="97.9" customHeight="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -44874,8 +45206,11 @@
       <c r="DV89" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="90" spans="1:126" ht="125.4" customHeight="1">
+      <c r="DW89" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:127" ht="125.45" customHeight="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -45290,8 +45625,11 @@
       <c r="DV90" s="3" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="91" spans="1:126" ht="98.25" customHeight="1">
+      <c r="DW90" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="91" spans="1:127" ht="98.25" customHeight="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -45706,8 +46044,11 @@
       <c r="DV91" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="92" spans="1:126" ht="245.25" customHeight="1">
+      <c r="DW91" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:127" ht="245.25" customHeight="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -46122,8 +46463,11 @@
       <c r="DV92" s="3" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="93" spans="1:126" ht="43.95" customHeight="1">
+      <c r="DW92" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:127" ht="43.9" customHeight="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -46538,8 +46882,11 @@
       <c r="DV93" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="94" spans="1:126" ht="53.4" customHeight="1">
+      <c r="DW93" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:127" ht="53.45" customHeight="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -46954,8 +47301,11 @@
       <c r="DV94" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="95" spans="1:126" ht="49.2" customHeight="1">
+      <c r="DW94" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:127" ht="49.15" customHeight="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -47370,8 +47720,11 @@
       <c r="DV95" s="3" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="96" spans="1:126" ht="43.95" customHeight="1">
+      <c r="DW95" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:127" ht="43.9" customHeight="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -47786,8 +48139,11 @@
       <c r="DV96" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="97" spans="1:126" ht="169.2" customHeight="1">
+      <c r="DW96" s="61" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:127" ht="169.15" customHeight="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -48202,8 +48558,11 @@
       <c r="DV97" s="3" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="98" spans="1:126" ht="83.4">
+      <c r="DW97" s="61" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:127" ht="86.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -48618,8 +48977,11 @@
       <c r="DV98" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="99" spans="1:126" ht="231" customHeight="1">
+      <c r="DW98" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:127" ht="231" customHeight="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -49034,8 +49396,11 @@
       <c r="DV99" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="100" spans="1:126" ht="120" customHeight="1">
+      <c r="DW99" s="61" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="100" spans="1:127" ht="120" customHeight="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -49450,8 +49815,11 @@
       <c r="DV100" s="3" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="101" spans="1:126" ht="24.75" customHeight="1">
+      <c r="DW100" s="61" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="101" spans="1:127" ht="24.75" customHeight="1">
       <c r="BR101" s="30"/>
       <c r="BS101" s="30"/>
       <c r="BT101" s="30"/>
@@ -49461,7 +49829,7 @@
       <c r="DN101" s="4"/>
       <c r="DO101" s="7"/>
     </row>
-    <row r="102" spans="1:126" ht="24.75" customHeight="1">
+    <row r="102" spans="1:127" ht="24.75" customHeight="1">
       <c r="AO102" s="15"/>
       <c r="AP102" s="57"/>
       <c r="AQ102" s="15"/>
@@ -49476,7 +49844,7 @@
       <c r="DN102" s="4"/>
       <c r="DO102" s="7"/>
     </row>
-    <row r="103" spans="1:126" ht="13.8">
+    <row r="103" spans="1:127" ht="14.25">
       <c r="AO103" s="47"/>
       <c r="AP103" s="58"/>
       <c r="AQ103" s="47"/>
@@ -49492,7 +49860,7 @@
       <c r="DO103" s="7"/>
       <c r="DS103" s="8"/>
     </row>
-    <row r="104" spans="1:126" ht="13.8">
+    <row r="104" spans="1:127" ht="14.25">
       <c r="AO104" s="15"/>
       <c r="AP104" s="57"/>
       <c r="AQ104" s="15"/>
@@ -49508,7 +49876,7 @@
       <c r="DO104" s="7"/>
       <c r="DS104" s="8"/>
     </row>
-    <row r="105" spans="1:126" ht="24.75" customHeight="1">
+    <row r="105" spans="1:127" ht="24.75" customHeight="1">
       <c r="BR105" s="30"/>
       <c r="BS105" s="30"/>
       <c r="BT105" s="30"/>
@@ -49519,7 +49887,7 @@
       <c r="DO105" s="7"/>
       <c r="DS105" s="8"/>
     </row>
-    <row r="106" spans="1:126" ht="24.75" customHeight="1">
+    <row r="106" spans="1:127" ht="24.75" customHeight="1">
       <c r="BR106" s="30"/>
       <c r="BS106" s="30"/>
       <c r="BT106" s="30"/>
@@ -49529,7 +49897,7 @@
       <c r="DN106" s="4"/>
       <c r="DO106" s="7"/>
     </row>
-    <row r="107" spans="1:126" ht="24.75" customHeight="1">
+    <row r="107" spans="1:127" ht="24.75" customHeight="1">
       <c r="BR107" s="30"/>
       <c r="BS107" s="30"/>
       <c r="BT107" s="30"/>
@@ -49539,7 +49907,7 @@
       <c r="DN107" s="4"/>
       <c r="DO107" s="7"/>
     </row>
-    <row r="108" spans="1:126" ht="24.75" customHeight="1">
+    <row r="108" spans="1:127" ht="24.75" customHeight="1">
       <c r="BR108" s="30"/>
       <c r="BS108" s="30"/>
       <c r="BT108" s="30"/>
@@ -49549,7 +49917,7 @@
       <c r="DN108" s="4"/>
       <c r="DO108" s="7"/>
     </row>
-    <row r="109" spans="1:126" ht="24.75" customHeight="1">
+    <row r="109" spans="1:127" ht="24.75" customHeight="1">
       <c r="BR109" s="30"/>
       <c r="BS109" s="30"/>
       <c r="BT109" s="30"/>
@@ -49559,7 +49927,7 @@
       <c r="DN109" s="4"/>
       <c r="DO109" s="7"/>
     </row>
-    <row r="110" spans="1:126" ht="24.75" customHeight="1">
+    <row r="110" spans="1:127" ht="24.75" customHeight="1">
       <c r="BR110" s="30"/>
       <c r="BS110" s="30"/>
       <c r="BT110" s="30"/>
@@ -49569,7 +49937,7 @@
       <c r="DN110" s="4"/>
       <c r="DO110" s="7"/>
     </row>
-    <row r="111" spans="1:126" ht="24.75" customHeight="1">
+    <row r="111" spans="1:127" ht="24.75" customHeight="1">
       <c r="BR111" s="30"/>
       <c r="BS111" s="30"/>
       <c r="BT111" s="30"/>
@@ -49579,7 +49947,7 @@
       <c r="DN111" s="4"/>
       <c r="DO111" s="7"/>
     </row>
-    <row r="112" spans="1:126" ht="24.75" customHeight="1">
+    <row r="112" spans="1:127" ht="24.75" customHeight="1">
       <c r="BR112" s="30"/>
       <c r="BS112" s="30"/>
       <c r="BT112" s="30"/>

--- a/analysis/data/lying_data.xlsx
+++ b/analysis/data/lying_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2025\Spring 2025\INFO 698 - Capstone\GitHub Repo\misinformation-study\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1FDB35-5D7B-4929-AF92-3FD88FBB42AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4089ACD-A24C-4FDD-95E9-DCF4D1338E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7731,8 +7731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DR1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CV1" workbookViewId="0">
-      <selection activeCell="DB3" sqref="DB3"/>
+    <sheetView tabSelected="1" topLeftCell="X4" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -56735,7 +56735,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU19:AU100 AU2:AU17 AN3:AN100 AL2:AL100" xr:uid="{5FBD5AA7-16D2-437E-B72E-9EF6476D3ACD}">
       <formula1>"View stayed about the same, View had some/moderate change, View significantantly changed"</formula1>
     </dataValidation>

--- a/analysis/data/lying_data.xlsx
+++ b/analysis/data/lying_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2025\Spring 2025\INFO 698 - Capstone\GitHub Repo\misinformation-study\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4089ACD-A24C-4FDD-95E9-DCF4D1338E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557616CB-16C3-4AAD-BFA7-BEF198D0C9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7731,8 +7731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DR1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X4" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/analysis/data/lying_data.xlsx
+++ b/analysis/data/lying_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2025\Spring 2025\INFO 698 - Capstone\GitHub Repo\misinformation-study\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB7B428-E07E-4C49-9BC0-02904BBF2915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13944FDE-DD20-4603-9E9F-4A6519F81214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10123" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10123" uniqueCount="1498">
   <si>
     <t>GROUP</t>
   </si>
@@ -4570,12 +4570,24 @@
   <si>
     <t>2; 1; 3; 4; 7</t>
   </si>
+  <si>
+    <t>1 - What did you like most about the ad?</t>
+  </si>
+  <si>
+    <t>2 - What did you like least about the ad?</t>
+  </si>
+  <si>
+    <t>3 - Which words or phrases in the ad, if any, made you feel particularly good or bad?</t>
+  </si>
+  <si>
+    <t>4 - Please tell us any other thoughts you have about the ad.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7721,10 +7733,10 @@
     <tableColumn id="111" xr3:uid="{67BB6F01-8C7D-4B97-9885-C417D3638624}" name="ITMIST PRE SCORE" dataDxfId="10"/>
     <tableColumn id="112" xr3:uid="{E181337A-2700-48FA-B1EA-C4209E0A7EE3}" name="ITMIST POST SCORE" dataDxfId="9"/>
     <tableColumn id="113" xr3:uid="{420DFEA7-73B7-484F-89B2-156E45CA05F8}" name="ITMIST CHANGE" dataDxfId="8"/>
-    <tableColumn id="114" xr3:uid="{CC831C4F-FCD4-43DA-8227-B68C9414B21C}" name="1" dataDxfId="7"/>
-    <tableColumn id="115" xr3:uid="{5B964F72-8241-49D4-9725-A6A24FF35745}" name="2" dataDxfId="6"/>
-    <tableColumn id="116" xr3:uid="{8A74599D-823F-46DE-98B0-46B21E30F711}" name="3" dataDxfId="5"/>
-    <tableColumn id="117" xr3:uid="{30DC9047-2565-4B5C-81D2-6E8ADE65B512}" name="4" dataDxfId="4"/>
+    <tableColumn id="114" xr3:uid="{CC831C4F-FCD4-43DA-8227-B68C9414B21C}" name="1 - What did you like most about the ad?" dataDxfId="7"/>
+    <tableColumn id="115" xr3:uid="{5B964F72-8241-49D4-9725-A6A24FF35745}" name="2 - What did you like least about the ad?" dataDxfId="6"/>
+    <tableColumn id="116" xr3:uid="{8A74599D-823F-46DE-98B0-46B21E30F711}" name="3 - Which words or phrases in the ad, if any, made you feel particularly good or bad?" dataDxfId="5"/>
+    <tableColumn id="117" xr3:uid="{30DC9047-2565-4B5C-81D2-6E8ADE65B512}" name="4 - Please tell us any other thoughts you have about the ad." dataDxfId="4"/>
     <tableColumn id="118" xr3:uid="{7A310991-FE71-42CD-9CAC-3D74F094CC96}" name="UNDERSTANDABILITY" dataDxfId="3"/>
     <tableColumn id="119" xr3:uid="{30953372-ED4E-4283-A4F0-0213A7983FD6}" name="SENTIMENT" dataDxfId="2"/>
     <tableColumn id="120" xr3:uid="{02B27F51-F5A7-4D31-97F0-2F08D06F6140}" name="ADDITIONAL THOUGHTS" dataDxfId="1"/>
@@ -7934,92 +7946,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="DN1" workbookViewId="0">
+      <selection activeCell="DS1" sqref="DS1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="38.375" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="28.125" customWidth="1"/>
+    <col min="12" max="12" width="34.375" customWidth="1"/>
+    <col min="13" max="13" width="26.625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.75" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="19" width="22.7109375" customWidth="1"/>
-    <col min="20" max="22" width="21.140625" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" customWidth="1"/>
+    <col min="17" max="19" width="22.75" customWidth="1"/>
+    <col min="20" max="22" width="21.125" customWidth="1"/>
+    <col min="23" max="23" width="22.25" customWidth="1"/>
+    <col min="24" max="24" width="20.125" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="26" max="26" width="46.28515625" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.42578125" style="46" customWidth="1"/>
-    <col min="29" max="29" width="35.28515625" style="46" customWidth="1"/>
-    <col min="30" max="30" width="16.5703125" style="53" customWidth="1"/>
-    <col min="31" max="32" width="49.7109375" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" style="46" customWidth="1"/>
-    <col min="34" max="34" width="17.42578125" style="46" customWidth="1"/>
-    <col min="35" max="35" width="16.28515625" style="46" customWidth="1"/>
-    <col min="36" max="36" width="40.85546875" customWidth="1"/>
-    <col min="37" max="37" width="40.85546875" style="46" customWidth="1"/>
-    <col min="38" max="38" width="40.85546875" customWidth="1"/>
-    <col min="39" max="40" width="47.7109375" customWidth="1"/>
-    <col min="41" max="42" width="38.42578125" customWidth="1"/>
-    <col min="43" max="43" width="26.5703125" style="46" customWidth="1"/>
-    <col min="44" max="44" width="28.5703125" style="46" customWidth="1"/>
-    <col min="45" max="45" width="28.5703125" style="53" customWidth="1"/>
-    <col min="46" max="46" width="28.5703125" style="46" customWidth="1"/>
-    <col min="47" max="48" width="34.42578125" style="46" customWidth="1"/>
-    <col min="49" max="52" width="35.140625" customWidth="1"/>
-    <col min="53" max="54" width="38.42578125" customWidth="1"/>
-    <col min="55" max="68" width="59.7109375" customWidth="1"/>
+    <col min="26" max="26" width="46.25" customWidth="1"/>
+    <col min="27" max="27" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.375" style="46" customWidth="1"/>
+    <col min="29" max="29" width="35.25" style="46" customWidth="1"/>
+    <col min="30" max="30" width="16.625" style="53" customWidth="1"/>
+    <col min="31" max="32" width="49.75" customWidth="1"/>
+    <col min="33" max="33" width="15.875" style="46" customWidth="1"/>
+    <col min="34" max="34" width="17.375" style="46" customWidth="1"/>
+    <col min="35" max="35" width="16.25" style="46" customWidth="1"/>
+    <col min="36" max="36" width="40.875" customWidth="1"/>
+    <col min="37" max="37" width="40.875" style="46" customWidth="1"/>
+    <col min="38" max="38" width="40.875" customWidth="1"/>
+    <col min="39" max="40" width="47.75" customWidth="1"/>
+    <col min="41" max="42" width="38.375" customWidth="1"/>
+    <col min="43" max="43" width="26.625" style="46" customWidth="1"/>
+    <col min="44" max="44" width="28.625" style="46" customWidth="1"/>
+    <col min="45" max="45" width="28.625" style="53" customWidth="1"/>
+    <col min="46" max="46" width="28.625" style="46" customWidth="1"/>
+    <col min="47" max="48" width="34.375" style="46" customWidth="1"/>
+    <col min="49" max="52" width="35.125" customWidth="1"/>
+    <col min="53" max="54" width="38.375" customWidth="1"/>
+    <col min="55" max="68" width="59.75" customWidth="1"/>
     <col min="69" max="69" width="22" style="31" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="23.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="23.42578125" style="31" customWidth="1"/>
-    <col min="72" max="72" width="18.28515625" style="37" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="59.7109375" style="33" customWidth="1"/>
-    <col min="74" max="92" width="59.7109375" customWidth="1"/>
-    <col min="93" max="93" width="26.85546875" customWidth="1"/>
-    <col min="94" max="94" width="28.7109375" customWidth="1"/>
+    <col min="70" max="70" width="23.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="23.375" style="31" customWidth="1"/>
+    <col min="72" max="72" width="18.25" style="37" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="59.75" style="33" customWidth="1"/>
+    <col min="74" max="92" width="59.75" customWidth="1"/>
+    <col min="93" max="93" width="26.875" customWidth="1"/>
+    <col min="94" max="94" width="28.75" customWidth="1"/>
     <col min="95" max="95" width="23" customWidth="1"/>
-    <col min="96" max="102" width="59.7109375" customWidth="1"/>
-    <col min="103" max="103" width="30.28515625" customWidth="1"/>
-    <col min="104" max="104" width="34.28515625" customWidth="1"/>
-    <col min="105" max="105" width="36.28515625" customWidth="1"/>
-    <col min="106" max="106" width="29.85546875" customWidth="1"/>
-    <col min="107" max="107" width="35.28515625" customWidth="1"/>
-    <col min="108" max="108" width="32.140625" customWidth="1"/>
-    <col min="109" max="109" width="32.5703125" customWidth="1"/>
-    <col min="110" max="110" width="34.42578125" customWidth="1"/>
-    <col min="111" max="111" width="35.140625" customWidth="1"/>
-    <col min="112" max="112" width="38.42578125" customWidth="1"/>
-    <col min="113" max="113" width="35.28515625" customWidth="1"/>
-    <col min="114" max="114" width="41.140625" customWidth="1"/>
-    <col min="115" max="115" width="31.42578125" customWidth="1"/>
-    <col min="116" max="116" width="25.5703125" customWidth="1"/>
-    <col min="117" max="117" width="27.42578125" customWidth="1"/>
-    <col min="118" max="118" width="21.7109375" customWidth="1"/>
-    <col min="119" max="119" width="36.28515625" style="10" customWidth="1"/>
-    <col min="120" max="120" width="24.85546875" customWidth="1"/>
-    <col min="121" max="121" width="31.5703125" customWidth="1"/>
-    <col min="122" max="122" width="23.42578125" customWidth="1"/>
+    <col min="96" max="102" width="59.75" customWidth="1"/>
+    <col min="103" max="103" width="30.25" customWidth="1"/>
+    <col min="104" max="104" width="34.25" customWidth="1"/>
+    <col min="105" max="105" width="36.25" customWidth="1"/>
+    <col min="106" max="106" width="29.875" customWidth="1"/>
+    <col min="107" max="107" width="35.25" customWidth="1"/>
+    <col min="108" max="108" width="32.125" customWidth="1"/>
+    <col min="109" max="109" width="32.625" customWidth="1"/>
+    <col min="110" max="110" width="34.375" customWidth="1"/>
+    <col min="111" max="111" width="35.125" customWidth="1"/>
+    <col min="112" max="112" width="38.375" customWidth="1"/>
+    <col min="113" max="113" width="35.25" customWidth="1"/>
+    <col min="114" max="114" width="41.125" customWidth="1"/>
+    <col min="115" max="115" width="31.375" customWidth="1"/>
+    <col min="116" max="116" width="25.625" customWidth="1"/>
+    <col min="117" max="117" width="27.375" customWidth="1"/>
+    <col min="118" max="118" width="21.75" customWidth="1"/>
+    <col min="119" max="119" width="36.25" style="10" customWidth="1"/>
+    <col min="120" max="120" width="24.875" customWidth="1"/>
+    <col min="121" max="121" width="31.625" customWidth="1"/>
+    <col min="122" max="122" width="23.375" customWidth="1"/>
     <col min="123" max="123" width="23" style="15" customWidth="1"/>
-    <col min="124" max="124" width="17.28515625" style="15" customWidth="1"/>
-    <col min="125" max="125" width="25.42578125" customWidth="1"/>
-    <col min="126" max="126" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="17.25" style="15" customWidth="1"/>
+    <col min="125" max="125" width="25.375" customWidth="1"/>
+    <col min="126" max="126" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="10" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:126" s="10" customFormat="1" ht="44.25" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -8375,16 +8387,16 @@
         <v>64</v>
       </c>
       <c r="DO1" s="9" t="s">
-        <v>65</v>
+        <v>1494</v>
       </c>
       <c r="DP1" s="12" t="s">
-        <v>66</v>
+        <v>1495</v>
       </c>
       <c r="DQ1" s="12" t="s">
-        <v>67</v>
+        <v>1496</v>
       </c>
       <c r="DR1" s="27" t="s">
-        <v>68</v>
+        <v>1497</v>
       </c>
       <c r="DS1" s="13" t="s">
         <v>1380</v>
@@ -8399,7 +8411,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="2" spans="1:126" ht="241.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:126" ht="201" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8817,7 +8829,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="3" spans="1:126" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:126" ht="43.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9228,7 +9240,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="4" spans="1:126" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:126" ht="43.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9639,7 +9651,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="5" spans="1:126" ht="165.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:126" ht="157.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -10050,7 +10062,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="6" spans="1:126" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:126" ht="57.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -10461,7 +10473,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="7" spans="1:126" ht="150.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:126" ht="143.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -10872,7 +10884,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="8" spans="1:126" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:126" ht="58.5" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -11283,7 +11295,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="9" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:126" ht="24.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -11694,7 +11706,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="10" spans="1:126" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:126" ht="86.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -12105,7 +12117,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="11" spans="1:126" ht="150.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:126" ht="129">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -12516,7 +12528,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="12" spans="1:126" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:126" ht="43.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -12927,7 +12939,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="13" spans="1:126" ht="75.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:126" ht="57.75">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -13338,7 +13350,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="14" spans="1:126" ht="150.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:126" ht="143.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -13743,7 +13755,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="15" spans="1:126" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:126" ht="100.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -14154,7 +14166,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="16" spans="1:126" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:126" ht="57.75">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -14565,7 +14577,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="17" spans="1:126" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:126" ht="105.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -14976,7 +14988,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="18" spans="1:126" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:126" ht="127.5" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -15387,7 +15399,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="19" spans="1:126" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:126" ht="85.5" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -15798,7 +15810,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="20" spans="1:126" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:126" ht="67.900000000000006" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -16209,7 +16221,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="21" spans="1:126" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:126" ht="72">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -16620,7 +16632,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="22" spans="1:126" ht="135.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:126" ht="114.75">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -17031,7 +17043,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="23" spans="1:126" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:126" ht="86.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -17442,7 +17454,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="24" spans="1:126" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:126" ht="43.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -17853,7 +17865,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="25" spans="1:126" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:126" ht="45.6" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -18264,7 +18276,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="26" spans="1:126" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:126" ht="86.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -18675,7 +18687,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="27" spans="1:126" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:126" ht="57.75">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -19086,7 +19098,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="28" spans="1:126" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:126" ht="100.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -19497,7 +19509,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="29" spans="1:126" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:126" ht="72">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -19908,7 +19920,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="30" spans="1:126" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:126" ht="114.75">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -20319,7 +20331,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="31" spans="1:126" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:126" ht="86.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -20730,7 +20742,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="32" spans="1:126" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:126" ht="43.5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -21141,7 +21153,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="33" spans="1:126" ht="150.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:126" ht="129">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -21552,7 +21564,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="34" spans="1:126" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:126" ht="72">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -21970,7 +21982,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="35" spans="1:126" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:126" ht="43.5">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -22381,7 +22393,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="36" spans="1:126" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:126" ht="86.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -22792,7 +22804,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="37" spans="1:126" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:126" ht="43.5">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -23203,7 +23215,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="38" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:126" ht="24.75" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -23614,7 +23626,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="39" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:126" ht="24.75" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -24025,7 +24037,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="40" spans="1:126" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:126" ht="100.5">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -24436,7 +24448,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="41" spans="1:126" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:126" ht="98.25" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -24847,7 +24859,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="42" spans="1:126" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:126" ht="145.5" customHeight="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -25258,7 +25270,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="43" spans="1:126" ht="249" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:126" ht="249" customHeight="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -25669,7 +25681,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="44" spans="1:126" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:126" ht="74.45" customHeight="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -26076,7 +26088,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="45" spans="1:126" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:126" ht="86.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -26487,7 +26499,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="46" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:126" ht="24.75" customHeight="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -26898,7 +26910,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="47" spans="1:126" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:126" ht="75" customHeight="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -27309,7 +27321,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="48" spans="1:126" ht="150.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:126" ht="129">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -27720,7 +27732,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="49" spans="1:126" ht="75.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:126" ht="72">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -28131,7 +28143,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="50" spans="1:126" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:126" ht="105" customHeight="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -28542,7 +28554,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="51" spans="1:126" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:126" ht="113.25" customHeight="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -28953,7 +28965,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="52" spans="1:126" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:126" ht="66" customHeight="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -29364,7 +29376,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="53" spans="1:126" ht="59.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:126" ht="59.45" customHeight="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -29775,7 +29787,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="54" spans="1:126" ht="150.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:126" ht="129">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -30186,7 +30198,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="55" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:126" ht="24.75" customHeight="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -30597,7 +30609,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="56" spans="1:126" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:126" ht="91.5" customHeight="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -31008,7 +31020,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="57" spans="1:126" ht="135.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:126" ht="114.75">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -31419,7 +31431,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="58" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:126" ht="24.75" customHeight="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -31830,7 +31842,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="59" spans="1:126" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:126" ht="100.5">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -32241,7 +32253,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="60" spans="1:126" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:126" ht="29.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -32652,7 +32664,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="61" spans="1:126" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:126" ht="72">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -33063,7 +33075,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="62" spans="1:126" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:126" ht="86.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -33474,7 +33486,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="63" spans="1:126" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:126" ht="100.5">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -33885,7 +33897,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="64" spans="1:126" ht="169.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:126" ht="169.9" customHeight="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -34296,7 +34308,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="65" spans="1:126" ht="75.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:126" ht="72">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -34707,7 +34719,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="66" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:126" ht="24.75" customHeight="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -35125,7 +35137,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="67" spans="1:126" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:126" ht="43.15" customHeight="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -35536,7 +35548,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="68" spans="1:126" ht="233.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:126" ht="233.45" customHeight="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -35947,7 +35959,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="69" spans="1:126" ht="150.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:126" ht="143.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -36358,7 +36370,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="70" spans="1:126" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:126" ht="152.25" customHeight="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -36769,7 +36781,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="71" spans="1:126" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:126" ht="138" customHeight="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -37180,7 +37192,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="72" spans="1:126" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:126" ht="112.5" customHeight="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -37591,7 +37603,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="73" spans="1:126" ht="157.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:126" ht="157.15" customHeight="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -38002,7 +38014,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="74" spans="1:126" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:126" ht="43.5">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -38413,7 +38425,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="75" spans="1:126" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:126" ht="142.5" customHeight="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -38824,7 +38836,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="76" spans="1:126" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:126" ht="43.9" customHeight="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -39235,7 +39247,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="77" spans="1:126" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:126" ht="87.6" customHeight="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -39646,7 +39658,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="78" spans="1:126" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:126" ht="33" customHeight="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -40057,7 +40069,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="79" spans="1:126" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:126" ht="54.6" customHeight="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -40468,7 +40480,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="80" spans="1:126" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:126" ht="86.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -40879,7 +40891,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="81" spans="1:126" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:126" ht="64.150000000000006" customHeight="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -41290,7 +41302,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="82" spans="1:126" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:126" ht="75" customHeight="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -41701,7 +41713,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="83" spans="1:126" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:126" ht="66" customHeight="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -42112,7 +42124,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="84" spans="1:126" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:126" ht="156.6" customHeight="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -42523,7 +42535,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="85" spans="1:126" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:126" ht="75" customHeight="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -42934,7 +42946,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="86" spans="1:126" ht="53.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:126" ht="53.45" customHeight="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -43345,7 +43357,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="87" spans="1:126" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:126" ht="141.75" customHeight="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -43756,7 +43768,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="88" spans="1:126" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:126" ht="126" customHeight="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -44167,7 +44179,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="89" spans="1:126" ht="97.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:126" ht="97.9" customHeight="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -44578,7 +44590,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="90" spans="1:126" ht="125.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:126" ht="125.45" customHeight="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -44989,7 +45001,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="91" spans="1:126" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:126" ht="98.25" customHeight="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -45400,7 +45412,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="92" spans="1:126" ht="245.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:126" ht="245.25" customHeight="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -45811,7 +45823,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="93" spans="1:126" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:126" ht="43.9" customHeight="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -46222,7 +46234,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="94" spans="1:126" ht="53.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:126" ht="53.45" customHeight="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -46633,7 +46645,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="95" spans="1:126" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:126" ht="49.15" customHeight="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -47044,7 +47056,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="96" spans="1:126" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:126" ht="43.9" customHeight="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -47455,7 +47467,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="97" spans="1:126" ht="169.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:126" ht="169.15" customHeight="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -47866,7 +47878,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="98" spans="1:126" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:126" ht="86.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -48277,7 +48289,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="99" spans="1:126" ht="231" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:126" ht="231" customHeight="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -48688,7 +48700,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="100" spans="1:126" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:126" ht="120" customHeight="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -49099,7 +49111,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="101" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:126" ht="24.75" customHeight="1">
       <c r="BQ101" s="30"/>
       <c r="BR101" s="30"/>
       <c r="BS101" s="30"/>
@@ -49109,7 +49121,7 @@
       <c r="DM101" s="4"/>
       <c r="DN101" s="7"/>
     </row>
-    <row r="102" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:126" ht="24.75" customHeight="1">
       <c r="AR102" s="15"/>
       <c r="AS102" s="55"/>
       <c r="AT102" s="15"/>
@@ -49124,7 +49136,7 @@
       <c r="DM102" s="4"/>
       <c r="DN102" s="7"/>
     </row>
-    <row r="103" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:126" ht="14.25">
       <c r="AR103" s="47"/>
       <c r="AS103" s="56"/>
       <c r="AT103" s="47"/>
@@ -49140,7 +49152,7 @@
       <c r="DN103" s="7"/>
       <c r="DR103" s="8"/>
     </row>
-    <row r="104" spans="1:126" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:126" ht="14.25">
       <c r="AR104" s="15"/>
       <c r="AS104" s="55"/>
       <c r="AT104" s="15"/>
@@ -49156,7 +49168,7 @@
       <c r="DN104" s="7"/>
       <c r="DR104" s="8"/>
     </row>
-    <row r="105" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:126" ht="24.75" customHeight="1">
       <c r="BQ105" s="30"/>
       <c r="BR105" s="30"/>
       <c r="BS105" s="30"/>
@@ -49167,7 +49179,7 @@
       <c r="DN105" s="7"/>
       <c r="DR105" s="8"/>
     </row>
-    <row r="106" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:126" ht="24.75" customHeight="1">
       <c r="BQ106" s="30"/>
       <c r="BR106" s="30"/>
       <c r="BS106" s="30"/>
@@ -49177,7 +49189,7 @@
       <c r="DM106" s="4"/>
       <c r="DN106" s="7"/>
     </row>
-    <row r="107" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:126" ht="24.75" customHeight="1">
       <c r="BQ107" s="30"/>
       <c r="BR107" s="30"/>
       <c r="BS107" s="30"/>
@@ -49187,7 +49199,7 @@
       <c r="DM107" s="4"/>
       <c r="DN107" s="7"/>
     </row>
-    <row r="108" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:126" ht="24.75" customHeight="1">
       <c r="BQ108" s="30"/>
       <c r="BR108" s="30"/>
       <c r="BS108" s="30"/>
@@ -49197,7 +49209,7 @@
       <c r="DM108" s="4"/>
       <c r="DN108" s="7"/>
     </row>
-    <row r="109" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:126" ht="24.75" customHeight="1">
       <c r="BQ109" s="30"/>
       <c r="BR109" s="30"/>
       <c r="BS109" s="30"/>
@@ -49207,7 +49219,7 @@
       <c r="DM109" s="4"/>
       <c r="DN109" s="7"/>
     </row>
-    <row r="110" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:126" ht="24.75" customHeight="1">
       <c r="BQ110" s="30"/>
       <c r="BR110" s="30"/>
       <c r="BS110" s="30"/>
@@ -49217,7 +49229,7 @@
       <c r="DM110" s="4"/>
       <c r="DN110" s="7"/>
     </row>
-    <row r="111" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:126" ht="24.75" customHeight="1">
       <c r="BQ111" s="30"/>
       <c r="BR111" s="30"/>
       <c r="BS111" s="30"/>
@@ -49227,7 +49239,7 @@
       <c r="DM111" s="4"/>
       <c r="DN111" s="7"/>
     </row>
-    <row r="112" spans="1:126" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:126" ht="24.75" customHeight="1">
       <c r="BQ112" s="30"/>
       <c r="BR112" s="30"/>
       <c r="BS112" s="30"/>
@@ -49237,7 +49249,7 @@
       <c r="DM112" s="4"/>
       <c r="DN112" s="7"/>
     </row>
-    <row r="113" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ113" s="30"/>
       <c r="BR113" s="30"/>
       <c r="BS113" s="30"/>
@@ -49247,7 +49259,7 @@
       <c r="DM113" s="4"/>
       <c r="DN113" s="7"/>
     </row>
-    <row r="114" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ114" s="30"/>
       <c r="BR114" s="30"/>
       <c r="BS114" s="30"/>
@@ -49257,7 +49269,7 @@
       <c r="DM114" s="4"/>
       <c r="DN114" s="7"/>
     </row>
-    <row r="115" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ115" s="30"/>
       <c r="BR115" s="30"/>
       <c r="BS115" s="30"/>
@@ -49267,7 +49279,7 @@
       <c r="DM115" s="4"/>
       <c r="DN115" s="7"/>
     </row>
-    <row r="116" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ116" s="30"/>
       <c r="BR116" s="30"/>
       <c r="BS116" s="30"/>
@@ -49277,7 +49289,7 @@
       <c r="DM116" s="4"/>
       <c r="DN116" s="7"/>
     </row>
-    <row r="117" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ117" s="30"/>
       <c r="BR117" s="30"/>
       <c r="BS117" s="30"/>
@@ -49287,7 +49299,7 @@
       <c r="DM117" s="4"/>
       <c r="DN117" s="7"/>
     </row>
-    <row r="118" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ118" s="30"/>
       <c r="BR118" s="30"/>
       <c r="BS118" s="30"/>
@@ -49297,7 +49309,7 @@
       <c r="DM118" s="4"/>
       <c r="DN118" s="7"/>
     </row>
-    <row r="119" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ119" s="30"/>
       <c r="BR119" s="30"/>
       <c r="BS119" s="30"/>
@@ -49307,7 +49319,7 @@
       <c r="DM119" s="4"/>
       <c r="DN119" s="7"/>
     </row>
-    <row r="120" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ120" s="30"/>
       <c r="BR120" s="30"/>
       <c r="BS120" s="30"/>
@@ -49317,7 +49329,7 @@
       <c r="DM120" s="4"/>
       <c r="DN120" s="7"/>
     </row>
-    <row r="121" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ121" s="30"/>
       <c r="BR121" s="30"/>
       <c r="BS121" s="30"/>
@@ -49327,7 +49339,7 @@
       <c r="DM121" s="4"/>
       <c r="DN121" s="7"/>
     </row>
-    <row r="122" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ122" s="30"/>
       <c r="BR122" s="30"/>
       <c r="BS122" s="30"/>
@@ -49337,7 +49349,7 @@
       <c r="DM122" s="4"/>
       <c r="DN122" s="7"/>
     </row>
-    <row r="123" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ123" s="30"/>
       <c r="BR123" s="30"/>
       <c r="BS123" s="30"/>
@@ -49347,7 +49359,7 @@
       <c r="DM123" s="4"/>
       <c r="DN123" s="7"/>
     </row>
-    <row r="124" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ124" s="30"/>
       <c r="BR124" s="30"/>
       <c r="BS124" s="30"/>
@@ -49357,7 +49369,7 @@
       <c r="DM124" s="4"/>
       <c r="DN124" s="7"/>
     </row>
-    <row r="125" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ125" s="30"/>
       <c r="BR125" s="30"/>
       <c r="BS125" s="30"/>
@@ -49367,7 +49379,7 @@
       <c r="DM125" s="4"/>
       <c r="DN125" s="7"/>
     </row>
-    <row r="126" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ126" s="30"/>
       <c r="BR126" s="30"/>
       <c r="BS126" s="30"/>
@@ -49377,7 +49389,7 @@
       <c r="DM126" s="4"/>
       <c r="DN126" s="7"/>
     </row>
-    <row r="127" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ127" s="30"/>
       <c r="BR127" s="30"/>
       <c r="BS127" s="30"/>
@@ -49387,7 +49399,7 @@
       <c r="DM127" s="4"/>
       <c r="DN127" s="7"/>
     </row>
-    <row r="128" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ128" s="30"/>
       <c r="BR128" s="30"/>
       <c r="BS128" s="30"/>
@@ -49397,7 +49409,7 @@
       <c r="DM128" s="4"/>
       <c r="DN128" s="7"/>
     </row>
-    <row r="129" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ129" s="30"/>
       <c r="BR129" s="30"/>
       <c r="BS129" s="30"/>
@@ -49407,7 +49419,7 @@
       <c r="DM129" s="4"/>
       <c r="DN129" s="7"/>
     </row>
-    <row r="130" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ130" s="30"/>
       <c r="BR130" s="30"/>
       <c r="BS130" s="30"/>
@@ -49417,7 +49429,7 @@
       <c r="DM130" s="4"/>
       <c r="DN130" s="7"/>
     </row>
-    <row r="131" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ131" s="30"/>
       <c r="BR131" s="30"/>
       <c r="BS131" s="30"/>
@@ -49427,7 +49439,7 @@
       <c r="DM131" s="4"/>
       <c r="DN131" s="7"/>
     </row>
-    <row r="132" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ132" s="30"/>
       <c r="BR132" s="30"/>
       <c r="BS132" s="30"/>
@@ -49437,7 +49449,7 @@
       <c r="DM132" s="4"/>
       <c r="DN132" s="7"/>
     </row>
-    <row r="133" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ133" s="30"/>
       <c r="BR133" s="30"/>
       <c r="BS133" s="30"/>
@@ -49447,7 +49459,7 @@
       <c r="DM133" s="4"/>
       <c r="DN133" s="7"/>
     </row>
-    <row r="134" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ134" s="30"/>
       <c r="BR134" s="30"/>
       <c r="BS134" s="30"/>
@@ -49457,7 +49469,7 @@
       <c r="DM134" s="4"/>
       <c r="DN134" s="7"/>
     </row>
-    <row r="135" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ135" s="30"/>
       <c r="BR135" s="30"/>
       <c r="BS135" s="30"/>
@@ -49467,7 +49479,7 @@
       <c r="DM135" s="4"/>
       <c r="DN135" s="7"/>
     </row>
-    <row r="136" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ136" s="30"/>
       <c r="BR136" s="30"/>
       <c r="BS136" s="30"/>
@@ -49477,7 +49489,7 @@
       <c r="DM136" s="4"/>
       <c r="DN136" s="7"/>
     </row>
-    <row r="137" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ137" s="30"/>
       <c r="BR137" s="30"/>
       <c r="BS137" s="30"/>
@@ -49487,7 +49499,7 @@
       <c r="DM137" s="4"/>
       <c r="DN137" s="7"/>
     </row>
-    <row r="138" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ138" s="30"/>
       <c r="BR138" s="30"/>
       <c r="BS138" s="30"/>
@@ -49497,7 +49509,7 @@
       <c r="DM138" s="4"/>
       <c r="DN138" s="7"/>
     </row>
-    <row r="139" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ139" s="30"/>
       <c r="BR139" s="30"/>
       <c r="BS139" s="30"/>
@@ -49507,7 +49519,7 @@
       <c r="DM139" s="4"/>
       <c r="DN139" s="7"/>
     </row>
-    <row r="140" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ140" s="30"/>
       <c r="BR140" s="30"/>
       <c r="BS140" s="30"/>
@@ -49517,7 +49529,7 @@
       <c r="DM140" s="4"/>
       <c r="DN140" s="7"/>
     </row>
-    <row r="141" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ141" s="30"/>
       <c r="BR141" s="30"/>
       <c r="BS141" s="30"/>
@@ -49527,7 +49539,7 @@
       <c r="DM141" s="4"/>
       <c r="DN141" s="7"/>
     </row>
-    <row r="142" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ142" s="30"/>
       <c r="BR142" s="30"/>
       <c r="BS142" s="30"/>
@@ -49537,7 +49549,7 @@
       <c r="DM142" s="4"/>
       <c r="DN142" s="7"/>
     </row>
-    <row r="143" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ143" s="30"/>
       <c r="BR143" s="30"/>
       <c r="BS143" s="30"/>
@@ -49547,7 +49559,7 @@
       <c r="DM143" s="4"/>
       <c r="DN143" s="7"/>
     </row>
-    <row r="144" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ144" s="30"/>
       <c r="BR144" s="30"/>
       <c r="BS144" s="30"/>
@@ -49557,7 +49569,7 @@
       <c r="DM144" s="4"/>
       <c r="DN144" s="7"/>
     </row>
-    <row r="145" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ145" s="30"/>
       <c r="BR145" s="30"/>
       <c r="BS145" s="30"/>
@@ -49567,7 +49579,7 @@
       <c r="DM145" s="4"/>
       <c r="DN145" s="7"/>
     </row>
-    <row r="146" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ146" s="30"/>
       <c r="BR146" s="30"/>
       <c r="BS146" s="30"/>
@@ -49577,7 +49589,7 @@
       <c r="DM146" s="4"/>
       <c r="DN146" s="7"/>
     </row>
-    <row r="147" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ147" s="30"/>
       <c r="BR147" s="30"/>
       <c r="BS147" s="30"/>
@@ -49587,7 +49599,7 @@
       <c r="DM147" s="4"/>
       <c r="DN147" s="7"/>
     </row>
-    <row r="148" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ148" s="30"/>
       <c r="BR148" s="30"/>
       <c r="BS148" s="30"/>
@@ -49597,7 +49609,7 @@
       <c r="DM148" s="4"/>
       <c r="DN148" s="7"/>
     </row>
-    <row r="149" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ149" s="30"/>
       <c r="BR149" s="30"/>
       <c r="BS149" s="30"/>
@@ -49607,7 +49619,7 @@
       <c r="DM149" s="4"/>
       <c r="DN149" s="7"/>
     </row>
-    <row r="150" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ150" s="30"/>
       <c r="BR150" s="30"/>
       <c r="BS150" s="30"/>
@@ -49617,7 +49629,7 @@
       <c r="DM150" s="4"/>
       <c r="DN150" s="7"/>
     </row>
-    <row r="151" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ151" s="30"/>
       <c r="BR151" s="30"/>
       <c r="BS151" s="30"/>
@@ -49627,7 +49639,7 @@
       <c r="DM151" s="4"/>
       <c r="DN151" s="7"/>
     </row>
-    <row r="152" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ152" s="30"/>
       <c r="BR152" s="30"/>
       <c r="BS152" s="30"/>
@@ -49637,7 +49649,7 @@
       <c r="DM152" s="4"/>
       <c r="DN152" s="7"/>
     </row>
-    <row r="153" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ153" s="30"/>
       <c r="BR153" s="30"/>
       <c r="BS153" s="30"/>
@@ -49647,7 +49659,7 @@
       <c r="DM153" s="4"/>
       <c r="DN153" s="7"/>
     </row>
-    <row r="154" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ154" s="30"/>
       <c r="BR154" s="30"/>
       <c r="BS154" s="30"/>
@@ -49657,7 +49669,7 @@
       <c r="DM154" s="4"/>
       <c r="DN154" s="7"/>
     </row>
-    <row r="155" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ155" s="30"/>
       <c r="BR155" s="30"/>
       <c r="BS155" s="30"/>
@@ -49667,7 +49679,7 @@
       <c r="DM155" s="4"/>
       <c r="DN155" s="7"/>
     </row>
-    <row r="156" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ156" s="30"/>
       <c r="BR156" s="30"/>
       <c r="BS156" s="30"/>
@@ -49677,7 +49689,7 @@
       <c r="DM156" s="4"/>
       <c r="DN156" s="7"/>
     </row>
-    <row r="157" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ157" s="30"/>
       <c r="BR157" s="30"/>
       <c r="BS157" s="30"/>
@@ -49687,7 +49699,7 @@
       <c r="DM157" s="4"/>
       <c r="DN157" s="7"/>
     </row>
-    <row r="158" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ158" s="30"/>
       <c r="BR158" s="30"/>
       <c r="BS158" s="30"/>
@@ -49697,7 +49709,7 @@
       <c r="DM158" s="4"/>
       <c r="DN158" s="7"/>
     </row>
-    <row r="159" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ159" s="30"/>
       <c r="BR159" s="30"/>
       <c r="BS159" s="30"/>
@@ -49707,7 +49719,7 @@
       <c r="DM159" s="4"/>
       <c r="DN159" s="7"/>
     </row>
-    <row r="160" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ160" s="30"/>
       <c r="BR160" s="30"/>
       <c r="BS160" s="30"/>
@@ -49717,7 +49729,7 @@
       <c r="DM160" s="4"/>
       <c r="DN160" s="7"/>
     </row>
-    <row r="161" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ161" s="30"/>
       <c r="BR161" s="30"/>
       <c r="BS161" s="30"/>
@@ -49727,7 +49739,7 @@
       <c r="DM161" s="4"/>
       <c r="DN161" s="7"/>
     </row>
-    <row r="162" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ162" s="30"/>
       <c r="BR162" s="30"/>
       <c r="BS162" s="30"/>
@@ -49737,7 +49749,7 @@
       <c r="DM162" s="4"/>
       <c r="DN162" s="7"/>
     </row>
-    <row r="163" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ163" s="30"/>
       <c r="BR163" s="30"/>
       <c r="BS163" s="30"/>
@@ -49747,7 +49759,7 @@
       <c r="DM163" s="4"/>
       <c r="DN163" s="7"/>
     </row>
-    <row r="164" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ164" s="30"/>
       <c r="BR164" s="30"/>
       <c r="BS164" s="30"/>
@@ -49757,7 +49769,7 @@
       <c r="DM164" s="4"/>
       <c r="DN164" s="7"/>
     </row>
-    <row r="165" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ165" s="30"/>
       <c r="BR165" s="30"/>
       <c r="BS165" s="30"/>
@@ -49767,7 +49779,7 @@
       <c r="DM165" s="4"/>
       <c r="DN165" s="7"/>
     </row>
-    <row r="166" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ166" s="30"/>
       <c r="BR166" s="30"/>
       <c r="BS166" s="30"/>
@@ -49777,7 +49789,7 @@
       <c r="DM166" s="4"/>
       <c r="DN166" s="7"/>
     </row>
-    <row r="167" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ167" s="30"/>
       <c r="BR167" s="30"/>
       <c r="BS167" s="30"/>
@@ -49787,7 +49799,7 @@
       <c r="DM167" s="4"/>
       <c r="DN167" s="7"/>
     </row>
-    <row r="168" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ168" s="30"/>
       <c r="BR168" s="30"/>
       <c r="BS168" s="30"/>
@@ -49797,7 +49809,7 @@
       <c r="DM168" s="4"/>
       <c r="DN168" s="7"/>
     </row>
-    <row r="169" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ169" s="30"/>
       <c r="BR169" s="30"/>
       <c r="BS169" s="30"/>
@@ -49807,7 +49819,7 @@
       <c r="DM169" s="4"/>
       <c r="DN169" s="7"/>
     </row>
-    <row r="170" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ170" s="30"/>
       <c r="BR170" s="30"/>
       <c r="BS170" s="30"/>
@@ -49817,7 +49829,7 @@
       <c r="DM170" s="4"/>
       <c r="DN170" s="7"/>
     </row>
-    <row r="171" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ171" s="30"/>
       <c r="BR171" s="30"/>
       <c r="BS171" s="30"/>
@@ -49827,7 +49839,7 @@
       <c r="DM171" s="4"/>
       <c r="DN171" s="7"/>
     </row>
-    <row r="172" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ172" s="30"/>
       <c r="BR172" s="30"/>
       <c r="BS172" s="30"/>
@@ -49837,7 +49849,7 @@
       <c r="DM172" s="4"/>
       <c r="DN172" s="7"/>
     </row>
-    <row r="173" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ173" s="30"/>
       <c r="BR173" s="30"/>
       <c r="BS173" s="30"/>
@@ -49847,7 +49859,7 @@
       <c r="DM173" s="4"/>
       <c r="DN173" s="7"/>
     </row>
-    <row r="174" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ174" s="30"/>
       <c r="BR174" s="30"/>
       <c r="BS174" s="30"/>
@@ -49857,7 +49869,7 @@
       <c r="DM174" s="4"/>
       <c r="DN174" s="7"/>
     </row>
-    <row r="175" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ175" s="30"/>
       <c r="BR175" s="30"/>
       <c r="BS175" s="30"/>
@@ -49867,7 +49879,7 @@
       <c r="DM175" s="4"/>
       <c r="DN175" s="7"/>
     </row>
-    <row r="176" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ176" s="30"/>
       <c r="BR176" s="30"/>
       <c r="BS176" s="30"/>
@@ -49877,7 +49889,7 @@
       <c r="DM176" s="4"/>
       <c r="DN176" s="7"/>
     </row>
-    <row r="177" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ177" s="30"/>
       <c r="BR177" s="30"/>
       <c r="BS177" s="30"/>
@@ -49887,7 +49899,7 @@
       <c r="DM177" s="4"/>
       <c r="DN177" s="7"/>
     </row>
-    <row r="178" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ178" s="30"/>
       <c r="BR178" s="30"/>
       <c r="BS178" s="30"/>
@@ -49897,7 +49909,7 @@
       <c r="DM178" s="4"/>
       <c r="DN178" s="7"/>
     </row>
-    <row r="179" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ179" s="30"/>
       <c r="BR179" s="30"/>
       <c r="BS179" s="30"/>
@@ -49907,7 +49919,7 @@
       <c r="DM179" s="4"/>
       <c r="DN179" s="7"/>
     </row>
-    <row r="180" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ180" s="30"/>
       <c r="BR180" s="30"/>
       <c r="BS180" s="30"/>
@@ -49917,7 +49929,7 @@
       <c r="DM180" s="4"/>
       <c r="DN180" s="7"/>
     </row>
-    <row r="181" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ181" s="30"/>
       <c r="BR181" s="30"/>
       <c r="BS181" s="30"/>
@@ -49927,7 +49939,7 @@
       <c r="DM181" s="4"/>
       <c r="DN181" s="7"/>
     </row>
-    <row r="182" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ182" s="30"/>
       <c r="BR182" s="30"/>
       <c r="BS182" s="30"/>
@@ -49937,7 +49949,7 @@
       <c r="DM182" s="4"/>
       <c r="DN182" s="7"/>
     </row>
-    <row r="183" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ183" s="30"/>
       <c r="BR183" s="30"/>
       <c r="BS183" s="30"/>
@@ -49947,7 +49959,7 @@
       <c r="DM183" s="4"/>
       <c r="DN183" s="7"/>
     </row>
-    <row r="184" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ184" s="30"/>
       <c r="BR184" s="30"/>
       <c r="BS184" s="30"/>
@@ -49957,7 +49969,7 @@
       <c r="DM184" s="4"/>
       <c r="DN184" s="7"/>
     </row>
-    <row r="185" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ185" s="30"/>
       <c r="BR185" s="30"/>
       <c r="BS185" s="30"/>
@@ -49967,7 +49979,7 @@
       <c r="DM185" s="4"/>
       <c r="DN185" s="7"/>
     </row>
-    <row r="186" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ186" s="30"/>
       <c r="BR186" s="30"/>
       <c r="BS186" s="30"/>
@@ -49977,7 +49989,7 @@
       <c r="DM186" s="4"/>
       <c r="DN186" s="7"/>
     </row>
-    <row r="187" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ187" s="30"/>
       <c r="BR187" s="30"/>
       <c r="BS187" s="30"/>
@@ -49987,7 +49999,7 @@
       <c r="DM187" s="4"/>
       <c r="DN187" s="7"/>
     </row>
-    <row r="188" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ188" s="30"/>
       <c r="BR188" s="30"/>
       <c r="BS188" s="30"/>
@@ -49997,7 +50009,7 @@
       <c r="DM188" s="4"/>
       <c r="DN188" s="7"/>
     </row>
-    <row r="189" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ189" s="30"/>
       <c r="BR189" s="30"/>
       <c r="BS189" s="30"/>
@@ -50007,7 +50019,7 @@
       <c r="DM189" s="4"/>
       <c r="DN189" s="7"/>
     </row>
-    <row r="190" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ190" s="30"/>
       <c r="BR190" s="30"/>
       <c r="BS190" s="30"/>
@@ -50017,7 +50029,7 @@
       <c r="DM190" s="4"/>
       <c r="DN190" s="7"/>
     </row>
-    <row r="191" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ191" s="30"/>
       <c r="BR191" s="30"/>
       <c r="BS191" s="30"/>
@@ -50027,7 +50039,7 @@
       <c r="DM191" s="4"/>
       <c r="DN191" s="7"/>
     </row>
-    <row r="192" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ192" s="30"/>
       <c r="BR192" s="30"/>
       <c r="BS192" s="30"/>
@@ -50037,7 +50049,7 @@
       <c r="DM192" s="4"/>
       <c r="DN192" s="7"/>
     </row>
-    <row r="193" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ193" s="30"/>
       <c r="BR193" s="30"/>
       <c r="BS193" s="30"/>
@@ -50047,7 +50059,7 @@
       <c r="DM193" s="4"/>
       <c r="DN193" s="7"/>
     </row>
-    <row r="194" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ194" s="30"/>
       <c r="BR194" s="30"/>
       <c r="BS194" s="30"/>
@@ -50057,7 +50069,7 @@
       <c r="DM194" s="4"/>
       <c r="DN194" s="7"/>
     </row>
-    <row r="195" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ195" s="30"/>
       <c r="BR195" s="30"/>
       <c r="BS195" s="30"/>
@@ -50067,7 +50079,7 @@
       <c r="DM195" s="4"/>
       <c r="DN195" s="7"/>
     </row>
-    <row r="196" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ196" s="30"/>
       <c r="BR196" s="30"/>
       <c r="BS196" s="30"/>
@@ -50077,7 +50089,7 @@
       <c r="DM196" s="4"/>
       <c r="DN196" s="7"/>
     </row>
-    <row r="197" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ197" s="30"/>
       <c r="BR197" s="30"/>
       <c r="BS197" s="30"/>
@@ -50087,7 +50099,7 @@
       <c r="DM197" s="4"/>
       <c r="DN197" s="7"/>
     </row>
-    <row r="198" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ198" s="30"/>
       <c r="BR198" s="30"/>
       <c r="BS198" s="30"/>
@@ -50097,7 +50109,7 @@
       <c r="DM198" s="4"/>
       <c r="DN198" s="7"/>
     </row>
-    <row r="199" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ199" s="30"/>
       <c r="BR199" s="30"/>
       <c r="BS199" s="30"/>
@@ -50107,7 +50119,7 @@
       <c r="DM199" s="4"/>
       <c r="DN199" s="7"/>
     </row>
-    <row r="200" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ200" s="30"/>
       <c r="BR200" s="30"/>
       <c r="BS200" s="30"/>
@@ -50117,7 +50129,7 @@
       <c r="DM200" s="4"/>
       <c r="DN200" s="7"/>
     </row>
-    <row r="201" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ201" s="30"/>
       <c r="BR201" s="30"/>
       <c r="BS201" s="30"/>
@@ -50127,7 +50139,7 @@
       <c r="DM201" s="4"/>
       <c r="DN201" s="7"/>
     </row>
-    <row r="202" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ202" s="30"/>
       <c r="BR202" s="30"/>
       <c r="BS202" s="30"/>
@@ -50137,7 +50149,7 @@
       <c r="DM202" s="4"/>
       <c r="DN202" s="7"/>
     </row>
-    <row r="203" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ203" s="30"/>
       <c r="BR203" s="30"/>
       <c r="BS203" s="30"/>
@@ -50147,7 +50159,7 @@
       <c r="DM203" s="4"/>
       <c r="DN203" s="7"/>
     </row>
-    <row r="204" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ204" s="30"/>
       <c r="BR204" s="30"/>
       <c r="BS204" s="30"/>
@@ -50157,7 +50169,7 @@
       <c r="DM204" s="4"/>
       <c r="DN204" s="7"/>
     </row>
-    <row r="205" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ205" s="30"/>
       <c r="BR205" s="30"/>
       <c r="BS205" s="30"/>
@@ -50167,7 +50179,7 @@
       <c r="DM205" s="4"/>
       <c r="DN205" s="7"/>
     </row>
-    <row r="206" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ206" s="30"/>
       <c r="BR206" s="30"/>
       <c r="BS206" s="30"/>
@@ -50177,7 +50189,7 @@
       <c r="DM206" s="4"/>
       <c r="DN206" s="7"/>
     </row>
-    <row r="207" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ207" s="30"/>
       <c r="BR207" s="30"/>
       <c r="BS207" s="30"/>
@@ -50187,7 +50199,7 @@
       <c r="DM207" s="4"/>
       <c r="DN207" s="7"/>
     </row>
-    <row r="208" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ208" s="30"/>
       <c r="BR208" s="30"/>
       <c r="BS208" s="30"/>
@@ -50197,7 +50209,7 @@
       <c r="DM208" s="4"/>
       <c r="DN208" s="7"/>
     </row>
-    <row r="209" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ209" s="30"/>
       <c r="BR209" s="30"/>
       <c r="BS209" s="30"/>
@@ -50207,7 +50219,7 @@
       <c r="DM209" s="4"/>
       <c r="DN209" s="7"/>
     </row>
-    <row r="210" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ210" s="30"/>
       <c r="BR210" s="30"/>
       <c r="BS210" s="30"/>
@@ -50217,7 +50229,7 @@
       <c r="DM210" s="4"/>
       <c r="DN210" s="7"/>
     </row>
-    <row r="211" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ211" s="30"/>
       <c r="BR211" s="30"/>
       <c r="BS211" s="30"/>
@@ -50227,7 +50239,7 @@
       <c r="DM211" s="4"/>
       <c r="DN211" s="7"/>
     </row>
-    <row r="212" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ212" s="30"/>
       <c r="BR212" s="30"/>
       <c r="BS212" s="30"/>
@@ -50237,7 +50249,7 @@
       <c r="DM212" s="4"/>
       <c r="DN212" s="7"/>
     </row>
-    <row r="213" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ213" s="30"/>
       <c r="BR213" s="30"/>
       <c r="BS213" s="30"/>
@@ -50247,7 +50259,7 @@
       <c r="DM213" s="4"/>
       <c r="DN213" s="7"/>
     </row>
-    <row r="214" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ214" s="30"/>
       <c r="BR214" s="30"/>
       <c r="BS214" s="30"/>
@@ -50257,7 +50269,7 @@
       <c r="DM214" s="4"/>
       <c r="DN214" s="7"/>
     </row>
-    <row r="215" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ215" s="30"/>
       <c r="BR215" s="30"/>
       <c r="BS215" s="30"/>
@@ -50267,7 +50279,7 @@
       <c r="DM215" s="4"/>
       <c r="DN215" s="7"/>
     </row>
-    <row r="216" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ216" s="30"/>
       <c r="BR216" s="30"/>
       <c r="BS216" s="30"/>
@@ -50277,7 +50289,7 @@
       <c r="DM216" s="4"/>
       <c r="DN216" s="7"/>
     </row>
-    <row r="217" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ217" s="30"/>
       <c r="BR217" s="30"/>
       <c r="BS217" s="30"/>
@@ -50287,7 +50299,7 @@
       <c r="DM217" s="4"/>
       <c r="DN217" s="7"/>
     </row>
-    <row r="218" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ218" s="30"/>
       <c r="BR218" s="30"/>
       <c r="BS218" s="30"/>
@@ -50297,7 +50309,7 @@
       <c r="DM218" s="4"/>
       <c r="DN218" s="7"/>
     </row>
-    <row r="219" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ219" s="30"/>
       <c r="BR219" s="30"/>
       <c r="BS219" s="30"/>
@@ -50307,7 +50319,7 @@
       <c r="DM219" s="4"/>
       <c r="DN219" s="7"/>
     </row>
-    <row r="220" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ220" s="30"/>
       <c r="BR220" s="30"/>
       <c r="BS220" s="30"/>
@@ -50317,7 +50329,7 @@
       <c r="DM220" s="4"/>
       <c r="DN220" s="7"/>
     </row>
-    <row r="221" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ221" s="30"/>
       <c r="BR221" s="30"/>
       <c r="BS221" s="30"/>
@@ -50327,7 +50339,7 @@
       <c r="DM221" s="4"/>
       <c r="DN221" s="7"/>
     </row>
-    <row r="222" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ222" s="30"/>
       <c r="BR222" s="30"/>
       <c r="BS222" s="30"/>
@@ -50337,7 +50349,7 @@
       <c r="DM222" s="4"/>
       <c r="DN222" s="7"/>
     </row>
-    <row r="223" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ223" s="30"/>
       <c r="BR223" s="30"/>
       <c r="BS223" s="30"/>
@@ -50347,7 +50359,7 @@
       <c r="DM223" s="4"/>
       <c r="DN223" s="7"/>
     </row>
-    <row r="224" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ224" s="30"/>
       <c r="BR224" s="30"/>
       <c r="BS224" s="30"/>
@@ -50357,7 +50369,7 @@
       <c r="DM224" s="4"/>
       <c r="DN224" s="7"/>
     </row>
-    <row r="225" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ225" s="30"/>
       <c r="BR225" s="30"/>
       <c r="BS225" s="30"/>
@@ -50367,7 +50379,7 @@
       <c r="DM225" s="4"/>
       <c r="DN225" s="7"/>
     </row>
-    <row r="226" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ226" s="30"/>
       <c r="BR226" s="30"/>
       <c r="BS226" s="30"/>
@@ -50377,7 +50389,7 @@
       <c r="DM226" s="4"/>
       <c r="DN226" s="7"/>
     </row>
-    <row r="227" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ227" s="30"/>
       <c r="BR227" s="30"/>
       <c r="BS227" s="30"/>
@@ -50387,7 +50399,7 @@
       <c r="DM227" s="4"/>
       <c r="DN227" s="7"/>
     </row>
-    <row r="228" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ228" s="30"/>
       <c r="BR228" s="30"/>
       <c r="BS228" s="30"/>
@@ -50397,7 +50409,7 @@
       <c r="DM228" s="4"/>
       <c r="DN228" s="7"/>
     </row>
-    <row r="229" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ229" s="30"/>
       <c r="BR229" s="30"/>
       <c r="BS229" s="30"/>
@@ -50407,7 +50419,7 @@
       <c r="DM229" s="4"/>
       <c r="DN229" s="7"/>
     </row>
-    <row r="230" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ230" s="30"/>
       <c r="BR230" s="30"/>
       <c r="BS230" s="30"/>
@@ -50417,7 +50429,7 @@
       <c r="DM230" s="4"/>
       <c r="DN230" s="7"/>
     </row>
-    <row r="231" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ231" s="30"/>
       <c r="BR231" s="30"/>
       <c r="BS231" s="30"/>
@@ -50427,7 +50439,7 @@
       <c r="DM231" s="4"/>
       <c r="DN231" s="7"/>
     </row>
-    <row r="232" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ232" s="30"/>
       <c r="BR232" s="30"/>
       <c r="BS232" s="30"/>
@@ -50437,7 +50449,7 @@
       <c r="DM232" s="4"/>
       <c r="DN232" s="7"/>
     </row>
-    <row r="233" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ233" s="30"/>
       <c r="BR233" s="30"/>
       <c r="BS233" s="30"/>
@@ -50447,7 +50459,7 @@
       <c r="DM233" s="4"/>
       <c r="DN233" s="7"/>
     </row>
-    <row r="234" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ234" s="30"/>
       <c r="BR234" s="30"/>
       <c r="BS234" s="30"/>
@@ -50457,7 +50469,7 @@
       <c r="DM234" s="4"/>
       <c r="DN234" s="7"/>
     </row>
-    <row r="235" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ235" s="30"/>
       <c r="BR235" s="30"/>
       <c r="BS235" s="30"/>
@@ -50467,7 +50479,7 @@
       <c r="DM235" s="4"/>
       <c r="DN235" s="7"/>
     </row>
-    <row r="236" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ236" s="30"/>
       <c r="BR236" s="30"/>
       <c r="BS236" s="30"/>
@@ -50477,7 +50489,7 @@
       <c r="DM236" s="4"/>
       <c r="DN236" s="7"/>
     </row>
-    <row r="237" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ237" s="30"/>
       <c r="BR237" s="30"/>
       <c r="BS237" s="30"/>
@@ -50487,7 +50499,7 @@
       <c r="DM237" s="4"/>
       <c r="DN237" s="7"/>
     </row>
-    <row r="238" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ238" s="30"/>
       <c r="BR238" s="30"/>
       <c r="BS238" s="30"/>
@@ -50497,7 +50509,7 @@
       <c r="DM238" s="4"/>
       <c r="DN238" s="7"/>
     </row>
-    <row r="239" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ239" s="30"/>
       <c r="BR239" s="30"/>
       <c r="BS239" s="30"/>
@@ -50507,7 +50519,7 @@
       <c r="DM239" s="4"/>
       <c r="DN239" s="7"/>
     </row>
-    <row r="240" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ240" s="30"/>
       <c r="BR240" s="30"/>
       <c r="BS240" s="30"/>
@@ -50517,7 +50529,7 @@
       <c r="DM240" s="4"/>
       <c r="DN240" s="7"/>
     </row>
-    <row r="241" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ241" s="30"/>
       <c r="BR241" s="30"/>
       <c r="BS241" s="30"/>
@@ -50527,7 +50539,7 @@
       <c r="DM241" s="4"/>
       <c r="DN241" s="7"/>
     </row>
-    <row r="242" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ242" s="30"/>
       <c r="BR242" s="30"/>
       <c r="BS242" s="30"/>
@@ -50537,7 +50549,7 @@
       <c r="DM242" s="4"/>
       <c r="DN242" s="7"/>
     </row>
-    <row r="243" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ243" s="30"/>
       <c r="BR243" s="30"/>
       <c r="BS243" s="30"/>
@@ -50547,7 +50559,7 @@
       <c r="DM243" s="4"/>
       <c r="DN243" s="7"/>
     </row>
-    <row r="244" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ244" s="30"/>
       <c r="BR244" s="30"/>
       <c r="BS244" s="30"/>
@@ -50557,7 +50569,7 @@
       <c r="DM244" s="4"/>
       <c r="DN244" s="7"/>
     </row>
-    <row r="245" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ245" s="30"/>
       <c r="BR245" s="30"/>
       <c r="BS245" s="30"/>
@@ -50567,7 +50579,7 @@
       <c r="DM245" s="4"/>
       <c r="DN245" s="7"/>
     </row>
-    <row r="246" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ246" s="30"/>
       <c r="BR246" s="30"/>
       <c r="BS246" s="30"/>
@@ -50577,7 +50589,7 @@
       <c r="DM246" s="4"/>
       <c r="DN246" s="7"/>
     </row>
-    <row r="247" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ247" s="30"/>
       <c r="BR247" s="30"/>
       <c r="BS247" s="30"/>
@@ -50587,7 +50599,7 @@
       <c r="DM247" s="4"/>
       <c r="DN247" s="7"/>
     </row>
-    <row r="248" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ248" s="30"/>
       <c r="BR248" s="30"/>
       <c r="BS248" s="30"/>
@@ -50597,7 +50609,7 @@
       <c r="DM248" s="4"/>
       <c r="DN248" s="7"/>
     </row>
-    <row r="249" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ249" s="30"/>
       <c r="BR249" s="30"/>
       <c r="BS249" s="30"/>
@@ -50607,7 +50619,7 @@
       <c r="DM249" s="4"/>
       <c r="DN249" s="7"/>
     </row>
-    <row r="250" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ250" s="30"/>
       <c r="BR250" s="30"/>
       <c r="BS250" s="30"/>
@@ -50617,7 +50629,7 @@
       <c r="DM250" s="4"/>
       <c r="DN250" s="7"/>
     </row>
-    <row r="251" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ251" s="30"/>
       <c r="BR251" s="30"/>
       <c r="BS251" s="30"/>
@@ -50627,7 +50639,7 @@
       <c r="DM251" s="4"/>
       <c r="DN251" s="7"/>
     </row>
-    <row r="252" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ252" s="30"/>
       <c r="BR252" s="30"/>
       <c r="BS252" s="30"/>
@@ -50637,7 +50649,7 @@
       <c r="DM252" s="4"/>
       <c r="DN252" s="7"/>
     </row>
-    <row r="253" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ253" s="30"/>
       <c r="BR253" s="30"/>
       <c r="BS253" s="30"/>
@@ -50647,7 +50659,7 @@
       <c r="DM253" s="4"/>
       <c r="DN253" s="7"/>
     </row>
-    <row r="254" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ254" s="30"/>
       <c r="BR254" s="30"/>
       <c r="BS254" s="30"/>
@@ -50657,7 +50669,7 @@
       <c r="DM254" s="4"/>
       <c r="DN254" s="7"/>
     </row>
-    <row r="255" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ255" s="30"/>
       <c r="BR255" s="30"/>
       <c r="BS255" s="30"/>
@@ -50667,7 +50679,7 @@
       <c r="DM255" s="4"/>
       <c r="DN255" s="7"/>
     </row>
-    <row r="256" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ256" s="30"/>
       <c r="BR256" s="30"/>
       <c r="BS256" s="30"/>
@@ -50677,7 +50689,7 @@
       <c r="DM256" s="4"/>
       <c r="DN256" s="7"/>
     </row>
-    <row r="257" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ257" s="30"/>
       <c r="BR257" s="30"/>
       <c r="BS257" s="30"/>
@@ -50687,7 +50699,7 @@
       <c r="DM257" s="4"/>
       <c r="DN257" s="7"/>
     </row>
-    <row r="258" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ258" s="30"/>
       <c r="BR258" s="30"/>
       <c r="BS258" s="30"/>
@@ -50697,7 +50709,7 @@
       <c r="DM258" s="4"/>
       <c r="DN258" s="7"/>
     </row>
-    <row r="259" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ259" s="30"/>
       <c r="BR259" s="30"/>
       <c r="BS259" s="30"/>
@@ -50707,7 +50719,7 @@
       <c r="DM259" s="4"/>
       <c r="DN259" s="7"/>
     </row>
-    <row r="260" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ260" s="30"/>
       <c r="BR260" s="30"/>
       <c r="BS260" s="30"/>
@@ -50717,7 +50729,7 @@
       <c r="DM260" s="4"/>
       <c r="DN260" s="7"/>
     </row>
-    <row r="261" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ261" s="30"/>
       <c r="BR261" s="30"/>
       <c r="BS261" s="30"/>
@@ -50727,7 +50739,7 @@
       <c r="DM261" s="4"/>
       <c r="DN261" s="7"/>
     </row>
-    <row r="262" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ262" s="30"/>
       <c r="BR262" s="30"/>
       <c r="BS262" s="30"/>
@@ -50737,7 +50749,7 @@
       <c r="DM262" s="4"/>
       <c r="DN262" s="7"/>
     </row>
-    <row r="263" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ263" s="30"/>
       <c r="BR263" s="30"/>
       <c r="BS263" s="30"/>
@@ -50747,7 +50759,7 @@
       <c r="DM263" s="4"/>
       <c r="DN263" s="7"/>
     </row>
-    <row r="264" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ264" s="30"/>
       <c r="BR264" s="30"/>
       <c r="BS264" s="30"/>
@@ -50757,7 +50769,7 @@
       <c r="DM264" s="4"/>
       <c r="DN264" s="7"/>
     </row>
-    <row r="265" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ265" s="30"/>
       <c r="BR265" s="30"/>
       <c r="BS265" s="30"/>
@@ -50767,7 +50779,7 @@
       <c r="DM265" s="4"/>
       <c r="DN265" s="7"/>
     </row>
-    <row r="266" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ266" s="30"/>
       <c r="BR266" s="30"/>
       <c r="BS266" s="30"/>
@@ -50777,7 +50789,7 @@
       <c r="DM266" s="4"/>
       <c r="DN266" s="7"/>
     </row>
-    <row r="267" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ267" s="30"/>
       <c r="BR267" s="30"/>
       <c r="BS267" s="30"/>
@@ -50787,7 +50799,7 @@
       <c r="DM267" s="4"/>
       <c r="DN267" s="7"/>
     </row>
-    <row r="268" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ268" s="30"/>
       <c r="BR268" s="30"/>
       <c r="BS268" s="30"/>
@@ -50797,7 +50809,7 @@
       <c r="DM268" s="4"/>
       <c r="DN268" s="7"/>
     </row>
-    <row r="269" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ269" s="30"/>
       <c r="BR269" s="30"/>
       <c r="BS269" s="30"/>
@@ -50807,7 +50819,7 @@
       <c r="DM269" s="4"/>
       <c r="DN269" s="7"/>
     </row>
-    <row r="270" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ270" s="30"/>
       <c r="BR270" s="30"/>
       <c r="BS270" s="30"/>
@@ -50817,7 +50829,7 @@
       <c r="DM270" s="4"/>
       <c r="DN270" s="7"/>
     </row>
-    <row r="271" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ271" s="30"/>
       <c r="BR271" s="30"/>
       <c r="BS271" s="30"/>
@@ -50827,7 +50839,7 @@
       <c r="DM271" s="4"/>
       <c r="DN271" s="7"/>
     </row>
-    <row r="272" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ272" s="30"/>
       <c r="BR272" s="30"/>
       <c r="BS272" s="30"/>
@@ -50837,7 +50849,7 @@
       <c r="DM272" s="4"/>
       <c r="DN272" s="7"/>
     </row>
-    <row r="273" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ273" s="30"/>
       <c r="BR273" s="30"/>
       <c r="BS273" s="30"/>
@@ -50847,7 +50859,7 @@
       <c r="DM273" s="4"/>
       <c r="DN273" s="7"/>
     </row>
-    <row r="274" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ274" s="30"/>
       <c r="BR274" s="30"/>
       <c r="BS274" s="30"/>
@@ -50857,7 +50869,7 @@
       <c r="DM274" s="4"/>
       <c r="DN274" s="7"/>
     </row>
-    <row r="275" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ275" s="30"/>
       <c r="BR275" s="30"/>
       <c r="BS275" s="30"/>
@@ -50867,7 +50879,7 @@
       <c r="DM275" s="4"/>
       <c r="DN275" s="7"/>
     </row>
-    <row r="276" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ276" s="30"/>
       <c r="BR276" s="30"/>
       <c r="BS276" s="30"/>
@@ -50877,7 +50889,7 @@
       <c r="DM276" s="4"/>
       <c r="DN276" s="7"/>
     </row>
-    <row r="277" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ277" s="30"/>
       <c r="BR277" s="30"/>
       <c r="BS277" s="30"/>
@@ -50887,7 +50899,7 @@
       <c r="DM277" s="4"/>
       <c r="DN277" s="7"/>
     </row>
-    <row r="278" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ278" s="30"/>
       <c r="BR278" s="30"/>
       <c r="BS278" s="30"/>
@@ -50897,7 +50909,7 @@
       <c r="DM278" s="4"/>
       <c r="DN278" s="7"/>
     </row>
-    <row r="279" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ279" s="30"/>
       <c r="BR279" s="30"/>
       <c r="BS279" s="30"/>
@@ -50907,7 +50919,7 @@
       <c r="DM279" s="4"/>
       <c r="DN279" s="7"/>
     </row>
-    <row r="280" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ280" s="30"/>
       <c r="BR280" s="30"/>
       <c r="BS280" s="30"/>
@@ -50917,7 +50929,7 @@
       <c r="DM280" s="4"/>
       <c r="DN280" s="7"/>
     </row>
-    <row r="281" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ281" s="30"/>
       <c r="BR281" s="30"/>
       <c r="BS281" s="30"/>
@@ -50927,7 +50939,7 @@
       <c r="DM281" s="4"/>
       <c r="DN281" s="7"/>
     </row>
-    <row r="282" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ282" s="30"/>
       <c r="BR282" s="30"/>
       <c r="BS282" s="30"/>
@@ -50937,7 +50949,7 @@
       <c r="DM282" s="4"/>
       <c r="DN282" s="7"/>
     </row>
-    <row r="283" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ283" s="30"/>
       <c r="BR283" s="30"/>
       <c r="BS283" s="30"/>
@@ -50947,7 +50959,7 @@
       <c r="DM283" s="4"/>
       <c r="DN283" s="7"/>
     </row>
-    <row r="284" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ284" s="30"/>
       <c r="BR284" s="30"/>
       <c r="BS284" s="30"/>
@@ -50957,7 +50969,7 @@
       <c r="DM284" s="4"/>
       <c r="DN284" s="7"/>
     </row>
-    <row r="285" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ285" s="30"/>
       <c r="BR285" s="30"/>
       <c r="BS285" s="30"/>
@@ -50967,7 +50979,7 @@
       <c r="DM285" s="4"/>
       <c r="DN285" s="7"/>
     </row>
-    <row r="286" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ286" s="30"/>
       <c r="BR286" s="30"/>
       <c r="BS286" s="30"/>
@@ -50977,7 +50989,7 @@
       <c r="DM286" s="4"/>
       <c r="DN286" s="7"/>
     </row>
-    <row r="287" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ287" s="30"/>
       <c r="BR287" s="30"/>
       <c r="BS287" s="30"/>
@@ -50987,7 +50999,7 @@
       <c r="DM287" s="4"/>
       <c r="DN287" s="7"/>
     </row>
-    <row r="288" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ288" s="30"/>
       <c r="BR288" s="30"/>
       <c r="BS288" s="30"/>
@@ -50997,7 +51009,7 @@
       <c r="DM288" s="4"/>
       <c r="DN288" s="7"/>
     </row>
-    <row r="289" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ289" s="30"/>
       <c r="BR289" s="30"/>
       <c r="BS289" s="30"/>
@@ -51007,7 +51019,7 @@
       <c r="DM289" s="4"/>
       <c r="DN289" s="7"/>
     </row>
-    <row r="290" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ290" s="30"/>
       <c r="BR290" s="30"/>
       <c r="BS290" s="30"/>
@@ -51017,7 +51029,7 @@
       <c r="DM290" s="4"/>
       <c r="DN290" s="7"/>
     </row>
-    <row r="291" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ291" s="30"/>
       <c r="BR291" s="30"/>
       <c r="BS291" s="30"/>
@@ -51027,7 +51039,7 @@
       <c r="DM291" s="4"/>
       <c r="DN291" s="7"/>
     </row>
-    <row r="292" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ292" s="30"/>
       <c r="BR292" s="30"/>
       <c r="BS292" s="30"/>
@@ -51037,7 +51049,7 @@
       <c r="DM292" s="4"/>
       <c r="DN292" s="7"/>
     </row>
-    <row r="293" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ293" s="30"/>
       <c r="BR293" s="30"/>
       <c r="BS293" s="30"/>
@@ -51047,7 +51059,7 @@
       <c r="DM293" s="4"/>
       <c r="DN293" s="7"/>
     </row>
-    <row r="294" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ294" s="30"/>
       <c r="BR294" s="30"/>
       <c r="BS294" s="30"/>
@@ -51057,7 +51069,7 @@
       <c r="DM294" s="4"/>
       <c r="DN294" s="7"/>
     </row>
-    <row r="295" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ295" s="30"/>
       <c r="BR295" s="30"/>
       <c r="BS295" s="30"/>
@@ -51067,7 +51079,7 @@
       <c r="DM295" s="4"/>
       <c r="DN295" s="7"/>
     </row>
-    <row r="296" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ296" s="30"/>
       <c r="BR296" s="30"/>
       <c r="BS296" s="30"/>
@@ -51077,7 +51089,7 @@
       <c r="DM296" s="4"/>
       <c r="DN296" s="7"/>
     </row>
-    <row r="297" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ297" s="30"/>
       <c r="BR297" s="30"/>
       <c r="BS297" s="30"/>
@@ -51087,7 +51099,7 @@
       <c r="DM297" s="4"/>
       <c r="DN297" s="7"/>
     </row>
-    <row r="298" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ298" s="30"/>
       <c r="BR298" s="30"/>
       <c r="BS298" s="30"/>
@@ -51097,7 +51109,7 @@
       <c r="DM298" s="4"/>
       <c r="DN298" s="7"/>
     </row>
-    <row r="299" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ299" s="30"/>
       <c r="BR299" s="30"/>
       <c r="BS299" s="30"/>
@@ -51107,7 +51119,7 @@
       <c r="DM299" s="4"/>
       <c r="DN299" s="7"/>
     </row>
-    <row r="300" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ300" s="30"/>
       <c r="BR300" s="30"/>
       <c r="BS300" s="30"/>
@@ -51117,7 +51129,7 @@
       <c r="DM300" s="4"/>
       <c r="DN300" s="7"/>
     </row>
-    <row r="301" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ301" s="30"/>
       <c r="BR301" s="30"/>
       <c r="BS301" s="30"/>
@@ -51127,7 +51139,7 @@
       <c r="DM301" s="4"/>
       <c r="DN301" s="7"/>
     </row>
-    <row r="302" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ302" s="30"/>
       <c r="BR302" s="30"/>
       <c r="BS302" s="30"/>
@@ -51137,7 +51149,7 @@
       <c r="DM302" s="4"/>
       <c r="DN302" s="7"/>
     </row>
-    <row r="303" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ303" s="30"/>
       <c r="BR303" s="30"/>
       <c r="BS303" s="30"/>
@@ -51147,7 +51159,7 @@
       <c r="DM303" s="4"/>
       <c r="DN303" s="7"/>
     </row>
-    <row r="304" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ304" s="30"/>
       <c r="BR304" s="30"/>
       <c r="BS304" s="30"/>
@@ -51157,7 +51169,7 @@
       <c r="DM304" s="4"/>
       <c r="DN304" s="7"/>
     </row>
-    <row r="305" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ305" s="30"/>
       <c r="BR305" s="30"/>
       <c r="BS305" s="30"/>
@@ -51167,7 +51179,7 @@
       <c r="DM305" s="4"/>
       <c r="DN305" s="7"/>
     </row>
-    <row r="306" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ306" s="30"/>
       <c r="BR306" s="30"/>
       <c r="BS306" s="30"/>
@@ -51177,7 +51189,7 @@
       <c r="DM306" s="4"/>
       <c r="DN306" s="7"/>
     </row>
-    <row r="307" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ307" s="30"/>
       <c r="BR307" s="30"/>
       <c r="BS307" s="30"/>
@@ -51187,7 +51199,7 @@
       <c r="DM307" s="4"/>
       <c r="DN307" s="7"/>
     </row>
-    <row r="308" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ308" s="30"/>
       <c r="BR308" s="30"/>
       <c r="BS308" s="30"/>
@@ -51197,7 +51209,7 @@
       <c r="DM308" s="4"/>
       <c r="DN308" s="7"/>
     </row>
-    <row r="309" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ309" s="30"/>
       <c r="BR309" s="30"/>
       <c r="BS309" s="30"/>
@@ -51207,7 +51219,7 @@
       <c r="DM309" s="4"/>
       <c r="DN309" s="7"/>
     </row>
-    <row r="310" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ310" s="30"/>
       <c r="BR310" s="30"/>
       <c r="BS310" s="30"/>
@@ -51217,7 +51229,7 @@
       <c r="DM310" s="4"/>
       <c r="DN310" s="7"/>
     </row>
-    <row r="311" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ311" s="30"/>
       <c r="BR311" s="30"/>
       <c r="BS311" s="30"/>
@@ -51227,7 +51239,7 @@
       <c r="DM311" s="4"/>
       <c r="DN311" s="7"/>
     </row>
-    <row r="312" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ312" s="30"/>
       <c r="BR312" s="30"/>
       <c r="BS312" s="30"/>
@@ -51237,7 +51249,7 @@
       <c r="DM312" s="4"/>
       <c r="DN312" s="7"/>
     </row>
-    <row r="313" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ313" s="30"/>
       <c r="BR313" s="30"/>
       <c r="BS313" s="30"/>
@@ -51247,7 +51259,7 @@
       <c r="DM313" s="4"/>
       <c r="DN313" s="7"/>
     </row>
-    <row r="314" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ314" s="30"/>
       <c r="BR314" s="30"/>
       <c r="BS314" s="30"/>
@@ -51257,7 +51269,7 @@
       <c r="DM314" s="4"/>
       <c r="DN314" s="7"/>
     </row>
-    <row r="315" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ315" s="30"/>
       <c r="BR315" s="30"/>
       <c r="BS315" s="30"/>
@@ -51267,7 +51279,7 @@
       <c r="DM315" s="4"/>
       <c r="DN315" s="7"/>
     </row>
-    <row r="316" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ316" s="30"/>
       <c r="BR316" s="30"/>
       <c r="BS316" s="30"/>
@@ -51277,7 +51289,7 @@
       <c r="DM316" s="4"/>
       <c r="DN316" s="7"/>
     </row>
-    <row r="317" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ317" s="30"/>
       <c r="BR317" s="30"/>
       <c r="BS317" s="30"/>
@@ -51287,7 +51299,7 @@
       <c r="DM317" s="4"/>
       <c r="DN317" s="7"/>
     </row>
-    <row r="318" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ318" s="30"/>
       <c r="BR318" s="30"/>
       <c r="BS318" s="30"/>
@@ -51297,7 +51309,7 @@
       <c r="DM318" s="4"/>
       <c r="DN318" s="7"/>
     </row>
-    <row r="319" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ319" s="30"/>
       <c r="BR319" s="30"/>
       <c r="BS319" s="30"/>
@@ -51307,7 +51319,7 @@
       <c r="DM319" s="4"/>
       <c r="DN319" s="7"/>
     </row>
-    <row r="320" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ320" s="30"/>
       <c r="BR320" s="30"/>
       <c r="BS320" s="30"/>
@@ -51317,7 +51329,7 @@
       <c r="DM320" s="4"/>
       <c r="DN320" s="7"/>
     </row>
-    <row r="321" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ321" s="30"/>
       <c r="BR321" s="30"/>
       <c r="BS321" s="30"/>
@@ -51327,7 +51339,7 @@
       <c r="DM321" s="4"/>
       <c r="DN321" s="7"/>
     </row>
-    <row r="322" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ322" s="30"/>
       <c r="BR322" s="30"/>
       <c r="BS322" s="30"/>
@@ -51337,7 +51349,7 @@
       <c r="DM322" s="4"/>
       <c r="DN322" s="7"/>
     </row>
-    <row r="323" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ323" s="30"/>
       <c r="BR323" s="30"/>
       <c r="BS323" s="30"/>
@@ -51347,7 +51359,7 @@
       <c r="DM323" s="4"/>
       <c r="DN323" s="7"/>
     </row>
-    <row r="324" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ324" s="30"/>
       <c r="BR324" s="30"/>
       <c r="BS324" s="30"/>
@@ -51357,7 +51369,7 @@
       <c r="DM324" s="4"/>
       <c r="DN324" s="7"/>
     </row>
-    <row r="325" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ325" s="30"/>
       <c r="BR325" s="30"/>
       <c r="BS325" s="30"/>
@@ -51367,7 +51379,7 @@
       <c r="DM325" s="4"/>
       <c r="DN325" s="7"/>
     </row>
-    <row r="326" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ326" s="30"/>
       <c r="BR326" s="30"/>
       <c r="BS326" s="30"/>
@@ -51377,7 +51389,7 @@
       <c r="DM326" s="4"/>
       <c r="DN326" s="7"/>
     </row>
-    <row r="327" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ327" s="30"/>
       <c r="BR327" s="30"/>
       <c r="BS327" s="30"/>
@@ -51387,7 +51399,7 @@
       <c r="DM327" s="4"/>
       <c r="DN327" s="7"/>
     </row>
-    <row r="328" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ328" s="30"/>
       <c r="BR328" s="30"/>
       <c r="BS328" s="30"/>
@@ -51397,7 +51409,7 @@
       <c r="DM328" s="4"/>
       <c r="DN328" s="7"/>
     </row>
-    <row r="329" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ329" s="30"/>
       <c r="BR329" s="30"/>
       <c r="BS329" s="30"/>
@@ -51407,7 +51419,7 @@
       <c r="DM329" s="4"/>
       <c r="DN329" s="7"/>
     </row>
-    <row r="330" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ330" s="30"/>
       <c r="BR330" s="30"/>
       <c r="BS330" s="30"/>
@@ -51417,7 +51429,7 @@
       <c r="DM330" s="4"/>
       <c r="DN330" s="7"/>
     </row>
-    <row r="331" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ331" s="30"/>
       <c r="BR331" s="30"/>
       <c r="BS331" s="30"/>
@@ -51427,7 +51439,7 @@
       <c r="DM331" s="4"/>
       <c r="DN331" s="7"/>
     </row>
-    <row r="332" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ332" s="30"/>
       <c r="BR332" s="30"/>
       <c r="BS332" s="30"/>
@@ -51437,7 +51449,7 @@
       <c r="DM332" s="4"/>
       <c r="DN332" s="7"/>
     </row>
-    <row r="333" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ333" s="30"/>
       <c r="BR333" s="30"/>
       <c r="BS333" s="30"/>
@@ -51447,7 +51459,7 @@
       <c r="DM333" s="4"/>
       <c r="DN333" s="7"/>
     </row>
-    <row r="334" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ334" s="30"/>
       <c r="BR334" s="30"/>
       <c r="BS334" s="30"/>
@@ -51457,7 +51469,7 @@
       <c r="DM334" s="4"/>
       <c r="DN334" s="7"/>
     </row>
-    <row r="335" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ335" s="30"/>
       <c r="BR335" s="30"/>
       <c r="BS335" s="30"/>
@@ -51467,7 +51479,7 @@
       <c r="DM335" s="4"/>
       <c r="DN335" s="7"/>
     </row>
-    <row r="336" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ336" s="30"/>
       <c r="BR336" s="30"/>
       <c r="BS336" s="30"/>
@@ -51477,7 +51489,7 @@
       <c r="DM336" s="4"/>
       <c r="DN336" s="7"/>
     </row>
-    <row r="337" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ337" s="30"/>
       <c r="BR337" s="30"/>
       <c r="BS337" s="30"/>
@@ -51487,7 +51499,7 @@
       <c r="DM337" s="4"/>
       <c r="DN337" s="7"/>
     </row>
-    <row r="338" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ338" s="30"/>
       <c r="BR338" s="30"/>
       <c r="BS338" s="30"/>
@@ -51497,7 +51509,7 @@
       <c r="DM338" s="4"/>
       <c r="DN338" s="7"/>
     </row>
-    <row r="339" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ339" s="30"/>
       <c r="BR339" s="30"/>
       <c r="BS339" s="30"/>
@@ -51507,7 +51519,7 @@
       <c r="DM339" s="4"/>
       <c r="DN339" s="7"/>
     </row>
-    <row r="340" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ340" s="30"/>
       <c r="BR340" s="30"/>
       <c r="BS340" s="30"/>
@@ -51517,7 +51529,7 @@
       <c r="DM340" s="4"/>
       <c r="DN340" s="7"/>
     </row>
-    <row r="341" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ341" s="30"/>
       <c r="BR341" s="30"/>
       <c r="BS341" s="30"/>
@@ -51527,7 +51539,7 @@
       <c r="DM341" s="4"/>
       <c r="DN341" s="7"/>
     </row>
-    <row r="342" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ342" s="30"/>
       <c r="BR342" s="30"/>
       <c r="BS342" s="30"/>
@@ -51537,7 +51549,7 @@
       <c r="DM342" s="4"/>
       <c r="DN342" s="7"/>
     </row>
-    <row r="343" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ343" s="30"/>
       <c r="BR343" s="30"/>
       <c r="BS343" s="30"/>
@@ -51547,7 +51559,7 @@
       <c r="DM343" s="4"/>
       <c r="DN343" s="7"/>
     </row>
-    <row r="344" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ344" s="30"/>
       <c r="BR344" s="30"/>
       <c r="BS344" s="30"/>
@@ -51557,7 +51569,7 @@
       <c r="DM344" s="4"/>
       <c r="DN344" s="7"/>
     </row>
-    <row r="345" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ345" s="30"/>
       <c r="BR345" s="30"/>
       <c r="BS345" s="30"/>
@@ -51567,7 +51579,7 @@
       <c r="DM345" s="4"/>
       <c r="DN345" s="7"/>
     </row>
-    <row r="346" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ346" s="30"/>
       <c r="BR346" s="30"/>
       <c r="BS346" s="30"/>
@@ -51577,7 +51589,7 @@
       <c r="DM346" s="4"/>
       <c r="DN346" s="7"/>
     </row>
-    <row r="347" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ347" s="30"/>
       <c r="BR347" s="30"/>
       <c r="BS347" s="30"/>
@@ -51587,7 +51599,7 @@
       <c r="DM347" s="4"/>
       <c r="DN347" s="7"/>
     </row>
-    <row r="348" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ348" s="30"/>
       <c r="BR348" s="30"/>
       <c r="BS348" s="30"/>
@@ -51597,7 +51609,7 @@
       <c r="DM348" s="4"/>
       <c r="DN348" s="7"/>
     </row>
-    <row r="349" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ349" s="30"/>
       <c r="BR349" s="30"/>
       <c r="BS349" s="30"/>
@@ -51607,7 +51619,7 @@
       <c r="DM349" s="4"/>
       <c r="DN349" s="7"/>
     </row>
-    <row r="350" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ350" s="30"/>
       <c r="BR350" s="30"/>
       <c r="BS350" s="30"/>
@@ -51617,7 +51629,7 @@
       <c r="DM350" s="4"/>
       <c r="DN350" s="7"/>
     </row>
-    <row r="351" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ351" s="30"/>
       <c r="BR351" s="30"/>
       <c r="BS351" s="30"/>
@@ -51627,7 +51639,7 @@
       <c r="DM351" s="4"/>
       <c r="DN351" s="7"/>
     </row>
-    <row r="352" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ352" s="30"/>
       <c r="BR352" s="30"/>
       <c r="BS352" s="30"/>
@@ -51637,7 +51649,7 @@
       <c r="DM352" s="4"/>
       <c r="DN352" s="7"/>
     </row>
-    <row r="353" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ353" s="30"/>
       <c r="BR353" s="30"/>
       <c r="BS353" s="30"/>
@@ -51647,7 +51659,7 @@
       <c r="DM353" s="4"/>
       <c r="DN353" s="7"/>
     </row>
-    <row r="354" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ354" s="30"/>
       <c r="BR354" s="30"/>
       <c r="BS354" s="30"/>
@@ -51657,7 +51669,7 @@
       <c r="DM354" s="4"/>
       <c r="DN354" s="7"/>
     </row>
-    <row r="355" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ355" s="30"/>
       <c r="BR355" s="30"/>
       <c r="BS355" s="30"/>
@@ -51667,7 +51679,7 @@
       <c r="DM355" s="4"/>
       <c r="DN355" s="7"/>
     </row>
-    <row r="356" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ356" s="30"/>
       <c r="BR356" s="30"/>
       <c r="BS356" s="30"/>
@@ -51677,7 +51689,7 @@
       <c r="DM356" s="4"/>
       <c r="DN356" s="7"/>
     </row>
-    <row r="357" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ357" s="30"/>
       <c r="BR357" s="30"/>
       <c r="BS357" s="30"/>
@@ -51687,7 +51699,7 @@
       <c r="DM357" s="4"/>
       <c r="DN357" s="7"/>
     </row>
-    <row r="358" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ358" s="30"/>
       <c r="BR358" s="30"/>
       <c r="BS358" s="30"/>
@@ -51697,7 +51709,7 @@
       <c r="DM358" s="4"/>
       <c r="DN358" s="7"/>
     </row>
-    <row r="359" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ359" s="30"/>
       <c r="BR359" s="30"/>
       <c r="BS359" s="30"/>
@@ -51707,7 +51719,7 @@
       <c r="DM359" s="4"/>
       <c r="DN359" s="7"/>
     </row>
-    <row r="360" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ360" s="30"/>
       <c r="BR360" s="30"/>
       <c r="BS360" s="30"/>
@@ -51717,7 +51729,7 @@
       <c r="DM360" s="4"/>
       <c r="DN360" s="7"/>
     </row>
-    <row r="361" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ361" s="30"/>
       <c r="BR361" s="30"/>
       <c r="BS361" s="30"/>
@@ -51727,7 +51739,7 @@
       <c r="DM361" s="4"/>
       <c r="DN361" s="7"/>
     </row>
-    <row r="362" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ362" s="30"/>
       <c r="BR362" s="30"/>
       <c r="BS362" s="30"/>
@@ -51737,7 +51749,7 @@
       <c r="DM362" s="4"/>
       <c r="DN362" s="7"/>
     </row>
-    <row r="363" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ363" s="30"/>
       <c r="BR363" s="30"/>
       <c r="BS363" s="30"/>
@@ -51747,7 +51759,7 @@
       <c r="DM363" s="4"/>
       <c r="DN363" s="7"/>
     </row>
-    <row r="364" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ364" s="30"/>
       <c r="BR364" s="30"/>
       <c r="BS364" s="30"/>
@@ -51757,7 +51769,7 @@
       <c r="DM364" s="4"/>
       <c r="DN364" s="7"/>
     </row>
-    <row r="365" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ365" s="30"/>
       <c r="BR365" s="30"/>
       <c r="BS365" s="30"/>
@@ -51767,7 +51779,7 @@
       <c r="DM365" s="4"/>
       <c r="DN365" s="7"/>
     </row>
-    <row r="366" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ366" s="30"/>
       <c r="BR366" s="30"/>
       <c r="BS366" s="30"/>
@@ -51777,7 +51789,7 @@
       <c r="DM366" s="4"/>
       <c r="DN366" s="7"/>
     </row>
-    <row r="367" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ367" s="30"/>
       <c r="BR367" s="30"/>
       <c r="BS367" s="30"/>
@@ -51787,7 +51799,7 @@
       <c r="DM367" s="4"/>
       <c r="DN367" s="7"/>
     </row>
-    <row r="368" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ368" s="30"/>
       <c r="BR368" s="30"/>
       <c r="BS368" s="30"/>
@@ -51797,7 +51809,7 @@
       <c r="DM368" s="4"/>
       <c r="DN368" s="7"/>
     </row>
-    <row r="369" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ369" s="30"/>
       <c r="BR369" s="30"/>
       <c r="BS369" s="30"/>
@@ -51807,7 +51819,7 @@
       <c r="DM369" s="4"/>
       <c r="DN369" s="7"/>
     </row>
-    <row r="370" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ370" s="30"/>
       <c r="BR370" s="30"/>
       <c r="BS370" s="30"/>
@@ -51817,7 +51829,7 @@
       <c r="DM370" s="4"/>
       <c r="DN370" s="7"/>
     </row>
-    <row r="371" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ371" s="30"/>
       <c r="BR371" s="30"/>
       <c r="BS371" s="30"/>
@@ -51827,7 +51839,7 @@
       <c r="DM371" s="4"/>
       <c r="DN371" s="7"/>
     </row>
-    <row r="372" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ372" s="30"/>
       <c r="BR372" s="30"/>
       <c r="BS372" s="30"/>
@@ -51837,7 +51849,7 @@
       <c r="DM372" s="4"/>
       <c r="DN372" s="7"/>
     </row>
-    <row r="373" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ373" s="30"/>
       <c r="BR373" s="30"/>
       <c r="BS373" s="30"/>
@@ -51847,7 +51859,7 @@
       <c r="DM373" s="4"/>
       <c r="DN373" s="7"/>
     </row>
-    <row r="374" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ374" s="30"/>
       <c r="BR374" s="30"/>
       <c r="BS374" s="30"/>
@@ -51857,7 +51869,7 @@
       <c r="DM374" s="4"/>
       <c r="DN374" s="7"/>
     </row>
-    <row r="375" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ375" s="30"/>
       <c r="BR375" s="30"/>
       <c r="BS375" s="30"/>
@@ -51867,7 +51879,7 @@
       <c r="DM375" s="4"/>
       <c r="DN375" s="7"/>
     </row>
-    <row r="376" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ376" s="30"/>
       <c r="BR376" s="30"/>
       <c r="BS376" s="30"/>
@@ -51877,7 +51889,7 @@
       <c r="DM376" s="4"/>
       <c r="DN376" s="7"/>
     </row>
-    <row r="377" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ377" s="30"/>
       <c r="BR377" s="30"/>
       <c r="BS377" s="30"/>
@@ -51887,7 +51899,7 @@
       <c r="DM377" s="4"/>
       <c r="DN377" s="7"/>
     </row>
-    <row r="378" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ378" s="30"/>
       <c r="BR378" s="30"/>
       <c r="BS378" s="30"/>
@@ -51897,7 +51909,7 @@
       <c r="DM378" s="4"/>
       <c r="DN378" s="7"/>
     </row>
-    <row r="379" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ379" s="30"/>
       <c r="BR379" s="30"/>
       <c r="BS379" s="30"/>
@@ -51907,7 +51919,7 @@
       <c r="DM379" s="4"/>
       <c r="DN379" s="7"/>
     </row>
-    <row r="380" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ380" s="30"/>
       <c r="BR380" s="30"/>
       <c r="BS380" s="30"/>
@@ -51917,7 +51929,7 @@
       <c r="DM380" s="4"/>
       <c r="DN380" s="7"/>
     </row>
-    <row r="381" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ381" s="30"/>
       <c r="BR381" s="30"/>
       <c r="BS381" s="30"/>
@@ -51927,7 +51939,7 @@
       <c r="DM381" s="4"/>
       <c r="DN381" s="7"/>
     </row>
-    <row r="382" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ382" s="30"/>
       <c r="BR382" s="30"/>
       <c r="BS382" s="30"/>
@@ -51937,7 +51949,7 @@
       <c r="DM382" s="4"/>
       <c r="DN382" s="7"/>
     </row>
-    <row r="383" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ383" s="30"/>
       <c r="BR383" s="30"/>
       <c r="BS383" s="30"/>
@@ -51947,7 +51959,7 @@
       <c r="DM383" s="4"/>
       <c r="DN383" s="7"/>
     </row>
-    <row r="384" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ384" s="30"/>
       <c r="BR384" s="30"/>
       <c r="BS384" s="30"/>
@@ -51957,7 +51969,7 @@
       <c r="DM384" s="4"/>
       <c r="DN384" s="7"/>
     </row>
-    <row r="385" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ385" s="30"/>
       <c r="BR385" s="30"/>
       <c r="BS385" s="30"/>
@@ -51967,7 +51979,7 @@
       <c r="DM385" s="4"/>
       <c r="DN385" s="7"/>
     </row>
-    <row r="386" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ386" s="30"/>
       <c r="BR386" s="30"/>
       <c r="BS386" s="30"/>
@@ -51977,7 +51989,7 @@
       <c r="DM386" s="4"/>
       <c r="DN386" s="7"/>
     </row>
-    <row r="387" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ387" s="30"/>
       <c r="BR387" s="30"/>
       <c r="BS387" s="30"/>
@@ -51987,7 +51999,7 @@
       <c r="DM387" s="4"/>
       <c r="DN387" s="7"/>
     </row>
-    <row r="388" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ388" s="30"/>
       <c r="BR388" s="30"/>
       <c r="BS388" s="30"/>
@@ -51997,7 +52009,7 @@
       <c r="DM388" s="4"/>
       <c r="DN388" s="7"/>
     </row>
-    <row r="389" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ389" s="30"/>
       <c r="BR389" s="30"/>
       <c r="BS389" s="30"/>
@@ -52007,7 +52019,7 @@
       <c r="DM389" s="4"/>
       <c r="DN389" s="7"/>
     </row>
-    <row r="390" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ390" s="30"/>
       <c r="BR390" s="30"/>
       <c r="BS390" s="30"/>
@@ -52017,7 +52029,7 @@
       <c r="DM390" s="4"/>
       <c r="DN390" s="7"/>
     </row>
-    <row r="391" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ391" s="30"/>
       <c r="BR391" s="30"/>
       <c r="BS391" s="30"/>
@@ -52027,7 +52039,7 @@
       <c r="DM391" s="4"/>
       <c r="DN391" s="7"/>
     </row>
-    <row r="392" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ392" s="30"/>
       <c r="BR392" s="30"/>
       <c r="BS392" s="30"/>
@@ -52037,7 +52049,7 @@
       <c r="DM392" s="4"/>
       <c r="DN392" s="7"/>
     </row>
-    <row r="393" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ393" s="30"/>
       <c r="BR393" s="30"/>
       <c r="BS393" s="30"/>
@@ -52047,7 +52059,7 @@
       <c r="DM393" s="4"/>
       <c r="DN393" s="7"/>
     </row>
-    <row r="394" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ394" s="30"/>
       <c r="BR394" s="30"/>
       <c r="BS394" s="30"/>
@@ -52057,7 +52069,7 @@
       <c r="DM394" s="4"/>
       <c r="DN394" s="7"/>
     </row>
-    <row r="395" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ395" s="30"/>
       <c r="BR395" s="30"/>
       <c r="BS395" s="30"/>
@@ -52067,7 +52079,7 @@
       <c r="DM395" s="4"/>
       <c r="DN395" s="7"/>
     </row>
-    <row r="396" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ396" s="30"/>
       <c r="BR396" s="30"/>
       <c r="BS396" s="30"/>
@@ -52077,7 +52089,7 @@
       <c r="DM396" s="4"/>
       <c r="DN396" s="7"/>
     </row>
-    <row r="397" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ397" s="30"/>
       <c r="BR397" s="30"/>
       <c r="BS397" s="30"/>
@@ -52087,7 +52099,7 @@
       <c r="DM397" s="4"/>
       <c r="DN397" s="7"/>
     </row>
-    <row r="398" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ398" s="30"/>
       <c r="BR398" s="30"/>
       <c r="BS398" s="30"/>
@@ -52097,7 +52109,7 @@
       <c r="DM398" s="4"/>
       <c r="DN398" s="7"/>
     </row>
-    <row r="399" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ399" s="30"/>
       <c r="BR399" s="30"/>
       <c r="BS399" s="30"/>
@@ -52107,7 +52119,7 @@
       <c r="DM399" s="4"/>
       <c r="DN399" s="7"/>
     </row>
-    <row r="400" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ400" s="30"/>
       <c r="BR400" s="30"/>
       <c r="BS400" s="30"/>
@@ -52117,7 +52129,7 @@
       <c r="DM400" s="4"/>
       <c r="DN400" s="7"/>
     </row>
-    <row r="401" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ401" s="30"/>
       <c r="BR401" s="30"/>
       <c r="BS401" s="30"/>
@@ -52127,7 +52139,7 @@
       <c r="DM401" s="4"/>
       <c r="DN401" s="7"/>
     </row>
-    <row r="402" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ402" s="30"/>
       <c r="BR402" s="30"/>
       <c r="BS402" s="30"/>
@@ -52137,7 +52149,7 @@
       <c r="DM402" s="4"/>
       <c r="DN402" s="7"/>
     </row>
-    <row r="403" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ403" s="30"/>
       <c r="BR403" s="30"/>
       <c r="BS403" s="30"/>
@@ -52147,7 +52159,7 @@
       <c r="DM403" s="4"/>
       <c r="DN403" s="7"/>
     </row>
-    <row r="404" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ404" s="30"/>
       <c r="BR404" s="30"/>
       <c r="BS404" s="30"/>
@@ -52157,7 +52169,7 @@
       <c r="DM404" s="4"/>
       <c r="DN404" s="7"/>
     </row>
-    <row r="405" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ405" s="30"/>
       <c r="BR405" s="30"/>
       <c r="BS405" s="30"/>
@@ -52167,7 +52179,7 @@
       <c r="DM405" s="4"/>
       <c r="DN405" s="7"/>
     </row>
-    <row r="406" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ406" s="30"/>
       <c r="BR406" s="30"/>
       <c r="BS406" s="30"/>
@@ -52177,7 +52189,7 @@
       <c r="DM406" s="4"/>
       <c r="DN406" s="7"/>
     </row>
-    <row r="407" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ407" s="30"/>
       <c r="BR407" s="30"/>
       <c r="BS407" s="30"/>
@@ -52187,7 +52199,7 @@
       <c r="DM407" s="4"/>
       <c r="DN407" s="7"/>
     </row>
-    <row r="408" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ408" s="30"/>
       <c r="BR408" s="30"/>
       <c r="BS408" s="30"/>
@@ -52197,7 +52209,7 @@
       <c r="DM408" s="4"/>
       <c r="DN408" s="7"/>
     </row>
-    <row r="409" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ409" s="30"/>
       <c r="BR409" s="30"/>
       <c r="BS409" s="30"/>
@@ -52207,7 +52219,7 @@
       <c r="DM409" s="4"/>
       <c r="DN409" s="7"/>
     </row>
-    <row r="410" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ410" s="30"/>
       <c r="BR410" s="30"/>
       <c r="BS410" s="30"/>
@@ -52217,7 +52229,7 @@
       <c r="DM410" s="4"/>
       <c r="DN410" s="7"/>
     </row>
-    <row r="411" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ411" s="30"/>
       <c r="BR411" s="30"/>
       <c r="BS411" s="30"/>
@@ -52227,7 +52239,7 @@
       <c r="DM411" s="4"/>
       <c r="DN411" s="7"/>
     </row>
-    <row r="412" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ412" s="30"/>
       <c r="BR412" s="30"/>
       <c r="BS412" s="30"/>
@@ -52237,7 +52249,7 @@
       <c r="DM412" s="4"/>
       <c r="DN412" s="7"/>
     </row>
-    <row r="413" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ413" s="30"/>
       <c r="BR413" s="30"/>
       <c r="BS413" s="30"/>
@@ -52247,7 +52259,7 @@
       <c r="DM413" s="4"/>
       <c r="DN413" s="7"/>
     </row>
-    <row r="414" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ414" s="30"/>
       <c r="BR414" s="30"/>
       <c r="BS414" s="30"/>
@@ -52257,7 +52269,7 @@
       <c r="DM414" s="4"/>
       <c r="DN414" s="7"/>
     </row>
-    <row r="415" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ415" s="30"/>
       <c r="BR415" s="30"/>
       <c r="BS415" s="30"/>
@@ -52267,7 +52279,7 @@
       <c r="DM415" s="4"/>
       <c r="DN415" s="7"/>
     </row>
-    <row r="416" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ416" s="30"/>
       <c r="BR416" s="30"/>
       <c r="BS416" s="30"/>
@@ -52277,7 +52289,7 @@
       <c r="DM416" s="4"/>
       <c r="DN416" s="7"/>
     </row>
-    <row r="417" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ417" s="30"/>
       <c r="BR417" s="30"/>
       <c r="BS417" s="30"/>
@@ -52287,7 +52299,7 @@
       <c r="DM417" s="4"/>
       <c r="DN417" s="7"/>
     </row>
-    <row r="418" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ418" s="30"/>
       <c r="BR418" s="30"/>
       <c r="BS418" s="30"/>
@@ -52297,7 +52309,7 @@
       <c r="DM418" s="4"/>
       <c r="DN418" s="7"/>
     </row>
-    <row r="419" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ419" s="30"/>
       <c r="BR419" s="30"/>
       <c r="BS419" s="30"/>
@@ -52307,7 +52319,7 @@
       <c r="DM419" s="4"/>
       <c r="DN419" s="7"/>
     </row>
-    <row r="420" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ420" s="30"/>
       <c r="BR420" s="30"/>
       <c r="BS420" s="30"/>
@@ -52317,7 +52329,7 @@
       <c r="DM420" s="4"/>
       <c r="DN420" s="7"/>
     </row>
-    <row r="421" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ421" s="30"/>
       <c r="BR421" s="30"/>
       <c r="BS421" s="30"/>
@@ -52327,7 +52339,7 @@
       <c r="DM421" s="4"/>
       <c r="DN421" s="7"/>
     </row>
-    <row r="422" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ422" s="30"/>
       <c r="BR422" s="30"/>
       <c r="BS422" s="30"/>
@@ -52337,7 +52349,7 @@
       <c r="DM422" s="4"/>
       <c r="DN422" s="7"/>
     </row>
-    <row r="423" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ423" s="30"/>
       <c r="BR423" s="30"/>
       <c r="BS423" s="30"/>
@@ -52347,7 +52359,7 @@
       <c r="DM423" s="4"/>
       <c r="DN423" s="7"/>
     </row>
-    <row r="424" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ424" s="30"/>
       <c r="BR424" s="30"/>
       <c r="BS424" s="30"/>
@@ -52357,7 +52369,7 @@
       <c r="DM424" s="4"/>
       <c r="DN424" s="7"/>
     </row>
-    <row r="425" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ425" s="30"/>
       <c r="BR425" s="30"/>
       <c r="BS425" s="30"/>
@@ -52367,7 +52379,7 @@
       <c r="DM425" s="4"/>
       <c r="DN425" s="7"/>
     </row>
-    <row r="426" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ426" s="30"/>
       <c r="BR426" s="30"/>
       <c r="BS426" s="30"/>
@@ -52377,7 +52389,7 @@
       <c r="DM426" s="4"/>
       <c r="DN426" s="7"/>
     </row>
-    <row r="427" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ427" s="30"/>
       <c r="BR427" s="30"/>
       <c r="BS427" s="30"/>
@@ -52387,7 +52399,7 @@
       <c r="DM427" s="4"/>
       <c r="DN427" s="7"/>
     </row>
-    <row r="428" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ428" s="30"/>
       <c r="BR428" s="30"/>
       <c r="BS428" s="30"/>
@@ -52397,7 +52409,7 @@
       <c r="DM428" s="4"/>
       <c r="DN428" s="7"/>
     </row>
-    <row r="429" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ429" s="30"/>
       <c r="BR429" s="30"/>
       <c r="BS429" s="30"/>
@@ -52407,7 +52419,7 @@
       <c r="DM429" s="4"/>
       <c r="DN429" s="7"/>
     </row>
-    <row r="430" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ430" s="30"/>
       <c r="BR430" s="30"/>
       <c r="BS430" s="30"/>
@@ -52417,7 +52429,7 @@
       <c r="DM430" s="4"/>
       <c r="DN430" s="7"/>
     </row>
-    <row r="431" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ431" s="30"/>
       <c r="BR431" s="30"/>
       <c r="BS431" s="30"/>
@@ -52427,7 +52439,7 @@
       <c r="DM431" s="4"/>
       <c r="DN431" s="7"/>
     </row>
-    <row r="432" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ432" s="30"/>
       <c r="BR432" s="30"/>
       <c r="BS432" s="30"/>
@@ -52437,7 +52449,7 @@
       <c r="DM432" s="4"/>
       <c r="DN432" s="7"/>
     </row>
-    <row r="433" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ433" s="30"/>
       <c r="BR433" s="30"/>
       <c r="BS433" s="30"/>
@@ -52447,7 +52459,7 @@
       <c r="DM433" s="4"/>
       <c r="DN433" s="7"/>
     </row>
-    <row r="434" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ434" s="30"/>
       <c r="BR434" s="30"/>
       <c r="BS434" s="30"/>
@@ -52457,7 +52469,7 @@
       <c r="DM434" s="4"/>
       <c r="DN434" s="7"/>
     </row>
-    <row r="435" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ435" s="30"/>
       <c r="BR435" s="30"/>
       <c r="BS435" s="30"/>
@@ -52467,7 +52479,7 @@
       <c r="DM435" s="4"/>
       <c r="DN435" s="7"/>
     </row>
-    <row r="436" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ436" s="30"/>
       <c r="BR436" s="30"/>
       <c r="BS436" s="30"/>
@@ -52477,7 +52489,7 @@
       <c r="DM436" s="4"/>
       <c r="DN436" s="7"/>
     </row>
-    <row r="437" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ437" s="30"/>
       <c r="BR437" s="30"/>
       <c r="BS437" s="30"/>
@@ -52487,7 +52499,7 @@
       <c r="DM437" s="4"/>
       <c r="DN437" s="7"/>
     </row>
-    <row r="438" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ438" s="30"/>
       <c r="BR438" s="30"/>
       <c r="BS438" s="30"/>
@@ -52497,7 +52509,7 @@
       <c r="DM438" s="4"/>
       <c r="DN438" s="7"/>
     </row>
-    <row r="439" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ439" s="30"/>
       <c r="BR439" s="30"/>
       <c r="BS439" s="30"/>
@@ -52507,7 +52519,7 @@
       <c r="DM439" s="4"/>
       <c r="DN439" s="7"/>
     </row>
-    <row r="440" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ440" s="30"/>
       <c r="BR440" s="30"/>
       <c r="BS440" s="30"/>
@@ -52517,7 +52529,7 @@
       <c r="DM440" s="4"/>
       <c r="DN440" s="7"/>
     </row>
-    <row r="441" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ441" s="30"/>
       <c r="BR441" s="30"/>
       <c r="BS441" s="30"/>
@@ -52527,7 +52539,7 @@
       <c r="DM441" s="4"/>
       <c r="DN441" s="7"/>
     </row>
-    <row r="442" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ442" s="30"/>
       <c r="BR442" s="30"/>
       <c r="BS442" s="30"/>
@@ -52537,7 +52549,7 @@
       <c r="DM442" s="4"/>
       <c r="DN442" s="7"/>
     </row>
-    <row r="443" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ443" s="30"/>
       <c r="BR443" s="30"/>
       <c r="BS443" s="30"/>
@@ -52547,7 +52559,7 @@
       <c r="DM443" s="4"/>
       <c r="DN443" s="7"/>
     </row>
-    <row r="444" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ444" s="30"/>
       <c r="BR444" s="30"/>
       <c r="BS444" s="30"/>
@@ -52557,7 +52569,7 @@
       <c r="DM444" s="4"/>
       <c r="DN444" s="7"/>
     </row>
-    <row r="445" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ445" s="30"/>
       <c r="BR445" s="30"/>
       <c r="BS445" s="30"/>
@@ -52567,7 +52579,7 @@
       <c r="DM445" s="4"/>
       <c r="DN445" s="7"/>
     </row>
-    <row r="446" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ446" s="30"/>
       <c r="BR446" s="30"/>
       <c r="BS446" s="30"/>
@@ -52577,7 +52589,7 @@
       <c r="DM446" s="4"/>
       <c r="DN446" s="7"/>
     </row>
-    <row r="447" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ447" s="30"/>
       <c r="BR447" s="30"/>
       <c r="BS447" s="30"/>
@@ -52587,7 +52599,7 @@
       <c r="DM447" s="4"/>
       <c r="DN447" s="7"/>
     </row>
-    <row r="448" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ448" s="30"/>
       <c r="BR448" s="30"/>
       <c r="BS448" s="30"/>
@@ -52597,7 +52609,7 @@
       <c r="DM448" s="4"/>
       <c r="DN448" s="7"/>
     </row>
-    <row r="449" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ449" s="30"/>
       <c r="BR449" s="30"/>
       <c r="BS449" s="30"/>
@@ -52607,7 +52619,7 @@
       <c r="DM449" s="4"/>
       <c r="DN449" s="7"/>
     </row>
-    <row r="450" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ450" s="30"/>
       <c r="BR450" s="30"/>
       <c r="BS450" s="30"/>
@@ -52617,7 +52629,7 @@
       <c r="DM450" s="4"/>
       <c r="DN450" s="7"/>
     </row>
-    <row r="451" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ451" s="30"/>
       <c r="BR451" s="30"/>
       <c r="BS451" s="30"/>
@@ -52627,7 +52639,7 @@
       <c r="DM451" s="4"/>
       <c r="DN451" s="7"/>
     </row>
-    <row r="452" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ452" s="30"/>
       <c r="BR452" s="30"/>
       <c r="BS452" s="30"/>
@@ -52637,7 +52649,7 @@
       <c r="DM452" s="4"/>
       <c r="DN452" s="7"/>
     </row>
-    <row r="453" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ453" s="30"/>
       <c r="BR453" s="30"/>
       <c r="BS453" s="30"/>
@@ -52647,7 +52659,7 @@
       <c r="DM453" s="4"/>
       <c r="DN453" s="7"/>
     </row>
-    <row r="454" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ454" s="30"/>
       <c r="BR454" s="30"/>
       <c r="BS454" s="30"/>
@@ -52657,7 +52669,7 @@
       <c r="DM454" s="4"/>
       <c r="DN454" s="7"/>
     </row>
-    <row r="455" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ455" s="30"/>
       <c r="BR455" s="30"/>
       <c r="BS455" s="30"/>
@@ -52667,7 +52679,7 @@
       <c r="DM455" s="4"/>
       <c r="DN455" s="7"/>
     </row>
-    <row r="456" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ456" s="30"/>
       <c r="BR456" s="30"/>
       <c r="BS456" s="30"/>
@@ -52677,7 +52689,7 @@
       <c r="DM456" s="4"/>
       <c r="DN456" s="7"/>
     </row>
-    <row r="457" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ457" s="30"/>
       <c r="BR457" s="30"/>
       <c r="BS457" s="30"/>
@@ -52687,7 +52699,7 @@
       <c r="DM457" s="4"/>
       <c r="DN457" s="7"/>
     </row>
-    <row r="458" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ458" s="30"/>
       <c r="BR458" s="30"/>
       <c r="BS458" s="30"/>
@@ -52697,7 +52709,7 @@
       <c r="DM458" s="4"/>
       <c r="DN458" s="7"/>
     </row>
-    <row r="459" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ459" s="30"/>
       <c r="BR459" s="30"/>
       <c r="BS459" s="30"/>
@@ -52707,7 +52719,7 @@
       <c r="DM459" s="4"/>
       <c r="DN459" s="7"/>
     </row>
-    <row r="460" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ460" s="30"/>
       <c r="BR460" s="30"/>
       <c r="BS460" s="30"/>
@@ -52717,7 +52729,7 @@
       <c r="DM460" s="4"/>
       <c r="DN460" s="7"/>
     </row>
-    <row r="461" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ461" s="30"/>
       <c r="BR461" s="30"/>
       <c r="BS461" s="30"/>
@@ -52727,7 +52739,7 @@
       <c r="DM461" s="4"/>
       <c r="DN461" s="7"/>
     </row>
-    <row r="462" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ462" s="30"/>
       <c r="BR462" s="30"/>
       <c r="BS462" s="30"/>
@@ -52737,7 +52749,7 @@
       <c r="DM462" s="4"/>
       <c r="DN462" s="7"/>
     </row>
-    <row r="463" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ463" s="30"/>
       <c r="BR463" s="30"/>
       <c r="BS463" s="30"/>
@@ -52747,7 +52759,7 @@
       <c r="DM463" s="4"/>
       <c r="DN463" s="7"/>
     </row>
-    <row r="464" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ464" s="30"/>
       <c r="BR464" s="30"/>
       <c r="BS464" s="30"/>
@@ -52757,7 +52769,7 @@
       <c r="DM464" s="4"/>
       <c r="DN464" s="7"/>
     </row>
-    <row r="465" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ465" s="30"/>
       <c r="BR465" s="30"/>
       <c r="BS465" s="30"/>
@@ -52767,7 +52779,7 @@
       <c r="DM465" s="4"/>
       <c r="DN465" s="7"/>
     </row>
-    <row r="466" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ466" s="30"/>
       <c r="BR466" s="30"/>
       <c r="BS466" s="30"/>
@@ -52777,7 +52789,7 @@
       <c r="DM466" s="4"/>
       <c r="DN466" s="7"/>
     </row>
-    <row r="467" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ467" s="30"/>
       <c r="BR467" s="30"/>
       <c r="BS467" s="30"/>
@@ -52787,7 +52799,7 @@
       <c r="DM467" s="4"/>
       <c r="DN467" s="7"/>
     </row>
-    <row r="468" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ468" s="30"/>
       <c r="BR468" s="30"/>
       <c r="BS468" s="30"/>
@@ -52797,7 +52809,7 @@
       <c r="DM468" s="4"/>
       <c r="DN468" s="7"/>
     </row>
-    <row r="469" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ469" s="30"/>
       <c r="BR469" s="30"/>
       <c r="BS469" s="30"/>
@@ -52807,7 +52819,7 @@
       <c r="DM469" s="4"/>
       <c r="DN469" s="7"/>
     </row>
-    <row r="470" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ470" s="30"/>
       <c r="BR470" s="30"/>
       <c r="BS470" s="30"/>
@@ -52817,7 +52829,7 @@
       <c r="DM470" s="4"/>
       <c r="DN470" s="7"/>
     </row>
-    <row r="471" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ471" s="30"/>
       <c r="BR471" s="30"/>
       <c r="BS471" s="30"/>
@@ -52827,7 +52839,7 @@
       <c r="DM471" s="4"/>
       <c r="DN471" s="7"/>
     </row>
-    <row r="472" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ472" s="30"/>
       <c r="BR472" s="30"/>
       <c r="BS472" s="30"/>
@@ -52837,7 +52849,7 @@
       <c r="DM472" s="4"/>
       <c r="DN472" s="7"/>
     </row>
-    <row r="473" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ473" s="30"/>
       <c r="BR473" s="30"/>
       <c r="BS473" s="30"/>
@@ -52847,7 +52859,7 @@
       <c r="DM473" s="4"/>
       <c r="DN473" s="7"/>
     </row>
-    <row r="474" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ474" s="30"/>
       <c r="BR474" s="30"/>
       <c r="BS474" s="30"/>
@@ -52857,7 +52869,7 @@
       <c r="DM474" s="4"/>
       <c r="DN474" s="7"/>
     </row>
-    <row r="475" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ475" s="30"/>
       <c r="BR475" s="30"/>
       <c r="BS475" s="30"/>
@@ -52867,7 +52879,7 @@
       <c r="DM475" s="4"/>
       <c r="DN475" s="7"/>
     </row>
-    <row r="476" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ476" s="30"/>
       <c r="BR476" s="30"/>
       <c r="BS476" s="30"/>
@@ -52877,7 +52889,7 @@
       <c r="DM476" s="4"/>
       <c r="DN476" s="7"/>
     </row>
-    <row r="477" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ477" s="30"/>
       <c r="BR477" s="30"/>
       <c r="BS477" s="30"/>
@@ -52887,7 +52899,7 @@
       <c r="DM477" s="4"/>
       <c r="DN477" s="7"/>
     </row>
-    <row r="478" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ478" s="30"/>
       <c r="BR478" s="30"/>
       <c r="BS478" s="30"/>
@@ -52897,7 +52909,7 @@
       <c r="DM478" s="4"/>
       <c r="DN478" s="7"/>
     </row>
-    <row r="479" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ479" s="30"/>
       <c r="BR479" s="30"/>
       <c r="BS479" s="30"/>
@@ -52907,7 +52919,7 @@
       <c r="DM479" s="4"/>
       <c r="DN479" s="7"/>
     </row>
-    <row r="480" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ480" s="30"/>
       <c r="BR480" s="30"/>
       <c r="BS480" s="30"/>
@@ -52917,7 +52929,7 @@
       <c r="DM480" s="4"/>
       <c r="DN480" s="7"/>
     </row>
-    <row r="481" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ481" s="30"/>
       <c r="BR481" s="30"/>
       <c r="BS481" s="30"/>
@@ -52927,7 +52939,7 @@
       <c r="DM481" s="4"/>
       <c r="DN481" s="7"/>
     </row>
-    <row r="482" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ482" s="30"/>
       <c r="BR482" s="30"/>
       <c r="BS482" s="30"/>
@@ -52937,7 +52949,7 @@
       <c r="DM482" s="4"/>
       <c r="DN482" s="7"/>
     </row>
-    <row r="483" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ483" s="30"/>
       <c r="BR483" s="30"/>
       <c r="BS483" s="30"/>
@@ -52947,7 +52959,7 @@
       <c r="DM483" s="4"/>
       <c r="DN483" s="7"/>
     </row>
-    <row r="484" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ484" s="30"/>
       <c r="BR484" s="30"/>
       <c r="BS484" s="30"/>
@@ -52957,7 +52969,7 @@
       <c r="DM484" s="4"/>
       <c r="DN484" s="7"/>
     </row>
-    <row r="485" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ485" s="30"/>
       <c r="BR485" s="30"/>
       <c r="BS485" s="30"/>
@@ -52967,7 +52979,7 @@
       <c r="DM485" s="4"/>
       <c r="DN485" s="7"/>
     </row>
-    <row r="486" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ486" s="30"/>
       <c r="BR486" s="30"/>
       <c r="BS486" s="30"/>
@@ -52977,7 +52989,7 @@
       <c r="DM486" s="4"/>
       <c r="DN486" s="7"/>
     </row>
-    <row r="487" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ487" s="30"/>
       <c r="BR487" s="30"/>
       <c r="BS487" s="30"/>
@@ -52987,7 +52999,7 @@
       <c r="DM487" s="4"/>
       <c r="DN487" s="7"/>
     </row>
-    <row r="488" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ488" s="30"/>
       <c r="BR488" s="30"/>
       <c r="BS488" s="30"/>
@@ -52997,7 +53009,7 @@
       <c r="DM488" s="4"/>
       <c r="DN488" s="7"/>
     </row>
-    <row r="489" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ489" s="30"/>
       <c r="BR489" s="30"/>
       <c r="BS489" s="30"/>
@@ -53007,7 +53019,7 @@
       <c r="DM489" s="4"/>
       <c r="DN489" s="7"/>
     </row>
-    <row r="490" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ490" s="30"/>
       <c r="BR490" s="30"/>
       <c r="BS490" s="30"/>
@@ -53017,7 +53029,7 @@
       <c r="DM490" s="4"/>
       <c r="DN490" s="7"/>
     </row>
-    <row r="491" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ491" s="30"/>
       <c r="BR491" s="30"/>
       <c r="BS491" s="30"/>
@@ -53027,7 +53039,7 @@
       <c r="DM491" s="4"/>
       <c r="DN491" s="7"/>
     </row>
-    <row r="492" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ492" s="30"/>
       <c r="BR492" s="30"/>
       <c r="BS492" s="30"/>
@@ -53037,7 +53049,7 @@
       <c r="DM492" s="4"/>
       <c r="DN492" s="7"/>
     </row>
-    <row r="493" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ493" s="30"/>
       <c r="BR493" s="30"/>
       <c r="BS493" s="30"/>
@@ -53047,7 +53059,7 @@
       <c r="DM493" s="4"/>
       <c r="DN493" s="7"/>
     </row>
-    <row r="494" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ494" s="30"/>
       <c r="BR494" s="30"/>
       <c r="BS494" s="30"/>
@@ -53057,7 +53069,7 @@
       <c r="DM494" s="4"/>
       <c r="DN494" s="7"/>
     </row>
-    <row r="495" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ495" s="30"/>
       <c r="BR495" s="30"/>
       <c r="BS495" s="30"/>
@@ -53067,7 +53079,7 @@
       <c r="DM495" s="4"/>
       <c r="DN495" s="7"/>
     </row>
-    <row r="496" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ496" s="30"/>
       <c r="BR496" s="30"/>
       <c r="BS496" s="30"/>
@@ -53077,7 +53089,7 @@
       <c r="DM496" s="4"/>
       <c r="DN496" s="7"/>
     </row>
-    <row r="497" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ497" s="30"/>
       <c r="BR497" s="30"/>
       <c r="BS497" s="30"/>
@@ -53087,7 +53099,7 @@
       <c r="DM497" s="4"/>
       <c r="DN497" s="7"/>
     </row>
-    <row r="498" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ498" s="30"/>
       <c r="BR498" s="30"/>
       <c r="BS498" s="30"/>
@@ -53097,7 +53109,7 @@
       <c r="DM498" s="4"/>
       <c r="DN498" s="7"/>
     </row>
-    <row r="499" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ499" s="30"/>
       <c r="BR499" s="30"/>
       <c r="BS499" s="30"/>
@@ -53107,7 +53119,7 @@
       <c r="DM499" s="4"/>
       <c r="DN499" s="7"/>
     </row>
-    <row r="500" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ500" s="30"/>
       <c r="BR500" s="30"/>
       <c r="BS500" s="30"/>
@@ -53117,7 +53129,7 @@
       <c r="DM500" s="4"/>
       <c r="DN500" s="7"/>
     </row>
-    <row r="501" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ501" s="30"/>
       <c r="BR501" s="30"/>
       <c r="BS501" s="30"/>
@@ -53127,7 +53139,7 @@
       <c r="DM501" s="4"/>
       <c r="DN501" s="7"/>
     </row>
-    <row r="502" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ502" s="30"/>
       <c r="BR502" s="30"/>
       <c r="BS502" s="30"/>
@@ -53137,7 +53149,7 @@
       <c r="DM502" s="4"/>
       <c r="DN502" s="7"/>
     </row>
-    <row r="503" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ503" s="30"/>
       <c r="BR503" s="30"/>
       <c r="BS503" s="30"/>
@@ -53147,7 +53159,7 @@
       <c r="DM503" s="4"/>
       <c r="DN503" s="7"/>
     </row>
-    <row r="504" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ504" s="30"/>
       <c r="BR504" s="30"/>
       <c r="BS504" s="30"/>
@@ -53157,7 +53169,7 @@
       <c r="DM504" s="4"/>
       <c r="DN504" s="7"/>
     </row>
-    <row r="505" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ505" s="30"/>
       <c r="BR505" s="30"/>
       <c r="BS505" s="30"/>
@@ -53167,7 +53179,7 @@
       <c r="DM505" s="4"/>
       <c r="DN505" s="7"/>
     </row>
-    <row r="506" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ506" s="30"/>
       <c r="BR506" s="30"/>
       <c r="BS506" s="30"/>
@@ -53177,7 +53189,7 @@
       <c r="DM506" s="4"/>
       <c r="DN506" s="7"/>
     </row>
-    <row r="507" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ507" s="30"/>
       <c r="BR507" s="30"/>
       <c r="BS507" s="30"/>
@@ -53187,7 +53199,7 @@
       <c r="DM507" s="4"/>
       <c r="DN507" s="7"/>
     </row>
-    <row r="508" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ508" s="30"/>
       <c r="BR508" s="30"/>
       <c r="BS508" s="30"/>
@@ -53197,7 +53209,7 @@
       <c r="DM508" s="4"/>
       <c r="DN508" s="7"/>
     </row>
-    <row r="509" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ509" s="30"/>
       <c r="BR509" s="30"/>
       <c r="BS509" s="30"/>
@@ -53207,7 +53219,7 @@
       <c r="DM509" s="4"/>
       <c r="DN509" s="7"/>
     </row>
-    <row r="510" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ510" s="30"/>
       <c r="BR510" s="30"/>
       <c r="BS510" s="30"/>
@@ -53217,7 +53229,7 @@
       <c r="DM510" s="4"/>
       <c r="DN510" s="7"/>
     </row>
-    <row r="511" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ511" s="30"/>
       <c r="BR511" s="30"/>
       <c r="BS511" s="30"/>
@@ -53227,7 +53239,7 @@
       <c r="DM511" s="4"/>
       <c r="DN511" s="7"/>
     </row>
-    <row r="512" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ512" s="30"/>
       <c r="BR512" s="30"/>
       <c r="BS512" s="30"/>
@@ -53237,7 +53249,7 @@
       <c r="DM512" s="4"/>
       <c r="DN512" s="7"/>
     </row>
-    <row r="513" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ513" s="30"/>
       <c r="BR513" s="30"/>
       <c r="BS513" s="30"/>
@@ -53247,7 +53259,7 @@
       <c r="DM513" s="4"/>
       <c r="DN513" s="7"/>
     </row>
-    <row r="514" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ514" s="30"/>
       <c r="BR514" s="30"/>
       <c r="BS514" s="30"/>
@@ -53257,7 +53269,7 @@
       <c r="DM514" s="4"/>
       <c r="DN514" s="7"/>
     </row>
-    <row r="515" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ515" s="30"/>
       <c r="BR515" s="30"/>
       <c r="BS515" s="30"/>
@@ -53267,7 +53279,7 @@
       <c r="DM515" s="4"/>
       <c r="DN515" s="7"/>
     </row>
-    <row r="516" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ516" s="30"/>
       <c r="BR516" s="30"/>
       <c r="BS516" s="30"/>
@@ -53277,7 +53289,7 @@
       <c r="DM516" s="4"/>
       <c r="DN516" s="7"/>
     </row>
-    <row r="517" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ517" s="30"/>
       <c r="BR517" s="30"/>
       <c r="BS517" s="30"/>
@@ -53287,7 +53299,7 @@
       <c r="DM517" s="4"/>
       <c r="DN517" s="7"/>
     </row>
-    <row r="518" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ518" s="30"/>
       <c r="BR518" s="30"/>
       <c r="BS518" s="30"/>
@@ -53297,7 +53309,7 @@
       <c r="DM518" s="4"/>
       <c r="DN518" s="7"/>
     </row>
-    <row r="519" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ519" s="30"/>
       <c r="BR519" s="30"/>
       <c r="BS519" s="30"/>
@@ -53307,7 +53319,7 @@
       <c r="DM519" s="4"/>
       <c r="DN519" s="7"/>
     </row>
-    <row r="520" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ520" s="30"/>
       <c r="BR520" s="30"/>
       <c r="BS520" s="30"/>
@@ -53317,7 +53329,7 @@
       <c r="DM520" s="4"/>
       <c r="DN520" s="7"/>
     </row>
-    <row r="521" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ521" s="30"/>
       <c r="BR521" s="30"/>
       <c r="BS521" s="30"/>
@@ -53327,7 +53339,7 @@
       <c r="DM521" s="4"/>
       <c r="DN521" s="7"/>
     </row>
-    <row r="522" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ522" s="30"/>
       <c r="BR522" s="30"/>
       <c r="BS522" s="30"/>
@@ -53337,7 +53349,7 @@
       <c r="DM522" s="4"/>
       <c r="DN522" s="7"/>
     </row>
-    <row r="523" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ523" s="30"/>
       <c r="BR523" s="30"/>
       <c r="BS523" s="30"/>
@@ -53347,7 +53359,7 @@
       <c r="DM523" s="4"/>
       <c r="DN523" s="7"/>
     </row>
-    <row r="524" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ524" s="30"/>
       <c r="BR524" s="30"/>
       <c r="BS524" s="30"/>
@@ -53357,7 +53369,7 @@
       <c r="DM524" s="4"/>
       <c r="DN524" s="7"/>
     </row>
-    <row r="525" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ525" s="30"/>
       <c r="BR525" s="30"/>
       <c r="BS525" s="30"/>
@@ -53367,7 +53379,7 @@
       <c r="DM525" s="4"/>
       <c r="DN525" s="7"/>
     </row>
-    <row r="526" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ526" s="30"/>
       <c r="BR526" s="30"/>
       <c r="BS526" s="30"/>
@@ -53377,7 +53389,7 @@
       <c r="DM526" s="4"/>
       <c r="DN526" s="7"/>
     </row>
-    <row r="527" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ527" s="30"/>
       <c r="BR527" s="30"/>
       <c r="BS527" s="30"/>
@@ -53387,7 +53399,7 @@
       <c r="DM527" s="4"/>
       <c r="DN527" s="7"/>
     </row>
-    <row r="528" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ528" s="30"/>
       <c r="BR528" s="30"/>
       <c r="BS528" s="30"/>
@@ -53397,7 +53409,7 @@
       <c r="DM528" s="4"/>
       <c r="DN528" s="7"/>
     </row>
-    <row r="529" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ529" s="30"/>
       <c r="BR529" s="30"/>
       <c r="BS529" s="30"/>
@@ -53407,7 +53419,7 @@
       <c r="DM529" s="4"/>
       <c r="DN529" s="7"/>
     </row>
-    <row r="530" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ530" s="30"/>
       <c r="BR530" s="30"/>
       <c r="BS530" s="30"/>
@@ -53417,7 +53429,7 @@
       <c r="DM530" s="4"/>
       <c r="DN530" s="7"/>
     </row>
-    <row r="531" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ531" s="30"/>
       <c r="BR531" s="30"/>
       <c r="BS531" s="30"/>
@@ -53427,7 +53439,7 @@
       <c r="DM531" s="4"/>
       <c r="DN531" s="7"/>
     </row>
-    <row r="532" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ532" s="30"/>
       <c r="BR532" s="30"/>
       <c r="BS532" s="30"/>
@@ -53437,7 +53449,7 @@
       <c r="DM532" s="4"/>
       <c r="DN532" s="7"/>
     </row>
-    <row r="533" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ533" s="30"/>
       <c r="BR533" s="30"/>
       <c r="BS533" s="30"/>
@@ -53447,7 +53459,7 @@
       <c r="DM533" s="4"/>
       <c r="DN533" s="7"/>
     </row>
-    <row r="534" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ534" s="30"/>
       <c r="BR534" s="30"/>
       <c r="BS534" s="30"/>
@@ -53457,7 +53469,7 @@
       <c r="DM534" s="4"/>
       <c r="DN534" s="7"/>
     </row>
-    <row r="535" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ535" s="30"/>
       <c r="BR535" s="30"/>
       <c r="BS535" s="30"/>
@@ -53467,7 +53479,7 @@
       <c r="DM535" s="4"/>
       <c r="DN535" s="7"/>
     </row>
-    <row r="536" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ536" s="30"/>
       <c r="BR536" s="30"/>
       <c r="BS536" s="30"/>
@@ -53477,7 +53489,7 @@
       <c r="DM536" s="4"/>
       <c r="DN536" s="7"/>
     </row>
-    <row r="537" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ537" s="30"/>
       <c r="BR537" s="30"/>
       <c r="BS537" s="30"/>
@@ -53487,7 +53499,7 @@
       <c r="DM537" s="4"/>
       <c r="DN537" s="7"/>
     </row>
-    <row r="538" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ538" s="30"/>
       <c r="BR538" s="30"/>
       <c r="BS538" s="30"/>
@@ -53497,7 +53509,7 @@
       <c r="DM538" s="4"/>
       <c r="DN538" s="7"/>
     </row>
-    <row r="539" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ539" s="30"/>
       <c r="BR539" s="30"/>
       <c r="BS539" s="30"/>
@@ -53507,7 +53519,7 @@
       <c r="DM539" s="4"/>
       <c r="DN539" s="7"/>
     </row>
-    <row r="540" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ540" s="30"/>
       <c r="BR540" s="30"/>
       <c r="BS540" s="30"/>
@@ -53517,7 +53529,7 @@
       <c r="DM540" s="4"/>
       <c r="DN540" s="7"/>
     </row>
-    <row r="541" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ541" s="30"/>
       <c r="BR541" s="30"/>
       <c r="BS541" s="30"/>
@@ -53527,7 +53539,7 @@
       <c r="DM541" s="4"/>
       <c r="DN541" s="7"/>
     </row>
-    <row r="542" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ542" s="30"/>
       <c r="BR542" s="30"/>
       <c r="BS542" s="30"/>
@@ -53537,7 +53549,7 @@
       <c r="DM542" s="4"/>
       <c r="DN542" s="7"/>
     </row>
-    <row r="543" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ543" s="30"/>
       <c r="BR543" s="30"/>
       <c r="BS543" s="30"/>
@@ -53547,7 +53559,7 @@
       <c r="DM543" s="4"/>
       <c r="DN543" s="7"/>
     </row>
-    <row r="544" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ544" s="30"/>
       <c r="BR544" s="30"/>
       <c r="BS544" s="30"/>
@@ -53557,7 +53569,7 @@
       <c r="DM544" s="4"/>
       <c r="DN544" s="7"/>
     </row>
-    <row r="545" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ545" s="30"/>
       <c r="BR545" s="30"/>
       <c r="BS545" s="30"/>
@@ -53567,7 +53579,7 @@
       <c r="DM545" s="4"/>
       <c r="DN545" s="7"/>
     </row>
-    <row r="546" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ546" s="30"/>
       <c r="BR546" s="30"/>
       <c r="BS546" s="30"/>
@@ -53577,7 +53589,7 @@
       <c r="DM546" s="4"/>
       <c r="DN546" s="7"/>
     </row>
-    <row r="547" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ547" s="30"/>
       <c r="BR547" s="30"/>
       <c r="BS547" s="30"/>
@@ -53587,7 +53599,7 @@
       <c r="DM547" s="4"/>
       <c r="DN547" s="7"/>
     </row>
-    <row r="548" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ548" s="30"/>
       <c r="BR548" s="30"/>
       <c r="BS548" s="30"/>
@@ -53597,7 +53609,7 @@
       <c r="DM548" s="4"/>
       <c r="DN548" s="7"/>
     </row>
-    <row r="549" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ549" s="30"/>
       <c r="BR549" s="30"/>
       <c r="BS549" s="30"/>
@@ -53607,7 +53619,7 @@
       <c r="DM549" s="4"/>
       <c r="DN549" s="7"/>
     </row>
-    <row r="550" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ550" s="30"/>
       <c r="BR550" s="30"/>
       <c r="BS550" s="30"/>
@@ -53617,7 +53629,7 @@
       <c r="DM550" s="4"/>
       <c r="DN550" s="7"/>
     </row>
-    <row r="551" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ551" s="30"/>
       <c r="BR551" s="30"/>
       <c r="BS551" s="30"/>
@@ -53627,7 +53639,7 @@
       <c r="DM551" s="4"/>
       <c r="DN551" s="7"/>
     </row>
-    <row r="552" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ552" s="30"/>
       <c r="BR552" s="30"/>
       <c r="BS552" s="30"/>
@@ -53637,7 +53649,7 @@
       <c r="DM552" s="4"/>
       <c r="DN552" s="7"/>
     </row>
-    <row r="553" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ553" s="30"/>
       <c r="BR553" s="30"/>
       <c r="BS553" s="30"/>
@@ -53647,7 +53659,7 @@
       <c r="DM553" s="4"/>
       <c r="DN553" s="7"/>
     </row>
-    <row r="554" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ554" s="30"/>
       <c r="BR554" s="30"/>
       <c r="BS554" s="30"/>
@@ -53657,7 +53669,7 @@
       <c r="DM554" s="4"/>
       <c r="DN554" s="7"/>
     </row>
-    <row r="555" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ555" s="30"/>
       <c r="BR555" s="30"/>
       <c r="BS555" s="30"/>
@@ -53667,7 +53679,7 @@
       <c r="DM555" s="4"/>
       <c r="DN555" s="7"/>
     </row>
-    <row r="556" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ556" s="30"/>
       <c r="BR556" s="30"/>
       <c r="BS556" s="30"/>
@@ -53677,7 +53689,7 @@
       <c r="DM556" s="4"/>
       <c r="DN556" s="7"/>
     </row>
-    <row r="557" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ557" s="30"/>
       <c r="BR557" s="30"/>
       <c r="BS557" s="30"/>
@@ -53687,7 +53699,7 @@
       <c r="DM557" s="4"/>
       <c r="DN557" s="7"/>
     </row>
-    <row r="558" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ558" s="30"/>
       <c r="BR558" s="30"/>
       <c r="BS558" s="30"/>
@@ -53697,7 +53709,7 @@
       <c r="DM558" s="4"/>
       <c r="DN558" s="7"/>
     </row>
-    <row r="559" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ559" s="30"/>
       <c r="BR559" s="30"/>
       <c r="BS559" s="30"/>
@@ -53707,7 +53719,7 @@
       <c r="DM559" s="4"/>
       <c r="DN559" s="7"/>
     </row>
-    <row r="560" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ560" s="30"/>
       <c r="BR560" s="30"/>
       <c r="BS560" s="30"/>
@@ -53717,7 +53729,7 @@
       <c r="DM560" s="4"/>
       <c r="DN560" s="7"/>
     </row>
-    <row r="561" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ561" s="30"/>
       <c r="BR561" s="30"/>
       <c r="BS561" s="30"/>
@@ -53727,7 +53739,7 @@
       <c r="DM561" s="4"/>
       <c r="DN561" s="7"/>
     </row>
-    <row r="562" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ562" s="30"/>
       <c r="BR562" s="30"/>
       <c r="BS562" s="30"/>
@@ -53737,7 +53749,7 @@
       <c r="DM562" s="4"/>
       <c r="DN562" s="7"/>
     </row>
-    <row r="563" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ563" s="30"/>
       <c r="BR563" s="30"/>
       <c r="BS563" s="30"/>
@@ -53747,7 +53759,7 @@
       <c r="DM563" s="4"/>
       <c r="DN563" s="7"/>
     </row>
-    <row r="564" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ564" s="30"/>
       <c r="BR564" s="30"/>
       <c r="BS564" s="30"/>
@@ -53757,7 +53769,7 @@
       <c r="DM564" s="4"/>
       <c r="DN564" s="7"/>
     </row>
-    <row r="565" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ565" s="30"/>
       <c r="BR565" s="30"/>
       <c r="BS565" s="30"/>
@@ -53767,7 +53779,7 @@
       <c r="DM565" s="4"/>
       <c r="DN565" s="7"/>
     </row>
-    <row r="566" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ566" s="30"/>
       <c r="BR566" s="30"/>
       <c r="BS566" s="30"/>
@@ -53777,7 +53789,7 @@
       <c r="DM566" s="4"/>
       <c r="DN566" s="7"/>
     </row>
-    <row r="567" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ567" s="30"/>
       <c r="BR567" s="30"/>
       <c r="BS567" s="30"/>
@@ -53787,7 +53799,7 @@
       <c r="DM567" s="4"/>
       <c r="DN567" s="7"/>
     </row>
-    <row r="568" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ568" s="30"/>
       <c r="BR568" s="30"/>
       <c r="BS568" s="30"/>
@@ -53797,7 +53809,7 @@
       <c r="DM568" s="4"/>
       <c r="DN568" s="7"/>
     </row>
-    <row r="569" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ569" s="30"/>
       <c r="BR569" s="30"/>
       <c r="BS569" s="30"/>
@@ -53807,7 +53819,7 @@
       <c r="DM569" s="4"/>
       <c r="DN569" s="7"/>
     </row>
-    <row r="570" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ570" s="30"/>
       <c r="BR570" s="30"/>
       <c r="BS570" s="30"/>
@@ -53817,7 +53829,7 @@
       <c r="DM570" s="4"/>
       <c r="DN570" s="7"/>
     </row>
-    <row r="571" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ571" s="30"/>
       <c r="BR571" s="30"/>
       <c r="BS571" s="30"/>
@@ -53827,7 +53839,7 @@
       <c r="DM571" s="4"/>
       <c r="DN571" s="7"/>
     </row>
-    <row r="572" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ572" s="30"/>
       <c r="BR572" s="30"/>
       <c r="BS572" s="30"/>
@@ -53837,7 +53849,7 @@
       <c r="DM572" s="4"/>
       <c r="DN572" s="7"/>
     </row>
-    <row r="573" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ573" s="30"/>
       <c r="BR573" s="30"/>
       <c r="BS573" s="30"/>
@@ -53847,7 +53859,7 @@
       <c r="DM573" s="4"/>
       <c r="DN573" s="7"/>
     </row>
-    <row r="574" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ574" s="30"/>
       <c r="BR574" s="30"/>
       <c r="BS574" s="30"/>
@@ -53857,7 +53869,7 @@
       <c r="DM574" s="4"/>
       <c r="DN574" s="7"/>
     </row>
-    <row r="575" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ575" s="30"/>
       <c r="BR575" s="30"/>
       <c r="BS575" s="30"/>
@@ -53867,7 +53879,7 @@
       <c r="DM575" s="4"/>
       <c r="DN575" s="7"/>
     </row>
-    <row r="576" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ576" s="30"/>
       <c r="BR576" s="30"/>
       <c r="BS576" s="30"/>
@@ -53877,7 +53889,7 @@
       <c r="DM576" s="4"/>
       <c r="DN576" s="7"/>
     </row>
-    <row r="577" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ577" s="30"/>
       <c r="BR577" s="30"/>
       <c r="BS577" s="30"/>
@@ -53887,7 +53899,7 @@
       <c r="DM577" s="4"/>
       <c r="DN577" s="7"/>
     </row>
-    <row r="578" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ578" s="30"/>
       <c r="BR578" s="30"/>
       <c r="BS578" s="30"/>
@@ -53897,7 +53909,7 @@
       <c r="DM578" s="4"/>
       <c r="DN578" s="7"/>
     </row>
-    <row r="579" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ579" s="30"/>
       <c r="BR579" s="30"/>
       <c r="BS579" s="30"/>
@@ -53907,7 +53919,7 @@
       <c r="DM579" s="4"/>
       <c r="DN579" s="7"/>
     </row>
-    <row r="580" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ580" s="30"/>
       <c r="BR580" s="30"/>
       <c r="BS580" s="30"/>
@@ -53917,7 +53929,7 @@
       <c r="DM580" s="4"/>
       <c r="DN580" s="7"/>
     </row>
-    <row r="581" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ581" s="30"/>
       <c r="BR581" s="30"/>
       <c r="BS581" s="30"/>
@@ -53927,7 +53939,7 @@
       <c r="DM581" s="4"/>
       <c r="DN581" s="7"/>
     </row>
-    <row r="582" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ582" s="30"/>
       <c r="BR582" s="30"/>
       <c r="BS582" s="30"/>
@@ -53937,7 +53949,7 @@
       <c r="DM582" s="4"/>
       <c r="DN582" s="7"/>
     </row>
-    <row r="583" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ583" s="30"/>
       <c r="BR583" s="30"/>
       <c r="BS583" s="30"/>
@@ -53947,7 +53959,7 @@
       <c r="DM583" s="4"/>
       <c r="DN583" s="7"/>
     </row>
-    <row r="584" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ584" s="30"/>
       <c r="BR584" s="30"/>
       <c r="BS584" s="30"/>
@@ -53957,7 +53969,7 @@
       <c r="DM584" s="4"/>
       <c r="DN584" s="7"/>
     </row>
-    <row r="585" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ585" s="30"/>
       <c r="BR585" s="30"/>
       <c r="BS585" s="30"/>
@@ -53967,7 +53979,7 @@
       <c r="DM585" s="4"/>
       <c r="DN585" s="7"/>
     </row>
-    <row r="586" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ586" s="30"/>
       <c r="BR586" s="30"/>
       <c r="BS586" s="30"/>
@@ -53977,7 +53989,7 @@
       <c r="DM586" s="4"/>
       <c r="DN586" s="7"/>
     </row>
-    <row r="587" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ587" s="30"/>
       <c r="BR587" s="30"/>
       <c r="BS587" s="30"/>
@@ -53987,7 +53999,7 @@
       <c r="DM587" s="4"/>
       <c r="DN587" s="7"/>
     </row>
-    <row r="588" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ588" s="30"/>
       <c r="BR588" s="30"/>
       <c r="BS588" s="30"/>
@@ -53997,7 +54009,7 @@
       <c r="DM588" s="4"/>
       <c r="DN588" s="7"/>
     </row>
-    <row r="589" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ589" s="30"/>
       <c r="BR589" s="30"/>
       <c r="BS589" s="30"/>
@@ -54007,7 +54019,7 @@
       <c r="DM589" s="4"/>
       <c r="DN589" s="7"/>
     </row>
-    <row r="590" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ590" s="30"/>
       <c r="BR590" s="30"/>
       <c r="BS590" s="30"/>
@@ -54017,7 +54029,7 @@
       <c r="DM590" s="4"/>
       <c r="DN590" s="7"/>
     </row>
-    <row r="591" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ591" s="30"/>
       <c r="BR591" s="30"/>
       <c r="BS591" s="30"/>
@@ -54027,7 +54039,7 @@
       <c r="DM591" s="4"/>
       <c r="DN591" s="7"/>
     </row>
-    <row r="592" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ592" s="30"/>
       <c r="BR592" s="30"/>
       <c r="BS592" s="30"/>
@@ -54037,7 +54049,7 @@
       <c r="DM592" s="4"/>
       <c r="DN592" s="7"/>
     </row>
-    <row r="593" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ593" s="30"/>
       <c r="BR593" s="30"/>
       <c r="BS593" s="30"/>
@@ -54047,7 +54059,7 @@
       <c r="DM593" s="4"/>
       <c r="DN593" s="7"/>
     </row>
-    <row r="594" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ594" s="30"/>
       <c r="BR594" s="30"/>
       <c r="BS594" s="30"/>
@@ -54057,7 +54069,7 @@
       <c r="DM594" s="4"/>
       <c r="DN594" s="7"/>
     </row>
-    <row r="595" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ595" s="30"/>
       <c r="BR595" s="30"/>
       <c r="BS595" s="30"/>
@@ -54067,7 +54079,7 @@
       <c r="DM595" s="4"/>
       <c r="DN595" s="7"/>
     </row>
-    <row r="596" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ596" s="30"/>
       <c r="BR596" s="30"/>
       <c r="BS596" s="30"/>
@@ -54077,7 +54089,7 @@
       <c r="DM596" s="4"/>
       <c r="DN596" s="7"/>
     </row>
-    <row r="597" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ597" s="30"/>
       <c r="BR597" s="30"/>
       <c r="BS597" s="30"/>
@@ -54087,7 +54099,7 @@
       <c r="DM597" s="4"/>
       <c r="DN597" s="7"/>
     </row>
-    <row r="598" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ598" s="30"/>
       <c r="BR598" s="30"/>
       <c r="BS598" s="30"/>
@@ -54097,7 +54109,7 @@
       <c r="DM598" s="4"/>
       <c r="DN598" s="7"/>
     </row>
-    <row r="599" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ599" s="30"/>
       <c r="BR599" s="30"/>
       <c r="BS599" s="30"/>
@@ -54107,7 +54119,7 @@
       <c r="DM599" s="4"/>
       <c r="DN599" s="7"/>
     </row>
-    <row r="600" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ600" s="30"/>
       <c r="BR600" s="30"/>
       <c r="BS600" s="30"/>
@@ -54117,7 +54129,7 @@
       <c r="DM600" s="4"/>
       <c r="DN600" s="7"/>
     </row>
-    <row r="601" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ601" s="30"/>
       <c r="BR601" s="30"/>
       <c r="BS601" s="30"/>
@@ -54127,7 +54139,7 @@
       <c r="DM601" s="4"/>
       <c r="DN601" s="7"/>
     </row>
-    <row r="602" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ602" s="30"/>
       <c r="BR602" s="30"/>
       <c r="BS602" s="30"/>
@@ -54137,7 +54149,7 @@
       <c r="DM602" s="4"/>
       <c r="DN602" s="7"/>
     </row>
-    <row r="603" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ603" s="30"/>
       <c r="BR603" s="30"/>
       <c r="BS603" s="30"/>
@@ -54147,7 +54159,7 @@
       <c r="DM603" s="4"/>
       <c r="DN603" s="7"/>
     </row>
-    <row r="604" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ604" s="30"/>
       <c r="BR604" s="30"/>
       <c r="BS604" s="30"/>
@@ -54157,7 +54169,7 @@
       <c r="DM604" s="4"/>
       <c r="DN604" s="7"/>
     </row>
-    <row r="605" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ605" s="30"/>
       <c r="BR605" s="30"/>
       <c r="BS605" s="30"/>
@@ -54167,7 +54179,7 @@
       <c r="DM605" s="4"/>
       <c r="DN605" s="7"/>
     </row>
-    <row r="606" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ606" s="30"/>
       <c r="BR606" s="30"/>
       <c r="BS606" s="30"/>
@@ -54177,7 +54189,7 @@
       <c r="DM606" s="4"/>
       <c r="DN606" s="7"/>
     </row>
-    <row r="607" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ607" s="30"/>
       <c r="BR607" s="30"/>
       <c r="BS607" s="30"/>
@@ -54187,7 +54199,7 @@
       <c r="DM607" s="4"/>
       <c r="DN607" s="7"/>
     </row>
-    <row r="608" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ608" s="30"/>
       <c r="BR608" s="30"/>
       <c r="BS608" s="30"/>
@@ -54197,7 +54209,7 @@
       <c r="DM608" s="4"/>
       <c r="DN608" s="7"/>
     </row>
-    <row r="609" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ609" s="30"/>
       <c r="BR609" s="30"/>
       <c r="BS609" s="30"/>
@@ -54207,7 +54219,7 @@
       <c r="DM609" s="4"/>
       <c r="DN609" s="7"/>
     </row>
-    <row r="610" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ610" s="30"/>
       <c r="BR610" s="30"/>
       <c r="BS610" s="30"/>
@@ -54217,7 +54229,7 @@
       <c r="DM610" s="4"/>
       <c r="DN610" s="7"/>
     </row>
-    <row r="611" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ611" s="30"/>
       <c r="BR611" s="30"/>
       <c r="BS611" s="30"/>
@@ -54227,7 +54239,7 @@
       <c r="DM611" s="4"/>
       <c r="DN611" s="7"/>
     </row>
-    <row r="612" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ612" s="30"/>
       <c r="BR612" s="30"/>
       <c r="BS612" s="30"/>
@@ -54237,7 +54249,7 @@
       <c r="DM612" s="4"/>
       <c r="DN612" s="7"/>
     </row>
-    <row r="613" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ613" s="30"/>
       <c r="BR613" s="30"/>
       <c r="BS613" s="30"/>
@@ -54247,7 +54259,7 @@
       <c r="DM613" s="4"/>
       <c r="DN613" s="7"/>
     </row>
-    <row r="614" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ614" s="30"/>
       <c r="BR614" s="30"/>
       <c r="BS614" s="30"/>
@@ -54257,7 +54269,7 @@
       <c r="DM614" s="4"/>
       <c r="DN614" s="7"/>
     </row>
-    <row r="615" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ615" s="30"/>
       <c r="BR615" s="30"/>
       <c r="BS615" s="30"/>
@@ -54267,7 +54279,7 @@
       <c r="DM615" s="4"/>
       <c r="DN615" s="7"/>
     </row>
-    <row r="616" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ616" s="30"/>
       <c r="BR616" s="30"/>
       <c r="BS616" s="30"/>
@@ -54277,7 +54289,7 @@
       <c r="DM616" s="4"/>
       <c r="DN616" s="7"/>
     </row>
-    <row r="617" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ617" s="30"/>
       <c r="BR617" s="30"/>
       <c r="BS617" s="30"/>
@@ -54287,7 +54299,7 @@
       <c r="DM617" s="4"/>
       <c r="DN617" s="7"/>
     </row>
-    <row r="618" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ618" s="30"/>
       <c r="BR618" s="30"/>
       <c r="BS618" s="30"/>
@@ -54297,7 +54309,7 @@
       <c r="DM618" s="4"/>
       <c r="DN618" s="7"/>
     </row>
-    <row r="619" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ619" s="30"/>
       <c r="BR619" s="30"/>
       <c r="BS619" s="30"/>
@@ -54307,7 +54319,7 @@
       <c r="DM619" s="4"/>
       <c r="DN619" s="7"/>
     </row>
-    <row r="620" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ620" s="30"/>
       <c r="BR620" s="30"/>
       <c r="BS620" s="30"/>
@@ -54317,7 +54329,7 @@
       <c r="DM620" s="4"/>
       <c r="DN620" s="7"/>
     </row>
-    <row r="621" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ621" s="30"/>
       <c r="BR621" s="30"/>
       <c r="BS621" s="30"/>
@@ -54327,7 +54339,7 @@
       <c r="DM621" s="4"/>
       <c r="DN621" s="7"/>
     </row>
-    <row r="622" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ622" s="30"/>
       <c r="BR622" s="30"/>
       <c r="BS622" s="30"/>
@@ -54337,7 +54349,7 @@
       <c r="DM622" s="4"/>
       <c r="DN622" s="7"/>
     </row>
-    <row r="623" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ623" s="30"/>
       <c r="BR623" s="30"/>
       <c r="BS623" s="30"/>
@@ -54347,7 +54359,7 @@
       <c r="DM623" s="4"/>
       <c r="DN623" s="7"/>
     </row>
-    <row r="624" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ624" s="30"/>
       <c r="BR624" s="30"/>
       <c r="BS624" s="30"/>
@@ -54357,7 +54369,7 @@
       <c r="DM624" s="4"/>
       <c r="DN624" s="7"/>
     </row>
-    <row r="625" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ625" s="30"/>
       <c r="BR625" s="30"/>
       <c r="BS625" s="30"/>
@@ -54367,7 +54379,7 @@
       <c r="DM625" s="4"/>
       <c r="DN625" s="7"/>
     </row>
-    <row r="626" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ626" s="30"/>
       <c r="BR626" s="30"/>
       <c r="BS626" s="30"/>
@@ -54377,7 +54389,7 @@
       <c r="DM626" s="4"/>
       <c r="DN626" s="7"/>
     </row>
-    <row r="627" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ627" s="30"/>
       <c r="BR627" s="30"/>
       <c r="BS627" s="30"/>
@@ -54387,7 +54399,7 @@
       <c r="DM627" s="4"/>
       <c r="DN627" s="7"/>
     </row>
-    <row r="628" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ628" s="30"/>
       <c r="BR628" s="30"/>
       <c r="BS628" s="30"/>
@@ -54397,7 +54409,7 @@
       <c r="DM628" s="4"/>
       <c r="DN628" s="7"/>
     </row>
-    <row r="629" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ629" s="30"/>
       <c r="BR629" s="30"/>
       <c r="BS629" s="30"/>
@@ -54407,7 +54419,7 @@
       <c r="DM629" s="4"/>
       <c r="DN629" s="7"/>
     </row>
-    <row r="630" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ630" s="30"/>
       <c r="BR630" s="30"/>
       <c r="BS630" s="30"/>
@@ -54417,7 +54429,7 @@
       <c r="DM630" s="4"/>
       <c r="DN630" s="7"/>
     </row>
-    <row r="631" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ631" s="30"/>
       <c r="BR631" s="30"/>
       <c r="BS631" s="30"/>
@@ -54427,7 +54439,7 @@
       <c r="DM631" s="4"/>
       <c r="DN631" s="7"/>
     </row>
-    <row r="632" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ632" s="30"/>
       <c r="BR632" s="30"/>
       <c r="BS632" s="30"/>
@@ -54437,7 +54449,7 @@
       <c r="DM632" s="4"/>
       <c r="DN632" s="7"/>
     </row>
-    <row r="633" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ633" s="30"/>
       <c r="BR633" s="30"/>
       <c r="BS633" s="30"/>
@@ -54447,7 +54459,7 @@
       <c r="DM633" s="4"/>
       <c r="DN633" s="7"/>
     </row>
-    <row r="634" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ634" s="30"/>
       <c r="BR634" s="30"/>
       <c r="BS634" s="30"/>
@@ -54457,7 +54469,7 @@
       <c r="DM634" s="4"/>
       <c r="DN634" s="7"/>
     </row>
-    <row r="635" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ635" s="30"/>
       <c r="BR635" s="30"/>
       <c r="BS635" s="30"/>
@@ -54467,7 +54479,7 @@
       <c r="DM635" s="4"/>
       <c r="DN635" s="7"/>
     </row>
-    <row r="636" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ636" s="30"/>
       <c r="BR636" s="30"/>
       <c r="BS636" s="30"/>
@@ -54477,7 +54489,7 @@
       <c r="DM636" s="4"/>
       <c r="DN636" s="7"/>
     </row>
-    <row r="637" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ637" s="30"/>
       <c r="BR637" s="30"/>
       <c r="BS637" s="30"/>
@@ -54487,7 +54499,7 @@
       <c r="DM637" s="4"/>
       <c r="DN637" s="7"/>
     </row>
-    <row r="638" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ638" s="30"/>
       <c r="BR638" s="30"/>
       <c r="BS638" s="30"/>
@@ -54497,7 +54509,7 @@
       <c r="DM638" s="4"/>
       <c r="DN638" s="7"/>
     </row>
-    <row r="639" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ639" s="30"/>
       <c r="BR639" s="30"/>
       <c r="BS639" s="30"/>
@@ -54507,7 +54519,7 @@
       <c r="DM639" s="4"/>
       <c r="DN639" s="7"/>
     </row>
-    <row r="640" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ640" s="30"/>
       <c r="BR640" s="30"/>
       <c r="BS640" s="30"/>
@@ -54517,7 +54529,7 @@
       <c r="DM640" s="4"/>
       <c r="DN640" s="7"/>
     </row>
-    <row r="641" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ641" s="30"/>
       <c r="BR641" s="30"/>
       <c r="BS641" s="30"/>
@@ -54527,7 +54539,7 @@
       <c r="DM641" s="4"/>
       <c r="DN641" s="7"/>
     </row>
-    <row r="642" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ642" s="30"/>
       <c r="BR642" s="30"/>
       <c r="BS642" s="30"/>
@@ -54537,7 +54549,7 @@
       <c r="DM642" s="4"/>
       <c r="DN642" s="7"/>
     </row>
-    <row r="643" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ643" s="30"/>
       <c r="BR643" s="30"/>
       <c r="BS643" s="30"/>
@@ -54547,7 +54559,7 @@
       <c r="DM643" s="4"/>
       <c r="DN643" s="7"/>
     </row>
-    <row r="644" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ644" s="30"/>
       <c r="BR644" s="30"/>
       <c r="BS644" s="30"/>
@@ -54557,7 +54569,7 @@
       <c r="DM644" s="4"/>
       <c r="DN644" s="7"/>
     </row>
-    <row r="645" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ645" s="30"/>
       <c r="BR645" s="30"/>
       <c r="BS645" s="30"/>
@@ -54567,7 +54579,7 @@
       <c r="DM645" s="4"/>
       <c r="DN645" s="7"/>
     </row>
-    <row r="646" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ646" s="30"/>
       <c r="BR646" s="30"/>
       <c r="BS646" s="30"/>
@@ -54577,7 +54589,7 @@
       <c r="DM646" s="4"/>
       <c r="DN646" s="7"/>
     </row>
-    <row r="647" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ647" s="30"/>
       <c r="BR647" s="30"/>
       <c r="BS647" s="30"/>
@@ -54587,7 +54599,7 @@
       <c r="DM647" s="4"/>
       <c r="DN647" s="7"/>
     </row>
-    <row r="648" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ648" s="30"/>
       <c r="BR648" s="30"/>
       <c r="BS648" s="30"/>
@@ -54597,7 +54609,7 @@
       <c r="DM648" s="4"/>
       <c r="DN648" s="7"/>
     </row>
-    <row r="649" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ649" s="30"/>
       <c r="BR649" s="30"/>
       <c r="BS649" s="30"/>
@@ -54607,7 +54619,7 @@
       <c r="DM649" s="4"/>
       <c r="DN649" s="7"/>
     </row>
-    <row r="650" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ650" s="30"/>
       <c r="BR650" s="30"/>
       <c r="BS650" s="30"/>
@@ -54617,7 +54629,7 @@
       <c r="DM650" s="4"/>
       <c r="DN650" s="7"/>
     </row>
-    <row r="651" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ651" s="30"/>
       <c r="BR651" s="30"/>
       <c r="BS651" s="30"/>
@@ -54627,7 +54639,7 @@
       <c r="DM651" s="4"/>
       <c r="DN651" s="7"/>
     </row>
-    <row r="652" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ652" s="30"/>
       <c r="BR652" s="30"/>
       <c r="BS652" s="30"/>
@@ -54637,7 +54649,7 @@
       <c r="DM652" s="4"/>
       <c r="DN652" s="7"/>
     </row>
-    <row r="653" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ653" s="30"/>
       <c r="BR653" s="30"/>
       <c r="BS653" s="30"/>
@@ -54647,7 +54659,7 @@
       <c r="DM653" s="4"/>
       <c r="DN653" s="7"/>
     </row>
-    <row r="654" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ654" s="30"/>
       <c r="BR654" s="30"/>
       <c r="BS654" s="30"/>
@@ -54657,7 +54669,7 @@
       <c r="DM654" s="4"/>
       <c r="DN654" s="7"/>
     </row>
-    <row r="655" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ655" s="30"/>
       <c r="BR655" s="30"/>
       <c r="BS655" s="30"/>
@@ -54667,7 +54679,7 @@
       <c r="DM655" s="4"/>
       <c r="DN655" s="7"/>
     </row>
-    <row r="656" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ656" s="30"/>
       <c r="BR656" s="30"/>
       <c r="BS656" s="30"/>
@@ -54677,7 +54689,7 @@
       <c r="DM656" s="4"/>
       <c r="DN656" s="7"/>
     </row>
-    <row r="657" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ657" s="30"/>
       <c r="BR657" s="30"/>
       <c r="BS657" s="30"/>
@@ -54687,7 +54699,7 @@
       <c r="DM657" s="4"/>
       <c r="DN657" s="7"/>
     </row>
-    <row r="658" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ658" s="30"/>
       <c r="BR658" s="30"/>
       <c r="BS658" s="30"/>
@@ -54697,7 +54709,7 @@
       <c r="DM658" s="4"/>
       <c r="DN658" s="7"/>
     </row>
-    <row r="659" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ659" s="30"/>
       <c r="BR659" s="30"/>
       <c r="BS659" s="30"/>
@@ -54707,7 +54719,7 @@
       <c r="DM659" s="4"/>
       <c r="DN659" s="7"/>
     </row>
-    <row r="660" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ660" s="30"/>
       <c r="BR660" s="30"/>
       <c r="BS660" s="30"/>
@@ -54717,7 +54729,7 @@
       <c r="DM660" s="4"/>
       <c r="DN660" s="7"/>
     </row>
-    <row r="661" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ661" s="30"/>
       <c r="BR661" s="30"/>
       <c r="BS661" s="30"/>
@@ -54727,7 +54739,7 @@
       <c r="DM661" s="4"/>
       <c r="DN661" s="7"/>
     </row>
-    <row r="662" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ662" s="30"/>
       <c r="BR662" s="30"/>
       <c r="BS662" s="30"/>
@@ -54737,7 +54749,7 @@
       <c r="DM662" s="4"/>
       <c r="DN662" s="7"/>
     </row>
-    <row r="663" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ663" s="30"/>
       <c r="BR663" s="30"/>
       <c r="BS663" s="30"/>
@@ -54747,7 +54759,7 @@
       <c r="DM663" s="4"/>
       <c r="DN663" s="7"/>
     </row>
-    <row r="664" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ664" s="30"/>
       <c r="BR664" s="30"/>
       <c r="BS664" s="30"/>
@@ -54757,7 +54769,7 @@
       <c r="DM664" s="4"/>
       <c r="DN664" s="7"/>
     </row>
-    <row r="665" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ665" s="30"/>
       <c r="BR665" s="30"/>
       <c r="BS665" s="30"/>
@@ -54767,7 +54779,7 @@
       <c r="DM665" s="4"/>
       <c r="DN665" s="7"/>
     </row>
-    <row r="666" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ666" s="30"/>
       <c r="BR666" s="30"/>
       <c r="BS666" s="30"/>
@@ -54777,7 +54789,7 @@
       <c r="DM666" s="4"/>
       <c r="DN666" s="7"/>
     </row>
-    <row r="667" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ667" s="30"/>
       <c r="BR667" s="30"/>
       <c r="BS667" s="30"/>
@@ -54787,7 +54799,7 @@
       <c r="DM667" s="4"/>
       <c r="DN667" s="7"/>
     </row>
-    <row r="668" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ668" s="30"/>
       <c r="BR668" s="30"/>
       <c r="BS668" s="30"/>
@@ -54797,7 +54809,7 @@
       <c r="DM668" s="4"/>
       <c r="DN668" s="7"/>
     </row>
-    <row r="669" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ669" s="30"/>
       <c r="BR669" s="30"/>
       <c r="BS669" s="30"/>
@@ -54807,7 +54819,7 @@
       <c r="DM669" s="4"/>
       <c r="DN669" s="7"/>
     </row>
-    <row r="670" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ670" s="30"/>
       <c r="BR670" s="30"/>
       <c r="BS670" s="30"/>
@@ -54817,7 +54829,7 @@
       <c r="DM670" s="4"/>
       <c r="DN670" s="7"/>
     </row>
-    <row r="671" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ671" s="30"/>
       <c r="BR671" s="30"/>
       <c r="BS671" s="30"/>
@@ -54827,7 +54839,7 @@
       <c r="DM671" s="4"/>
       <c r="DN671" s="7"/>
     </row>
-    <row r="672" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ672" s="30"/>
       <c r="BR672" s="30"/>
       <c r="BS672" s="30"/>
@@ -54837,7 +54849,7 @@
       <c r="DM672" s="4"/>
       <c r="DN672" s="7"/>
     </row>
-    <row r="673" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ673" s="30"/>
       <c r="BR673" s="30"/>
       <c r="BS673" s="30"/>
@@ -54847,7 +54859,7 @@
       <c r="DM673" s="4"/>
       <c r="DN673" s="7"/>
     </row>
-    <row r="674" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ674" s="30"/>
       <c r="BR674" s="30"/>
       <c r="BS674" s="30"/>
@@ -54857,7 +54869,7 @@
       <c r="DM674" s="4"/>
       <c r="DN674" s="7"/>
     </row>
-    <row r="675" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ675" s="30"/>
       <c r="BR675" s="30"/>
       <c r="BS675" s="30"/>
@@ -54867,7 +54879,7 @@
       <c r="DM675" s="4"/>
       <c r="DN675" s="7"/>
     </row>
-    <row r="676" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ676" s="30"/>
       <c r="BR676" s="30"/>
       <c r="BS676" s="30"/>
@@ -54877,7 +54889,7 @@
       <c r="DM676" s="4"/>
       <c r="DN676" s="7"/>
     </row>
-    <row r="677" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ677" s="30"/>
       <c r="BR677" s="30"/>
       <c r="BS677" s="30"/>
@@ -54887,7 +54899,7 @@
       <c r="DM677" s="4"/>
       <c r="DN677" s="7"/>
     </row>
-    <row r="678" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ678" s="30"/>
       <c r="BR678" s="30"/>
       <c r="BS678" s="30"/>
@@ -54897,7 +54909,7 @@
       <c r="DM678" s="4"/>
       <c r="DN678" s="7"/>
     </row>
-    <row r="679" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ679" s="30"/>
       <c r="BR679" s="30"/>
       <c r="BS679" s="30"/>
@@ -54907,7 +54919,7 @@
       <c r="DM679" s="4"/>
       <c r="DN679" s="7"/>
     </row>
-    <row r="680" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ680" s="30"/>
       <c r="BR680" s="30"/>
       <c r="BS680" s="30"/>
@@ -54917,7 +54929,7 @@
       <c r="DM680" s="4"/>
       <c r="DN680" s="7"/>
     </row>
-    <row r="681" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ681" s="30"/>
       <c r="BR681" s="30"/>
       <c r="BS681" s="30"/>
@@ -54927,7 +54939,7 @@
       <c r="DM681" s="4"/>
       <c r="DN681" s="7"/>
     </row>
-    <row r="682" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ682" s="30"/>
       <c r="BR682" s="30"/>
       <c r="BS682" s="30"/>
@@ -54937,7 +54949,7 @@
       <c r="DM682" s="4"/>
       <c r="DN682" s="7"/>
     </row>
-    <row r="683" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ683" s="30"/>
       <c r="BR683" s="30"/>
       <c r="BS683" s="30"/>
@@ -54947,7 +54959,7 @@
       <c r="DM683" s="4"/>
       <c r="DN683" s="7"/>
     </row>
-    <row r="684" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ684" s="30"/>
       <c r="BR684" s="30"/>
       <c r="BS684" s="30"/>
@@ -54957,7 +54969,7 @@
       <c r="DM684" s="4"/>
       <c r="DN684" s="7"/>
     </row>
-    <row r="685" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ685" s="30"/>
       <c r="BR685" s="30"/>
       <c r="BS685" s="30"/>
@@ -54967,7 +54979,7 @@
       <c r="DM685" s="4"/>
       <c r="DN685" s="7"/>
     </row>
-    <row r="686" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ686" s="30"/>
       <c r="BR686" s="30"/>
       <c r="BS686" s="30"/>
@@ -54977,7 +54989,7 @@
       <c r="DM686" s="4"/>
       <c r="DN686" s="7"/>
     </row>
-    <row r="687" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ687" s="30"/>
       <c r="BR687" s="30"/>
       <c r="BS687" s="30"/>
@@ -54987,7 +54999,7 @@
       <c r="DM687" s="4"/>
       <c r="DN687" s="7"/>
     </row>
-    <row r="688" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ688" s="30"/>
       <c r="BR688" s="30"/>
       <c r="BS688" s="30"/>
@@ -54997,7 +55009,7 @@
       <c r="DM688" s="4"/>
       <c r="DN688" s="7"/>
     </row>
-    <row r="689" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ689" s="30"/>
       <c r="BR689" s="30"/>
       <c r="BS689" s="30"/>
@@ -55007,7 +55019,7 @@
       <c r="DM689" s="4"/>
       <c r="DN689" s="7"/>
     </row>
-    <row r="690" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ690" s="30"/>
       <c r="BR690" s="30"/>
       <c r="BS690" s="30"/>
@@ -55017,7 +55029,7 @@
       <c r="DM690" s="4"/>
       <c r="DN690" s="7"/>
     </row>
-    <row r="691" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ691" s="30"/>
       <c r="BR691" s="30"/>
       <c r="BS691" s="30"/>
@@ -55027,7 +55039,7 @@
       <c r="DM691" s="4"/>
       <c r="DN691" s="7"/>
     </row>
-    <row r="692" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ692" s="30"/>
       <c r="BR692" s="30"/>
       <c r="BS692" s="30"/>
@@ -55037,7 +55049,7 @@
       <c r="DM692" s="4"/>
       <c r="DN692" s="7"/>
     </row>
-    <row r="693" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ693" s="30"/>
       <c r="BR693" s="30"/>
       <c r="BS693" s="30"/>
@@ -55047,7 +55059,7 @@
       <c r="DM693" s="4"/>
       <c r="DN693" s="7"/>
     </row>
-    <row r="694" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ694" s="30"/>
       <c r="BR694" s="30"/>
       <c r="BS694" s="30"/>
@@ -55057,7 +55069,7 @@
       <c r="DM694" s="4"/>
       <c r="DN694" s="7"/>
     </row>
-    <row r="695" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ695" s="30"/>
       <c r="BR695" s="30"/>
       <c r="BS695" s="30"/>
@@ -55067,7 +55079,7 @@
       <c r="DM695" s="4"/>
       <c r="DN695" s="7"/>
     </row>
-    <row r="696" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ696" s="30"/>
       <c r="BR696" s="30"/>
       <c r="BS696" s="30"/>
@@ -55077,7 +55089,7 @@
       <c r="DM696" s="4"/>
       <c r="DN696" s="7"/>
     </row>
-    <row r="697" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ697" s="30"/>
       <c r="BR697" s="30"/>
       <c r="BS697" s="30"/>
@@ -55087,7 +55099,7 @@
       <c r="DM697" s="4"/>
       <c r="DN697" s="7"/>
     </row>
-    <row r="698" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ698" s="30"/>
       <c r="BR698" s="30"/>
       <c r="BS698" s="30"/>
@@ -55097,7 +55109,7 @@
       <c r="DM698" s="4"/>
       <c r="DN698" s="7"/>
     </row>
-    <row r="699" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ699" s="30"/>
       <c r="BR699" s="30"/>
       <c r="BS699" s="30"/>
@@ -55107,7 +55119,7 @@
       <c r="DM699" s="4"/>
       <c r="DN699" s="7"/>
     </row>
-    <row r="700" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ700" s="30"/>
       <c r="BR700" s="30"/>
       <c r="BS700" s="30"/>
@@ -55117,7 +55129,7 @@
       <c r="DM700" s="4"/>
       <c r="DN700" s="7"/>
     </row>
-    <row r="701" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ701" s="30"/>
       <c r="BR701" s="30"/>
       <c r="BS701" s="30"/>
@@ -55127,7 +55139,7 @@
       <c r="DM701" s="4"/>
       <c r="DN701" s="7"/>
     </row>
-    <row r="702" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ702" s="30"/>
       <c r="BR702" s="30"/>
       <c r="BS702" s="30"/>
@@ -55137,7 +55149,7 @@
       <c r="DM702" s="4"/>
       <c r="DN702" s="7"/>
     </row>
-    <row r="703" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ703" s="30"/>
       <c r="BR703" s="30"/>
       <c r="BS703" s="30"/>
@@ -55147,7 +55159,7 @@
       <c r="DM703" s="4"/>
       <c r="DN703" s="7"/>
     </row>
-    <row r="704" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ704" s="30"/>
       <c r="BR704" s="30"/>
       <c r="BS704" s="30"/>
@@ -55157,7 +55169,7 @@
       <c r="DM704" s="4"/>
       <c r="DN704" s="7"/>
     </row>
-    <row r="705" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ705" s="30"/>
       <c r="BR705" s="30"/>
       <c r="BS705" s="30"/>
@@ -55167,7 +55179,7 @@
       <c r="DM705" s="4"/>
       <c r="DN705" s="7"/>
     </row>
-    <row r="706" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ706" s="30"/>
       <c r="BR706" s="30"/>
       <c r="BS706" s="30"/>
@@ -55177,7 +55189,7 @@
       <c r="DM706" s="4"/>
       <c r="DN706" s="7"/>
     </row>
-    <row r="707" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ707" s="30"/>
       <c r="BR707" s="30"/>
       <c r="BS707" s="30"/>
@@ -55187,7 +55199,7 @@
       <c r="DM707" s="4"/>
       <c r="DN707" s="7"/>
     </row>
-    <row r="708" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ708" s="30"/>
       <c r="BR708" s="30"/>
       <c r="BS708" s="30"/>
@@ -55197,7 +55209,7 @@
       <c r="DM708" s="4"/>
       <c r="DN708" s="7"/>
     </row>
-    <row r="709" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ709" s="30"/>
       <c r="BR709" s="30"/>
       <c r="BS709" s="30"/>
@@ -55207,7 +55219,7 @@
       <c r="DM709" s="4"/>
       <c r="DN709" s="7"/>
     </row>
-    <row r="710" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ710" s="30"/>
       <c r="BR710" s="30"/>
       <c r="BS710" s="30"/>
@@ -55217,7 +55229,7 @@
       <c r="DM710" s="4"/>
       <c r="DN710" s="7"/>
     </row>
-    <row r="711" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ711" s="30"/>
       <c r="BR711" s="30"/>
       <c r="BS711" s="30"/>
@@ -55227,7 +55239,7 @@
       <c r="DM711" s="4"/>
       <c r="DN711" s="7"/>
     </row>
-    <row r="712" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ712" s="30"/>
       <c r="BR712" s="30"/>
       <c r="BS712" s="30"/>
@@ -55237,7 +55249,7 @@
       <c r="DM712" s="4"/>
       <c r="DN712" s="7"/>
     </row>
-    <row r="713" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ713" s="30"/>
       <c r="BR713" s="30"/>
       <c r="BS713" s="30"/>
@@ -55247,7 +55259,7 @@
       <c r="DM713" s="4"/>
       <c r="DN713" s="7"/>
     </row>
-    <row r="714" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ714" s="30"/>
       <c r="BR714" s="30"/>
       <c r="BS714" s="30"/>
@@ -55257,7 +55269,7 @@
       <c r="DM714" s="4"/>
       <c r="DN714" s="7"/>
     </row>
-    <row r="715" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ715" s="30"/>
       <c r="BR715" s="30"/>
       <c r="BS715" s="30"/>
@@ -55267,7 +55279,7 @@
       <c r="DM715" s="4"/>
       <c r="DN715" s="7"/>
     </row>
-    <row r="716" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ716" s="30"/>
       <c r="BR716" s="30"/>
       <c r="BS716" s="30"/>
@@ -55277,7 +55289,7 @@
       <c r="DM716" s="4"/>
       <c r="DN716" s="7"/>
     </row>
-    <row r="717" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ717" s="30"/>
       <c r="BR717" s="30"/>
       <c r="BS717" s="30"/>
@@ -55287,7 +55299,7 @@
       <c r="DM717" s="4"/>
       <c r="DN717" s="7"/>
     </row>
-    <row r="718" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ718" s="30"/>
       <c r="BR718" s="30"/>
       <c r="BS718" s="30"/>
@@ -55297,7 +55309,7 @@
       <c r="DM718" s="4"/>
       <c r="DN718" s="7"/>
     </row>
-    <row r="719" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ719" s="30"/>
       <c r="BR719" s="30"/>
       <c r="BS719" s="30"/>
@@ -55307,7 +55319,7 @@
       <c r="DM719" s="4"/>
       <c r="DN719" s="7"/>
     </row>
-    <row r="720" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ720" s="30"/>
       <c r="BR720" s="30"/>
       <c r="BS720" s="30"/>
@@ -55317,7 +55329,7 @@
       <c r="DM720" s="4"/>
       <c r="DN720" s="7"/>
     </row>
-    <row r="721" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ721" s="30"/>
       <c r="BR721" s="30"/>
       <c r="BS721" s="30"/>
@@ -55327,7 +55339,7 @@
       <c r="DM721" s="4"/>
       <c r="DN721" s="7"/>
     </row>
-    <row r="722" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ722" s="30"/>
       <c r="BR722" s="30"/>
       <c r="BS722" s="30"/>
@@ -55337,7 +55349,7 @@
       <c r="DM722" s="4"/>
       <c r="DN722" s="7"/>
     </row>
-    <row r="723" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ723" s="30"/>
       <c r="BR723" s="30"/>
       <c r="BS723" s="30"/>
@@ -55347,7 +55359,7 @@
       <c r="DM723" s="4"/>
       <c r="DN723" s="7"/>
     </row>
-    <row r="724" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ724" s="30"/>
       <c r="BR724" s="30"/>
       <c r="BS724" s="30"/>
@@ -55357,7 +55369,7 @@
       <c r="DM724" s="4"/>
       <c r="DN724" s="7"/>
     </row>
-    <row r="725" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ725" s="30"/>
       <c r="BR725" s="30"/>
       <c r="BS725" s="30"/>
@@ -55367,7 +55379,7 @@
       <c r="DM725" s="4"/>
       <c r="DN725" s="7"/>
     </row>
-    <row r="726" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ726" s="30"/>
       <c r="BR726" s="30"/>
       <c r="BS726" s="30"/>
@@ -55377,7 +55389,7 @@
       <c r="DM726" s="4"/>
       <c r="DN726" s="7"/>
     </row>
-    <row r="727" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ727" s="30"/>
       <c r="BR727" s="30"/>
       <c r="BS727" s="30"/>
@@ -55387,7 +55399,7 @@
       <c r="DM727" s="4"/>
       <c r="DN727" s="7"/>
     </row>
-    <row r="728" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ728" s="30"/>
       <c r="BR728" s="30"/>
       <c r="BS728" s="30"/>
@@ -55397,7 +55409,7 @@
       <c r="DM728" s="4"/>
       <c r="DN728" s="7"/>
     </row>
-    <row r="729" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ729" s="30"/>
       <c r="BR729" s="30"/>
       <c r="BS729" s="30"/>
@@ -55407,7 +55419,7 @@
       <c r="DM729" s="4"/>
       <c r="DN729" s="7"/>
     </row>
-    <row r="730" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ730" s="30"/>
       <c r="BR730" s="30"/>
       <c r="BS730" s="30"/>
@@ -55417,7 +55429,7 @@
       <c r="DM730" s="4"/>
       <c r="DN730" s="7"/>
     </row>
-    <row r="731" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ731" s="30"/>
       <c r="BR731" s="30"/>
       <c r="BS731" s="30"/>
@@ -55427,7 +55439,7 @@
       <c r="DM731" s="4"/>
       <c r="DN731" s="7"/>
     </row>
-    <row r="732" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ732" s="30"/>
       <c r="BR732" s="30"/>
       <c r="BS732" s="30"/>
@@ -55437,7 +55449,7 @@
       <c r="DM732" s="4"/>
       <c r="DN732" s="7"/>
     </row>
-    <row r="733" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ733" s="30"/>
       <c r="BR733" s="30"/>
       <c r="BS733" s="30"/>
@@ -55447,7 +55459,7 @@
       <c r="DM733" s="4"/>
       <c r="DN733" s="7"/>
     </row>
-    <row r="734" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ734" s="30"/>
       <c r="BR734" s="30"/>
       <c r="BS734" s="30"/>
@@ -55457,7 +55469,7 @@
       <c r="DM734" s="4"/>
       <c r="DN734" s="7"/>
     </row>
-    <row r="735" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ735" s="30"/>
       <c r="BR735" s="30"/>
       <c r="BS735" s="30"/>
@@ -55467,7 +55479,7 @@
       <c r="DM735" s="4"/>
       <c r="DN735" s="7"/>
     </row>
-    <row r="736" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ736" s="30"/>
       <c r="BR736" s="30"/>
       <c r="BS736" s="30"/>
@@ -55477,7 +55489,7 @@
       <c r="DM736" s="4"/>
       <c r="DN736" s="7"/>
     </row>
-    <row r="737" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ737" s="30"/>
       <c r="BR737" s="30"/>
       <c r="BS737" s="30"/>
@@ -55487,7 +55499,7 @@
       <c r="DM737" s="4"/>
       <c r="DN737" s="7"/>
     </row>
-    <row r="738" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ738" s="30"/>
       <c r="BR738" s="30"/>
       <c r="BS738" s="30"/>
@@ -55497,7 +55509,7 @@
       <c r="DM738" s="4"/>
       <c r="DN738" s="7"/>
     </row>
-    <row r="739" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ739" s="30"/>
       <c r="BR739" s="30"/>
       <c r="BS739" s="30"/>
@@ -55507,7 +55519,7 @@
       <c r="DM739" s="4"/>
       <c r="DN739" s="7"/>
     </row>
-    <row r="740" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ740" s="30"/>
       <c r="BR740" s="30"/>
       <c r="BS740" s="30"/>
@@ -55517,7 +55529,7 @@
       <c r="DM740" s="4"/>
       <c r="DN740" s="7"/>
     </row>
-    <row r="741" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ741" s="30"/>
       <c r="BR741" s="30"/>
       <c r="BS741" s="30"/>
@@ -55527,7 +55539,7 @@
       <c r="DM741" s="4"/>
       <c r="DN741" s="7"/>
     </row>
-    <row r="742" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ742" s="30"/>
       <c r="BR742" s="30"/>
       <c r="BS742" s="30"/>
@@ -55537,7 +55549,7 @@
       <c r="DM742" s="4"/>
       <c r="DN742" s="7"/>
     </row>
-    <row r="743" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ743" s="30"/>
       <c r="BR743" s="30"/>
       <c r="BS743" s="30"/>
@@ -55547,7 +55559,7 @@
       <c r="DM743" s="4"/>
       <c r="DN743" s="7"/>
     </row>
-    <row r="744" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ744" s="30"/>
       <c r="BR744" s="30"/>
       <c r="BS744" s="30"/>
@@ -55557,7 +55569,7 @@
       <c r="DM744" s="4"/>
       <c r="DN744" s="7"/>
     </row>
-    <row r="745" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ745" s="30"/>
       <c r="BR745" s="30"/>
       <c r="BS745" s="30"/>
@@ -55567,7 +55579,7 @@
       <c r="DM745" s="4"/>
       <c r="DN745" s="7"/>
     </row>
-    <row r="746" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ746" s="30"/>
       <c r="BR746" s="30"/>
       <c r="BS746" s="30"/>
@@ -55577,7 +55589,7 @@
       <c r="DM746" s="4"/>
       <c r="DN746" s="7"/>
     </row>
-    <row r="747" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ747" s="30"/>
       <c r="BR747" s="30"/>
       <c r="BS747" s="30"/>
@@ -55587,7 +55599,7 @@
       <c r="DM747" s="4"/>
       <c r="DN747" s="7"/>
     </row>
-    <row r="748" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ748" s="30"/>
       <c r="BR748" s="30"/>
       <c r="BS748" s="30"/>
@@ -55597,7 +55609,7 @@
       <c r="DM748" s="4"/>
       <c r="DN748" s="7"/>
     </row>
-    <row r="749" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ749" s="30"/>
       <c r="BR749" s="30"/>
       <c r="BS749" s="30"/>
@@ -55607,7 +55619,7 @@
       <c r="DM749" s="4"/>
       <c r="DN749" s="7"/>
     </row>
-    <row r="750" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ750" s="30"/>
       <c r="BR750" s="30"/>
       <c r="BS750" s="30"/>
@@ -55617,7 +55629,7 @@
       <c r="DM750" s="4"/>
       <c r="DN750" s="7"/>
     </row>
-    <row r="751" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ751" s="30"/>
       <c r="BR751" s="30"/>
       <c r="BS751" s="30"/>
@@ -55627,7 +55639,7 @@
       <c r="DM751" s="4"/>
       <c r="DN751" s="7"/>
     </row>
-    <row r="752" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ752" s="30"/>
       <c r="BR752" s="30"/>
       <c r="BS752" s="30"/>
@@ -55637,7 +55649,7 @@
       <c r="DM752" s="4"/>
       <c r="DN752" s="7"/>
     </row>
-    <row r="753" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ753" s="30"/>
       <c r="BR753" s="30"/>
       <c r="BS753" s="30"/>
@@ -55647,7 +55659,7 @@
       <c r="DM753" s="4"/>
       <c r="DN753" s="7"/>
     </row>
-    <row r="754" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ754" s="30"/>
       <c r="BR754" s="30"/>
       <c r="BS754" s="30"/>
@@ -55657,7 +55669,7 @@
       <c r="DM754" s="4"/>
       <c r="DN754" s="7"/>
     </row>
-    <row r="755" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ755" s="30"/>
       <c r="BR755" s="30"/>
       <c r="BS755" s="30"/>
@@ -55667,7 +55679,7 @@
       <c r="DM755" s="4"/>
       <c r="DN755" s="7"/>
     </row>
-    <row r="756" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ756" s="30"/>
       <c r="BR756" s="30"/>
       <c r="BS756" s="30"/>
@@ -55677,7 +55689,7 @@
       <c r="DM756" s="4"/>
       <c r="DN756" s="7"/>
     </row>
-    <row r="757" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ757" s="30"/>
       <c r="BR757" s="30"/>
       <c r="BS757" s="30"/>
@@ -55687,7 +55699,7 @@
       <c r="DM757" s="4"/>
       <c r="DN757" s="7"/>
     </row>
-    <row r="758" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ758" s="30"/>
       <c r="BR758" s="30"/>
       <c r="BS758" s="30"/>
@@ -55697,7 +55709,7 @@
       <c r="DM758" s="4"/>
       <c r="DN758" s="7"/>
     </row>
-    <row r="759" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ759" s="30"/>
       <c r="BR759" s="30"/>
       <c r="BS759" s="30"/>
@@ -55707,7 +55719,7 @@
       <c r="DM759" s="4"/>
       <c r="DN759" s="7"/>
     </row>
-    <row r="760" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ760" s="30"/>
       <c r="BR760" s="30"/>
       <c r="BS760" s="30"/>
@@ -55717,7 +55729,7 @@
       <c r="DM760" s="4"/>
       <c r="DN760" s="7"/>
     </row>
-    <row r="761" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ761" s="30"/>
       <c r="BR761" s="30"/>
       <c r="BS761" s="30"/>
@@ -55727,7 +55739,7 @@
       <c r="DM761" s="4"/>
       <c r="DN761" s="7"/>
     </row>
-    <row r="762" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ762" s="30"/>
       <c r="BR762" s="30"/>
       <c r="BS762" s="30"/>
@@ -55737,7 +55749,7 @@
       <c r="DM762" s="4"/>
       <c r="DN762" s="7"/>
     </row>
-    <row r="763" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ763" s="30"/>
       <c r="BR763" s="30"/>
       <c r="BS763" s="30"/>
@@ -55747,7 +55759,7 @@
       <c r="DM763" s="4"/>
       <c r="DN763" s="7"/>
     </row>
-    <row r="764" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ764" s="30"/>
       <c r="BR764" s="30"/>
       <c r="BS764" s="30"/>
@@ -55757,7 +55769,7 @@
       <c r="DM764" s="4"/>
       <c r="DN764" s="7"/>
     </row>
-    <row r="765" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ765" s="30"/>
       <c r="BR765" s="30"/>
       <c r="BS765" s="30"/>
@@ -55767,7 +55779,7 @@
       <c r="DM765" s="4"/>
       <c r="DN765" s="7"/>
     </row>
-    <row r="766" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ766" s="30"/>
       <c r="BR766" s="30"/>
       <c r="BS766" s="30"/>
@@ -55777,7 +55789,7 @@
       <c r="DM766" s="4"/>
       <c r="DN766" s="7"/>
     </row>
-    <row r="767" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ767" s="30"/>
       <c r="BR767" s="30"/>
       <c r="BS767" s="30"/>
@@ -55787,7 +55799,7 @@
       <c r="DM767" s="4"/>
       <c r="DN767" s="7"/>
     </row>
-    <row r="768" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ768" s="30"/>
       <c r="BR768" s="30"/>
       <c r="BS768" s="30"/>
@@ -55797,7 +55809,7 @@
       <c r="DM768" s="4"/>
       <c r="DN768" s="7"/>
     </row>
-    <row r="769" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ769" s="30"/>
       <c r="BR769" s="30"/>
       <c r="BS769" s="30"/>
@@ -55807,7 +55819,7 @@
       <c r="DM769" s="4"/>
       <c r="DN769" s="7"/>
     </row>
-    <row r="770" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ770" s="30"/>
       <c r="BR770" s="30"/>
       <c r="BS770" s="30"/>
@@ -55817,7 +55829,7 @@
       <c r="DM770" s="4"/>
       <c r="DN770" s="7"/>
     </row>
-    <row r="771" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ771" s="30"/>
       <c r="BR771" s="30"/>
       <c r="BS771" s="30"/>
@@ -55827,7 +55839,7 @@
       <c r="DM771" s="4"/>
       <c r="DN771" s="7"/>
     </row>
-    <row r="772" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ772" s="30"/>
       <c r="BR772" s="30"/>
       <c r="BS772" s="30"/>
@@ -55837,7 +55849,7 @@
       <c r="DM772" s="4"/>
       <c r="DN772" s="7"/>
     </row>
-    <row r="773" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ773" s="30"/>
       <c r="BR773" s="30"/>
       <c r="BS773" s="30"/>
@@ -55847,7 +55859,7 @@
       <c r="DM773" s="4"/>
       <c r="DN773" s="7"/>
     </row>
-    <row r="774" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ774" s="30"/>
       <c r="BR774" s="30"/>
       <c r="BS774" s="30"/>
@@ -55857,7 +55869,7 @@
       <c r="DM774" s="4"/>
       <c r="DN774" s="7"/>
     </row>
-    <row r="775" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ775" s="30"/>
       <c r="BR775" s="30"/>
       <c r="BS775" s="30"/>
@@ -55867,7 +55879,7 @@
       <c r="DM775" s="4"/>
       <c r="DN775" s="7"/>
     </row>
-    <row r="776" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ776" s="30"/>
       <c r="BR776" s="30"/>
       <c r="BS776" s="30"/>
@@ -55877,7 +55889,7 @@
       <c r="DM776" s="4"/>
       <c r="DN776" s="7"/>
     </row>
-    <row r="777" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ777" s="30"/>
       <c r="BR777" s="30"/>
       <c r="BS777" s="30"/>
@@ -55887,7 +55899,7 @@
       <c r="DM777" s="4"/>
       <c r="DN777" s="7"/>
     </row>
-    <row r="778" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ778" s="30"/>
       <c r="BR778" s="30"/>
       <c r="BS778" s="30"/>
@@ -55897,7 +55909,7 @@
       <c r="DM778" s="4"/>
       <c r="DN778" s="7"/>
     </row>
-    <row r="779" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ779" s="30"/>
       <c r="BR779" s="30"/>
       <c r="BS779" s="30"/>
@@ -55907,7 +55919,7 @@
       <c r="DM779" s="4"/>
       <c r="DN779" s="7"/>
     </row>
-    <row r="780" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ780" s="30"/>
       <c r="BR780" s="30"/>
       <c r="BS780" s="30"/>
@@ -55917,7 +55929,7 @@
       <c r="DM780" s="4"/>
       <c r="DN780" s="7"/>
     </row>
-    <row r="781" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ781" s="30"/>
       <c r="BR781" s="30"/>
       <c r="BS781" s="30"/>
@@ -55927,7 +55939,7 @@
       <c r="DM781" s="4"/>
       <c r="DN781" s="7"/>
     </row>
-    <row r="782" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ782" s="30"/>
       <c r="BR782" s="30"/>
       <c r="BS782" s="30"/>
@@ -55937,7 +55949,7 @@
       <c r="DM782" s="4"/>
       <c r="DN782" s="7"/>
     </row>
-    <row r="783" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ783" s="30"/>
       <c r="BR783" s="30"/>
       <c r="BS783" s="30"/>
@@ -55947,7 +55959,7 @@
       <c r="DM783" s="4"/>
       <c r="DN783" s="7"/>
     </row>
-    <row r="784" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ784" s="30"/>
       <c r="BR784" s="30"/>
       <c r="BS784" s="30"/>
@@ -55957,7 +55969,7 @@
       <c r="DM784" s="4"/>
       <c r="DN784" s="7"/>
     </row>
-    <row r="785" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ785" s="30"/>
       <c r="BR785" s="30"/>
       <c r="BS785" s="30"/>
@@ -55967,7 +55979,7 @@
       <c r="DM785" s="4"/>
       <c r="DN785" s="7"/>
     </row>
-    <row r="786" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ786" s="30"/>
       <c r="BR786" s="30"/>
       <c r="BS786" s="30"/>
@@ -55977,7 +55989,7 @@
       <c r="DM786" s="4"/>
       <c r="DN786" s="7"/>
     </row>
-    <row r="787" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ787" s="30"/>
       <c r="BR787" s="30"/>
       <c r="BS787" s="30"/>
@@ -55987,7 +55999,7 @@
       <c r="DM787" s="4"/>
       <c r="DN787" s="7"/>
     </row>
-    <row r="788" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ788" s="30"/>
       <c r="BR788" s="30"/>
       <c r="BS788" s="30"/>
@@ -55997,7 +56009,7 @@
       <c r="DM788" s="4"/>
       <c r="DN788" s="7"/>
     </row>
-    <row r="789" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ789" s="30"/>
       <c r="BR789" s="30"/>
       <c r="BS789" s="30"/>
@@ -56007,7 +56019,7 @@
       <c r="DM789" s="4"/>
       <c r="DN789" s="7"/>
     </row>
-    <row r="790" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ790" s="30"/>
       <c r="BR790" s="30"/>
       <c r="BS790" s="30"/>
@@ -56017,7 +56029,7 @@
       <c r="DM790" s="4"/>
       <c r="DN790" s="7"/>
     </row>
-    <row r="791" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ791" s="30"/>
       <c r="BR791" s="30"/>
       <c r="BS791" s="30"/>
@@ -56027,7 +56039,7 @@
       <c r="DM791" s="4"/>
       <c r="DN791" s="7"/>
     </row>
-    <row r="792" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ792" s="30"/>
       <c r="BR792" s="30"/>
       <c r="BS792" s="30"/>
@@ -56037,7 +56049,7 @@
       <c r="DM792" s="4"/>
       <c r="DN792" s="7"/>
     </row>
-    <row r="793" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ793" s="30"/>
       <c r="BR793" s="30"/>
       <c r="BS793" s="30"/>
@@ -56047,7 +56059,7 @@
       <c r="DM793" s="4"/>
       <c r="DN793" s="7"/>
     </row>
-    <row r="794" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ794" s="30"/>
       <c r="BR794" s="30"/>
       <c r="BS794" s="30"/>
@@ -56057,7 +56069,7 @@
       <c r="DM794" s="4"/>
       <c r="DN794" s="7"/>
     </row>
-    <row r="795" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ795" s="30"/>
       <c r="BR795" s="30"/>
       <c r="BS795" s="30"/>
@@ -56067,7 +56079,7 @@
       <c r="DM795" s="4"/>
       <c r="DN795" s="7"/>
     </row>
-    <row r="796" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ796" s="30"/>
       <c r="BR796" s="30"/>
       <c r="BS796" s="30"/>
@@ -56077,7 +56089,7 @@
       <c r="DM796" s="4"/>
       <c r="DN796" s="7"/>
     </row>
-    <row r="797" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ797" s="30"/>
       <c r="BR797" s="30"/>
       <c r="BS797" s="30"/>
@@ -56087,7 +56099,7 @@
       <c r="DM797" s="4"/>
       <c r="DN797" s="7"/>
     </row>
-    <row r="798" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ798" s="30"/>
       <c r="BR798" s="30"/>
       <c r="BS798" s="30"/>
@@ -56097,7 +56109,7 @@
       <c r="DM798" s="4"/>
       <c r="DN798" s="7"/>
     </row>
-    <row r="799" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ799" s="30"/>
       <c r="BR799" s="30"/>
       <c r="BS799" s="30"/>
@@ -56107,7 +56119,7 @@
       <c r="DM799" s="4"/>
       <c r="DN799" s="7"/>
     </row>
-    <row r="800" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ800" s="30"/>
       <c r="BR800" s="30"/>
       <c r="BS800" s="30"/>
@@ -56117,7 +56129,7 @@
       <c r="DM800" s="4"/>
       <c r="DN800" s="7"/>
     </row>
-    <row r="801" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ801" s="30"/>
       <c r="BR801" s="30"/>
       <c r="BS801" s="30"/>
@@ -56127,7 +56139,7 @@
       <c r="DM801" s="4"/>
       <c r="DN801" s="7"/>
     </row>
-    <row r="802" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ802" s="30"/>
       <c r="BR802" s="30"/>
       <c r="BS802" s="30"/>
@@ -56137,7 +56149,7 @@
       <c r="DM802" s="4"/>
       <c r="DN802" s="7"/>
     </row>
-    <row r="803" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ803" s="30"/>
       <c r="BR803" s="30"/>
       <c r="BS803" s="30"/>
@@ -56147,7 +56159,7 @@
       <c r="DM803" s="4"/>
       <c r="DN803" s="7"/>
     </row>
-    <row r="804" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ804" s="30"/>
       <c r="BR804" s="30"/>
       <c r="BS804" s="30"/>
@@ -56157,7 +56169,7 @@
       <c r="DM804" s="4"/>
       <c r="DN804" s="7"/>
     </row>
-    <row r="805" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ805" s="30"/>
       <c r="BR805" s="30"/>
       <c r="BS805" s="30"/>
@@ -56167,7 +56179,7 @@
       <c r="DM805" s="4"/>
       <c r="DN805" s="7"/>
     </row>
-    <row r="806" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ806" s="30"/>
       <c r="BR806" s="30"/>
       <c r="BS806" s="30"/>
@@ -56177,7 +56189,7 @@
       <c r="DM806" s="4"/>
       <c r="DN806" s="7"/>
     </row>
-    <row r="807" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ807" s="30"/>
       <c r="BR807" s="30"/>
       <c r="BS807" s="30"/>
@@ -56187,7 +56199,7 @@
       <c r="DM807" s="4"/>
       <c r="DN807" s="7"/>
     </row>
-    <row r="808" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ808" s="30"/>
       <c r="BR808" s="30"/>
       <c r="BS808" s="30"/>
@@ -56197,7 +56209,7 @@
       <c r="DM808" s="4"/>
       <c r="DN808" s="7"/>
     </row>
-    <row r="809" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ809" s="30"/>
       <c r="BR809" s="30"/>
       <c r="BS809" s="30"/>
@@ -56207,7 +56219,7 @@
       <c r="DM809" s="4"/>
       <c r="DN809" s="7"/>
     </row>
-    <row r="810" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ810" s="30"/>
       <c r="BR810" s="30"/>
       <c r="BS810" s="30"/>
@@ -56217,7 +56229,7 @@
       <c r="DM810" s="4"/>
       <c r="DN810" s="7"/>
     </row>
-    <row r="811" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ811" s="30"/>
       <c r="BR811" s="30"/>
       <c r="BS811" s="30"/>
@@ -56227,7 +56239,7 @@
       <c r="DM811" s="4"/>
       <c r="DN811" s="7"/>
     </row>
-    <row r="812" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ812" s="30"/>
       <c r="BR812" s="30"/>
       <c r="BS812" s="30"/>
@@ -56237,7 +56249,7 @@
       <c r="DM812" s="4"/>
       <c r="DN812" s="7"/>
     </row>
-    <row r="813" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ813" s="30"/>
       <c r="BR813" s="30"/>
       <c r="BS813" s="30"/>
@@ -56247,7 +56259,7 @@
       <c r="DM813" s="4"/>
       <c r="DN813" s="7"/>
     </row>
-    <row r="814" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ814" s="30"/>
       <c r="BR814" s="30"/>
       <c r="BS814" s="30"/>
@@ -56257,7 +56269,7 @@
       <c r="DM814" s="4"/>
       <c r="DN814" s="7"/>
     </row>
-    <row r="815" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ815" s="30"/>
       <c r="BR815" s="30"/>
       <c r="BS815" s="30"/>
@@ -56267,7 +56279,7 @@
       <c r="DM815" s="4"/>
       <c r="DN815" s="7"/>
     </row>
-    <row r="816" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ816" s="30"/>
       <c r="BR816" s="30"/>
       <c r="BS816" s="30"/>
@@ -56277,7 +56289,7 @@
       <c r="DM816" s="4"/>
       <c r="DN816" s="7"/>
     </row>
-    <row r="817" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ817" s="30"/>
       <c r="BR817" s="30"/>
       <c r="BS817" s="30"/>
@@ -56287,7 +56299,7 @@
       <c r="DM817" s="4"/>
       <c r="DN817" s="7"/>
     </row>
-    <row r="818" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ818" s="30"/>
       <c r="BR818" s="30"/>
       <c r="BS818" s="30"/>
@@ -56297,7 +56309,7 @@
       <c r="DM818" s="4"/>
       <c r="DN818" s="7"/>
     </row>
-    <row r="819" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ819" s="30"/>
       <c r="BR819" s="30"/>
       <c r="BS819" s="30"/>
@@ -56307,7 +56319,7 @@
       <c r="DM819" s="4"/>
       <c r="DN819" s="7"/>
     </row>
-    <row r="820" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ820" s="30"/>
       <c r="BR820" s="30"/>
       <c r="BS820" s="30"/>
@@ -56317,7 +56329,7 @@
       <c r="DM820" s="4"/>
       <c r="DN820" s="7"/>
     </row>
-    <row r="821" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ821" s="30"/>
       <c r="BR821" s="30"/>
       <c r="BS821" s="30"/>
@@ -56327,7 +56339,7 @@
       <c r="DM821" s="4"/>
       <c r="DN821" s="7"/>
     </row>
-    <row r="822" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ822" s="30"/>
       <c r="BR822" s="30"/>
       <c r="BS822" s="30"/>
@@ -56337,7 +56349,7 @@
       <c r="DM822" s="4"/>
       <c r="DN822" s="7"/>
     </row>
-    <row r="823" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ823" s="30"/>
       <c r="BR823" s="30"/>
       <c r="BS823" s="30"/>
@@ -56347,7 +56359,7 @@
       <c r="DM823" s="4"/>
       <c r="DN823" s="7"/>
     </row>
-    <row r="824" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ824" s="30"/>
       <c r="BR824" s="30"/>
       <c r="BS824" s="30"/>
@@ -56357,7 +56369,7 @@
       <c r="DM824" s="4"/>
       <c r="DN824" s="7"/>
     </row>
-    <row r="825" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ825" s="30"/>
       <c r="BR825" s="30"/>
       <c r="BS825" s="30"/>
@@ -56367,7 +56379,7 @@
       <c r="DM825" s="4"/>
       <c r="DN825" s="7"/>
     </row>
-    <row r="826" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ826" s="30"/>
       <c r="BR826" s="30"/>
       <c r="BS826" s="30"/>
@@ -56377,7 +56389,7 @@
       <c r="DM826" s="4"/>
       <c r="DN826" s="7"/>
     </row>
-    <row r="827" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ827" s="30"/>
       <c r="BR827" s="30"/>
       <c r="BS827" s="30"/>
@@ -56387,7 +56399,7 @@
       <c r="DM827" s="4"/>
       <c r="DN827" s="7"/>
     </row>
-    <row r="828" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ828" s="30"/>
       <c r="BR828" s="30"/>
       <c r="BS828" s="30"/>
@@ -56397,7 +56409,7 @@
       <c r="DM828" s="4"/>
       <c r="DN828" s="7"/>
     </row>
-    <row r="829" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ829" s="30"/>
       <c r="BR829" s="30"/>
       <c r="BS829" s="30"/>
@@ -56407,7 +56419,7 @@
       <c r="DM829" s="4"/>
       <c r="DN829" s="7"/>
     </row>
-    <row r="830" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ830" s="30"/>
       <c r="BR830" s="30"/>
       <c r="BS830" s="30"/>
@@ -56417,7 +56429,7 @@
       <c r="DM830" s="4"/>
       <c r="DN830" s="7"/>
     </row>
-    <row r="831" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ831" s="30"/>
       <c r="BR831" s="30"/>
       <c r="BS831" s="30"/>
@@ -56427,7 +56439,7 @@
       <c r="DM831" s="4"/>
       <c r="DN831" s="7"/>
     </row>
-    <row r="832" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ832" s="30"/>
       <c r="BR832" s="30"/>
       <c r="BS832" s="30"/>
@@ -56437,7 +56449,7 @@
       <c r="DM832" s="4"/>
       <c r="DN832" s="7"/>
     </row>
-    <row r="833" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ833" s="30"/>
       <c r="BR833" s="30"/>
       <c r="BS833" s="30"/>
@@ -56447,7 +56459,7 @@
       <c r="DM833" s="4"/>
       <c r="DN833" s="7"/>
     </row>
-    <row r="834" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ834" s="30"/>
       <c r="BR834" s="30"/>
       <c r="BS834" s="30"/>
@@ -56457,7 +56469,7 @@
       <c r="DM834" s="4"/>
       <c r="DN834" s="7"/>
     </row>
-    <row r="835" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ835" s="30"/>
       <c r="BR835" s="30"/>
       <c r="BS835" s="30"/>
@@ -56467,7 +56479,7 @@
       <c r="DM835" s="4"/>
       <c r="DN835" s="7"/>
     </row>
-    <row r="836" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ836" s="30"/>
       <c r="BR836" s="30"/>
       <c r="BS836" s="30"/>
@@ -56477,7 +56489,7 @@
       <c r="DM836" s="4"/>
       <c r="DN836" s="7"/>
     </row>
-    <row r="837" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ837" s="30"/>
       <c r="BR837" s="30"/>
       <c r="BS837" s="30"/>
@@ -56487,7 +56499,7 @@
       <c r="DM837" s="4"/>
       <c r="DN837" s="7"/>
     </row>
-    <row r="838" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ838" s="30"/>
       <c r="BR838" s="30"/>
       <c r="BS838" s="30"/>
@@ -56497,7 +56509,7 @@
       <c r="DM838" s="4"/>
       <c r="DN838" s="7"/>
     </row>
-    <row r="839" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ839" s="30"/>
       <c r="BR839" s="30"/>
       <c r="BS839" s="30"/>
@@ -56507,7 +56519,7 @@
       <c r="DM839" s="4"/>
       <c r="DN839" s="7"/>
     </row>
-    <row r="840" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ840" s="30"/>
       <c r="BR840" s="30"/>
       <c r="BS840" s="30"/>
@@ -56517,7 +56529,7 @@
       <c r="DM840" s="4"/>
       <c r="DN840" s="7"/>
     </row>
-    <row r="841" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ841" s="30"/>
       <c r="BR841" s="30"/>
       <c r="BS841" s="30"/>
@@ -56527,7 +56539,7 @@
       <c r="DM841" s="4"/>
       <c r="DN841" s="7"/>
     </row>
-    <row r="842" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ842" s="30"/>
       <c r="BR842" s="30"/>
       <c r="BS842" s="30"/>
@@ -56537,7 +56549,7 @@
       <c r="DM842" s="4"/>
       <c r="DN842" s="7"/>
     </row>
-    <row r="843" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ843" s="30"/>
       <c r="BR843" s="30"/>
       <c r="BS843" s="30"/>
@@ -56547,7 +56559,7 @@
       <c r="DM843" s="4"/>
       <c r="DN843" s="7"/>
     </row>
-    <row r="844" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ844" s="30"/>
       <c r="BR844" s="30"/>
       <c r="BS844" s="30"/>
@@ -56557,7 +56569,7 @@
       <c r="DM844" s="4"/>
       <c r="DN844" s="7"/>
     </row>
-    <row r="845" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ845" s="30"/>
       <c r="BR845" s="30"/>
       <c r="BS845" s="30"/>
@@ -56567,7 +56579,7 @@
       <c r="DM845" s="4"/>
       <c r="DN845" s="7"/>
     </row>
-    <row r="846" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ846" s="30"/>
       <c r="BR846" s="30"/>
       <c r="BS846" s="30"/>
@@ -56577,7 +56589,7 @@
       <c r="DM846" s="4"/>
       <c r="DN846" s="7"/>
     </row>
-    <row r="847" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ847" s="30"/>
       <c r="BR847" s="30"/>
       <c r="BS847" s="30"/>
@@ -56587,7 +56599,7 @@
       <c r="DM847" s="4"/>
       <c r="DN847" s="7"/>
     </row>
-    <row r="848" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ848" s="30"/>
       <c r="BR848" s="30"/>
       <c r="BS848" s="30"/>
@@ -56597,7 +56609,7 @@
       <c r="DM848" s="4"/>
       <c r="DN848" s="7"/>
     </row>
-    <row r="849" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ849" s="30"/>
       <c r="BR849" s="30"/>
       <c r="BS849" s="30"/>
@@ -56607,7 +56619,7 @@
       <c r="DM849" s="4"/>
       <c r="DN849" s="7"/>
     </row>
-    <row r="850" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ850" s="30"/>
       <c r="BR850" s="30"/>
       <c r="BS850" s="30"/>
@@ -56617,7 +56629,7 @@
       <c r="DM850" s="4"/>
       <c r="DN850" s="7"/>
     </row>
-    <row r="851" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ851" s="30"/>
       <c r="BR851" s="30"/>
       <c r="BS851" s="30"/>
@@ -56627,7 +56639,7 @@
       <c r="DM851" s="4"/>
       <c r="DN851" s="7"/>
     </row>
-    <row r="852" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ852" s="30"/>
       <c r="BR852" s="30"/>
       <c r="BS852" s="30"/>
@@ -56637,7 +56649,7 @@
       <c r="DM852" s="4"/>
       <c r="DN852" s="7"/>
     </row>
-    <row r="853" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ853" s="30"/>
       <c r="BR853" s="30"/>
       <c r="BS853" s="30"/>
@@ -56647,7 +56659,7 @@
       <c r="DM853" s="4"/>
       <c r="DN853" s="7"/>
     </row>
-    <row r="854" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ854" s="30"/>
       <c r="BR854" s="30"/>
       <c r="BS854" s="30"/>
@@ -56657,7 +56669,7 @@
       <c r="DM854" s="4"/>
       <c r="DN854" s="7"/>
     </row>
-    <row r="855" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ855" s="30"/>
       <c r="BR855" s="30"/>
       <c r="BS855" s="30"/>
@@ -56667,7 +56679,7 @@
       <c r="DM855" s="4"/>
       <c r="DN855" s="7"/>
     </row>
-    <row r="856" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ856" s="30"/>
       <c r="BR856" s="30"/>
       <c r="BS856" s="30"/>
@@ -56677,7 +56689,7 @@
       <c r="DM856" s="4"/>
       <c r="DN856" s="7"/>
     </row>
-    <row r="857" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ857" s="30"/>
       <c r="BR857" s="30"/>
       <c r="BS857" s="30"/>
@@ -56687,7 +56699,7 @@
       <c r="DM857" s="4"/>
       <c r="DN857" s="7"/>
     </row>
-    <row r="858" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ858" s="30"/>
       <c r="BR858" s="30"/>
       <c r="BS858" s="30"/>
@@ -56697,7 +56709,7 @@
       <c r="DM858" s="4"/>
       <c r="DN858" s="7"/>
     </row>
-    <row r="859" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ859" s="30"/>
       <c r="BR859" s="30"/>
       <c r="BS859" s="30"/>
@@ -56707,7 +56719,7 @@
       <c r="DM859" s="4"/>
       <c r="DN859" s="7"/>
     </row>
-    <row r="860" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ860" s="30"/>
       <c r="BR860" s="30"/>
       <c r="BS860" s="30"/>
@@ -56717,7 +56729,7 @@
       <c r="DM860" s="4"/>
       <c r="DN860" s="7"/>
     </row>
-    <row r="861" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ861" s="30"/>
       <c r="BR861" s="30"/>
       <c r="BS861" s="30"/>
@@ -56727,7 +56739,7 @@
       <c r="DM861" s="4"/>
       <c r="DN861" s="7"/>
     </row>
-    <row r="862" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ862" s="30"/>
       <c r="BR862" s="30"/>
       <c r="BS862" s="30"/>
@@ -56737,7 +56749,7 @@
       <c r="DM862" s="4"/>
       <c r="DN862" s="7"/>
     </row>
-    <row r="863" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ863" s="30"/>
       <c r="BR863" s="30"/>
       <c r="BS863" s="30"/>
@@ -56747,7 +56759,7 @@
       <c r="DM863" s="4"/>
       <c r="DN863" s="7"/>
     </row>
-    <row r="864" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ864" s="30"/>
       <c r="BR864" s="30"/>
       <c r="BS864" s="30"/>
@@ -56757,7 +56769,7 @@
       <c r="DM864" s="4"/>
       <c r="DN864" s="7"/>
     </row>
-    <row r="865" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ865" s="30"/>
       <c r="BR865" s="30"/>
       <c r="BS865" s="30"/>
@@ -56767,7 +56779,7 @@
       <c r="DM865" s="4"/>
       <c r="DN865" s="7"/>
     </row>
-    <row r="866" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ866" s="30"/>
       <c r="BR866" s="30"/>
       <c r="BS866" s="30"/>
@@ -56777,7 +56789,7 @@
       <c r="DM866" s="4"/>
       <c r="DN866" s="7"/>
     </row>
-    <row r="867" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ867" s="30"/>
       <c r="BR867" s="30"/>
       <c r="BS867" s="30"/>
@@ -56787,7 +56799,7 @@
       <c r="DM867" s="4"/>
       <c r="DN867" s="7"/>
     </row>
-    <row r="868" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ868" s="30"/>
       <c r="BR868" s="30"/>
       <c r="BS868" s="30"/>
@@ -56797,7 +56809,7 @@
       <c r="DM868" s="4"/>
       <c r="DN868" s="7"/>
     </row>
-    <row r="869" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ869" s="30"/>
       <c r="BR869" s="30"/>
       <c r="BS869" s="30"/>
@@ -56807,7 +56819,7 @@
       <c r="DM869" s="4"/>
       <c r="DN869" s="7"/>
     </row>
-    <row r="870" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ870" s="30"/>
       <c r="BR870" s="30"/>
       <c r="BS870" s="30"/>
@@ -56817,7 +56829,7 @@
       <c r="DM870" s="4"/>
       <c r="DN870" s="7"/>
     </row>
-    <row r="871" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ871" s="30"/>
       <c r="BR871" s="30"/>
       <c r="BS871" s="30"/>
@@ -56827,7 +56839,7 @@
       <c r="DM871" s="4"/>
       <c r="DN871" s="7"/>
     </row>
-    <row r="872" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ872" s="30"/>
       <c r="BR872" s="30"/>
       <c r="BS872" s="30"/>
@@ -56837,7 +56849,7 @@
       <c r="DM872" s="4"/>
       <c r="DN872" s="7"/>
     </row>
-    <row r="873" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ873" s="30"/>
       <c r="BR873" s="30"/>
       <c r="BS873" s="30"/>
@@ -56847,7 +56859,7 @@
       <c r="DM873" s="4"/>
       <c r="DN873" s="7"/>
     </row>
-    <row r="874" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ874" s="30"/>
       <c r="BR874" s="30"/>
       <c r="BS874" s="30"/>
@@ -56857,7 +56869,7 @@
       <c r="DM874" s="4"/>
       <c r="DN874" s="7"/>
     </row>
-    <row r="875" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ875" s="30"/>
       <c r="BR875" s="30"/>
       <c r="BS875" s="30"/>
@@ -56867,7 +56879,7 @@
       <c r="DM875" s="4"/>
       <c r="DN875" s="7"/>
     </row>
-    <row r="876" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ876" s="30"/>
       <c r="BR876" s="30"/>
       <c r="BS876" s="30"/>
@@ -56877,7 +56889,7 @@
       <c r="DM876" s="4"/>
       <c r="DN876" s="7"/>
     </row>
-    <row r="877" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ877" s="30"/>
       <c r="BR877" s="30"/>
       <c r="BS877" s="30"/>
@@ -56887,7 +56899,7 @@
       <c r="DM877" s="4"/>
       <c r="DN877" s="7"/>
     </row>
-    <row r="878" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ878" s="30"/>
       <c r="BR878" s="30"/>
       <c r="BS878" s="30"/>
@@ -56897,7 +56909,7 @@
       <c r="DM878" s="4"/>
       <c r="DN878" s="7"/>
     </row>
-    <row r="879" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ879" s="30"/>
       <c r="BR879" s="30"/>
       <c r="BS879" s="30"/>
@@ -56907,7 +56919,7 @@
       <c r="DM879" s="4"/>
       <c r="DN879" s="7"/>
     </row>
-    <row r="880" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ880" s="30"/>
       <c r="BR880" s="30"/>
       <c r="BS880" s="30"/>
@@ -56917,7 +56929,7 @@
       <c r="DM880" s="4"/>
       <c r="DN880" s="7"/>
     </row>
-    <row r="881" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ881" s="30"/>
       <c r="BR881" s="30"/>
       <c r="BS881" s="30"/>
@@ -56927,7 +56939,7 @@
       <c r="DM881" s="4"/>
       <c r="DN881" s="7"/>
     </row>
-    <row r="882" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ882" s="30"/>
       <c r="BR882" s="30"/>
       <c r="BS882" s="30"/>
@@ -56937,7 +56949,7 @@
       <c r="DM882" s="4"/>
       <c r="DN882" s="7"/>
     </row>
-    <row r="883" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ883" s="30"/>
       <c r="BR883" s="30"/>
       <c r="BS883" s="30"/>
@@ -56947,7 +56959,7 @@
       <c r="DM883" s="4"/>
       <c r="DN883" s="7"/>
     </row>
-    <row r="884" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ884" s="30"/>
       <c r="BR884" s="30"/>
       <c r="BS884" s="30"/>
@@ -56957,7 +56969,7 @@
       <c r="DM884" s="4"/>
       <c r="DN884" s="7"/>
     </row>
-    <row r="885" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ885" s="30"/>
       <c r="BR885" s="30"/>
       <c r="BS885" s="30"/>
@@ -56967,7 +56979,7 @@
       <c r="DM885" s="4"/>
       <c r="DN885" s="7"/>
     </row>
-    <row r="886" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ886" s="30"/>
       <c r="BR886" s="30"/>
       <c r="BS886" s="30"/>
@@ -56977,7 +56989,7 @@
       <c r="DM886" s="4"/>
       <c r="DN886" s="7"/>
     </row>
-    <row r="887" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ887" s="30"/>
       <c r="BR887" s="30"/>
       <c r="BS887" s="30"/>
@@ -56987,7 +56999,7 @@
       <c r="DM887" s="4"/>
       <c r="DN887" s="7"/>
     </row>
-    <row r="888" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ888" s="30"/>
       <c r="BR888" s="30"/>
       <c r="BS888" s="30"/>
@@ -56997,7 +57009,7 @@
       <c r="DM888" s="4"/>
       <c r="DN888" s="7"/>
     </row>
-    <row r="889" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ889" s="30"/>
       <c r="BR889" s="30"/>
       <c r="BS889" s="30"/>
@@ -57007,7 +57019,7 @@
       <c r="DM889" s="4"/>
       <c r="DN889" s="7"/>
     </row>
-    <row r="890" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ890" s="30"/>
       <c r="BR890" s="30"/>
       <c r="BS890" s="30"/>
@@ -57017,7 +57029,7 @@
       <c r="DM890" s="4"/>
       <c r="DN890" s="7"/>
     </row>
-    <row r="891" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ891" s="30"/>
       <c r="BR891" s="30"/>
       <c r="BS891" s="30"/>
@@ -57027,7 +57039,7 @@
       <c r="DM891" s="4"/>
       <c r="DN891" s="7"/>
     </row>
-    <row r="892" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ892" s="30"/>
       <c r="BR892" s="30"/>
       <c r="BS892" s="30"/>
@@ -57037,7 +57049,7 @@
       <c r="DM892" s="4"/>
       <c r="DN892" s="7"/>
     </row>
-    <row r="893" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ893" s="30"/>
       <c r="BR893" s="30"/>
       <c r="BS893" s="30"/>
@@ -57047,7 +57059,7 @@
       <c r="DM893" s="4"/>
       <c r="DN893" s="7"/>
     </row>
-    <row r="894" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ894" s="30"/>
       <c r="BR894" s="30"/>
       <c r="BS894" s="30"/>
@@ -57057,7 +57069,7 @@
       <c r="DM894" s="4"/>
       <c r="DN894" s="7"/>
     </row>
-    <row r="895" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ895" s="30"/>
       <c r="BR895" s="30"/>
       <c r="BS895" s="30"/>
@@ -57067,7 +57079,7 @@
       <c r="DM895" s="4"/>
       <c r="DN895" s="7"/>
     </row>
-    <row r="896" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ896" s="30"/>
       <c r="BR896" s="30"/>
       <c r="BS896" s="30"/>
@@ -57077,7 +57089,7 @@
       <c r="DM896" s="4"/>
       <c r="DN896" s="7"/>
     </row>
-    <row r="897" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ897" s="30"/>
       <c r="BR897" s="30"/>
       <c r="BS897" s="30"/>
@@ -57087,7 +57099,7 @@
       <c r="DM897" s="4"/>
       <c r="DN897" s="7"/>
     </row>
-    <row r="898" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ898" s="30"/>
       <c r="BR898" s="30"/>
       <c r="BS898" s="30"/>
@@ -57097,7 +57109,7 @@
       <c r="DM898" s="4"/>
       <c r="DN898" s="7"/>
     </row>
-    <row r="899" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ899" s="30"/>
       <c r="BR899" s="30"/>
       <c r="BS899" s="30"/>
@@ -57107,7 +57119,7 @@
       <c r="DM899" s="4"/>
       <c r="DN899" s="7"/>
     </row>
-    <row r="900" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ900" s="30"/>
       <c r="BR900" s="30"/>
       <c r="BS900" s="30"/>
@@ -57117,7 +57129,7 @@
       <c r="DM900" s="4"/>
       <c r="DN900" s="7"/>
     </row>
-    <row r="901" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ901" s="30"/>
       <c r="BR901" s="30"/>
       <c r="BS901" s="30"/>
@@ -57127,7 +57139,7 @@
       <c r="DM901" s="4"/>
       <c r="DN901" s="7"/>
     </row>
-    <row r="902" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ902" s="30"/>
       <c r="BR902" s="30"/>
       <c r="BS902" s="30"/>
@@ -57137,7 +57149,7 @@
       <c r="DM902" s="4"/>
       <c r="DN902" s="7"/>
     </row>
-    <row r="903" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ903" s="30"/>
       <c r="BR903" s="30"/>
       <c r="BS903" s="30"/>
@@ -57147,7 +57159,7 @@
       <c r="DM903" s="4"/>
       <c r="DN903" s="7"/>
     </row>
-    <row r="904" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ904" s="30"/>
       <c r="BR904" s="30"/>
       <c r="BS904" s="30"/>
@@ -57157,7 +57169,7 @@
       <c r="DM904" s="4"/>
       <c r="DN904" s="7"/>
     </row>
-    <row r="905" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ905" s="30"/>
       <c r="BR905" s="30"/>
       <c r="BS905" s="30"/>
@@ -57167,7 +57179,7 @@
       <c r="DM905" s="4"/>
       <c r="DN905" s="7"/>
     </row>
-    <row r="906" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ906" s="30"/>
       <c r="BR906" s="30"/>
       <c r="BS906" s="30"/>
@@ -57177,7 +57189,7 @@
       <c r="DM906" s="4"/>
       <c r="DN906" s="7"/>
     </row>
-    <row r="907" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ907" s="30"/>
       <c r="BR907" s="30"/>
       <c r="BS907" s="30"/>
@@ -57187,7 +57199,7 @@
       <c r="DM907" s="4"/>
       <c r="DN907" s="7"/>
     </row>
-    <row r="908" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ908" s="30"/>
       <c r="BR908" s="30"/>
       <c r="BS908" s="30"/>
@@ -57197,7 +57209,7 @@
       <c r="DM908" s="4"/>
       <c r="DN908" s="7"/>
     </row>
-    <row r="909" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ909" s="30"/>
       <c r="BR909" s="30"/>
       <c r="BS909" s="30"/>
@@ -57207,7 +57219,7 @@
       <c r="DM909" s="4"/>
       <c r="DN909" s="7"/>
     </row>
-    <row r="910" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ910" s="30"/>
       <c r="BR910" s="30"/>
       <c r="BS910" s="30"/>
@@ -57217,7 +57229,7 @@
       <c r="DM910" s="4"/>
       <c r="DN910" s="7"/>
     </row>
-    <row r="911" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ911" s="30"/>
       <c r="BR911" s="30"/>
       <c r="BS911" s="30"/>
@@ -57227,7 +57239,7 @@
       <c r="DM911" s="4"/>
       <c r="DN911" s="7"/>
     </row>
-    <row r="912" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ912" s="30"/>
       <c r="BR912" s="30"/>
       <c r="BS912" s="30"/>
@@ -57237,7 +57249,7 @@
       <c r="DM912" s="4"/>
       <c r="DN912" s="7"/>
     </row>
-    <row r="913" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ913" s="30"/>
       <c r="BR913" s="30"/>
       <c r="BS913" s="30"/>
@@ -57247,7 +57259,7 @@
       <c r="DM913" s="4"/>
       <c r="DN913" s="7"/>
     </row>
-    <row r="914" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ914" s="30"/>
       <c r="BR914" s="30"/>
       <c r="BS914" s="30"/>
@@ -57257,7 +57269,7 @@
       <c r="DM914" s="4"/>
       <c r="DN914" s="7"/>
     </row>
-    <row r="915" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ915" s="30"/>
       <c r="BR915" s="30"/>
       <c r="BS915" s="30"/>
@@ -57267,7 +57279,7 @@
       <c r="DM915" s="4"/>
       <c r="DN915" s="7"/>
     </row>
-    <row r="916" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ916" s="30"/>
       <c r="BR916" s="30"/>
       <c r="BS916" s="30"/>
@@ -57277,7 +57289,7 @@
       <c r="DM916" s="4"/>
       <c r="DN916" s="7"/>
     </row>
-    <row r="917" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ917" s="30"/>
       <c r="BR917" s="30"/>
       <c r="BS917" s="30"/>
@@ -57287,7 +57299,7 @@
       <c r="DM917" s="4"/>
       <c r="DN917" s="7"/>
     </row>
-    <row r="918" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ918" s="30"/>
       <c r="BR918" s="30"/>
       <c r="BS918" s="30"/>
@@ -57297,7 +57309,7 @@
       <c r="DM918" s="4"/>
       <c r="DN918" s="7"/>
     </row>
-    <row r="919" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ919" s="30"/>
       <c r="BR919" s="30"/>
       <c r="BS919" s="30"/>
@@ -57307,7 +57319,7 @@
       <c r="DM919" s="4"/>
       <c r="DN919" s="7"/>
     </row>
-    <row r="920" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ920" s="30"/>
       <c r="BR920" s="30"/>
       <c r="BS920" s="30"/>
@@ -57317,7 +57329,7 @@
       <c r="DM920" s="4"/>
       <c r="DN920" s="7"/>
     </row>
-    <row r="921" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ921" s="30"/>
       <c r="BR921" s="30"/>
       <c r="BS921" s="30"/>
@@ -57327,7 +57339,7 @@
       <c r="DM921" s="4"/>
       <c r="DN921" s="7"/>
     </row>
-    <row r="922" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ922" s="30"/>
       <c r="BR922" s="30"/>
       <c r="BS922" s="30"/>
@@ -57337,7 +57349,7 @@
       <c r="DM922" s="4"/>
       <c r="DN922" s="7"/>
     </row>
-    <row r="923" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ923" s="30"/>
       <c r="BR923" s="30"/>
       <c r="BS923" s="30"/>
@@ -57347,7 +57359,7 @@
       <c r="DM923" s="4"/>
       <c r="DN923" s="7"/>
     </row>
-    <row r="924" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ924" s="30"/>
       <c r="BR924" s="30"/>
       <c r="BS924" s="30"/>
@@ -57357,7 +57369,7 @@
       <c r="DM924" s="4"/>
       <c r="DN924" s="7"/>
     </row>
-    <row r="925" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ925" s="30"/>
       <c r="BR925" s="30"/>
       <c r="BS925" s="30"/>
@@ -57367,7 +57379,7 @@
       <c r="DM925" s="4"/>
       <c r="DN925" s="7"/>
     </row>
-    <row r="926" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ926" s="30"/>
       <c r="BR926" s="30"/>
       <c r="BS926" s="30"/>
@@ -57377,7 +57389,7 @@
       <c r="DM926" s="4"/>
       <c r="DN926" s="7"/>
     </row>
-    <row r="927" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ927" s="30"/>
       <c r="BR927" s="30"/>
       <c r="BS927" s="30"/>
@@ -57387,7 +57399,7 @@
       <c r="DM927" s="4"/>
       <c r="DN927" s="7"/>
     </row>
-    <row r="928" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ928" s="30"/>
       <c r="BR928" s="30"/>
       <c r="BS928" s="30"/>
@@ -57397,7 +57409,7 @@
       <c r="DM928" s="4"/>
       <c r="DN928" s="7"/>
     </row>
-    <row r="929" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ929" s="30"/>
       <c r="BR929" s="30"/>
       <c r="BS929" s="30"/>
@@ -57407,7 +57419,7 @@
       <c r="DM929" s="4"/>
       <c r="DN929" s="7"/>
     </row>
-    <row r="930" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ930" s="30"/>
       <c r="BR930" s="30"/>
       <c r="BS930" s="30"/>
@@ -57417,7 +57429,7 @@
       <c r="DM930" s="4"/>
       <c r="DN930" s="7"/>
     </row>
-    <row r="931" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ931" s="30"/>
       <c r="BR931" s="30"/>
       <c r="BS931" s="30"/>
@@ -57427,7 +57439,7 @@
       <c r="DM931" s="4"/>
       <c r="DN931" s="7"/>
     </row>
-    <row r="932" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ932" s="30"/>
       <c r="BR932" s="30"/>
       <c r="BS932" s="30"/>
@@ -57437,7 +57449,7 @@
       <c r="DM932" s="4"/>
       <c r="DN932" s="7"/>
     </row>
-    <row r="933" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ933" s="30"/>
       <c r="BR933" s="30"/>
       <c r="BS933" s="30"/>
@@ -57447,7 +57459,7 @@
       <c r="DM933" s="4"/>
       <c r="DN933" s="7"/>
     </row>
-    <row r="934" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ934" s="30"/>
       <c r="BR934" s="30"/>
       <c r="BS934" s="30"/>
@@ -57457,7 +57469,7 @@
       <c r="DM934" s="4"/>
       <c r="DN934" s="7"/>
     </row>
-    <row r="935" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ935" s="30"/>
       <c r="BR935" s="30"/>
       <c r="BS935" s="30"/>
@@ -57467,7 +57479,7 @@
       <c r="DM935" s="4"/>
       <c r="DN935" s="7"/>
     </row>
-    <row r="936" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ936" s="30"/>
       <c r="BR936" s="30"/>
       <c r="BS936" s="30"/>
@@ -57477,7 +57489,7 @@
       <c r="DM936" s="4"/>
       <c r="DN936" s="7"/>
     </row>
-    <row r="937" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ937" s="30"/>
       <c r="BR937" s="30"/>
       <c r="BS937" s="30"/>
@@ -57487,7 +57499,7 @@
       <c r="DM937" s="4"/>
       <c r="DN937" s="7"/>
     </row>
-    <row r="938" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ938" s="30"/>
       <c r="BR938" s="30"/>
       <c r="BS938" s="30"/>
@@ -57497,7 +57509,7 @@
       <c r="DM938" s="4"/>
       <c r="DN938" s="7"/>
     </row>
-    <row r="939" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ939" s="30"/>
       <c r="BR939" s="30"/>
       <c r="BS939" s="30"/>
@@ -57507,7 +57519,7 @@
       <c r="DM939" s="4"/>
       <c r="DN939" s="7"/>
     </row>
-    <row r="940" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ940" s="30"/>
       <c r="BR940" s="30"/>
       <c r="BS940" s="30"/>
@@ -57517,7 +57529,7 @@
       <c r="DM940" s="4"/>
       <c r="DN940" s="7"/>
     </row>
-    <row r="941" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ941" s="30"/>
       <c r="BR941" s="30"/>
       <c r="BS941" s="30"/>
@@ -57527,7 +57539,7 @@
       <c r="DM941" s="4"/>
       <c r="DN941" s="7"/>
     </row>
-    <row r="942" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ942" s="30"/>
       <c r="BR942" s="30"/>
       <c r="BS942" s="30"/>
@@ -57537,7 +57549,7 @@
       <c r="DM942" s="4"/>
       <c r="DN942" s="7"/>
     </row>
-    <row r="943" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ943" s="30"/>
       <c r="BR943" s="30"/>
       <c r="BS943" s="30"/>
@@ -57547,7 +57559,7 @@
       <c r="DM943" s="4"/>
       <c r="DN943" s="7"/>
     </row>
-    <row r="944" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ944" s="30"/>
       <c r="BR944" s="30"/>
       <c r="BS944" s="30"/>
@@ -57557,7 +57569,7 @@
       <c r="DM944" s="4"/>
       <c r="DN944" s="7"/>
     </row>
-    <row r="945" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ945" s="30"/>
       <c r="BR945" s="30"/>
       <c r="BS945" s="30"/>
@@ -57567,7 +57579,7 @@
       <c r="DM945" s="4"/>
       <c r="DN945" s="7"/>
     </row>
-    <row r="946" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ946" s="30"/>
       <c r="BR946" s="30"/>
       <c r="BS946" s="30"/>
@@ -57577,7 +57589,7 @@
       <c r="DM946" s="4"/>
       <c r="DN946" s="7"/>
     </row>
-    <row r="947" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ947" s="30"/>
       <c r="BR947" s="30"/>
       <c r="BS947" s="30"/>
@@ -57587,7 +57599,7 @@
       <c r="DM947" s="4"/>
       <c r="DN947" s="7"/>
     </row>
-    <row r="948" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ948" s="30"/>
       <c r="BR948" s="30"/>
       <c r="BS948" s="30"/>
@@ -57597,7 +57609,7 @@
       <c r="DM948" s="4"/>
       <c r="DN948" s="7"/>
     </row>
-    <row r="949" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ949" s="30"/>
       <c r="BR949" s="30"/>
       <c r="BS949" s="30"/>
@@ -57607,7 +57619,7 @@
       <c r="DM949" s="4"/>
       <c r="DN949" s="7"/>
     </row>
-    <row r="950" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ950" s="30"/>
       <c r="BR950" s="30"/>
       <c r="BS950" s="30"/>
@@ -57617,7 +57629,7 @@
       <c r="DM950" s="4"/>
       <c r="DN950" s="7"/>
     </row>
-    <row r="951" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ951" s="30"/>
       <c r="BR951" s="30"/>
       <c r="BS951" s="30"/>
@@ -57627,7 +57639,7 @@
       <c r="DM951" s="4"/>
       <c r="DN951" s="7"/>
     </row>
-    <row r="952" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ952" s="30"/>
       <c r="BR952" s="30"/>
       <c r="BS952" s="30"/>
@@ -57637,7 +57649,7 @@
       <c r="DM952" s="4"/>
       <c r="DN952" s="7"/>
     </row>
-    <row r="953" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ953" s="30"/>
       <c r="BR953" s="30"/>
       <c r="BS953" s="30"/>
@@ -57647,7 +57659,7 @@
       <c r="DM953" s="4"/>
       <c r="DN953" s="7"/>
     </row>
-    <row r="954" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ954" s="30"/>
       <c r="BR954" s="30"/>
       <c r="BS954" s="30"/>
@@ -57657,7 +57669,7 @@
       <c r="DM954" s="4"/>
       <c r="DN954" s="7"/>
     </row>
-    <row r="955" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ955" s="30"/>
       <c r="BR955" s="30"/>
       <c r="BS955" s="30"/>
@@ -57667,7 +57679,7 @@
       <c r="DM955" s="4"/>
       <c r="DN955" s="7"/>
     </row>
-    <row r="956" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ956" s="30"/>
       <c r="BR956" s="30"/>
       <c r="BS956" s="30"/>
@@ -57677,7 +57689,7 @@
       <c r="DM956" s="4"/>
       <c r="DN956" s="7"/>
     </row>
-    <row r="957" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ957" s="30"/>
       <c r="BR957" s="30"/>
       <c r="BS957" s="30"/>
@@ -57687,7 +57699,7 @@
       <c r="DM957" s="4"/>
       <c r="DN957" s="7"/>
     </row>
-    <row r="958" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ958" s="30"/>
       <c r="BR958" s="30"/>
       <c r="BS958" s="30"/>
@@ -57697,7 +57709,7 @@
       <c r="DM958" s="4"/>
       <c r="DN958" s="7"/>
     </row>
-    <row r="959" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ959" s="30"/>
       <c r="BR959" s="30"/>
       <c r="BS959" s="30"/>
@@ -57707,7 +57719,7 @@
       <c r="DM959" s="4"/>
       <c r="DN959" s="7"/>
     </row>
-    <row r="960" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ960" s="30"/>
       <c r="BR960" s="30"/>
       <c r="BS960" s="30"/>
@@ -57717,7 +57729,7 @@
       <c r="DM960" s="4"/>
       <c r="DN960" s="7"/>
     </row>
-    <row r="961" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ961" s="30"/>
       <c r="BR961" s="30"/>
       <c r="BS961" s="30"/>
@@ -57727,7 +57739,7 @@
       <c r="DM961" s="4"/>
       <c r="DN961" s="7"/>
     </row>
-    <row r="962" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ962" s="30"/>
       <c r="BR962" s="30"/>
       <c r="BS962" s="30"/>
@@ -57737,7 +57749,7 @@
       <c r="DM962" s="4"/>
       <c r="DN962" s="7"/>
     </row>
-    <row r="963" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ963" s="30"/>
       <c r="BR963" s="30"/>
       <c r="BS963" s="30"/>
@@ -57747,7 +57759,7 @@
       <c r="DM963" s="4"/>
       <c r="DN963" s="7"/>
     </row>
-    <row r="964" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ964" s="30"/>
       <c r="BR964" s="30"/>
       <c r="BS964" s="30"/>
@@ -57757,7 +57769,7 @@
       <c r="DM964" s="4"/>
       <c r="DN964" s="7"/>
     </row>
-    <row r="965" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ965" s="30"/>
       <c r="BR965" s="30"/>
       <c r="BS965" s="30"/>
@@ -57767,7 +57779,7 @@
       <c r="DM965" s="4"/>
       <c r="DN965" s="7"/>
     </row>
-    <row r="966" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ966" s="30"/>
       <c r="BR966" s="30"/>
       <c r="BS966" s="30"/>
@@ -57777,7 +57789,7 @@
       <c r="DM966" s="4"/>
       <c r="DN966" s="7"/>
     </row>
-    <row r="967" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ967" s="30"/>
       <c r="BR967" s="30"/>
       <c r="BS967" s="30"/>
@@ -57787,7 +57799,7 @@
       <c r="DM967" s="4"/>
       <c r="DN967" s="7"/>
     </row>
-    <row r="968" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ968" s="30"/>
       <c r="BR968" s="30"/>
       <c r="BS968" s="30"/>
@@ -57797,7 +57809,7 @@
       <c r="DM968" s="4"/>
       <c r="DN968" s="7"/>
     </row>
-    <row r="969" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ969" s="30"/>
       <c r="BR969" s="30"/>
       <c r="BS969" s="30"/>
@@ -57807,7 +57819,7 @@
       <c r="DM969" s="4"/>
       <c r="DN969" s="7"/>
     </row>
-    <row r="970" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ970" s="30"/>
       <c r="BR970" s="30"/>
       <c r="BS970" s="30"/>
@@ -57817,7 +57829,7 @@
       <c r="DM970" s="4"/>
       <c r="DN970" s="7"/>
     </row>
-    <row r="971" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ971" s="30"/>
       <c r="BR971" s="30"/>
       <c r="BS971" s="30"/>
@@ -57827,7 +57839,7 @@
       <c r="DM971" s="4"/>
       <c r="DN971" s="7"/>
     </row>
-    <row r="972" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ972" s="30"/>
       <c r="BR972" s="30"/>
       <c r="BS972" s="30"/>
@@ -57837,7 +57849,7 @@
       <c r="DM972" s="4"/>
       <c r="DN972" s="7"/>
     </row>
-    <row r="973" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ973" s="30"/>
       <c r="BR973" s="30"/>
       <c r="BS973" s="30"/>
@@ -57847,7 +57859,7 @@
       <c r="DM973" s="4"/>
       <c r="DN973" s="7"/>
     </row>
-    <row r="974" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ974" s="30"/>
       <c r="BR974" s="30"/>
       <c r="BS974" s="30"/>
@@ -57857,7 +57869,7 @@
       <c r="DM974" s="4"/>
       <c r="DN974" s="7"/>
     </row>
-    <row r="975" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ975" s="30"/>
       <c r="BR975" s="30"/>
       <c r="BS975" s="30"/>
@@ -57867,7 +57879,7 @@
       <c r="DM975" s="4"/>
       <c r="DN975" s="7"/>
     </row>
-    <row r="976" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ976" s="30"/>
       <c r="BR976" s="30"/>
       <c r="BS976" s="30"/>
@@ -57877,7 +57889,7 @@
       <c r="DM976" s="4"/>
       <c r="DN976" s="7"/>
     </row>
-    <row r="977" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ977" s="30"/>
       <c r="BR977" s="30"/>
       <c r="BS977" s="30"/>
@@ -57887,7 +57899,7 @@
       <c r="DM977" s="4"/>
       <c r="DN977" s="7"/>
     </row>
-    <row r="978" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ978" s="30"/>
       <c r="BR978" s="30"/>
       <c r="BS978" s="30"/>
@@ -57897,7 +57909,7 @@
       <c r="DM978" s="4"/>
       <c r="DN978" s="7"/>
     </row>
-    <row r="979" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ979" s="30"/>
       <c r="BR979" s="30"/>
       <c r="BS979" s="30"/>
@@ -57907,7 +57919,7 @@
       <c r="DM979" s="4"/>
       <c r="DN979" s="7"/>
     </row>
-    <row r="980" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ980" s="30"/>
       <c r="BR980" s="30"/>
       <c r="BS980" s="30"/>
@@ -57917,7 +57929,7 @@
       <c r="DM980" s="4"/>
       <c r="DN980" s="7"/>
     </row>
-    <row r="981" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ981" s="30"/>
       <c r="BR981" s="30"/>
       <c r="BS981" s="30"/>
@@ -57927,7 +57939,7 @@
       <c r="DM981" s="4"/>
       <c r="DN981" s="7"/>
     </row>
-    <row r="982" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ982" s="30"/>
       <c r="BR982" s="30"/>
       <c r="BS982" s="30"/>
@@ -57937,7 +57949,7 @@
       <c r="DM982" s="4"/>
       <c r="DN982" s="7"/>
     </row>
-    <row r="983" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ983" s="30"/>
       <c r="BR983" s="30"/>
       <c r="BS983" s="30"/>
@@ -57947,7 +57959,7 @@
       <c r="DM983" s="4"/>
       <c r="DN983" s="7"/>
     </row>
-    <row r="984" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ984" s="30"/>
       <c r="BR984" s="30"/>
       <c r="BS984" s="30"/>
@@ -57957,7 +57969,7 @@
       <c r="DM984" s="4"/>
       <c r="DN984" s="7"/>
     </row>
-    <row r="985" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ985" s="30"/>
       <c r="BR985" s="30"/>
       <c r="BS985" s="30"/>
@@ -57967,7 +57979,7 @@
       <c r="DM985" s="4"/>
       <c r="DN985" s="7"/>
     </row>
-    <row r="986" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ986" s="30"/>
       <c r="BR986" s="30"/>
       <c r="BS986" s="30"/>
@@ -57977,7 +57989,7 @@
       <c r="DM986" s="4"/>
       <c r="DN986" s="7"/>
     </row>
-    <row r="987" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ987" s="30"/>
       <c r="BR987" s="30"/>
       <c r="BS987" s="30"/>
@@ -57987,7 +57999,7 @@
       <c r="DM987" s="4"/>
       <c r="DN987" s="7"/>
     </row>
-    <row r="988" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ988" s="30"/>
       <c r="BR988" s="30"/>
       <c r="BS988" s="30"/>
@@ -57997,7 +58009,7 @@
       <c r="DM988" s="4"/>
       <c r="DN988" s="7"/>
     </row>
-    <row r="989" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ989" s="30"/>
       <c r="BR989" s="30"/>
       <c r="BS989" s="30"/>
@@ -58007,7 +58019,7 @@
       <c r="DM989" s="4"/>
       <c r="DN989" s="7"/>
     </row>
-    <row r="990" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ990" s="30"/>
       <c r="BR990" s="30"/>
       <c r="BS990" s="30"/>
@@ -58017,7 +58029,7 @@
       <c r="DM990" s="4"/>
       <c r="DN990" s="7"/>
     </row>
-    <row r="991" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ991" s="30"/>
       <c r="BR991" s="30"/>
       <c r="BS991" s="30"/>
@@ -58027,7 +58039,7 @@
       <c r="DM991" s="4"/>
       <c r="DN991" s="7"/>
     </row>
-    <row r="992" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ992" s="30"/>
       <c r="BR992" s="30"/>
       <c r="BS992" s="30"/>
@@ -58037,7 +58049,7 @@
       <c r="DM992" s="4"/>
       <c r="DN992" s="7"/>
     </row>
-    <row r="993" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ993" s="30"/>
       <c r="BR993" s="30"/>
       <c r="BS993" s="30"/>
@@ -58047,7 +58059,7 @@
       <c r="DM993" s="4"/>
       <c r="DN993" s="7"/>
     </row>
-    <row r="994" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ994" s="30"/>
       <c r="BR994" s="30"/>
       <c r="BS994" s="30"/>
@@ -58057,7 +58069,7 @@
       <c r="DM994" s="4"/>
       <c r="DN994" s="7"/>
     </row>
-    <row r="995" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ995" s="30"/>
       <c r="BR995" s="30"/>
       <c r="BS995" s="30"/>
@@ -58067,7 +58079,7 @@
       <c r="DM995" s="4"/>
       <c r="DN995" s="7"/>
     </row>
-    <row r="996" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ996" s="30"/>
       <c r="BR996" s="30"/>
       <c r="BS996" s="30"/>
@@ -58077,7 +58089,7 @@
       <c r="DM996" s="4"/>
       <c r="DN996" s="7"/>
     </row>
-    <row r="997" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ997" s="30"/>
       <c r="BR997" s="30"/>
       <c r="BS997" s="30"/>
@@ -58087,7 +58099,7 @@
       <c r="DM997" s="4"/>
       <c r="DN997" s="7"/>
     </row>
-    <row r="998" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ998" s="30"/>
       <c r="BR998" s="30"/>
       <c r="BS998" s="30"/>
@@ -58097,7 +58109,7 @@
       <c r="DM998" s="4"/>
       <c r="DN998" s="7"/>
     </row>
-    <row r="999" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ999" s="30"/>
       <c r="BR999" s="30"/>
       <c r="BS999" s="30"/>
@@ -58107,7 +58119,7 @@
       <c r="DM999" s="4"/>
       <c r="DN999" s="7"/>
     </row>
-    <row r="1000" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ1000" s="30"/>
       <c r="BR1000" s="30"/>
       <c r="BS1000" s="30"/>
@@ -58117,7 +58129,7 @@
       <c r="DM1000" s="4"/>
       <c r="DN1000" s="7"/>
     </row>
-    <row r="1001" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ1001" s="30"/>
       <c r="BR1001" s="30"/>
       <c r="BS1001" s="30"/>
@@ -58127,7 +58139,7 @@
       <c r="DM1001" s="4"/>
       <c r="DN1001" s="7"/>
     </row>
-    <row r="1002" spans="69:118" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="69:118" ht="24.75" customHeight="1">
       <c r="BQ1002" s="30"/>
       <c r="BR1002" s="30"/>
       <c r="BS1002" s="30"/>

--- a/analysis/data/lying_data.xlsx
+++ b/analysis/data/lying_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\School\2025\Spring 2025\INFO 698 - Capstone\GitHub Repo\misinformation-study\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13944FDE-DD20-4603-9E9F-4A6519F81214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67521766-F380-413E-AB5A-3F269203F7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -7947,7 +7947,7 @@
   <dimension ref="A1:DV1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="DN1" workbookViewId="0">
-      <selection activeCell="DS1" sqref="DS1"/>
+      <selection activeCell="DV1" sqref="DV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
